--- a/Model/Data/import.xlsx
+++ b/Model/Data/import.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="-31260" yWindow="-8360" windowWidth="28980" windowHeight="19560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="LA" sheetId="1" r:id="rId1"/>
-    <sheet name="all_variables" sheetId="2" r:id="rId2"/>
+    <sheet name="sensitivity" sheetId="3" r:id="rId2"/>
+    <sheet name="all_variables" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -25,6 +26,472 @@
     <author>Nick Laws</author>
   </authors>
   <commentList>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+used for learning curve sensitivity, location dependent</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+graphical</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+graphical, initialized with latest census value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+used for comparison plots</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+graphical</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+graphical</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+initialized with 2014 estimated value from PV permit data</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+used for comparison plots</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+currently not used (9/24)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+calibrated to produce correct fraction of utility costs from generatoin</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>these are time vectors, but we should not change them for each city? Perhaps have to switch to AUS dollars?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>these are time vectors, but we should not change them for each city? Perhaps have to switch to AUS dollars?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>these are time vectors, but we should not change them for each city? Perhaps have to switch to AUS dollars?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Needs to be vector for Australia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+new parameter for model</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Nick Laws</author>
+  </authors>
+  <commentList>
+    <comment ref="AC1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+addition to NPV</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+as function of (NPV+incentive)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+as function of (NPV+incentive)</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AX1" authorId="0">
       <text>
         <r>
@@ -45,7 +512,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Keep these in model as a switch?</t>
+graphical function</t>
         </r>
       </text>
     </comment>
@@ -69,151 +536,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Keep this in model as switch?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BC2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Laws:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>these are time vectors, but we should not change them for each city? Perhaps have to switch to AUS dollars?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BD2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Laws:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>these are time vectors, but we should not change them for each city? Perhaps have to switch to AUS dollars?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BE2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Laws:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>these are time vectors, but we should not change them for each city? Perhaps have to switch to AUS dollars?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Laws:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Needs to be vector for Australia</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Laws:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-new parameter for model</t>
+graphical function</t>
         </r>
       </text>
     </comment>
@@ -222,19 +545,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="174">
-  <si>
-    <t>regular_customers</t>
-  </si>
-  <si>
-    <t>households with PV</t>
-  </si>
-  <si>
-    <t>off-grid households (defectors)</t>
-  </si>
-  <si>
-    <t>annual base demand per home</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="174">
   <si>
     <t>low demand</t>
   </si>
@@ -245,12 +556,6 @@
     <t>annual reduction in demand</t>
   </si>
   <si>
-    <t>baseline_retail_price</t>
-  </si>
-  <si>
-    <t>annual PV production</t>
-  </si>
-  <si>
     <t>population growth rate</t>
   </si>
   <si>
@@ -731,9 +1036,6 @@
     <t>Initial values from export:</t>
   </si>
   <si>
-    <t>changed variable name in Stella model</t>
-  </si>
-  <si>
     <t>Expected Annual Cost PV</t>
   </si>
   <si>
@@ -744,13 +1046,38 @@
   </si>
   <si>
     <t>efficiency improvement of reg customers as % per year</t>
+  </si>
+  <si>
+    <t>check applicability to other locations</t>
+  </si>
+  <si>
+    <t>project lifetime NPV</t>
+  </si>
+  <si>
+    <t>scale factor B house attractiveness</t>
+  </si>
+  <si>
+    <t>util fixed cost growth rate % per year</t>
+  </si>
+  <si>
+    <t>wholesale price growth rate % per year</t>
+  </si>
+  <si>
+    <t>baseline wholesale elec price</t>
+  </si>
+  <si>
+    <t>annual PV production kWh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -794,6 +1121,14 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="12"/>
       <color theme="11"/>
@@ -822,7 +1157,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
+        <fgColor rgb="FFCCFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,21 +1171,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -888,12 +1237,25 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="26">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -904,6 +1266,20 @@
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1234,10 +1610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ET15"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="AZ2" sqref="AZ2:AZ3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1245,750 +1621,202 @@
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="12" max="13" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="22.33203125" customWidth="1"/>
     <col min="25" max="25" width="21.5" customWidth="1"/>
     <col min="26" max="26" width="22.5" customWidth="1"/>
     <col min="27" max="27" width="10" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="14.6640625" customWidth="1"/>
+    <col min="111" max="111" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="15" customWidth="1"/>
+    <col min="135" max="135" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="146" max="147" width="13.33203125" customWidth="1"/>
+    <col min="149" max="149" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:150" s="10" customFormat="1" ht="64" customHeight="1">
-      <c r="B1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AX1" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AY1" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AZ1" s="10" t="s">
+    <row r="1" spans="1:26" s="22" customFormat="1" ht="64" customHeight="1">
+      <c r="B1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="BA1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="BB1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="BC1" s="15" t="s">
+      <c r="G1" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="T1" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="U1" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="V1" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="W1" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="X1" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="BD1" s="15" t="s">
+      <c r="Y1" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="BE1" s="15" t="s">
+      <c r="Z1" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="BF1" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="BG1" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="BH1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="BI1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="BJ1" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="BK1" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="BL1" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="BM1" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="BN1" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BO1" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="BP1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="BQ1" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="BR1" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BS1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="BT1" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="BU1" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="BV1" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="BW1" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="BX1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="BY1" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="BZ1" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="CA1" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="CB1" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="CC1" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="CD1" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="CE1" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="CF1" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="CG1" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="CH1" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="CI1" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="CJ1" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="CK1" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="CL1" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="CM1" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CN1" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="CO1" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="CP1" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="CQ1" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="CR1" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="CS1" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="CT1" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="CU1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="CV1" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW1" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="CX1" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="CY1" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="CZ1" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="DA1" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="DB1" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="DC1" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="DD1" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="DE1" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="DF1" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="DG1" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="DH1" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="DI1" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="DJ1" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="DK1" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="DL1" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="DM1" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="DN1" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="DO1" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="DP1" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="DQ1" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="DR1" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="DS1" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="DT1" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="DU1" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="DV1" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="DW1" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="DX1" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="DY1" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="DZ1" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="EA1" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="EB1" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="EC1" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="ED1" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="EE1" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="EF1" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="EG1" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="EH1" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="EI1" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="EJ1" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="EK1" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="EL1" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="EM1" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="EN1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" t="s">
         <v>161</v>
-      </c>
-      <c r="EO1" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="EP1" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="EQ1" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="ER1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="ES1" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="ET1" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:150">
-      <c r="A2" t="s">
-        <v>167</v>
       </c>
       <c r="B2" s="7">
         <v>16648</v>
       </c>
-      <c r="D2" s="7">
+      <c r="C2" s="7">
         <v>14344</v>
       </c>
-      <c r="E2">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="F2" s="6">
+      <c r="E2" s="6">
         <v>3361031</v>
       </c>
-      <c r="W2" s="4">
+      <c r="F2" s="7">
         <v>12469</v>
       </c>
-      <c r="AA2" s="4">
-        <v>20.9</v>
-      </c>
-      <c r="AZ2" s="14">
-        <v>0.5</v>
+      <c r="G2" s="18">
+        <v>0.20899999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:150" s="14" customFormat="1" ht="28">
+    <row r="3" spans="1:26" s="14" customFormat="1" ht="28">
       <c r="A3" s="11" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B3" s="12">
         <v>16648</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="12">
+        <v>14344</v>
+      </c>
       <c r="D3" s="12">
-        <v>14344</v>
+        <v>1</v>
       </c>
       <c r="E3" s="12">
+        <v>3361031</v>
+      </c>
+      <c r="F3" s="21">
+        <v>12469</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="H3" s="14">
+        <v>300</v>
+      </c>
+      <c r="I3" s="14">
+        <v>100</v>
+      </c>
+      <c r="J3" s="14">
+        <v>400</v>
+      </c>
+      <c r="K3" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="L3" s="14">
         <v>1</v>
       </c>
-      <c r="F3" s="12">
-        <v>3361031</v>
-      </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13">
+      <c r="M3" s="15">
+        <v>5.8070739549799999E-3</v>
+      </c>
+      <c r="N3" s="14">
+        <v>-8.6623934258599992E-3</v>
+      </c>
+      <c r="O3" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="P3" s="14">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>1.0052617771100001</v>
+      </c>
+      <c r="R3" s="14">
+        <v>1.11563436994E-3</v>
+      </c>
+      <c r="S3" s="14">
+        <v>0</v>
+      </c>
+      <c r="T3" s="14">
+        <v>5.3900709219900002E-3</v>
+      </c>
+      <c r="U3" s="14">
+        <v>0.29580000000000001</v>
+      </c>
+      <c r="V3" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="W3" s="14">
+        <v>1000</v>
+      </c>
+      <c r="X3" s="14">
         <v>0.01</v>
       </c>
-      <c r="S3" s="14">
-        <v>7694.5725054699997</v>
-      </c>
-      <c r="W3" s="14">
-        <v>12469</v>
-      </c>
-      <c r="AA3" s="14">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="AC3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="14">
-        <v>-2.0963347512200001E-2</v>
-      </c>
-      <c r="AE3" s="14">
-        <v>-1.15206889603E-2</v>
-      </c>
-      <c r="AF3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="14">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="14">
-        <v>5</v>
-      </c>
-      <c r="AX3" s="14">
-        <v>2.30610932476E-4</v>
-      </c>
-      <c r="AY3" s="14">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="BA3" s="14">
-        <v>0.71805497590300005</v>
-      </c>
-      <c r="BB3" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="BC3" s="14">
-        <v>300</v>
-      </c>
-      <c r="BD3" s="14">
-        <v>100</v>
-      </c>
-      <c r="BE3" s="14">
-        <v>700</v>
-      </c>
-      <c r="BF3" s="14">
-        <v>2612.5</v>
-      </c>
-      <c r="BG3" s="14">
-        <v>1608.1656536400001</v>
-      </c>
-      <c r="BH3" s="14">
-        <v>3479.4319999999998</v>
-      </c>
-      <c r="BI3" s="14">
-        <v>2312.5</v>
-      </c>
-      <c r="BJ3" s="14">
-        <v>1508.1656536400001</v>
-      </c>
-      <c r="BK3" s="14">
-        <v>2779.4319999999998</v>
-      </c>
-      <c r="BL3" s="14">
-        <v>57051.68</v>
-      </c>
-      <c r="BM3" s="14">
-        <v>19295</v>
-      </c>
-      <c r="BN3" s="14">
-        <v>74803.08</v>
-      </c>
-      <c r="BO3" s="14">
-        <v>0.43531250568099999</v>
-      </c>
-      <c r="BP3" s="14">
-        <v>4.2677368141699999E-3</v>
-      </c>
-      <c r="BQ3" s="14">
-        <v>0.56468749431900001</v>
-      </c>
-      <c r="BR3" s="14">
-        <v>14039</v>
-      </c>
-      <c r="BS3" s="14">
-        <v>12138.4596568</v>
-      </c>
-      <c r="BT3" s="14">
-        <v>4572.2714616599997</v>
-      </c>
-      <c r="BU3" s="14">
-        <v>2890.3269393999999</v>
-      </c>
-      <c r="BV3" s="14">
-        <v>9647.5</v>
-      </c>
-      <c r="BW3" s="14">
-        <v>28525.84</v>
-      </c>
-      <c r="BX3" s="14">
-        <v>37401.54</v>
-      </c>
-      <c r="BY3" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="BZ3" s="14">
-        <v>12500</v>
-      </c>
-      <c r="CA3" s="14">
-        <v>0</v>
-      </c>
-      <c r="CB3" s="14">
-        <v>0</v>
-      </c>
-      <c r="CC3" s="14">
-        <v>1</v>
-      </c>
-      <c r="CD3" s="14">
-        <v>9647.5</v>
-      </c>
-      <c r="CE3" s="14">
-        <v>28525.84</v>
-      </c>
-      <c r="CF3" s="14">
-        <v>37401.54</v>
-      </c>
-      <c r="CG3" s="14">
-        <v>0</v>
-      </c>
-      <c r="CH3" s="14">
-        <v>0</v>
-      </c>
-      <c r="CI3" s="14">
-        <v>-38385.3999902</v>
-      </c>
-      <c r="CJ3" s="14">
-        <v>0</v>
-      </c>
-      <c r="CK3" s="14">
-        <v>2363.1223050899998</v>
-      </c>
-      <c r="CL3" s="14">
-        <v>-43500.927238800003</v>
-      </c>
-      <c r="CM3" s="14">
-        <v>0</v>
-      </c>
-      <c r="CN3" s="14">
-        <v>0</v>
-      </c>
-      <c r="CO3" s="14">
-        <v>7676.9937968499999</v>
-      </c>
-      <c r="CP3" s="14">
-        <v>22699.424382500001</v>
-      </c>
-      <c r="CQ3" s="14">
-        <v>29762.258675599998</v>
-      </c>
-      <c r="CR3" s="14">
-        <v>19687.616101899999</v>
-      </c>
-      <c r="CS3" s="14">
-        <v>12839.864392199999</v>
-      </c>
-      <c r="CT3" s="14">
-        <v>23662.871436699999</v>
-      </c>
-      <c r="CU3" s="14">
-        <v>5.8070739549799999E-3</v>
-      </c>
-      <c r="CV3" s="14">
-        <v>0</v>
-      </c>
-      <c r="CW3" s="14">
-        <v>-2363.1223050899998</v>
-      </c>
-      <c r="CX3" s="14">
-        <v>43500.927238800003</v>
-      </c>
-      <c r="CY3" s="14">
-        <v>0.65</v>
-      </c>
-      <c r="CZ3" s="14">
-        <v>0.97</v>
-      </c>
-      <c r="DA3" s="14">
-        <v>20</v>
-      </c>
-      <c r="DB3" s="14">
-        <v>20</v>
-      </c>
-      <c r="DC3" s="14">
-        <v>20</v>
-      </c>
-      <c r="DD3" s="14">
-        <v>-8.6623934258599992E-3</v>
-      </c>
-      <c r="DE3" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="DF3" s="14">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="DG3" s="14">
-        <v>1.0052617771100001</v>
-      </c>
-      <c r="DH3" s="14">
-        <v>1.11563436994E-3</v>
-      </c>
-      <c r="DI3" s="14">
-        <v>0</v>
-      </c>
-      <c r="DJ3" s="14">
-        <v>5.3900709219900002E-3</v>
-      </c>
-      <c r="DK3" s="14">
-        <v>0.29580000000000001</v>
-      </c>
-      <c r="DL3" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="DM3" s="14">
-        <v>0.61927573608399999</v>
-      </c>
-      <c r="DN3" s="14">
-        <v>0.23326656388399999</v>
-      </c>
-      <c r="DO3" s="14">
-        <v>0.14745770003200001</v>
-      </c>
-      <c r="DP3" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="DQ3" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="DR3" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="DS3" s="14">
-        <v>10</v>
-      </c>
-      <c r="DT3" s="14">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="DU3" s="14">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="DV3" s="14">
-        <v>1</v>
-      </c>
-      <c r="DW3" s="14">
-        <v>1</v>
-      </c>
-      <c r="DX3" s="14">
-        <v>1</v>
-      </c>
-      <c r="DY3" s="14">
-        <v>1</v>
-      </c>
-      <c r="DZ3" s="14">
-        <v>1</v>
-      </c>
-      <c r="EA3" s="14">
-        <v>1</v>
-      </c>
-      <c r="EB3" s="14">
-        <v>10</v>
-      </c>
-      <c r="EC3" s="14">
-        <v>10</v>
-      </c>
-      <c r="ED3" s="14">
-        <v>10</v>
-      </c>
-      <c r="EE3" s="14">
-        <v>2000000</v>
-      </c>
-      <c r="EF3" s="14">
-        <v>11.9317707257</v>
-      </c>
-      <c r="EG3" s="14">
-        <v>56064815036</v>
-      </c>
-      <c r="EH3" s="14">
-        <v>3375375</v>
-      </c>
-      <c r="EI3" s="14">
-        <v>19601.058057900002</v>
-      </c>
-      <c r="EJ3" s="14">
-        <v>3375376</v>
-      </c>
-      <c r="EK3" s="14">
-        <v>2</v>
-      </c>
-      <c r="EL3" s="14">
-        <v>1</v>
-      </c>
-      <c r="EM3" s="14">
-        <v>1</v>
-      </c>
-      <c r="EN3" s="14">
-        <v>6616751883.7299995</v>
-      </c>
-      <c r="EO3" s="14">
-        <v>5100794458.8000002</v>
-      </c>
-      <c r="EP3" s="14">
-        <v>1000</v>
-      </c>
-      <c r="EQ3" s="14">
+      <c r="Y3" s="14">
         <v>0.01</v>
       </c>
-      <c r="ER3" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="ES3" s="14">
+      <c r="Z3" s="15">
         <v>0.11799999999999999</v>
       </c>
-      <c r="ET3" s="14">
-        <v>0.128</v>
-      </c>
     </row>
-    <row r="4" spans="1:150" s="14" customFormat="1">
+    <row r="4" spans="1:26" s="14" customFormat="1">
       <c r="A4" s="11"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -2008,7 +1836,7 @@
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:150" s="14" customFormat="1">
+    <row r="5" spans="1:26" s="14" customFormat="1">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -2028,75 +1856,55 @@
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
     </row>
-    <row r="6" spans="1:150" ht="48" customHeight="1">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:26" ht="48" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="K6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="L6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="Q6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="7" spans="1:150" s="5" customFormat="1">
-      <c r="A7" s="6">
-        <v>3361031</v>
-      </c>
-      <c r="B7" s="7">
-        <v>14344</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
-        <v>16648</v>
-      </c>
+    <row r="7" spans="1:26" s="5" customFormat="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="7">
         <v>8310</v>
       </c>
@@ -2106,12 +1914,8 @@
       <c r="G7" s="8">
         <v>0.5</v>
       </c>
-      <c r="H7" s="4">
-        <v>20.9</v>
-      </c>
-      <c r="I7" s="4">
-        <v>12469</v>
-      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
       <c r="J7" s="8">
         <v>0.6</v>
       </c>
@@ -2124,14 +1928,19 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="14" spans="1:150">
+    <row r="14" spans="1:26">
       <c r="A14" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:150">
-      <c r="A15" s="16" t="s">
-        <v>169</v>
+    <row r="15" spans="1:26">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="17" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2150,11 +1959,215 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="R1:EM3"/>
+  <sheetViews>
+    <sheetView topLeftCell="EG1" workbookViewId="0">
+      <selection activeCell="EK1" sqref="EK1:EM3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="18:143" ht="90">
+      <c r="R1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ1" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="BL1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="CY1" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="CZ1" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="DA1" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="DS1" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="DU1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="DV1" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="DW1" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="DX1" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="DY1" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="DZ1" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="EA1" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="EB1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="EE1" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="EK1" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="EL1" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="EM1" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="18:143">
+      <c r="AZ2" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="18:143">
+      <c r="R3" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="AC3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="14">
+        <v>-2.0963347512200001E-2</v>
+      </c>
+      <c r="AE3" s="14">
+        <v>-1.15206889603E-2</v>
+      </c>
+      <c r="AI3" s="14">
+        <v>5</v>
+      </c>
+      <c r="AX3" s="14">
+        <v>2.30610932476E-4</v>
+      </c>
+      <c r="AY3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="BA3" s="14">
+        <v>0.71805497590300005</v>
+      </c>
+      <c r="BB3" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="BL3" s="14">
+        <v>57051.68</v>
+      </c>
+      <c r="BM3" s="14">
+        <v>19295</v>
+      </c>
+      <c r="BN3" s="14">
+        <v>74803.08</v>
+      </c>
+      <c r="CY3" s="14">
+        <v>0.65</v>
+      </c>
+      <c r="CZ3" s="14">
+        <v>0.97</v>
+      </c>
+      <c r="DA3" s="14">
+        <v>20</v>
+      </c>
+      <c r="DS3" s="14">
+        <v>10</v>
+      </c>
+      <c r="DU3" s="20">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="DV3" s="14">
+        <v>1</v>
+      </c>
+      <c r="DW3" s="14">
+        <v>1</v>
+      </c>
+      <c r="DX3" s="14">
+        <v>1</v>
+      </c>
+      <c r="DY3" s="14">
+        <v>1</v>
+      </c>
+      <c r="DZ3" s="14">
+        <v>1</v>
+      </c>
+      <c r="EA3" s="14">
+        <v>1</v>
+      </c>
+      <c r="EB3" s="14">
+        <v>10</v>
+      </c>
+      <c r="EE3" s="21">
+        <v>2000000</v>
+      </c>
+      <c r="EK3" s="14">
+        <v>2</v>
+      </c>
+      <c r="EL3" s="14">
+        <v>1</v>
+      </c>
+      <c r="EM3" s="14">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ET1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="BJ1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2168,454 +2181,454 @@
   <sheetData>
     <row r="1" spans="1:150" s="10" customFormat="1" ht="64" customHeight="1">
       <c r="A1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="W1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="AB1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="AC1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="AD1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="AE1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AK1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AL1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AM1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AN1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AO1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AP1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AQ1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AR1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="AM1" s="10" t="s">
+      <c r="AS1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="AN1" s="10" t="s">
+      <c r="AT1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AO1" s="10" t="s">
+      <c r="AU1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="AP1" s="10" t="s">
+      <c r="AV1" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AQ1" s="10" t="s">
+      <c r="AW1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AR1" s="10" t="s">
+      <c r="AX1" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AS1" s="10" t="s">
+      <c r="AY1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AT1" s="10" t="s">
+      <c r="AZ1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AU1" s="10" t="s">
+      <c r="BA1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="AV1" s="10" t="s">
+      <c r="BB1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="AW1" s="10" t="s">
+      <c r="BC1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AX1" s="10" t="s">
+      <c r="BD1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AY1" s="10" t="s">
+      <c r="BE1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AZ1" s="10" t="s">
+      <c r="BF1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="BA1" s="10" t="s">
+      <c r="BG1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="BB1" s="10" t="s">
+      <c r="BH1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="BC1" s="10" t="s">
+      <c r="BI1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="BD1" s="10" t="s">
+      <c r="BJ1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="BE1" s="10" t="s">
+      <c r="BK1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="BF1" s="10" t="s">
+      <c r="BL1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="BG1" s="10" t="s">
+      <c r="BM1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="BH1" s="10" t="s">
+      <c r="BN1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="BI1" s="10" t="s">
+      <c r="BO1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="BJ1" s="10" t="s">
+      <c r="BP1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="BK1" s="10" t="s">
+      <c r="BQ1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="BL1" s="10" t="s">
+      <c r="BR1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="BM1" s="10" t="s">
+      <c r="BS1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="BN1" s="10" t="s">
+      <c r="BT1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="BO1" s="10" t="s">
+      <c r="BU1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="BP1" s="10" t="s">
+      <c r="BV1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="BQ1" s="10" t="s">
+      <c r="BW1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="BR1" s="10" t="s">
+      <c r="BX1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="BS1" s="10" t="s">
+      <c r="BY1" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="BT1" s="10" t="s">
+      <c r="BZ1" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="BU1" s="10" t="s">
+      <c r="CA1" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="BV1" s="10" t="s">
+      <c r="CB1" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="BW1" s="10" t="s">
+      <c r="CC1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="BX1" s="10" t="s">
+      <c r="CD1" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="BY1" s="10" t="s">
+      <c r="CE1" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="BZ1" s="10" t="s">
+      <c r="CF1" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="CA1" s="10" t="s">
+      <c r="CG1" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="CB1" s="10" t="s">
+      <c r="CH1" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="CC1" s="10" t="s">
+      <c r="CI1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="CD1" s="10" t="s">
+      <c r="CJ1" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="CE1" s="10" t="s">
+      <c r="CK1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="CF1" s="10" t="s">
+      <c r="CL1" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="CG1" s="10" t="s">
+      <c r="CM1" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="CH1" s="10" t="s">
+      <c r="CN1" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="CI1" s="10" t="s">
+      <c r="CO1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="CJ1" s="10" t="s">
+      <c r="CP1" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="CK1" s="10" t="s">
+      <c r="CQ1" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="CL1" s="10" t="s">
+      <c r="CR1" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="CM1" s="10" t="s">
+      <c r="CS1" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="CN1" s="10" t="s">
+      <c r="CT1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="CO1" s="10" t="s">
+      <c r="CU1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="CV1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="CP1" s="10" t="s">
+      <c r="CW1" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="CQ1" s="10" t="s">
+      <c r="CX1" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="CR1" s="10" t="s">
+      <c r="CY1" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="CS1" s="10" t="s">
+      <c r="CZ1" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="CT1" s="10" t="s">
+      <c r="DA1" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="CU1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="CV1" s="10" t="s">
+      <c r="DB1" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="CW1" s="10" t="s">
+      <c r="DC1" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="CX1" s="10" t="s">
+      <c r="DD1" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="CY1" s="10" t="s">
+      <c r="DE1" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="CZ1" s="10" t="s">
+      <c r="DF1" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="DA1" s="10" t="s">
+      <c r="DG1" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="DB1" s="10" t="s">
+      <c r="DH1" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="DC1" s="10" t="s">
+      <c r="DI1" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="DD1" s="10" t="s">
+      <c r="DJ1" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="DE1" s="10" t="s">
+      <c r="DK1" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="DF1" s="10" t="s">
+      <c r="DL1" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="DG1" s="10" t="s">
+      <c r="DM1" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="DH1" s="10" t="s">
+      <c r="DN1" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="DI1" s="10" t="s">
+      <c r="DO1" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="DJ1" s="10" t="s">
+      <c r="DP1" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="DK1" s="10" t="s">
+      <c r="DQ1" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="DL1" s="10" t="s">
+      <c r="DR1" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="DM1" s="10" t="s">
+      <c r="DS1" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="DN1" s="10" t="s">
+      <c r="DT1" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="DO1" s="10" t="s">
+      <c r="DU1" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="DP1" s="10" t="s">
+      <c r="DV1" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="DQ1" s="10" t="s">
+      <c r="DW1" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="DR1" s="10" t="s">
+      <c r="DX1" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="DS1" s="10" t="s">
+      <c r="DY1" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="DT1" s="10" t="s">
+      <c r="DZ1" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="DU1" s="10" t="s">
+      <c r="EA1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="DV1" s="10" t="s">
+      <c r="EB1" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="DW1" s="10" t="s">
+      <c r="EC1" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="DX1" s="10" t="s">
+      <c r="ED1" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="DY1" s="10" t="s">
+      <c r="EE1" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="DZ1" s="10" t="s">
+      <c r="EF1" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="EA1" s="10" t="s">
+      <c r="EG1" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="EB1" s="10" t="s">
+      <c r="EH1" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="EC1" s="10" t="s">
+      <c r="EI1" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="ED1" s="10" t="s">
+      <c r="EJ1" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="EE1" s="10" t="s">
+      <c r="EK1" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="EF1" s="10" t="s">
+      <c r="EL1" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="EG1" s="10" t="s">
+      <c r="EM1" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="EH1" s="10" t="s">
+      <c r="EN1" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="EI1" s="10" t="s">
+      <c r="EO1" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="EJ1" s="10" t="s">
+      <c r="EP1" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="EK1" s="10" t="s">
+      <c r="EQ1" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="EL1" s="10" t="s">
+      <c r="ER1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="ES1" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="EM1" s="10" t="s">
+      <c r="ET1" s="10" t="s">
         <v>160</v>
-      </c>
-      <c r="EN1" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="EO1" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="EP1" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="EQ1" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="ER1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="ES1" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="ET1" s="10" t="s">
-        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Model/Data/import.xlsx
+++ b/Model/Data/import.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-31260" yWindow="-8360" windowWidth="28980" windowHeight="19560" tabRatio="500"/>
+    <workbookView xWindow="-36780" yWindow="-7220" windowWidth="32000" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LA" sheetId="1" r:id="rId1"/>
-    <sheet name="sensitivity" sheetId="3" r:id="rId2"/>
-    <sheet name="all_variables" sheetId="2" r:id="rId3"/>
+    <sheet name="Boulder" sheetId="4" r:id="rId2"/>
+    <sheet name="sensitivity" sheetId="3" r:id="rId3"/>
+    <sheet name="all_variables" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
     <author>Nick Laws</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,11 +47,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-used for learning curve sensitivity, location dependent</t>
+calibrated to produce correct fraction of utility costs from generation</t>
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,11 +71,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-graphical</t>
+graphical, initialized with latest census value. Assumed to drop with time for LA</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,11 +95,12 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-graphical, initialized with latest census value</t>
+used for learning curve sensitivity, location dependent
+currently not used</t>
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -118,31 +120,83 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-used for comparison plots</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Laws:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-graphical</t>
+(graphical s-curve) 
+function of (customers_with_PV+defectors)
+/ (total_households+1)
+This function slows the rate of solar adoption as the ratio of </t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>homes with PV</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (including defectors) to</t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> total homes</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> approaches  the ratio of </t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>owner occupied homes</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> to </t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>total homes</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>. This limit on the number of homes with PV is placed in the model under the assumption that renters and landlords are unlikely to install PV systems on rental units.
+LA has ~50% rental fraction</t>
         </r>
       </text>
     </comment>
@@ -156,6 +210,33 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve">Nick Laws:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>function of ( NPV - INIT(NPV) )+incentive.
+Initial value of PV innovation rate set to 0.5% of regular customers per year 
+Assumed to grow linearly to 5% when NPV reaches $10,000 greater than NPV in 2015
+(0.5% value estimated using Census values and reported PV installations by Souther California Edison)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
           <t>Nick Laws:</t>
         </r>
         <r>
@@ -166,7 +247,9 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-graphical</t>
+graphical function of NPV + incentive
+Assumed to be 0.1% of existing PV customers per year for a $2,000 NPV. 
+Grows linearly to 0.4% for NPV = $10,000</t>
         </r>
       </text>
     </comment>
@@ -180,17 +263,21 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Nick Laws:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-initialized with 2014 estimated value from PV permit data</t>
+          <t xml:space="preserve">Nick Laws:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Graphical function of NPV+incentive
+Battery innovation rate is assumed to be 
+0.1% of existing offgrid customers per year for the initial NPV. 
+Grows linearly to 0.5% for a $10,000 increase in NPV from the initial NPV.
+</t>
         </r>
       </text>
     </comment>
@@ -204,17 +291,20 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Nick Laws:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-used for comparison plots</t>
+          <t xml:space="preserve">Nick Laws:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Graphical function of NPV + incentive
+Battery imitation rate is assumed to be 
+0.1% of existing PV customers per year for a $2,000 NPV. 
+Grows linearly to 0.4% for NPV = $10,000</t>
         </r>
       </text>
     </comment>
@@ -228,6 +318,34 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve">Nick Laws:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Graphical function of NPV+incentive
+Pv&amp;Battery innovation rate is assumed to be 
+0.1% of existing offgrid customers per year for zero NPV+incentive. 
+Grows linearly to 0.5% for a $10,000  NPV+incentive.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
           <t>Nick Laws:</t>
         </r>
         <r>
@@ -238,7 +356,58 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-currently not used (9/24)</t>
+Graphical function of NPV + incentive
+PV&amp;Battery imitation rate is assumed to be 
+0.1% of existing PV customers per year for a $2,000 NPV. 
+Grows linearly to 0.4% for NPV = $10,000</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+used for comparison plots</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+used for comparison plots</t>
         </r>
       </text>
     </comment>
@@ -262,11 +431,14 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-calibrated to produce correct fraction of utility costs from generatoin</t>
+graphical function of (customers_with_PV+defectors)
+/ total_households
+Increases PV adoption through imitation as the number of homes with PV systems increases.
+Starts as 1 (no effect) with no PV homes. Grows linearly to 2 as all homes become PV homes</t>
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="K2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -295,118 +467,6 @@
             <rFont val="Calibri"/>
           </rPr>
           <t>these are time vectors, but we should not change them for each city? Perhaps have to switch to AUS dollars?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Laws:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>these are time vectors, but we should not change them for each city? Perhaps have to switch to AUS dollars?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Laws:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>these are time vectors, but we should not change them for each city? Perhaps have to switch to AUS dollars?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Laws:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Needs to be vector for Australia</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Laws:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-new parameter for model</t>
         </r>
       </text>
     </comment>
@@ -420,7 +480,7 @@
     <author>Nick Laws</author>
   </authors>
   <commentList>
-    <comment ref="AC1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -440,11 +500,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-addition to NPV</t>
+calibrated to produce correct fraction of utility costs from generation</t>
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -464,11 +524,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-as function of (NPV+incentive)</t>
+graphical, initialized with latest census value. Assumed to drop with time for LA</t>
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -488,11 +548,392 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-as function of (NPV+incentive)</t>
+used for learning curve sensitivity, location dependent
+currently not used</t>
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0">
+    <comment ref="O1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+(graphical s-curve) 
+function of (customers_with_PV+defectors)
+/ (total_households+1)
+This function slows the rate of solar adoption as the ratio of </t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>homes with PV</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (including defectors) to</t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> total homes</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> approaches  the ratio of </t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>owner occupied homes</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> to </t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>total homes</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>. This limit on the number of homes with PV is placed in the model under the assumption that renters and landlords are unlikely to install PV systems on rental units.
+LA has ~50% rental fraction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nick Laws:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>function of ( NPV - INIT(NPV) )+incentive.
+Initial value of PV innovation rate set to 0.5% of regular customers per year 
+Assumed to grow linearly to 5% when NPV reaches $10,000 greater than NPV in 2015
+(0.5% value estimated using Census values and reported PV installations by Souther California Edison)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+graphical function of NPV + incentive
+Assumed to be 0.1% of existing PV customers per year for a $2,000 NPV. 
+Grows linearly to 0.4% for NPV = $10,000</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nick Laws:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Graphical function of NPV+incentive
+Battery innovation rate is assumed to be 
+0.1% of existing offgrid customers per year for the initial NPV. 
+Grows linearly to 0.5% for a $10,000 increase in NPV from the initial NPV.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nick Laws:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Graphical function of NPV + incentive
+Battery imitation rate is assumed to be 
+0.1% of existing PV customers per year for a $2,000 NPV. 
+Grows linearly to 0.4% for NPV = $10,000</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nick Laws:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Graphical function of NPV+incentive
+Pv&amp;Battery innovation rate is assumed to be 
+0.1% of existing offgrid customers per year for zero NPV+incentive. 
+Grows linearly to 0.5% for a $10,000  NPV+incentive.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Graphical function of NPV + incentive
+PV&amp;Battery imitation rate is assumed to be 
+0.1% of existing PV customers per year for a $2,000 NPV. 
+Grows linearly to 0.4% for NPV = $10,000</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+used for comparison plots</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+used for comparison plots</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+graphical function of (customers_with_PV+defectors)
+/ total_households
+Increases PV adoption through imitation as the number of homes with PV systems increases.
+Starts as 1 (no effect) with no PV homes. Grows linearly to 2 as all homes become PV homes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>these are time vectors, but we should not change them for each city? Perhaps have to switch to AUS dollars?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Nick Laws</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -516,7 +957,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -545,47 +986,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="174">
-  <si>
-    <t>low demand</t>
-  </si>
-  <si>
-    <t>high demand</t>
-  </si>
-  <si>
-    <t>annual reduction in demand</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="165">
   <si>
     <t>population growth rate</t>
   </si>
   <si>
-    <t>Cost of PV and batteries</t>
-  </si>
-  <si>
-    <t>utility incremental fixed cost per new PV home</t>
-  </si>
-  <si>
-    <t>utility incremental fixed cost per new regular home</t>
-  </si>
-  <si>
     <t>wholesale price growth rate</t>
   </si>
   <si>
-    <t>fraction of utility costs from generation</t>
-  </si>
-  <si>
-    <t>net present value</t>
-  </si>
-  <si>
-    <t>adoption rates x6 (see Figure 5)</t>
-  </si>
-  <si>
-    <t>houses being built</t>
-  </si>
-  <si>
-    <t>percentage - check that these are consistent in model</t>
-  </si>
-  <si>
     <t>Years</t>
   </si>
   <si>
@@ -1033,9 +1441,6 @@
     <t>Inputs:</t>
   </si>
   <si>
-    <t>Initial values from export:</t>
-  </si>
-  <si>
     <t>Expected Annual Cost PV</t>
   </si>
   <si>
@@ -1067,17 +1472,27 @@
   </si>
   <si>
     <t>annual PV production kWh</t>
+  </si>
+  <si>
+    <t>battery imitation rate</t>
+  </si>
+  <si>
+    <t>not changed from LA</t>
+  </si>
+  <si>
+    <t>Note: this is a one time export. Some variable names have changed (for clarity)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1094,14 +1509,6 @@
     <font>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1141,6 +1548,24 @@
       <color indexed="81"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1151,13 +1576,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFCCFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,35 +1596,71 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="26">
+  <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1207,23 +1668,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1238,24 +1686,88 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="26">
+  <cellStyles count="62">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1280,6 +1792,42 @@
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1610,343 +2158,1207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:AC38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="12" max="13" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.33203125" customWidth="1"/>
-    <col min="25" max="25" width="21.5" customWidth="1"/>
-    <col min="26" max="26" width="22.5" customWidth="1"/>
-    <col min="27" max="27" width="10" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="14.6640625" customWidth="1"/>
-    <col min="111" max="111" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="15" customWidth="1"/>
-    <col min="135" max="135" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="146" max="147" width="13.33203125" customWidth="1"/>
-    <col min="149" max="149" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.33203125" customWidth="1"/>
+    <col min="27" max="27" width="13.33203125" customWidth="1"/>
+    <col min="28" max="28" width="22.33203125" customWidth="1"/>
+    <col min="29" max="29" width="21.5" customWidth="1"/>
+    <col min="30" max="30" width="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14.6640625" customWidth="1"/>
+    <col min="114" max="114" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="15" customWidth="1"/>
+    <col min="138" max="138" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="149" max="150" width="13.33203125" customWidth="1"/>
+    <col min="152" max="152" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="22" customFormat="1" ht="64" customHeight="1">
-      <c r="B1" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="M1" s="22" t="s">
+    <row r="1" spans="1:29" s="16" customFormat="1" ht="64" customHeight="1">
+      <c r="B1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="T1" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="U1" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="V1" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="W1" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="X1" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y1" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z1" s="22" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
-      <c r="A2" t="s">
+      <c r="F1" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="7">
+      <c r="G1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="35" customFormat="1">
+      <c r="A2" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="36">
+        <v>3361031</v>
+      </c>
+      <c r="C2" s="23">
+        <v>14344</v>
+      </c>
+      <c r="D2" s="35">
+        <v>1</v>
+      </c>
+      <c r="E2" s="23">
         <v>16648</v>
       </c>
-      <c r="C2" s="7">
-        <v>14344</v>
-      </c>
-      <c r="D2">
+      <c r="F2" s="23">
+        <v>12469</v>
+      </c>
+      <c r="G2" s="37">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="I2" s="25">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J2" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K2" s="19">
+        <v>300</v>
+      </c>
+      <c r="L2" s="20">
+        <v>100</v>
+      </c>
+      <c r="M2" s="20">
+        <v>400</v>
+      </c>
+      <c r="N2" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="O2" s="30">
         <v>1</v>
       </c>
-      <c r="E2" s="6">
-        <v>3361031</v>
-      </c>
-      <c r="F2" s="7">
-        <v>12469</v>
-      </c>
-      <c r="G2" s="18">
-        <v>0.20899999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" s="14" customFormat="1" ht="28">
-      <c r="A3" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" s="12">
-        <v>16648</v>
-      </c>
-      <c r="C3" s="12">
-        <v>14344</v>
-      </c>
-      <c r="D3" s="12">
+      <c r="P2" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="35">
+        <v>0</v>
+      </c>
+      <c r="R2" s="38">
+        <v>5.3900709219858204E-3</v>
+      </c>
+      <c r="S2" s="25">
+        <v>0</v>
+      </c>
+      <c r="T2" s="25">
+        <v>8.1560283687943296E-4</v>
+      </c>
+      <c r="U2" s="25">
+        <v>3.3444816053511699E-5</v>
+      </c>
+      <c r="V2" s="25">
+        <v>1E-3</v>
+      </c>
+      <c r="W2" s="25">
+        <v>6.6889632107023397E-5</v>
+      </c>
+      <c r="X2" s="30">
+        <v>0.29580000000000001</v>
+      </c>
+      <c r="Y2" s="30">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="Z2" s="40">
         <v>1</v>
       </c>
-      <c r="E3" s="12">
-        <v>3361031</v>
-      </c>
-      <c r="F3" s="21">
-        <v>12469</v>
-      </c>
-      <c r="G3" s="15">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="H3" s="14">
-        <v>300</v>
-      </c>
-      <c r="I3" s="14">
-        <v>100</v>
-      </c>
-      <c r="J3" s="14">
-        <v>400</v>
-      </c>
-      <c r="K3" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="L3" s="14">
+      <c r="AA2" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AB2" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AC2" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="9" customFormat="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="10"/>
+      <c r="I3" s="26">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K3" s="20">
+        <v>300</v>
+      </c>
+      <c r="L3" s="15">
+        <v>100</v>
+      </c>
+      <c r="M3" s="15">
+        <v>400</v>
+      </c>
+      <c r="O3" s="31">
         <v>1</v>
       </c>
-      <c r="M3" s="15">
-        <v>5.8070739549799999E-3</v>
-      </c>
-      <c r="N3" s="14">
-        <v>-8.6623934258599992E-3</v>
-      </c>
-      <c r="O3" s="15">
-        <v>1E-3</v>
-      </c>
-      <c r="P3" s="14">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="Q3" s="14">
-        <v>1.0052617771100001</v>
-      </c>
-      <c r="R3" s="14">
-        <v>1.11563436994E-3</v>
-      </c>
-      <c r="S3" s="14">
-        <v>0</v>
-      </c>
-      <c r="T3" s="14">
-        <v>5.3900709219900002E-3</v>
-      </c>
-      <c r="U3" s="14">
-        <v>0.29580000000000001</v>
-      </c>
-      <c r="V3" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="W3" s="14">
-        <v>1000</v>
-      </c>
-      <c r="X3" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="Y3" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="Z3" s="15">
-        <v>0.11799999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" s="14" customFormat="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
+      <c r="R3" s="10">
+        <v>8.6879432624113496E-3</v>
+      </c>
+      <c r="S3" s="26">
+        <v>5.0167224080267597E-4</v>
+      </c>
+      <c r="T3" s="26">
+        <v>1.3829787234042601E-3</v>
+      </c>
+      <c r="U3" s="26">
+        <v>3.3444816053511699E-4</v>
+      </c>
+      <c r="V3" s="26">
+        <v>1.4886731391585801E-3</v>
+      </c>
+      <c r="W3" s="26">
+        <v>2.6755852842809402E-4</v>
+      </c>
+      <c r="X3" s="9">
+        <v>0.28089999999999998</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="Z3" s="41">
+        <v>1.12380952380952</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="9" customFormat="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="I4" s="27">
+        <v>5.8842443729903498E-3</v>
+      </c>
       <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-    </row>
-    <row r="5" spans="1:26" s="14" customFormat="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+      <c r="K4" s="21">
+        <v>300</v>
+      </c>
+      <c r="L4" s="15">
+        <v>100</v>
+      </c>
+      <c r="M4" s="15">
+        <v>400</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="32">
+        <v>1</v>
+      </c>
+      <c r="R4" s="10">
+        <v>1.0638297872340399E-2</v>
+      </c>
+      <c r="S4" s="27">
+        <v>9.6989966555183996E-4</v>
+      </c>
+      <c r="T4" s="27">
+        <v>1.70212765957447E-3</v>
+      </c>
+      <c r="U4" s="27">
+        <v>7.6923076923076901E-4</v>
+      </c>
+      <c r="V4" s="27">
+        <v>1.94174757281553E-3</v>
+      </c>
+      <c r="W4" s="27">
+        <v>5.6856187290969904E-4</v>
+      </c>
+      <c r="X4" s="9">
+        <v>0.22259999999999999</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="Z4" s="42">
+        <v>1.2253968253968299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="9" customFormat="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="I5" s="27">
+        <v>5.8070739549839203E-3</v>
+      </c>
       <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-    </row>
-    <row r="6" spans="1:26" ht="48" customHeight="1">
+      <c r="K5" s="21">
+        <v>300</v>
+      </c>
+      <c r="L5" s="15">
+        <v>100</v>
+      </c>
+      <c r="M5" s="15">
+        <v>400</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="32">
+        <v>0.98936170212765995</v>
+      </c>
+      <c r="R5" s="10">
+        <v>1.24113475177305E-2</v>
+      </c>
+      <c r="S5" s="27">
+        <v>1.3712374581939799E-3</v>
+      </c>
+      <c r="T5" s="27">
+        <v>1.87943262411348E-3</v>
+      </c>
+      <c r="U5" s="27">
+        <v>1.10367892976589E-3</v>
+      </c>
+      <c r="V5" s="27">
+        <v>2.2330097087378598E-3</v>
+      </c>
+      <c r="W5" s="27">
+        <v>9.3645484949832799E-4</v>
+      </c>
+      <c r="X5" s="9">
+        <v>0.20979999999999999</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="Z5" s="42">
+        <v>1.35238095238095</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" s="5" customFormat="1">
+      <c r="I6" s="28">
+        <v>5.6141479099678501E-3</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="22">
+        <v>300</v>
+      </c>
+      <c r="L6" s="15">
+        <v>100</v>
+      </c>
+      <c r="M6" s="15">
+        <v>400</v>
+      </c>
+      <c r="O6" s="30">
+        <v>0.97163120567375905</v>
+      </c>
+      <c r="R6" s="24">
+        <v>1.3829787234042599E-2</v>
+      </c>
+      <c r="S6" s="28">
+        <v>1.7391304347826101E-3</v>
+      </c>
+      <c r="T6" s="28">
+        <v>2.1985815602836899E-3</v>
+      </c>
+      <c r="U6" s="28">
+        <v>1.60535117056856E-3</v>
+      </c>
+      <c r="V6" s="28">
+        <v>2.5889967637540501E-3</v>
+      </c>
+      <c r="W6" s="28">
+        <v>1.3712374581939799E-3</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0.19389999999999999</v>
+      </c>
+      <c r="Y6" s="18">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="Z6" s="43">
+        <v>1.4539682539682499</v>
+      </c>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+    </row>
+    <row r="7" spans="1:29" s="4" customFormat="1">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="7">
-        <v>8310</v>
-      </c>
-      <c r="F7" s="7">
-        <v>26195</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="17" t="s">
-        <v>167</v>
+      <c r="E7" s="48"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="29">
+        <v>5.3440514469453399E-3</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="23">
+        <v>300</v>
+      </c>
+      <c r="L7" s="15">
+        <v>100</v>
+      </c>
+      <c r="M7" s="15">
+        <v>400</v>
+      </c>
+      <c r="O7" s="30">
+        <v>0.95390070921985803</v>
+      </c>
+      <c r="R7" s="24">
+        <v>1.5957446808510599E-2</v>
+      </c>
+      <c r="S7" s="29">
+        <v>2.10702341137124E-3</v>
+      </c>
+      <c r="T7" s="29">
+        <v>2.5177304964538998E-3</v>
+      </c>
+      <c r="U7" s="29">
+        <v>2.0066889632107E-3</v>
+      </c>
+      <c r="V7" s="29">
+        <v>2.8478964401294502E-3</v>
+      </c>
+      <c r="W7" s="29">
+        <v>1.7725752508361201E-3</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0.18640000000000001</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Z7" s="44">
+        <v>1.5492063492063499</v>
+      </c>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="I8" s="25">
+        <v>5.0739549839228298E-3</v>
+      </c>
+      <c r="K8" s="19">
+        <v>300</v>
+      </c>
+      <c r="L8" s="15">
+        <v>100</v>
+      </c>
+      <c r="M8" s="15">
+        <v>400</v>
+      </c>
+      <c r="O8" s="30">
+        <v>0.91843971631205701</v>
+      </c>
+      <c r="R8" s="24">
+        <v>1.89716312056738E-2</v>
+      </c>
+      <c r="S8" s="25">
+        <v>2.4414715719063501E-3</v>
+      </c>
+      <c r="T8" s="25">
+        <v>2.9432624113475202E-3</v>
+      </c>
+      <c r="U8" s="25">
+        <v>2.5083612040133802E-3</v>
+      </c>
+      <c r="V8" s="25">
+        <v>3.20388349514563E-3</v>
+      </c>
+      <c r="W8" s="25">
+        <v>2.2408026755852801E-3</v>
+      </c>
+      <c r="X8" s="4">
+        <v>0.1799</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="Z8" s="40">
+        <v>1.6317460317460299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="I9" s="25">
+        <v>4.6881028938906798E-3</v>
+      </c>
+      <c r="K9" s="19">
+        <v>300</v>
+      </c>
+      <c r="L9" s="15">
+        <v>100</v>
+      </c>
+      <c r="M9" s="15">
+        <v>400</v>
+      </c>
+      <c r="O9" s="30">
+        <v>0.879432624113475</v>
+      </c>
+      <c r="R9" s="24">
+        <v>2.2163120567375901E-2</v>
+      </c>
+      <c r="S9" s="25">
+        <v>2.9096989966555199E-3</v>
+      </c>
+      <c r="T9" s="25">
+        <v>3.43971631205674E-3</v>
+      </c>
+      <c r="U9" s="25">
+        <v>2.9765886287625399E-3</v>
+      </c>
+      <c r="V9" s="25">
+        <v>3.5922330097087401E-3</v>
+      </c>
+      <c r="W9" s="25">
+        <v>2.7090301003344498E-3</v>
+      </c>
+      <c r="X9" s="4">
+        <v>0.17349999999999999</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>0.505</v>
+      </c>
+      <c r="Z9" s="40">
+        <v>1.6952380952381001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="I10" s="25">
+        <v>4.1093247588424404E-3</v>
+      </c>
+      <c r="K10" s="19">
+        <v>300</v>
+      </c>
+      <c r="L10" s="15">
+        <v>100</v>
+      </c>
+      <c r="M10" s="15">
+        <v>400</v>
+      </c>
+      <c r="O10" s="30">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="R10" s="24">
+        <v>2.4468085106383E-2</v>
+      </c>
+      <c r="S10" s="25">
+        <v>3.24414715719064E-3</v>
+      </c>
+      <c r="T10" s="25">
+        <v>4.1134751773049599E-3</v>
+      </c>
+      <c r="U10" s="25">
+        <v>3.3779264214046801E-3</v>
+      </c>
+      <c r="V10" s="25">
+        <v>4.1100323624595498E-3</v>
+      </c>
+      <c r="W10" s="25">
+        <v>3.17725752508361E-3</v>
+      </c>
+      <c r="X10" s="4">
+        <v>0.16489999999999999</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="Z10" s="40">
+        <v>1.7904761904761901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="I11" s="25">
+        <v>3.6077170418006401E-3</v>
+      </c>
+      <c r="K11" s="19">
+        <v>300</v>
+      </c>
+      <c r="L11" s="15">
+        <v>100</v>
+      </c>
+      <c r="M11" s="15">
+        <v>400</v>
+      </c>
+      <c r="O11" s="30">
+        <v>0.78723404255319196</v>
+      </c>
+      <c r="R11" s="24">
+        <v>2.73049645390071E-2</v>
+      </c>
+      <c r="S11" s="25">
+        <v>3.5785953177257502E-3</v>
+      </c>
+      <c r="T11" s="25">
+        <v>4.4680851063829798E-3</v>
+      </c>
+      <c r="U11" s="25">
+        <v>3.7792642140468198E-3</v>
+      </c>
+      <c r="V11" s="25">
+        <v>4.6601941747572801E-3</v>
+      </c>
+      <c r="W11" s="25">
+        <v>3.6454849498327802E-3</v>
+      </c>
+      <c r="X11" s="4">
+        <v>0.16159999999999999</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="Z11" s="40">
+        <v>1.89206349206349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="I12" s="25">
+        <v>2.9710610932475899E-3</v>
+      </c>
+      <c r="K12" s="19">
+        <v>300</v>
+      </c>
+      <c r="L12" s="15">
+        <v>100</v>
+      </c>
+      <c r="M12" s="15">
+        <v>400</v>
+      </c>
+      <c r="O12" s="30">
+        <v>0.70567375886524797</v>
+      </c>
+      <c r="R12" s="24">
+        <v>3.0496453900709201E-2</v>
+      </c>
+      <c r="S12" s="25">
+        <v>4.0133779264214103E-3</v>
+      </c>
+      <c r="T12" s="25">
+        <v>5.1063829787233997E-3</v>
+      </c>
+      <c r="U12" s="25">
+        <v>4.2809364548495E-3</v>
+      </c>
+      <c r="V12" s="25">
+        <v>5.2427184466019398E-3</v>
+      </c>
+      <c r="W12" s="25">
+        <v>4.0802675585284304E-3</v>
+      </c>
+      <c r="X12" s="4">
+        <v>0.15740000000000001</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="Z12" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="K13" s="19">
+        <v>300</v>
+      </c>
+      <c r="L13" s="15">
+        <v>100</v>
+      </c>
+      <c r="M13" s="15">
+        <v>400</v>
+      </c>
+      <c r="O13" s="30">
+        <v>0.62411347517730498</v>
+      </c>
+      <c r="R13" s="24">
+        <v>3.2269503546099303E-2</v>
+      </c>
+      <c r="X13" s="4">
+        <v>0.152</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>0.42399999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="K14" s="19">
+        <v>300</v>
+      </c>
+      <c r="L14" s="15">
+        <v>100</v>
+      </c>
+      <c r="M14" s="15">
+        <v>400</v>
+      </c>
+      <c r="O14" s="30">
+        <v>0.46099290780141799</v>
+      </c>
+      <c r="R14" s="24">
+        <v>3.5106382978723399E-2</v>
+      </c>
+      <c r="X14" s="4">
+        <v>0.153</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>0.41199999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="K15" s="19">
+        <v>300</v>
+      </c>
+      <c r="L15" s="15">
+        <v>100</v>
+      </c>
+      <c r="M15" s="15">
+        <v>400</v>
+      </c>
+      <c r="O15" s="30">
+        <v>0.28723404255319201</v>
+      </c>
+      <c r="R15" s="24">
+        <v>3.7411347517730502E-2</v>
+      </c>
+      <c r="X15" s="4">
+        <v>0.152</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="K16" s="19">
+        <v>300</v>
+      </c>
+      <c r="L16" s="15">
+        <v>100</v>
+      </c>
+      <c r="M16" s="15">
+        <v>400</v>
+      </c>
+      <c r="O16" s="30">
+        <v>0.184397163120567</v>
+      </c>
+      <c r="R16" s="24">
+        <v>3.9716312056737597E-2</v>
+      </c>
+      <c r="X16" s="4">
+        <v>0.15090000000000001</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>0.38700000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="11:25">
+      <c r="K17" s="19">
+        <v>300</v>
+      </c>
+      <c r="L17" s="15">
+        <v>100</v>
+      </c>
+      <c r="M17" s="15">
+        <v>400</v>
+      </c>
+      <c r="O17" s="30">
+        <v>8.5106382978723402E-2</v>
+      </c>
+      <c r="R17" s="24">
+        <v>4.3262411347517703E-2</v>
+      </c>
+      <c r="X17" s="4">
+        <v>0.14979999999999999</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="18" spans="11:25">
+      <c r="K18" s="19">
+        <v>300</v>
+      </c>
+      <c r="L18" s="15">
+        <v>100</v>
+      </c>
+      <c r="M18" s="15">
+        <v>400</v>
+      </c>
+      <c r="O18" s="30">
+        <v>4.2553191489361701E-2</v>
+      </c>
+      <c r="R18" s="24">
+        <v>4.4858156028368797E-2</v>
+      </c>
+      <c r="X18" s="4">
+        <v>0.1487</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="19" spans="11:25">
+      <c r="K19" s="19">
+        <v>300</v>
+      </c>
+      <c r="L19" s="15">
+        <v>100</v>
+      </c>
+      <c r="M19" s="15">
+        <v>400</v>
+      </c>
+      <c r="O19" s="30">
+        <v>2.1276595744680899E-2</v>
+      </c>
+      <c r="R19" s="24">
+        <v>4.6808510638297898E-2</v>
+      </c>
+      <c r="X19" s="4">
+        <v>0.1479</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="20" spans="11:25">
+      <c r="K20" s="19">
+        <v>300</v>
+      </c>
+      <c r="L20" s="15">
+        <v>100</v>
+      </c>
+      <c r="M20" s="15">
+        <v>400</v>
+      </c>
+      <c r="O20" s="30">
+        <v>3.54609929078014E-3</v>
+      </c>
+      <c r="R20" s="24">
+        <v>4.8936170212766E-2</v>
+      </c>
+      <c r="X20" s="4">
+        <v>0.14660000000000001</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="21" spans="11:25">
+      <c r="K21" s="19">
+        <v>300</v>
+      </c>
+      <c r="L21" s="15">
+        <v>100</v>
+      </c>
+      <c r="M21" s="15">
+        <v>400</v>
+      </c>
+      <c r="O21" s="30">
+        <v>0</v>
+      </c>
+      <c r="R21" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="X21" s="4">
+        <v>0.14369999999999999</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>0.36699999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="11:25">
+      <c r="K22" s="19">
+        <v>300</v>
+      </c>
+      <c r="L22" s="15">
+        <v>100</v>
+      </c>
+      <c r="M22" s="15">
+        <v>400</v>
+      </c>
+      <c r="O22" s="30">
+        <v>0</v>
+      </c>
+      <c r="R22" s="24">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="X22" s="4">
+        <v>0.14230000000000001</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>0.36399999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="11:25">
+      <c r="K23" s="19">
+        <v>300</v>
+      </c>
+      <c r="L23" s="15">
+        <v>100</v>
+      </c>
+      <c r="M23" s="15">
+        <v>400</v>
+      </c>
+      <c r="X23" s="4">
+        <v>0.1419</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>0.36199999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="11:25">
+      <c r="K24" s="19">
+        <v>300</v>
+      </c>
+      <c r="L24" s="15">
+        <v>100</v>
+      </c>
+      <c r="M24" s="15">
+        <v>400</v>
+      </c>
+      <c r="X24" s="4">
+        <v>0.14169999999999999</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>0.36099999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="11:25">
+      <c r="K25" s="19">
+        <v>300</v>
+      </c>
+      <c r="L25" s="15">
+        <v>100</v>
+      </c>
+      <c r="M25" s="15">
+        <v>400</v>
+      </c>
+      <c r="X25" s="4">
+        <v>0.1414</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>0.35899999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="11:25">
+      <c r="K26" s="19">
+        <v>300</v>
+      </c>
+      <c r="L26" s="15">
+        <v>100</v>
+      </c>
+      <c r="M26" s="15">
+        <v>400</v>
+      </c>
+      <c r="X26" s="4">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="11:25">
+      <c r="K27" s="19">
+        <v>300</v>
+      </c>
+      <c r="L27" s="15">
+        <v>100</v>
+      </c>
+      <c r="M27" s="15">
+        <v>400</v>
+      </c>
+      <c r="X27" s="4">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="11:25">
+      <c r="K28" s="19">
+        <v>300</v>
+      </c>
+      <c r="L28" s="15">
+        <v>100</v>
+      </c>
+      <c r="M28" s="15">
+        <v>400</v>
+      </c>
+      <c r="X28" s="4">
+        <v>0.14069999999999999</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>0.35299999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="11:25">
+      <c r="K29" s="19">
+        <v>300</v>
+      </c>
+      <c r="L29" s="15">
+        <v>100</v>
+      </c>
+      <c r="M29" s="15">
+        <v>400</v>
+      </c>
+      <c r="X29" s="4">
+        <v>0.14050000000000001</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="11:25">
+      <c r="K30" s="19">
+        <v>300</v>
+      </c>
+      <c r="L30" s="15">
+        <v>100</v>
+      </c>
+      <c r="M30" s="15">
+        <v>400</v>
+      </c>
+      <c r="X30" s="4">
+        <v>0.14019999999999999</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="31" spans="11:25">
+      <c r="K31" s="19">
+        <v>300</v>
+      </c>
+      <c r="L31" s="15">
+        <v>100</v>
+      </c>
+      <c r="M31" s="15">
+        <v>400</v>
+      </c>
+      <c r="X31" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="11:25">
+      <c r="K32" s="19">
+        <v>300</v>
+      </c>
+      <c r="L32" s="15">
+        <v>100</v>
+      </c>
+      <c r="M32" s="15">
+        <v>400</v>
+      </c>
+      <c r="X32" s="4">
+        <v>0.13980000000000001</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="11:25">
+      <c r="K33" s="19">
+        <v>300</v>
+      </c>
+      <c r="L33" s="15">
+        <v>100</v>
+      </c>
+      <c r="M33" s="15">
+        <v>400</v>
+      </c>
+      <c r="X33" s="4">
+        <v>0.13950000000000001</v>
+      </c>
+      <c r="Y33" s="4">
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="11:25">
+      <c r="K34" s="19">
+        <v>300</v>
+      </c>
+      <c r="L34" s="15">
+        <v>100</v>
+      </c>
+      <c r="M34" s="15">
+        <v>400</v>
+      </c>
+      <c r="X34" s="4">
+        <v>0.13930000000000001</v>
+      </c>
+      <c r="Y34" s="4">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="11:25">
+      <c r="K35" s="19">
+        <v>300</v>
+      </c>
+      <c r="L35" s="15">
+        <v>100</v>
+      </c>
+      <c r="M35" s="15">
+        <v>400</v>
+      </c>
+      <c r="X35" s="4">
+        <v>0.1391</v>
+      </c>
+      <c r="Y35" s="4">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="36" spans="11:25">
+      <c r="K36" s="19">
+        <v>300</v>
+      </c>
+      <c r="L36" s="15">
+        <v>100</v>
+      </c>
+      <c r="M36" s="15">
+        <v>400</v>
+      </c>
+      <c r="X36" s="4">
+        <v>0.13880000000000001</v>
+      </c>
+      <c r="Y36" s="4">
+        <v>0.33900000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="11:25">
+      <c r="K37" s="19">
+        <v>300</v>
+      </c>
+      <c r="L37" s="15">
+        <v>100</v>
+      </c>
+      <c r="M37" s="15">
+        <v>400</v>
+      </c>
+      <c r="X37" s="4">
+        <v>0.1386</v>
+      </c>
+      <c r="Y37" s="4">
+        <v>0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="11:25">
+      <c r="K38" s="19">
+        <v>300</v>
+      </c>
+      <c r="L38" s="15">
+        <v>100</v>
+      </c>
+      <c r="M38" s="15">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="Q6" location="_bookmark9" display="adoption rates x6 (see Figure 5)"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -1960,199 +3372,1210 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="R1:EM3"/>
+  <dimension ref="A1:AC38"/>
   <sheetViews>
-    <sheetView topLeftCell="EG1" workbookViewId="0">
-      <selection activeCell="EK1" sqref="EK1:EM3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.33203125" customWidth="1"/>
+    <col min="27" max="27" width="13.33203125" customWidth="1"/>
+    <col min="28" max="28" width="22.33203125" customWidth="1"/>
+    <col min="29" max="29" width="21.5" customWidth="1"/>
+    <col min="30" max="30" width="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14.6640625" customWidth="1"/>
+    <col min="114" max="114" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="15" customWidth="1"/>
+    <col min="138" max="138" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="149" max="150" width="13.33203125" customWidth="1"/>
+    <col min="152" max="152" width="13.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="18:143" ht="90">
-      <c r="R1" s="10" t="s">
+    <row r="1" spans="1:29" s="46" customFormat="1" ht="64" customHeight="1">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="L1" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="M1" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="N1" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q1" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY1" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="AZ1" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="BA1" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="BB1" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="BL1" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="BM1" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="BN1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="CY1" s="10" t="s">
+      <c r="R1" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="CZ1" s="10" t="s">
+      <c r="S1" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="T1" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="V1" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="W1" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="X1" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="DA1" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="DS1" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="DU1" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="DV1" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="DW1" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="DX1" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="DY1" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="DZ1" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="EA1" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="EB1" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="EE1" s="10" t="s">
+      <c r="Y1" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z1" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA1" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="EK1" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="EL1" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="EM1" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="18:143">
-      <c r="AZ2" s="14">
+      <c r="AB1" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC1" s="46" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="35" customFormat="1">
+      <c r="A2" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="36">
+        <v>45674</v>
+      </c>
+      <c r="C2" s="23">
+        <v>1674</v>
+      </c>
+      <c r="D2" s="35">
+        <v>1</v>
+      </c>
+      <c r="E2" s="23">
+        <v>19721</v>
+      </c>
+      <c r="F2" s="23">
+        <v>19202</v>
+      </c>
+      <c r="G2" s="37">
+        <v>0.1246</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="I2" s="25">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J2" s="31">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="18:143">
-      <c r="R3" s="13">
+      <c r="K2" s="19">
+        <v>300</v>
+      </c>
+      <c r="L2" s="20">
+        <v>100</v>
+      </c>
+      <c r="M2" s="20">
+        <v>400</v>
+      </c>
+      <c r="N2" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="O2" s="30">
+        <v>1</v>
+      </c>
+      <c r="P2" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="35">
+        <v>0</v>
+      </c>
+      <c r="R2" s="38">
+        <v>5.3900709219858204E-3</v>
+      </c>
+      <c r="S2" s="25">
+        <v>0</v>
+      </c>
+      <c r="T2" s="25">
+        <v>8.1560283687943296E-4</v>
+      </c>
+      <c r="U2" s="25">
+        <v>3.3444816053511699E-5</v>
+      </c>
+      <c r="V2" s="25">
+        <v>1E-3</v>
+      </c>
+      <c r="W2" s="25">
+        <v>6.6889632107023397E-5</v>
+      </c>
+      <c r="X2" s="30">
+        <v>0.29580000000000001</v>
+      </c>
+      <c r="Y2" s="30">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="Z2" s="40">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AB2" s="9">
         <v>0.01</v>
       </c>
-      <c r="AC3" s="14">
+      <c r="AC2" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="9" customFormat="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="10"/>
+      <c r="I3" s="25">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K3" s="20">
+        <v>300</v>
+      </c>
+      <c r="L3" s="15">
+        <v>100</v>
+      </c>
+      <c r="M3" s="15">
+        <v>400</v>
+      </c>
+      <c r="O3" s="31">
+        <v>1</v>
+      </c>
+      <c r="R3" s="10">
+        <v>8.6879432624113496E-3</v>
+      </c>
+      <c r="S3" s="26">
+        <v>5.0167224080267597E-4</v>
+      </c>
+      <c r="T3" s="26">
+        <v>1.3829787234042601E-3</v>
+      </c>
+      <c r="U3" s="26">
+        <v>3.3444816053511699E-4</v>
+      </c>
+      <c r="V3" s="26">
+        <v>1.4886731391585801E-3</v>
+      </c>
+      <c r="W3" s="26">
+        <v>2.6755852842809402E-4</v>
+      </c>
+      <c r="X3" s="9">
+        <v>0.28089999999999998</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="Z3" s="41">
+        <v>1.12380952380952</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="9" customFormat="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="I4" s="25">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="21">
+        <v>300</v>
+      </c>
+      <c r="L4" s="15">
+        <v>100</v>
+      </c>
+      <c r="M4" s="15">
+        <v>400</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="32">
+        <v>1</v>
+      </c>
+      <c r="R4" s="10">
+        <v>1.0638297872340399E-2</v>
+      </c>
+      <c r="S4" s="27">
+        <v>9.6989966555183996E-4</v>
+      </c>
+      <c r="T4" s="27">
+        <v>1.70212765957447E-3</v>
+      </c>
+      <c r="U4" s="27">
+        <v>7.6923076923076901E-4</v>
+      </c>
+      <c r="V4" s="27">
+        <v>1.94174757281553E-3</v>
+      </c>
+      <c r="W4" s="27">
+        <v>5.6856187290969904E-4</v>
+      </c>
+      <c r="X4" s="9">
+        <v>0.22259999999999999</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="Z4" s="42">
+        <v>1.2253968253968299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="9" customFormat="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="I5" s="25">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="21">
+        <v>300</v>
+      </c>
+      <c r="L5" s="15">
+        <v>100</v>
+      </c>
+      <c r="M5" s="15">
+        <v>400</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="32">
+        <v>0.98936170212765995</v>
+      </c>
+      <c r="R5" s="10">
+        <v>1.24113475177305E-2</v>
+      </c>
+      <c r="S5" s="27">
+        <v>1.3712374581939799E-3</v>
+      </c>
+      <c r="T5" s="27">
+        <v>1.87943262411348E-3</v>
+      </c>
+      <c r="U5" s="27">
+        <v>1.10367892976589E-3</v>
+      </c>
+      <c r="V5" s="27">
+        <v>2.2330097087378598E-3</v>
+      </c>
+      <c r="W5" s="27">
+        <v>9.3645484949832799E-4</v>
+      </c>
+      <c r="X5" s="9">
+        <v>0.20979999999999999</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="Z5" s="42">
+        <v>1.35238095238095</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="25">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="22">
+        <v>300</v>
+      </c>
+      <c r="L6" s="15">
+        <v>100</v>
+      </c>
+      <c r="M6" s="15">
+        <v>400</v>
+      </c>
+      <c r="O6" s="30">
+        <v>0.97163120567375905</v>
+      </c>
+      <c r="R6" s="24">
+        <v>1.3829787234042599E-2</v>
+      </c>
+      <c r="S6" s="28">
+        <v>1.7391304347826101E-3</v>
+      </c>
+      <c r="T6" s="28">
+        <v>2.1985815602836899E-3</v>
+      </c>
+      <c r="U6" s="28">
+        <v>1.60535117056856E-3</v>
+      </c>
+      <c r="V6" s="28">
+        <v>2.5889967637540501E-3</v>
+      </c>
+      <c r="W6" s="28">
+        <v>1.3712374581939799E-3</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0.19389999999999999</v>
+      </c>
+      <c r="Y6" s="18">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="Z6" s="43">
+        <v>1.4539682539682499</v>
+      </c>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+    </row>
+    <row r="7" spans="1:29" s="4" customFormat="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="25">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="23">
+        <v>300</v>
+      </c>
+      <c r="L7" s="15">
+        <v>100</v>
+      </c>
+      <c r="M7" s="15">
+        <v>400</v>
+      </c>
+      <c r="O7" s="30">
+        <v>0.95390070921985803</v>
+      </c>
+      <c r="R7" s="24">
+        <v>1.5957446808510599E-2</v>
+      </c>
+      <c r="S7" s="29">
+        <v>2.10702341137124E-3</v>
+      </c>
+      <c r="T7" s="29">
+        <v>2.5177304964538998E-3</v>
+      </c>
+      <c r="U7" s="29">
+        <v>2.0066889632107E-3</v>
+      </c>
+      <c r="V7" s="29">
+        <v>2.8478964401294502E-3</v>
+      </c>
+      <c r="W7" s="29">
+        <v>1.7725752508361201E-3</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0.18640000000000001</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Z7" s="44">
+        <v>1.5492063492063499</v>
+      </c>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="I8" s="25">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K8" s="19">
+        <v>300</v>
+      </c>
+      <c r="L8" s="15">
+        <v>100</v>
+      </c>
+      <c r="M8" s="15">
+        <v>400</v>
+      </c>
+      <c r="O8" s="30">
+        <v>0.91843971631205701</v>
+      </c>
+      <c r="R8" s="24">
+        <v>1.89716312056738E-2</v>
+      </c>
+      <c r="S8" s="25">
+        <v>2.4414715719063501E-3</v>
+      </c>
+      <c r="T8" s="25">
+        <v>2.9432624113475202E-3</v>
+      </c>
+      <c r="U8" s="25">
+        <v>2.5083612040133802E-3</v>
+      </c>
+      <c r="V8" s="25">
+        <v>3.20388349514563E-3</v>
+      </c>
+      <c r="W8" s="25">
+        <v>2.2408026755852801E-3</v>
+      </c>
+      <c r="X8" s="4">
+        <v>0.1799</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="Z8" s="40">
+        <v>1.6317460317460299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="I9" s="25">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K9" s="19">
+        <v>300</v>
+      </c>
+      <c r="L9" s="15">
+        <v>100</v>
+      </c>
+      <c r="M9" s="15">
+        <v>400</v>
+      </c>
+      <c r="O9" s="30">
+        <v>0.879432624113475</v>
+      </c>
+      <c r="R9" s="24">
+        <v>2.2163120567375901E-2</v>
+      </c>
+      <c r="S9" s="25">
+        <v>2.9096989966555199E-3</v>
+      </c>
+      <c r="T9" s="25">
+        <v>3.43971631205674E-3</v>
+      </c>
+      <c r="U9" s="25">
+        <v>2.9765886287625399E-3</v>
+      </c>
+      <c r="V9" s="25">
+        <v>3.5922330097087401E-3</v>
+      </c>
+      <c r="W9" s="25">
+        <v>2.7090301003344498E-3</v>
+      </c>
+      <c r="X9" s="4">
+        <v>0.17349999999999999</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>0.505</v>
+      </c>
+      <c r="Z9" s="40">
+        <v>1.6952380952381001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="I10" s="25">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K10" s="19">
+        <v>300</v>
+      </c>
+      <c r="L10" s="15">
+        <v>100</v>
+      </c>
+      <c r="M10" s="15">
+        <v>400</v>
+      </c>
+      <c r="O10" s="30">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="R10" s="24">
+        <v>2.4468085106383E-2</v>
+      </c>
+      <c r="S10" s="25">
+        <v>3.24414715719064E-3</v>
+      </c>
+      <c r="T10" s="25">
+        <v>4.1134751773049599E-3</v>
+      </c>
+      <c r="U10" s="25">
+        <v>3.3779264214046801E-3</v>
+      </c>
+      <c r="V10" s="25">
+        <v>4.1100323624595498E-3</v>
+      </c>
+      <c r="W10" s="25">
+        <v>3.17725752508361E-3</v>
+      </c>
+      <c r="X10" s="4">
+        <v>0.16489999999999999</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="Z10" s="40">
+        <v>1.7904761904761901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="I11" s="25">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K11" s="19">
+        <v>300</v>
+      </c>
+      <c r="L11" s="15">
+        <v>100</v>
+      </c>
+      <c r="M11" s="15">
+        <v>400</v>
+      </c>
+      <c r="O11" s="30">
+        <v>0.78723404255319196</v>
+      </c>
+      <c r="R11" s="24">
+        <v>2.73049645390071E-2</v>
+      </c>
+      <c r="S11" s="25">
+        <v>3.5785953177257502E-3</v>
+      </c>
+      <c r="T11" s="25">
+        <v>4.4680851063829798E-3</v>
+      </c>
+      <c r="U11" s="25">
+        <v>3.7792642140468198E-3</v>
+      </c>
+      <c r="V11" s="25">
+        <v>4.6601941747572801E-3</v>
+      </c>
+      <c r="W11" s="25">
+        <v>3.6454849498327802E-3</v>
+      </c>
+      <c r="X11" s="4">
+        <v>0.16159999999999999</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="Z11" s="40">
+        <v>1.89206349206349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="I12" s="25">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K12" s="19">
+        <v>300</v>
+      </c>
+      <c r="L12" s="15">
+        <v>100</v>
+      </c>
+      <c r="M12" s="15">
+        <v>400</v>
+      </c>
+      <c r="O12" s="30">
+        <v>0.70567375886524797</v>
+      </c>
+      <c r="R12" s="24">
+        <v>3.0496453900709201E-2</v>
+      </c>
+      <c r="S12" s="25">
+        <v>4.0133779264214103E-3</v>
+      </c>
+      <c r="T12" s="25">
+        <v>5.1063829787233997E-3</v>
+      </c>
+      <c r="U12" s="25">
+        <v>4.2809364548495E-3</v>
+      </c>
+      <c r="V12" s="25">
+        <v>5.2427184466019398E-3</v>
+      </c>
+      <c r="W12" s="25">
+        <v>4.0802675585284304E-3</v>
+      </c>
+      <c r="X12" s="4">
+        <v>0.15740000000000001</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="Z12" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="K13" s="19">
+        <v>300</v>
+      </c>
+      <c r="L13" s="15">
+        <v>100</v>
+      </c>
+      <c r="M13" s="15">
+        <v>400</v>
+      </c>
+      <c r="O13" s="30">
+        <v>0.62411347517730498</v>
+      </c>
+      <c r="R13" s="24">
+        <v>3.2269503546099303E-2</v>
+      </c>
+      <c r="X13" s="4">
+        <v>0.152</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>0.42399999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="K14" s="19">
+        <v>300</v>
+      </c>
+      <c r="L14" s="15">
+        <v>100</v>
+      </c>
+      <c r="M14" s="15">
+        <v>400</v>
+      </c>
+      <c r="O14" s="30">
+        <v>0.46099290780141799</v>
+      </c>
+      <c r="R14" s="24">
+        <v>3.5106382978723399E-2</v>
+      </c>
+      <c r="X14" s="4">
+        <v>0.153</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>0.41199999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="K15" s="19">
+        <v>300</v>
+      </c>
+      <c r="L15" s="15">
+        <v>100</v>
+      </c>
+      <c r="M15" s="15">
+        <v>400</v>
+      </c>
+      <c r="O15" s="30">
+        <v>0.28723404255319201</v>
+      </c>
+      <c r="R15" s="24">
+        <v>3.7411347517730502E-2</v>
+      </c>
+      <c r="X15" s="4">
+        <v>0.152</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="K16" s="19">
+        <v>300</v>
+      </c>
+      <c r="L16" s="15">
+        <v>100</v>
+      </c>
+      <c r="M16" s="15">
+        <v>400</v>
+      </c>
+      <c r="O16" s="30">
+        <v>0.184397163120567</v>
+      </c>
+      <c r="R16" s="24">
+        <v>3.9716312056737597E-2</v>
+      </c>
+      <c r="X16" s="4">
+        <v>0.15090000000000001</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>0.38700000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="11:25">
+      <c r="K17" s="19">
+        <v>300</v>
+      </c>
+      <c r="L17" s="15">
+        <v>100</v>
+      </c>
+      <c r="M17" s="15">
+        <v>400</v>
+      </c>
+      <c r="O17" s="30">
+        <v>8.5106382978723402E-2</v>
+      </c>
+      <c r="R17" s="24">
+        <v>4.3262411347517703E-2</v>
+      </c>
+      <c r="X17" s="4">
+        <v>0.14979999999999999</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="18" spans="11:25">
+      <c r="K18" s="19">
+        <v>300</v>
+      </c>
+      <c r="L18" s="15">
+        <v>100</v>
+      </c>
+      <c r="M18" s="15">
+        <v>400</v>
+      </c>
+      <c r="O18" s="30">
+        <v>4.2553191489361701E-2</v>
+      </c>
+      <c r="R18" s="24">
+        <v>4.4858156028368797E-2</v>
+      </c>
+      <c r="X18" s="4">
+        <v>0.1487</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="19" spans="11:25">
+      <c r="K19" s="19">
+        <v>300</v>
+      </c>
+      <c r="L19" s="15">
+        <v>100</v>
+      </c>
+      <c r="M19" s="15">
+        <v>400</v>
+      </c>
+      <c r="O19" s="30">
+        <v>2.1276595744680899E-2</v>
+      </c>
+      <c r="R19" s="24">
+        <v>4.6808510638297898E-2</v>
+      </c>
+      <c r="X19" s="4">
+        <v>0.1479</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="20" spans="11:25">
+      <c r="K20" s="19">
+        <v>300</v>
+      </c>
+      <c r="L20" s="15">
+        <v>100</v>
+      </c>
+      <c r="M20" s="15">
+        <v>400</v>
+      </c>
+      <c r="O20" s="30">
+        <v>3.54609929078014E-3</v>
+      </c>
+      <c r="R20" s="24">
+        <v>4.8936170212766E-2</v>
+      </c>
+      <c r="X20" s="4">
+        <v>0.14660000000000001</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="21" spans="11:25">
+      <c r="K21" s="19">
+        <v>300</v>
+      </c>
+      <c r="L21" s="15">
+        <v>100</v>
+      </c>
+      <c r="M21" s="15">
+        <v>400</v>
+      </c>
+      <c r="O21" s="30">
         <v>0</v>
       </c>
-      <c r="AD3" s="14">
-        <v>-2.0963347512200001E-2</v>
-      </c>
-      <c r="AE3" s="14">
-        <v>-1.15206889603E-2</v>
-      </c>
-      <c r="AI3" s="14">
-        <v>5</v>
-      </c>
-      <c r="AX3" s="14">
-        <v>2.30610932476E-4</v>
-      </c>
-      <c r="AY3" s="14">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="BA3" s="14">
-        <v>0.71805497590300005</v>
-      </c>
-      <c r="BB3" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="BL3" s="14">
-        <v>57051.68</v>
-      </c>
-      <c r="BM3" s="14">
-        <v>19295</v>
-      </c>
-      <c r="BN3" s="14">
-        <v>74803.08</v>
-      </c>
-      <c r="CY3" s="14">
-        <v>0.65</v>
-      </c>
-      <c r="CZ3" s="14">
-        <v>0.97</v>
-      </c>
-      <c r="DA3" s="14">
-        <v>20</v>
-      </c>
-      <c r="DS3" s="14">
-        <v>10</v>
-      </c>
-      <c r="DU3" s="20">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="DV3" s="14">
-        <v>1</v>
-      </c>
-      <c r="DW3" s="14">
-        <v>1</v>
-      </c>
-      <c r="DX3" s="14">
-        <v>1</v>
-      </c>
-      <c r="DY3" s="14">
-        <v>1</v>
-      </c>
-      <c r="DZ3" s="14">
-        <v>1</v>
-      </c>
-      <c r="EA3" s="14">
-        <v>1</v>
-      </c>
-      <c r="EB3" s="14">
-        <v>10</v>
-      </c>
-      <c r="EE3" s="21">
-        <v>2000000</v>
-      </c>
-      <c r="EK3" s="14">
-        <v>2</v>
-      </c>
-      <c r="EL3" s="14">
-        <v>1</v>
-      </c>
-      <c r="EM3" s="14">
-        <v>1</v>
+      <c r="R21" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="X21" s="4">
+        <v>0.14369999999999999</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>0.36699999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="11:25">
+      <c r="K22" s="19">
+        <v>300</v>
+      </c>
+      <c r="L22" s="15">
+        <v>100</v>
+      </c>
+      <c r="M22" s="15">
+        <v>400</v>
+      </c>
+      <c r="O22" s="30">
+        <v>0</v>
+      </c>
+      <c r="R22" s="24">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="X22" s="4">
+        <v>0.14230000000000001</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>0.36399999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="11:25">
+      <c r="K23" s="19">
+        <v>300</v>
+      </c>
+      <c r="L23" s="15">
+        <v>100</v>
+      </c>
+      <c r="M23" s="15">
+        <v>400</v>
+      </c>
+      <c r="X23" s="4">
+        <v>0.1419</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>0.36199999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="11:25">
+      <c r="K24" s="19">
+        <v>300</v>
+      </c>
+      <c r="L24" s="15">
+        <v>100</v>
+      </c>
+      <c r="M24" s="15">
+        <v>400</v>
+      </c>
+      <c r="X24" s="4">
+        <v>0.14169999999999999</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>0.36099999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="11:25">
+      <c r="K25" s="19">
+        <v>300</v>
+      </c>
+      <c r="L25" s="15">
+        <v>100</v>
+      </c>
+      <c r="M25" s="15">
+        <v>400</v>
+      </c>
+      <c r="X25" s="4">
+        <v>0.1414</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>0.35899999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="11:25">
+      <c r="K26" s="19">
+        <v>300</v>
+      </c>
+      <c r="L26" s="15">
+        <v>100</v>
+      </c>
+      <c r="M26" s="15">
+        <v>400</v>
+      </c>
+      <c r="X26" s="4">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="11:25">
+      <c r="K27" s="19">
+        <v>300</v>
+      </c>
+      <c r="L27" s="15">
+        <v>100</v>
+      </c>
+      <c r="M27" s="15">
+        <v>400</v>
+      </c>
+      <c r="X27" s="4">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="11:25">
+      <c r="K28" s="19">
+        <v>300</v>
+      </c>
+      <c r="L28" s="15">
+        <v>100</v>
+      </c>
+      <c r="M28" s="15">
+        <v>400</v>
+      </c>
+      <c r="X28" s="4">
+        <v>0.14069999999999999</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>0.35299999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="11:25">
+      <c r="K29" s="19">
+        <v>300</v>
+      </c>
+      <c r="L29" s="15">
+        <v>100</v>
+      </c>
+      <c r="M29" s="15">
+        <v>400</v>
+      </c>
+      <c r="X29" s="4">
+        <v>0.14050000000000001</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="11:25">
+      <c r="K30" s="19">
+        <v>300</v>
+      </c>
+      <c r="L30" s="15">
+        <v>100</v>
+      </c>
+      <c r="M30" s="15">
+        <v>400</v>
+      </c>
+      <c r="X30" s="4">
+        <v>0.14019999999999999</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="31" spans="11:25">
+      <c r="K31" s="19">
+        <v>300</v>
+      </c>
+      <c r="L31" s="15">
+        <v>100</v>
+      </c>
+      <c r="M31" s="15">
+        <v>400</v>
+      </c>
+      <c r="X31" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="11:25">
+      <c r="K32" s="19">
+        <v>300</v>
+      </c>
+      <c r="L32" s="15">
+        <v>100</v>
+      </c>
+      <c r="M32" s="15">
+        <v>400</v>
+      </c>
+      <c r="X32" s="4">
+        <v>0.13980000000000001</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="11:25">
+      <c r="K33" s="19">
+        <v>300</v>
+      </c>
+      <c r="L33" s="15">
+        <v>100</v>
+      </c>
+      <c r="M33" s="15">
+        <v>400</v>
+      </c>
+      <c r="X33" s="4">
+        <v>0.13950000000000001</v>
+      </c>
+      <c r="Y33" s="4">
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="11:25">
+      <c r="K34" s="19">
+        <v>300</v>
+      </c>
+      <c r="L34" s="15">
+        <v>100</v>
+      </c>
+      <c r="M34" s="15">
+        <v>400</v>
+      </c>
+      <c r="X34" s="4">
+        <v>0.13930000000000001</v>
+      </c>
+      <c r="Y34" s="4">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="11:25">
+      <c r="K35" s="19">
+        <v>300</v>
+      </c>
+      <c r="L35" s="15">
+        <v>100</v>
+      </c>
+      <c r="M35" s="15">
+        <v>400</v>
+      </c>
+      <c r="X35" s="4">
+        <v>0.1391</v>
+      </c>
+      <c r="Y35" s="4">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="36" spans="11:25">
+      <c r="K36" s="19">
+        <v>300</v>
+      </c>
+      <c r="L36" s="15">
+        <v>100</v>
+      </c>
+      <c r="M36" s="15">
+        <v>400</v>
+      </c>
+      <c r="X36" s="4">
+        <v>0.13880000000000001</v>
+      </c>
+      <c r="Y36" s="4">
+        <v>0.33900000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="11:25">
+      <c r="K37" s="19">
+        <v>300</v>
+      </c>
+      <c r="L37" s="15">
+        <v>100</v>
+      </c>
+      <c r="M37" s="15">
+        <v>400</v>
+      </c>
+      <c r="X37" s="4">
+        <v>0.1386</v>
+      </c>
+      <c r="Y37" s="4">
+        <v>0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="11:25">
+      <c r="K38" s="19">
+        <v>300</v>
+      </c>
+      <c r="L38" s="15">
+        <v>100</v>
+      </c>
+      <c r="M38" s="15">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2163,11 +4586,214 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:25" s="39" customFormat="1" ht="90">
+      <c r="A1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="B3" s="9">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2.30610932476E-4</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.71805497590300005</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="9">
+        <v>57051.68</v>
+      </c>
+      <c r="H3" s="9">
+        <v>19295</v>
+      </c>
+      <c r="I3" s="9">
+        <v>74803.08</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0.97</v>
+      </c>
+      <c r="L3" s="15">
+        <v>20</v>
+      </c>
+      <c r="M3" s="9">
+        <v>10</v>
+      </c>
+      <c r="N3" s="14">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="O3" s="9">
+        <v>1</v>
+      </c>
+      <c r="P3" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>1</v>
+      </c>
+      <c r="R3" s="9">
+        <v>1</v>
+      </c>
+      <c r="S3" s="9">
+        <v>1</v>
+      </c>
+      <c r="T3" s="9">
+        <v>1</v>
+      </c>
+      <c r="U3" s="9">
+        <v>10</v>
+      </c>
+      <c r="V3" s="15">
+        <v>2000000</v>
+      </c>
+      <c r="W3" s="9">
+        <v>2</v>
+      </c>
+      <c r="X3" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ET1"/>
+  <dimension ref="A1:ET7"/>
   <sheetViews>
-    <sheetView topLeftCell="BJ1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2179,456 +4805,461 @@
     <col min="149" max="149" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:150" s="10" customFormat="1" ht="64" customHeight="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:150" s="5" customFormat="1" ht="64" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="M1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="N1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="O1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="P1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="Q1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="R1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="S1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="T1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="U1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="V1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="W1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="X1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="Y1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="Z1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="AA1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="AB1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="AC1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="AD1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="AE1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="AF1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="AG1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="AH1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="AI1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AK1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AL1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AM1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AN1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AO1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AP1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AR1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AS1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AT1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AU1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AV1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AW1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AM1" s="10" t="s">
+      <c r="AX1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AN1" s="10" t="s">
+      <c r="AY1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AO1" s="10" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AP1" s="10" t="s">
+      <c r="BA1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AQ1" s="10" t="s">
+      <c r="BB1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AR1" s="10" t="s">
+      <c r="BC1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AS1" s="10" t="s">
+      <c r="BD1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AT1" s="10" t="s">
+      <c r="BE1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AU1" s="10" t="s">
+      <c r="BF1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AV1" s="10" t="s">
+      <c r="BG1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AW1" s="10" t="s">
+      <c r="BH1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AX1" s="10" t="s">
+      <c r="BI1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AY1" s="10" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AZ1" s="10" t="s">
+      <c r="BK1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="BA1" s="10" t="s">
+      <c r="BL1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="BB1" s="10" t="s">
+      <c r="BM1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="BC1" s="10" t="s">
+      <c r="BN1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="BD1" s="10" t="s">
+      <c r="BO1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="BE1" s="10" t="s">
+      <c r="BP1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="BF1" s="10" t="s">
+      <c r="BQ1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="BG1" s="10" t="s">
+      <c r="BR1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="BH1" s="10" t="s">
+      <c r="BS1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="BI1" s="10" t="s">
+      <c r="BT1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="BJ1" s="10" t="s">
+      <c r="BU1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="BK1" s="10" t="s">
+      <c r="BV1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="BL1" s="10" t="s">
+      <c r="BW1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="BM1" s="10" t="s">
+      <c r="BX1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="BN1" s="10" t="s">
+      <c r="BY1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="BO1" s="10" t="s">
+      <c r="BZ1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="BP1" s="10" t="s">
+      <c r="CA1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="BQ1" s="10" t="s">
+      <c r="CB1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="BR1" s="10" t="s">
+      <c r="CC1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="BS1" s="10" t="s">
+      <c r="CD1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="BT1" s="10" t="s">
+      <c r="CE1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="BU1" s="10" t="s">
+      <c r="CF1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="BV1" s="10" t="s">
+      <c r="CG1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="BW1" s="10" t="s">
+      <c r="CH1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="BX1" s="10" t="s">
+      <c r="CI1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="BY1" s="10" t="s">
+      <c r="CJ1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="BZ1" s="10" t="s">
+      <c r="CK1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="CA1" s="10" t="s">
+      <c r="CL1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="CB1" s="10" t="s">
+      <c r="CM1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="CC1" s="10" t="s">
+      <c r="CN1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="CD1" s="10" t="s">
+      <c r="CO1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="CE1" s="10" t="s">
+      <c r="CP1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="CF1" s="10" t="s">
+      <c r="CQ1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="CG1" s="10" t="s">
+      <c r="CR1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="CH1" s="10" t="s">
+      <c r="CS1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="CI1" s="10" t="s">
+      <c r="CT1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="CJ1" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="CK1" s="10" t="s">
+      <c r="CU1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="CV1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="CW1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="CL1" s="10" t="s">
+      <c r="CX1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="CM1" s="10" t="s">
+      <c r="CY1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="CN1" s="10" t="s">
+      <c r="CZ1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="CO1" s="10" t="s">
+      <c r="DA1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="CP1" s="10" t="s">
+      <c r="DB1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="CQ1" s="10" t="s">
+      <c r="DC1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="CR1" s="10" t="s">
+      <c r="DD1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="CS1" s="10" t="s">
+      <c r="DE1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="CT1" s="10" t="s">
+      <c r="DF1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="CU1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV1" s="10" t="s">
+      <c r="DG1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="CW1" s="10" t="s">
+      <c r="DH1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="CX1" s="10" t="s">
+      <c r="DI1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="CY1" s="10" t="s">
+      <c r="DJ1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="CZ1" s="10" t="s">
+      <c r="DK1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="DA1" s="10" t="s">
+      <c r="DL1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="DB1" s="10" t="s">
+      <c r="DM1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="DC1" s="10" t="s">
+      <c r="DN1" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="DD1" s="10" t="s">
+      <c r="DO1" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="DE1" s="10" t="s">
+      <c r="DP1" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="DF1" s="10" t="s">
+      <c r="DQ1" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="DG1" s="10" t="s">
+      <c r="DR1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="DH1" s="10" t="s">
+      <c r="DS1" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="DI1" s="10" t="s">
+      <c r="DT1" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="DJ1" s="10" t="s">
+      <c r="DU1" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="DK1" s="10" t="s">
+      <c r="DV1" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="DL1" s="10" t="s">
+      <c r="DW1" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="DM1" s="10" t="s">
+      <c r="DX1" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="DN1" s="10" t="s">
+      <c r="DY1" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="DO1" s="10" t="s">
+      <c r="DZ1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="DP1" s="10" t="s">
+      <c r="EA1" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="DQ1" s="10" t="s">
+      <c r="EB1" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="DR1" s="10" t="s">
+      <c r="EC1" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="DS1" s="10" t="s">
+      <c r="ED1" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="DT1" s="10" t="s">
+      <c r="EE1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="DU1" s="10" t="s">
+      <c r="EF1" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="DV1" s="10" t="s">
+      <c r="EG1" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="DW1" s="10" t="s">
+      <c r="EH1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="DX1" s="10" t="s">
+      <c r="EI1" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="DY1" s="10" t="s">
+      <c r="EJ1" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="DZ1" s="10" t="s">
+      <c r="EK1" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="EA1" s="10" t="s">
+      <c r="EL1" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="EB1" s="10" t="s">
+      <c r="EM1" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="EC1" s="10" t="s">
+      <c r="EN1" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="ED1" s="10" t="s">
+      <c r="EO1" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="EE1" s="10" t="s">
+      <c r="EP1" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="EF1" s="10" t="s">
+      <c r="EQ1" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="EG1" s="10" t="s">
+      <c r="ER1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="ES1" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="EH1" s="10" t="s">
+      <c r="ET1" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="EI1" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="EJ1" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="EK1" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="EL1" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="EM1" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="EN1" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="EO1" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="EP1" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="EQ1" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="ER1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="ES1" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="ET1" s="10" t="s">
-        <v>160</v>
+    </row>
+    <row r="7" spans="1:150">
+      <c r="T7" s="39" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/Model/Data/import.xlsx
+++ b/Model/Data/import.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-36780" yWindow="-7220" windowWidth="32000" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-37740" yWindow="-7700" windowWidth="36320" windowHeight="20840" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LA" sheetId="1" r:id="rId1"/>
     <sheet name="Boulder" sheetId="4" r:id="rId2"/>
-    <sheet name="sensitivity" sheetId="3" r:id="rId3"/>
-    <sheet name="all_variables" sheetId="2" r:id="rId4"/>
+    <sheet name="Sydney (incomplete)" sheetId="5" r:id="rId3"/>
+    <sheet name="sensitivity" sheetId="3" r:id="rId4"/>
+    <sheet name="all_variables" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -75,32 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Laws:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-used for learning curve sensitivity, location dependent
-currently not used</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -200,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -227,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -253,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -281,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -308,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -363,6 +339,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="W1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+used for comparison plots</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="X1" authorId="0">
       <text>
         <r>
@@ -388,30 +388,6 @@
       </text>
     </comment>
     <comment ref="Y1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Laws:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-used for comparison plots</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -438,7 +414,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0">
+    <comment ref="M2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -528,7 +504,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -548,12 +524,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-used for learning curve sensitivity, location dependent
-currently not used</t>
+see spreadsheet "FCI and LOCE forecasts Boulder"</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -653,7 +628,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -674,13 +649,13 @@
             <family val="2"/>
           </rPr>
           <t>function of ( NPV - INIT(NPV) )+incentive.
-Initial value of PV innovation rate set to 0.5% of regular customers per year 
+Initial value of PV innovation rate set to 0.5% of regular customers per year (same as 2014 value found from permit data)
 Assumed to grow linearly to 5% when NPV reaches $10,000 greater than NPV in 2015
 (0.5% value estimated using Census values and reported PV installations by Souther California Edison)</t>
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -706,7 +681,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -734,7 +709,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -761,7 +736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -789,7 +764,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -816,6 +791,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="W1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+used for comparison plots</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="X1" authorId="0">
       <text>
         <r>
@@ -841,30 +840,6 @@
       </text>
     </comment>
     <comment ref="Y1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Laws:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-used for comparison plots</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -891,7 +866,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0">
+    <comment ref="M2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -933,7 +908,7 @@
     <author>Nick Laws</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -953,31 +928,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-graphical function</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Laws:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-graphical function</t>
+manual sensitivity analyses show that LA is highly sensitive to this value.</t>
         </r>
       </text>
     </comment>
@@ -986,7 +937,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="166">
   <si>
     <t>population growth rate</t>
   </si>
@@ -1481,6 +1432,9 @@
   </si>
   <si>
     <t>Note: this is a one time export. Some variable names have changed (for clarity)</t>
+  </si>
+  <si>
+    <t>default value:</t>
   </si>
 </sst>
 </file>
@@ -1555,15 +1509,15 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1596,7 +1550,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="62">
+  <cellStyleXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1659,8 +1613,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1686,9 +1662,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1730,9 +1703,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1745,29 +1715,52 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="62">
+  <cellStyles count="84">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1828,6 +1821,28 @@
     <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2158,10 +2173,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC38"/>
+  <dimension ref="A1:Y38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2169,252 +2184,233 @@
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="8" max="8" width="11.83203125" customWidth="1"/>
     <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.33203125" customWidth="1"/>
-    <col min="27" max="27" width="13.33203125" customWidth="1"/>
-    <col min="28" max="28" width="22.33203125" customWidth="1"/>
-    <col min="29" max="29" width="21.5" customWidth="1"/>
-    <col min="30" max="30" width="10" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.6640625" customWidth="1"/>
-    <col min="114" max="114" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="15" customWidth="1"/>
-    <col min="138" max="138" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="149" max="150" width="13.33203125" customWidth="1"/>
-    <col min="152" max="152" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="49"/>
+    <col min="16" max="16" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="10.83203125" style="36"/>
+    <col min="25" max="25" width="15.33203125" customWidth="1"/>
+    <col min="48" max="48" width="14.6640625" customWidth="1"/>
+    <col min="107" max="107" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="15" customWidth="1"/>
+    <col min="131" max="131" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="142" max="143" width="13.33203125" customWidth="1"/>
+    <col min="145" max="145" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" ht="64" customHeight="1">
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:25" s="15" customFormat="1" ht="64" customHeight="1">
+      <c r="B1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="K1" s="17" t="s">
+      <c r="J1" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="N1" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="O1" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="N1" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="O1" s="34" t="s">
+      <c r="P1" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="16" t="s">
+      <c r="Q1" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="R1" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="S1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="T1" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="U1" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="V1" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="W1" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="X1" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="Y1" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="AA1" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="AB1" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC1" s="16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" s="35" customFormat="1">
-      <c r="A2" s="35" t="s">
+    </row>
+    <row r="2" spans="1:25" s="33" customFormat="1">
+      <c r="A2" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="34">
         <v>3361031</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="22">
         <v>14344</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="33">
         <v>1</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="22">
         <v>16648</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="22">
         <v>12469</v>
       </c>
-      <c r="G2" s="37">
+      <c r="G2" s="35">
         <v>0.20899999999999999</v>
       </c>
       <c r="H2" s="10">
         <v>0.11799999999999999</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="24">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="J2" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K2" s="19">
-        <v>300</v>
-      </c>
-      <c r="L2" s="20">
-        <v>100</v>
-      </c>
-      <c r="M2" s="20">
-        <v>400</v>
-      </c>
-      <c r="N2" s="31">
-        <v>0.3</v>
-      </c>
-      <c r="O2" s="30">
+      <c r="J2" s="47">
+        <v>21105</v>
+      </c>
+      <c r="K2" s="47">
+        <v>63599.92</v>
+      </c>
+      <c r="L2" s="47">
+        <v>83016.52</v>
+      </c>
+      <c r="M2" s="18">
+        <v>300</v>
+      </c>
+      <c r="N2" s="19">
+        <v>100</v>
+      </c>
+      <c r="O2" s="19">
+        <v>400</v>
+      </c>
+      <c r="P2" s="29">
         <v>1</v>
       </c>
-      <c r="P2" s="35">
+      <c r="Q2" s="36">
+        <v>5.3900709219858204E-3</v>
+      </c>
+      <c r="R2" s="24">
         <v>0</v>
       </c>
-      <c r="Q2" s="35">
-        <v>0</v>
-      </c>
-      <c r="R2" s="38">
-        <v>5.3900709219858204E-3</v>
-      </c>
-      <c r="S2" s="25">
-        <v>0</v>
-      </c>
-      <c r="T2" s="25">
+      <c r="S2" s="24">
         <v>8.1560283687943296E-4</v>
       </c>
-      <c r="U2" s="25">
+      <c r="T2" s="24">
         <v>3.3444816053511699E-5</v>
       </c>
-      <c r="V2" s="25">
+      <c r="U2" s="24">
         <v>1E-3</v>
       </c>
-      <c r="W2" s="25">
+      <c r="V2" s="24">
         <v>6.6889632107023397E-5</v>
       </c>
-      <c r="X2" s="30">
+      <c r="W2" s="36">
         <v>0.29580000000000001</v>
       </c>
-      <c r="Y2" s="30">
+      <c r="X2" s="36">
         <v>0.73499999999999999</v>
       </c>
-      <c r="Z2" s="40">
+      <c r="Y2" s="38">
         <v>1</v>
       </c>
-      <c r="AA2" s="9">
-        <v>1000</v>
-      </c>
-      <c r="AB2" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="AC2" s="9">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" s="9" customFormat="1">
+    </row>
+    <row r="3" spans="1:25" s="9" customFormat="1">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="15"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="10"/>
-      <c r="I3" s="26">
+      <c r="I3" s="25">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K3" s="20">
-        <v>300</v>
-      </c>
-      <c r="L3" s="15">
-        <v>100</v>
-      </c>
-      <c r="M3" s="15">
-        <v>400</v>
-      </c>
-      <c r="O3" s="31">
+      <c r="J3" s="48">
+        <v>19295</v>
+      </c>
+      <c r="K3" s="48">
+        <v>57051.68</v>
+      </c>
+      <c r="L3" s="48">
+        <v>74803.079999999987</v>
+      </c>
+      <c r="M3" s="19">
+        <v>300</v>
+      </c>
+      <c r="N3" s="14">
+        <v>100</v>
+      </c>
+      <c r="O3" s="14">
+        <v>400</v>
+      </c>
+      <c r="P3" s="30">
         <v>1</v>
       </c>
-      <c r="R3" s="10">
+      <c r="Q3" s="10">
         <v>8.6879432624113496E-3</v>
       </c>
-      <c r="S3" s="26">
+      <c r="R3" s="25">
         <v>5.0167224080267597E-4</v>
       </c>
-      <c r="T3" s="26">
+      <c r="S3" s="25">
         <v>1.3829787234042601E-3</v>
       </c>
-      <c r="U3" s="26">
+      <c r="T3" s="25">
         <v>3.3444816053511699E-4</v>
       </c>
-      <c r="V3" s="26">
+      <c r="U3" s="25">
         <v>1.4886731391585801E-3</v>
       </c>
-      <c r="W3" s="26">
+      <c r="V3" s="25">
         <v>2.6755852842809402E-4</v>
       </c>
-      <c r="X3" s="9">
+      <c r="W3" s="53">
         <v>0.28089999999999998</v>
       </c>
-      <c r="Y3" s="9">
+      <c r="X3" s="53">
         <v>0.66200000000000003</v>
       </c>
-      <c r="Z3" s="41">
+      <c r="Y3" s="39">
         <v>1.12380952380952</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="9" customFormat="1">
+    <row r="4" spans="1:25" s="9" customFormat="1">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -2422,52 +2418,59 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="27">
+      <c r="I4" s="26">
         <v>5.8842443729903498E-3</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="21">
-        <v>300</v>
-      </c>
-      <c r="L4" s="15">
-        <v>100</v>
-      </c>
-      <c r="M4" s="15">
-        <v>400</v>
-      </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="32">
+      <c r="J4" s="49">
+        <v>18755</v>
+      </c>
+      <c r="K4" s="49">
+        <v>53205.52</v>
+      </c>
+      <c r="L4" s="49">
+        <v>70460.12</v>
+      </c>
+      <c r="M4" s="20">
+        <v>300</v>
+      </c>
+      <c r="N4" s="14">
+        <v>100</v>
+      </c>
+      <c r="O4" s="14">
+        <v>400</v>
+      </c>
+      <c r="P4" s="31">
         <v>1</v>
       </c>
-      <c r="R4" s="10">
+      <c r="Q4" s="10">
         <v>1.0638297872340399E-2</v>
       </c>
-      <c r="S4" s="27">
+      <c r="R4" s="26">
         <v>9.6989966555183996E-4</v>
       </c>
-      <c r="T4" s="27">
+      <c r="S4" s="26">
         <v>1.70212765957447E-3</v>
       </c>
-      <c r="U4" s="27">
+      <c r="T4" s="26">
         <v>7.6923076923076901E-4</v>
       </c>
-      <c r="V4" s="27">
+      <c r="U4" s="26">
         <v>1.94174757281553E-3</v>
       </c>
-      <c r="W4" s="27">
+      <c r="V4" s="26">
         <v>5.6856187290969904E-4</v>
       </c>
-      <c r="X4" s="9">
+      <c r="W4" s="53">
         <v>0.22259999999999999</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="X4" s="54">
         <v>0.65</v>
       </c>
-      <c r="Z4" s="42">
+      <c r="Y4" s="40">
         <v>1.2253968253968299</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="9" customFormat="1">
+    <row r="5" spans="1:25" s="9" customFormat="1">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -2475,52 +2478,59 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="I5" s="27">
+      <c r="I5" s="26">
         <v>5.8070739549839203E-3</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="21">
-        <v>300</v>
-      </c>
-      <c r="L5" s="15">
-        <v>100</v>
-      </c>
-      <c r="M5" s="15">
-        <v>400</v>
-      </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="32">
+      <c r="J5" s="49">
+        <v>17580</v>
+      </c>
+      <c r="K5" s="49">
+        <v>49958.32</v>
+      </c>
+      <c r="L5" s="49">
+        <v>66131.920000000013</v>
+      </c>
+      <c r="M5" s="20">
+        <v>300</v>
+      </c>
+      <c r="N5" s="14">
+        <v>100</v>
+      </c>
+      <c r="O5" s="14">
+        <v>400</v>
+      </c>
+      <c r="P5" s="31">
         <v>0.98936170212765995</v>
       </c>
-      <c r="R5" s="10">
+      <c r="Q5" s="10">
         <v>1.24113475177305E-2</v>
       </c>
-      <c r="S5" s="27">
+      <c r="R5" s="26">
         <v>1.3712374581939799E-3</v>
       </c>
-      <c r="T5" s="27">
+      <c r="S5" s="26">
         <v>1.87943262411348E-3</v>
       </c>
-      <c r="U5" s="27">
+      <c r="T5" s="26">
         <v>1.10367892976589E-3</v>
       </c>
-      <c r="V5" s="27">
+      <c r="U5" s="26">
         <v>2.2330097087378598E-3</v>
       </c>
-      <c r="W5" s="27">
+      <c r="V5" s="26">
         <v>9.3645484949832799E-4</v>
       </c>
-      <c r="X5" s="9">
+      <c r="W5" s="53">
         <v>0.20979999999999999</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="X5" s="54">
         <v>0.64</v>
       </c>
-      <c r="Z5" s="42">
+      <c r="Y5" s="40">
         <v>1.35238095238095</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:25">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
@@ -2529,832 +2539,1121 @@
       <c r="F6" s="2"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="28">
+      <c r="I6" s="27">
         <v>5.6141479099678501E-3</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="22">
-        <v>300</v>
-      </c>
-      <c r="L6" s="15">
-        <v>100</v>
-      </c>
-      <c r="M6" s="15">
-        <v>400</v>
-      </c>
-      <c r="O6" s="30">
+      <c r="J6" s="49">
+        <v>16765</v>
+      </c>
+      <c r="K6" s="49">
+        <v>47108.56</v>
+      </c>
+      <c r="L6" s="49">
+        <v>62532.36</v>
+      </c>
+      <c r="M6" s="21">
+        <v>300</v>
+      </c>
+      <c r="N6" s="14">
+        <v>100</v>
+      </c>
+      <c r="O6" s="14">
+        <v>400</v>
+      </c>
+      <c r="P6" s="29">
         <v>0.97163120567375905</v>
       </c>
-      <c r="R6" s="24">
+      <c r="Q6" s="23">
         <v>1.3829787234042599E-2</v>
       </c>
-      <c r="S6" s="28">
+      <c r="R6" s="27">
         <v>1.7391304347826101E-3</v>
       </c>
-      <c r="T6" s="28">
+      <c r="S6" s="27">
         <v>2.1985815602836899E-3</v>
       </c>
-      <c r="U6" s="28">
+      <c r="T6" s="27">
         <v>1.60535117056856E-3</v>
       </c>
-      <c r="V6" s="28">
+      <c r="U6" s="27">
         <v>2.5889967637540501E-3</v>
       </c>
-      <c r="W6" s="28">
+      <c r="V6" s="27">
         <v>1.3712374581939799E-3</v>
       </c>
-      <c r="X6" s="4">
+      <c r="W6" s="36">
         <v>0.19389999999999999</v>
       </c>
-      <c r="Y6" s="18">
+      <c r="X6" s="55">
         <v>0.60899999999999999</v>
       </c>
-      <c r="Z6" s="43">
+      <c r="Y6" s="41">
         <v>1.4539682539682499</v>
       </c>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-    </row>
-    <row r="7" spans="1:29" s="4" customFormat="1">
+    </row>
+    <row r="7" spans="1:25" s="4" customFormat="1">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="48"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="29">
+      <c r="I7" s="28">
         <v>5.3440514469453399E-3</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="23">
-        <v>300</v>
-      </c>
-      <c r="L7" s="15">
-        <v>100</v>
-      </c>
-      <c r="M7" s="15">
-        <v>400</v>
-      </c>
-      <c r="O7" s="30">
+      <c r="J7" s="49">
+        <v>15770</v>
+      </c>
+      <c r="K7" s="49">
+        <v>44255.08</v>
+      </c>
+      <c r="L7" s="49">
+        <v>58763.48</v>
+      </c>
+      <c r="M7" s="22">
+        <v>300</v>
+      </c>
+      <c r="N7" s="14">
+        <v>100</v>
+      </c>
+      <c r="O7" s="14">
+        <v>400</v>
+      </c>
+      <c r="P7" s="29">
         <v>0.95390070921985803</v>
       </c>
-      <c r="R7" s="24">
+      <c r="Q7" s="23">
         <v>1.5957446808510599E-2</v>
       </c>
-      <c r="S7" s="29">
+      <c r="R7" s="28">
         <v>2.10702341137124E-3</v>
       </c>
-      <c r="T7" s="29">
+      <c r="S7" s="28">
         <v>2.5177304964538998E-3</v>
       </c>
-      <c r="U7" s="29">
+      <c r="T7" s="28">
         <v>2.0066889632107E-3</v>
       </c>
-      <c r="V7" s="29">
+      <c r="U7" s="28">
         <v>2.8478964401294502E-3</v>
       </c>
-      <c r="W7" s="29">
+      <c r="V7" s="28">
         <v>1.7725752508361201E-3</v>
       </c>
-      <c r="X7" s="4">
+      <c r="W7" s="36">
         <v>0.18640000000000001</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="X7" s="35">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Z7" s="44">
+      <c r="Y7" s="42">
         <v>1.5492063492063499</v>
       </c>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-    </row>
-    <row r="8" spans="1:29">
-      <c r="I8" s="25">
+    </row>
+    <row r="8" spans="1:25">
+      <c r="I8" s="24">
         <v>5.0739549839228298E-3</v>
       </c>
-      <c r="K8" s="19">
-        <v>300</v>
-      </c>
-      <c r="L8" s="15">
-        <v>100</v>
-      </c>
-      <c r="M8" s="15">
-        <v>400</v>
-      </c>
-      <c r="O8" s="30">
+      <c r="J8" s="49">
+        <v>15140</v>
+      </c>
+      <c r="K8" s="49">
+        <v>42064.56</v>
+      </c>
+      <c r="L8" s="49">
+        <v>55993.36</v>
+      </c>
+      <c r="M8" s="18">
+        <v>300</v>
+      </c>
+      <c r="N8" s="14">
+        <v>100</v>
+      </c>
+      <c r="O8" s="14">
+        <v>400</v>
+      </c>
+      <c r="P8" s="29">
         <v>0.91843971631205701</v>
       </c>
+      <c r="Q8" s="23">
+        <v>1.89716312056738E-2</v>
+      </c>
       <c r="R8" s="24">
-        <v>1.89716312056738E-2</v>
-      </c>
-      <c r="S8" s="25">
         <v>2.4414715719063501E-3</v>
       </c>
-      <c r="T8" s="25">
+      <c r="S8" s="24">
         <v>2.9432624113475202E-3</v>
       </c>
-      <c r="U8" s="25">
+      <c r="T8" s="24">
         <v>2.5083612040133802E-3</v>
       </c>
-      <c r="V8" s="25">
+      <c r="U8" s="24">
         <v>3.20388349514563E-3</v>
       </c>
-      <c r="W8" s="25">
+      <c r="V8" s="24">
         <v>2.2408026755852801E-3</v>
       </c>
-      <c r="X8" s="4">
+      <c r="W8" s="36">
         <v>0.1799</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="X8" s="36">
         <v>0.54500000000000004</v>
       </c>
-      <c r="Z8" s="40">
+      <c r="Y8" s="38">
         <v>1.6317460317460299</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:25">
+      <c r="A9" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="24">
         <v>4.6881028938906798E-3</v>
       </c>
-      <c r="K9" s="19">
-        <v>300</v>
-      </c>
-      <c r="L9" s="15">
-        <v>100</v>
-      </c>
-      <c r="M9" s="15">
-        <v>400</v>
-      </c>
-      <c r="O9" s="30">
+      <c r="J9" s="49">
+        <v>14595</v>
+      </c>
+      <c r="K9" s="49">
+        <v>39902.880000000005</v>
+      </c>
+      <c r="L9" s="49">
+        <v>53330.280000000006</v>
+      </c>
+      <c r="M9" s="18">
+        <v>300</v>
+      </c>
+      <c r="N9" s="14">
+        <v>100</v>
+      </c>
+      <c r="O9" s="14">
+        <v>400</v>
+      </c>
+      <c r="P9" s="29">
         <v>0.879432624113475</v>
       </c>
+      <c r="Q9" s="23">
+        <v>2.2163120567375901E-2</v>
+      </c>
       <c r="R9" s="24">
-        <v>2.2163120567375901E-2</v>
-      </c>
-      <c r="S9" s="25">
         <v>2.9096989966555199E-3</v>
       </c>
-      <c r="T9" s="25">
+      <c r="S9" s="24">
         <v>3.43971631205674E-3</v>
       </c>
-      <c r="U9" s="25">
+      <c r="T9" s="24">
         <v>2.9765886287625399E-3</v>
       </c>
-      <c r="V9" s="25">
+      <c r="U9" s="24">
         <v>3.5922330097087401E-3</v>
       </c>
-      <c r="W9" s="25">
+      <c r="V9" s="24">
         <v>2.7090301003344498E-3</v>
       </c>
-      <c r="X9" s="4">
+      <c r="W9" s="36">
         <v>0.17349999999999999</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="X9" s="36">
         <v>0.505</v>
       </c>
-      <c r="Z9" s="40">
+      <c r="Y9" s="38">
         <v>1.6952380952381001</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
-      <c r="I10" s="25">
+    <row r="10" spans="1:25">
+      <c r="I10" s="24">
         <v>4.1093247588424404E-3</v>
       </c>
-      <c r="K10" s="19">
-        <v>300</v>
-      </c>
-      <c r="L10" s="15">
-        <v>100</v>
-      </c>
-      <c r="M10" s="15">
-        <v>400</v>
-      </c>
-      <c r="O10" s="30">
+      <c r="J10" s="49">
+        <v>14055</v>
+      </c>
+      <c r="K10" s="49">
+        <v>37681.72</v>
+      </c>
+      <c r="L10" s="49">
+        <v>50612.32</v>
+      </c>
+      <c r="M10" s="18">
+        <v>300</v>
+      </c>
+      <c r="N10" s="14">
+        <v>100</v>
+      </c>
+      <c r="O10" s="14">
+        <v>400</v>
+      </c>
+      <c r="P10" s="29">
         <v>0.83333333333333304</v>
       </c>
+      <c r="Q10" s="23">
+        <v>2.4468085106383E-2</v>
+      </c>
       <c r="R10" s="24">
-        <v>2.4468085106383E-2</v>
-      </c>
-      <c r="S10" s="25">
         <v>3.24414715719064E-3</v>
       </c>
-      <c r="T10" s="25">
+      <c r="S10" s="24">
         <v>4.1134751773049599E-3</v>
       </c>
-      <c r="U10" s="25">
+      <c r="T10" s="24">
         <v>3.3779264214046801E-3</v>
       </c>
-      <c r="V10" s="25">
+      <c r="U10" s="24">
         <v>4.1100323624595498E-3</v>
       </c>
-      <c r="W10" s="25">
+      <c r="V10" s="24">
         <v>3.17725752508361E-3</v>
       </c>
-      <c r="X10" s="4">
+      <c r="W10" s="36">
         <v>0.16489999999999999</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="X10" s="36">
         <v>0.48499999999999999</v>
       </c>
-      <c r="Z10" s="40">
+      <c r="Y10" s="38">
         <v>1.7904761904761901</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
-      <c r="I11" s="25">
+    <row r="11" spans="1:25">
+      <c r="I11" s="24">
         <v>3.6077170418006401E-3</v>
       </c>
-      <c r="K11" s="19">
-        <v>300</v>
-      </c>
-      <c r="L11" s="15">
-        <v>100</v>
-      </c>
-      <c r="M11" s="15">
-        <v>400</v>
-      </c>
-      <c r="O11" s="30">
+      <c r="J11" s="49">
+        <v>13330</v>
+      </c>
+      <c r="K11" s="49">
+        <v>35841.32</v>
+      </c>
+      <c r="L11" s="49">
+        <v>48104.92</v>
+      </c>
+      <c r="M11" s="18">
+        <v>300</v>
+      </c>
+      <c r="N11" s="14">
+        <v>100</v>
+      </c>
+      <c r="O11" s="14">
+        <v>400</v>
+      </c>
+      <c r="P11" s="29">
         <v>0.78723404255319196</v>
       </c>
+      <c r="Q11" s="23">
+        <v>2.73049645390071E-2</v>
+      </c>
       <c r="R11" s="24">
-        <v>2.73049645390071E-2</v>
-      </c>
-      <c r="S11" s="25">
         <v>3.5785953177257502E-3</v>
       </c>
-      <c r="T11" s="25">
+      <c r="S11" s="24">
         <v>4.4680851063829798E-3</v>
       </c>
-      <c r="U11" s="25">
+      <c r="T11" s="24">
         <v>3.7792642140468198E-3</v>
       </c>
-      <c r="V11" s="25">
+      <c r="U11" s="24">
         <v>4.6601941747572801E-3</v>
       </c>
-      <c r="W11" s="25">
+      <c r="V11" s="24">
         <v>3.6454849498327802E-3</v>
       </c>
-      <c r="X11" s="4">
+      <c r="W11" s="36">
         <v>0.16159999999999999</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="X11" s="36">
         <v>0.45900000000000002</v>
       </c>
-      <c r="Z11" s="40">
+      <c r="Y11" s="38">
         <v>1.89206349206349</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
-      <c r="I12" s="25">
+    <row r="12" spans="1:25">
+      <c r="I12" s="24">
         <v>2.9710610932475899E-3</v>
       </c>
-      <c r="K12" s="19">
-        <v>300</v>
-      </c>
-      <c r="L12" s="15">
-        <v>100</v>
-      </c>
-      <c r="M12" s="15">
-        <v>400</v>
-      </c>
-      <c r="O12" s="30">
+      <c r="J12" s="49">
+        <v>13060</v>
+      </c>
+      <c r="K12" s="49">
+        <v>34568.240000000005</v>
+      </c>
+      <c r="L12" s="49">
+        <v>46583.44</v>
+      </c>
+      <c r="M12" s="18">
+        <v>300</v>
+      </c>
+      <c r="N12" s="14">
+        <v>100</v>
+      </c>
+      <c r="O12" s="14">
+        <v>400</v>
+      </c>
+      <c r="P12" s="29">
         <v>0.70567375886524797</v>
       </c>
+      <c r="Q12" s="23">
+        <v>3.0496453900709201E-2</v>
+      </c>
       <c r="R12" s="24">
-        <v>3.0496453900709201E-2</v>
-      </c>
-      <c r="S12" s="25">
         <v>4.0133779264214103E-3</v>
       </c>
-      <c r="T12" s="25">
+      <c r="S12" s="24">
         <v>5.1063829787233997E-3</v>
       </c>
-      <c r="U12" s="25">
+      <c r="T12" s="24">
         <v>4.2809364548495E-3</v>
       </c>
-      <c r="V12" s="25">
+      <c r="U12" s="24">
         <v>5.2427184466019398E-3</v>
       </c>
-      <c r="W12" s="25">
+      <c r="V12" s="24">
         <v>4.0802675585284304E-3</v>
       </c>
-      <c r="X12" s="4">
+      <c r="W12" s="36">
         <v>0.15740000000000001</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="X12" s="36">
         <v>0.44400000000000001</v>
       </c>
-      <c r="Z12" s="40">
+      <c r="Y12" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
-      <c r="K13" s="19">
-        <v>300</v>
-      </c>
-      <c r="L13" s="15">
-        <v>100</v>
-      </c>
-      <c r="M13" s="15">
-        <v>400</v>
-      </c>
-      <c r="O13" s="30">
+    <row r="13" spans="1:25">
+      <c r="J13" s="49">
+        <v>12700</v>
+      </c>
+      <c r="K13" s="49">
+        <v>32870.800000000003</v>
+      </c>
+      <c r="L13" s="49">
+        <v>44554.8</v>
+      </c>
+      <c r="M13" s="18">
+        <v>300</v>
+      </c>
+      <c r="N13" s="14">
+        <v>100</v>
+      </c>
+      <c r="O13" s="14">
+        <v>400</v>
+      </c>
+      <c r="P13" s="29">
         <v>0.62411347517730498</v>
       </c>
-      <c r="R13" s="24">
+      <c r="Q13" s="23">
         <v>3.2269503546099303E-2</v>
       </c>
-      <c r="X13" s="4">
+      <c r="W13" s="36">
         <v>0.152</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="X13" s="36">
         <v>0.42399999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
-      <c r="A14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="K14" s="19">
-        <v>300</v>
-      </c>
-      <c r="L14" s="15">
-        <v>100</v>
-      </c>
-      <c r="M14" s="15">
-        <v>400</v>
-      </c>
-      <c r="O14" s="30">
+    <row r="14" spans="1:25">
+      <c r="A14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="J14" s="49">
+        <v>12245</v>
+      </c>
+      <c r="K14" s="49">
+        <v>31068.48</v>
+      </c>
+      <c r="L14" s="49">
+        <v>42333.88</v>
+      </c>
+      <c r="M14" s="18">
+        <v>300</v>
+      </c>
+      <c r="N14" s="14">
+        <v>100</v>
+      </c>
+      <c r="O14" s="14">
+        <v>400</v>
+      </c>
+      <c r="P14" s="29">
         <v>0.46099290780141799</v>
       </c>
-      <c r="R14" s="24">
+      <c r="Q14" s="23">
         <v>3.5106382978723399E-2</v>
       </c>
-      <c r="X14" s="4">
+      <c r="W14" s="36">
         <v>0.153</v>
       </c>
-      <c r="Y14" s="4">
+      <c r="X14" s="36">
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
-      <c r="A15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="K15" s="19">
-        <v>300</v>
-      </c>
-      <c r="L15" s="15">
-        <v>100</v>
-      </c>
-      <c r="M15" s="15">
-        <v>400</v>
-      </c>
-      <c r="O15" s="30">
+    <row r="15" spans="1:25">
+      <c r="A15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="J15" s="49">
+        <v>12335</v>
+      </c>
+      <c r="K15" s="49">
+        <v>30127.84</v>
+      </c>
+      <c r="L15" s="49">
+        <v>41476.039999999994</v>
+      </c>
+      <c r="M15" s="18">
+        <v>300</v>
+      </c>
+      <c r="N15" s="14">
+        <v>100</v>
+      </c>
+      <c r="O15" s="14">
+        <v>400</v>
+      </c>
+      <c r="P15" s="29">
         <v>0.28723404255319201</v>
       </c>
-      <c r="R15" s="24">
+      <c r="Q15" s="23">
         <v>3.7411347517730502E-2</v>
       </c>
-      <c r="X15" s="4">
+      <c r="W15" s="36">
         <v>0.152</v>
       </c>
-      <c r="Y15" s="4">
+      <c r="X15" s="36">
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
-      <c r="K16" s="19">
-        <v>300</v>
-      </c>
-      <c r="L16" s="15">
-        <v>100</v>
-      </c>
-      <c r="M16" s="15">
-        <v>400</v>
-      </c>
-      <c r="O16" s="30">
+    <row r="16" spans="1:25">
+      <c r="J16" s="49">
+        <v>12245</v>
+      </c>
+      <c r="K16" s="49">
+        <v>29313.48</v>
+      </c>
+      <c r="L16" s="49">
+        <v>40578.879999999997</v>
+      </c>
+      <c r="M16" s="18">
+        <v>300</v>
+      </c>
+      <c r="N16" s="14">
+        <v>100</v>
+      </c>
+      <c r="O16" s="14">
+        <v>400</v>
+      </c>
+      <c r="P16" s="29">
         <v>0.184397163120567</v>
       </c>
-      <c r="R16" s="24">
+      <c r="Q16" s="23">
         <v>3.9716312056737597E-2</v>
       </c>
-      <c r="X16" s="4">
+      <c r="W16" s="36">
         <v>0.15090000000000001</v>
       </c>
-      <c r="Y16" s="4">
+      <c r="X16" s="36">
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="17" spans="11:25">
-      <c r="K17" s="19">
-        <v>300</v>
-      </c>
-      <c r="L17" s="15">
-        <v>100</v>
-      </c>
-      <c r="M17" s="15">
-        <v>400</v>
-      </c>
-      <c r="O17" s="30">
+    <row r="17" spans="10:24">
+      <c r="J17" s="49">
+        <v>12155</v>
+      </c>
+      <c r="K17" s="49">
+        <v>28434.120000000003</v>
+      </c>
+      <c r="L17" s="49">
+        <v>39616.720000000001</v>
+      </c>
+      <c r="M17" s="18">
+        <v>300</v>
+      </c>
+      <c r="N17" s="14">
+        <v>100</v>
+      </c>
+      <c r="O17" s="14">
+        <v>400</v>
+      </c>
+      <c r="P17" s="29">
         <v>8.5106382978723402E-2</v>
       </c>
-      <c r="R17" s="24">
+      <c r="Q17" s="23">
         <v>4.3262411347517703E-2</v>
       </c>
-      <c r="X17" s="4">
+      <c r="W17" s="36">
         <v>0.14979999999999999</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="X17" s="36">
         <v>0.379</v>
       </c>
     </row>
-    <row r="18" spans="11:25">
-      <c r="K18" s="19">
-        <v>300</v>
-      </c>
-      <c r="L18" s="15">
-        <v>100</v>
-      </c>
-      <c r="M18" s="15">
-        <v>400</v>
-      </c>
-      <c r="O18" s="30">
+    <row r="18" spans="10:24">
+      <c r="J18" s="49">
+        <v>12065</v>
+      </c>
+      <c r="K18" s="49">
+        <v>27814.760000000002</v>
+      </c>
+      <c r="L18" s="49">
+        <v>38914.560000000005</v>
+      </c>
+      <c r="M18" s="18">
+        <v>300</v>
+      </c>
+      <c r="N18" s="14">
+        <v>100</v>
+      </c>
+      <c r="O18" s="14">
+        <v>400</v>
+      </c>
+      <c r="P18" s="29">
         <v>4.2553191489361701E-2</v>
       </c>
-      <c r="R18" s="24">
+      <c r="Q18" s="23">
         <v>4.4858156028368797E-2</v>
       </c>
-      <c r="X18" s="4">
+      <c r="W18" s="36">
         <v>0.1487</v>
       </c>
-      <c r="Y18" s="4">
+      <c r="X18" s="36">
         <v>0.379</v>
       </c>
     </row>
-    <row r="19" spans="11:25">
-      <c r="K19" s="19">
-        <v>300</v>
-      </c>
-      <c r="L19" s="15">
-        <v>100</v>
-      </c>
-      <c r="M19" s="15">
-        <v>400</v>
-      </c>
-      <c r="O19" s="30">
+    <row r="19" spans="10:24">
+      <c r="J19" s="49">
+        <v>11975</v>
+      </c>
+      <c r="K19" s="49">
+        <v>27585.4</v>
+      </c>
+      <c r="L19" s="49">
+        <v>38602.400000000001</v>
+      </c>
+      <c r="M19" s="18">
+        <v>300</v>
+      </c>
+      <c r="N19" s="14">
+        <v>100</v>
+      </c>
+      <c r="O19" s="14">
+        <v>400</v>
+      </c>
+      <c r="P19" s="29">
         <v>2.1276595744680899E-2</v>
       </c>
-      <c r="R19" s="24">
+      <c r="Q19" s="23">
         <v>4.6808510638297898E-2</v>
       </c>
-      <c r="X19" s="4">
+      <c r="W19" s="36">
         <v>0.1479</v>
       </c>
-      <c r="Y19" s="4">
+      <c r="X19" s="36">
         <v>0.372</v>
       </c>
     </row>
-    <row r="20" spans="11:25">
-      <c r="K20" s="19">
-        <v>300</v>
-      </c>
-      <c r="L20" s="15">
-        <v>100</v>
-      </c>
-      <c r="M20" s="15">
-        <v>400</v>
-      </c>
-      <c r="O20" s="30">
+    <row r="20" spans="10:24">
+      <c r="J20" s="49">
+        <v>11900</v>
+      </c>
+      <c r="K20" s="49">
+        <v>27437.599999999999</v>
+      </c>
+      <c r="L20" s="49">
+        <v>38385.599999999999</v>
+      </c>
+      <c r="M20" s="18">
+        <v>300</v>
+      </c>
+      <c r="N20" s="14">
+        <v>100</v>
+      </c>
+      <c r="O20" s="14">
+        <v>400</v>
+      </c>
+      <c r="P20" s="29">
         <v>3.54609929078014E-3</v>
       </c>
-      <c r="R20" s="24">
+      <c r="Q20" s="23">
         <v>4.8936170212766E-2</v>
       </c>
-      <c r="X20" s="4">
+      <c r="W20" s="36">
         <v>0.14660000000000001</v>
       </c>
-      <c r="Y20" s="4">
+      <c r="X20" s="36">
         <v>0.371</v>
       </c>
     </row>
-    <row r="21" spans="11:25">
-      <c r="K21" s="19">
-        <v>300</v>
-      </c>
-      <c r="L21" s="15">
-        <v>100</v>
-      </c>
-      <c r="M21" s="15">
-        <v>400</v>
-      </c>
-      <c r="O21" s="30">
+    <row r="21" spans="10:24">
+      <c r="J21" s="49">
+        <v>11795</v>
+      </c>
+      <c r="K21" s="49">
+        <v>26996.68</v>
+      </c>
+      <c r="L21" s="49">
+        <v>37848.080000000002</v>
+      </c>
+      <c r="M21" s="18">
+        <v>300</v>
+      </c>
+      <c r="N21" s="14">
+        <v>100</v>
+      </c>
+      <c r="O21" s="14">
+        <v>400</v>
+      </c>
+      <c r="P21" s="29">
         <v>0</v>
       </c>
-      <c r="R21" s="24">
+      <c r="Q21" s="23">
         <v>0.05</v>
       </c>
-      <c r="X21" s="4">
+      <c r="W21" s="36">
         <v>0.14369999999999999</v>
       </c>
-      <c r="Y21" s="4">
+      <c r="X21" s="36">
         <v>0.36699999999999999</v>
       </c>
     </row>
-    <row r="22" spans="11:25">
-      <c r="K22" s="19">
-        <v>300</v>
-      </c>
-      <c r="L22" s="15">
-        <v>100</v>
-      </c>
-      <c r="M22" s="15">
-        <v>400</v>
-      </c>
-      <c r="O22" s="30">
+    <row r="22" spans="10:24">
+      <c r="J22" s="49">
+        <v>11550</v>
+      </c>
+      <c r="K22" s="49">
+        <v>26531.200000000001</v>
+      </c>
+      <c r="L22" s="49">
+        <v>37157.199999999997</v>
+      </c>
+      <c r="M22" s="18">
+        <v>300</v>
+      </c>
+      <c r="N22" s="14">
+        <v>100</v>
+      </c>
+      <c r="O22" s="14">
+        <v>400</v>
+      </c>
+      <c r="P22" s="29">
         <v>0</v>
       </c>
-      <c r="R22" s="24">
+      <c r="Q22" s="23">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="X22" s="4">
+      <c r="W22" s="36">
         <v>0.14230000000000001</v>
       </c>
-      <c r="Y22" s="4">
+      <c r="X22" s="36">
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="23" spans="11:25">
-      <c r="K23" s="19">
-        <v>300</v>
-      </c>
-      <c r="L23" s="15">
-        <v>100</v>
-      </c>
-      <c r="M23" s="15">
-        <v>400</v>
-      </c>
-      <c r="X23" s="4">
+    <row r="23" spans="10:24">
+      <c r="J23" s="49">
+        <v>11435</v>
+      </c>
+      <c r="K23" s="49">
+        <v>26339.239999999998</v>
+      </c>
+      <c r="L23" s="49">
+        <v>36859.439999999995</v>
+      </c>
+      <c r="M23" s="18">
+        <v>300</v>
+      </c>
+      <c r="N23" s="14">
+        <v>100</v>
+      </c>
+      <c r="O23" s="14">
+        <v>400</v>
+      </c>
+      <c r="W23" s="36">
         <v>0.1419</v>
       </c>
-      <c r="Y23" s="4">
+      <c r="X23" s="36">
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="24" spans="11:25">
-      <c r="K24" s="19">
-        <v>300</v>
-      </c>
-      <c r="L24" s="15">
-        <v>100</v>
-      </c>
-      <c r="M24" s="15">
-        <v>400</v>
-      </c>
-      <c r="X24" s="4">
+    <row r="24" spans="10:24">
+      <c r="J24" s="49">
+        <v>11400</v>
+      </c>
+      <c r="K24" s="49">
+        <v>26235.599999999999</v>
+      </c>
+      <c r="L24" s="49">
+        <v>36723.599999999999</v>
+      </c>
+      <c r="M24" s="18">
+        <v>300</v>
+      </c>
+      <c r="N24" s="14">
+        <v>100</v>
+      </c>
+      <c r="O24" s="14">
+        <v>400</v>
+      </c>
+      <c r="W24" s="36">
         <v>0.14169999999999999</v>
       </c>
-      <c r="Y24" s="4">
+      <c r="X24" s="36">
         <v>0.36099999999999999</v>
       </c>
     </row>
-    <row r="25" spans="11:25">
-      <c r="K25" s="19">
-        <v>300</v>
-      </c>
-      <c r="L25" s="15">
-        <v>100</v>
-      </c>
-      <c r="M25" s="15">
-        <v>400</v>
-      </c>
-      <c r="X25" s="4">
+    <row r="25" spans="10:24">
+      <c r="J25" s="49">
+        <v>11380</v>
+      </c>
+      <c r="K25" s="49">
+        <v>26148.52</v>
+      </c>
+      <c r="L25" s="49">
+        <v>36618.120000000003</v>
+      </c>
+      <c r="M25" s="18">
+        <v>300</v>
+      </c>
+      <c r="N25" s="14">
+        <v>100</v>
+      </c>
+      <c r="O25" s="14">
+        <v>400</v>
+      </c>
+      <c r="W25" s="36">
         <v>0.1414</v>
       </c>
-      <c r="Y25" s="4">
+      <c r="X25" s="36">
         <v>0.35899999999999999</v>
       </c>
     </row>
-    <row r="26" spans="11:25">
-      <c r="K26" s="19">
-        <v>300</v>
-      </c>
-      <c r="L26" s="15">
-        <v>100</v>
-      </c>
-      <c r="M26" s="15">
-        <v>400</v>
-      </c>
-      <c r="X26" s="4">
+    <row r="26" spans="10:24">
+      <c r="J26" s="49">
+        <v>11360</v>
+      </c>
+      <c r="K26" s="49">
+        <v>26061.440000000002</v>
+      </c>
+      <c r="L26" s="49">
+        <v>36512.639999999999</v>
+      </c>
+      <c r="M26" s="18">
+        <v>300</v>
+      </c>
+      <c r="N26" s="14">
+        <v>100</v>
+      </c>
+      <c r="O26" s="14">
+        <v>400</v>
+      </c>
+      <c r="W26" s="36">
         <v>0.14119999999999999</v>
       </c>
-      <c r="Y26" s="4">
+      <c r="X26" s="36">
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="27" spans="11:25">
-      <c r="K27" s="19">
-        <v>300</v>
-      </c>
-      <c r="L27" s="15">
-        <v>100</v>
-      </c>
-      <c r="M27" s="15">
-        <v>400</v>
-      </c>
-      <c r="X27" s="4">
+    <row r="27" spans="10:24">
+      <c r="J27" s="49">
+        <v>11340</v>
+      </c>
+      <c r="K27" s="49">
+        <v>25909.360000000001</v>
+      </c>
+      <c r="L27" s="49">
+        <v>36342.160000000003</v>
+      </c>
+      <c r="M27" s="18">
+        <v>300</v>
+      </c>
+      <c r="N27" s="14">
+        <v>100</v>
+      </c>
+      <c r="O27" s="14">
+        <v>400</v>
+      </c>
+      <c r="W27" s="36">
         <v>0.14099999999999999</v>
       </c>
-      <c r="Y27" s="4">
+      <c r="X27" s="36">
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="28" spans="11:25">
-      <c r="K28" s="19">
-        <v>300</v>
-      </c>
-      <c r="L28" s="15">
-        <v>100</v>
-      </c>
-      <c r="M28" s="15">
-        <v>400</v>
-      </c>
-      <c r="X28" s="4">
+    <row r="28" spans="10:24">
+      <c r="J28" s="49">
+        <v>11320</v>
+      </c>
+      <c r="K28" s="49">
+        <v>25757.279999999999</v>
+      </c>
+      <c r="L28" s="49">
+        <v>36171.68</v>
+      </c>
+      <c r="M28" s="18">
+        <v>300</v>
+      </c>
+      <c r="N28" s="14">
+        <v>100</v>
+      </c>
+      <c r="O28" s="14">
+        <v>400</v>
+      </c>
+      <c r="W28" s="36">
         <v>0.14069999999999999</v>
       </c>
-      <c r="Y28" s="4">
+      <c r="X28" s="36">
         <v>0.35299999999999998</v>
       </c>
     </row>
-    <row r="29" spans="11:25">
-      <c r="K29" s="19">
-        <v>300</v>
-      </c>
-      <c r="L29" s="15">
-        <v>100</v>
-      </c>
-      <c r="M29" s="15">
-        <v>400</v>
-      </c>
-      <c r="X29" s="4">
+    <row r="29" spans="10:24">
+      <c r="J29" s="49">
+        <v>11300</v>
+      </c>
+      <c r="K29" s="49">
+        <v>25540.2</v>
+      </c>
+      <c r="L29" s="49">
+        <v>35936.199999999997</v>
+      </c>
+      <c r="M29" s="18">
+        <v>300</v>
+      </c>
+      <c r="N29" s="14">
+        <v>100</v>
+      </c>
+      <c r="O29" s="14">
+        <v>400</v>
+      </c>
+      <c r="W29" s="36">
         <v>0.14050000000000001</v>
       </c>
-      <c r="Y29" s="4">
+      <c r="X29" s="36">
         <v>0.35099999999999998</v>
       </c>
     </row>
-    <row r="30" spans="11:25">
-      <c r="K30" s="19">
-        <v>300</v>
-      </c>
-      <c r="L30" s="15">
-        <v>100</v>
-      </c>
-      <c r="M30" s="15">
-        <v>400</v>
-      </c>
-      <c r="X30" s="4">
+    <row r="30" spans="10:24">
+      <c r="J30" s="49">
+        <v>11280</v>
+      </c>
+      <c r="K30" s="49">
+        <v>25453.119999999999</v>
+      </c>
+      <c r="L30" s="49">
+        <v>35830.719999999994</v>
+      </c>
+      <c r="M30" s="18">
+        <v>300</v>
+      </c>
+      <c r="N30" s="14">
+        <v>100</v>
+      </c>
+      <c r="O30" s="14">
+        <v>400</v>
+      </c>
+      <c r="W30" s="36">
         <v>0.14019999999999999</v>
       </c>
-      <c r="Y30" s="4">
+      <c r="X30" s="36">
         <v>0.35</v>
       </c>
     </row>
-    <row r="31" spans="11:25">
-      <c r="K31" s="19">
-        <v>300</v>
-      </c>
-      <c r="L31" s="15">
-        <v>100</v>
-      </c>
-      <c r="M31" s="15">
-        <v>400</v>
-      </c>
-      <c r="X31" s="4">
+    <row r="31" spans="10:24">
+      <c r="J31" s="49">
+        <v>11260</v>
+      </c>
+      <c r="K31" s="49">
+        <v>25366.04</v>
+      </c>
+      <c r="L31" s="49">
+        <v>35725.24</v>
+      </c>
+      <c r="M31" s="18">
+        <v>300</v>
+      </c>
+      <c r="N31" s="14">
+        <v>100</v>
+      </c>
+      <c r="O31" s="14">
+        <v>400</v>
+      </c>
+      <c r="W31" s="36">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Y31" s="4">
+      <c r="X31" s="36">
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="32" spans="11:25">
-      <c r="K32" s="19">
-        <v>300</v>
-      </c>
-      <c r="L32" s="15">
-        <v>100</v>
-      </c>
-      <c r="M32" s="15">
-        <v>400</v>
-      </c>
-      <c r="X32" s="4">
+    <row r="32" spans="10:24">
+      <c r="J32" s="49">
+        <v>11240</v>
+      </c>
+      <c r="K32" s="49">
+        <v>25213.96</v>
+      </c>
+      <c r="L32" s="49">
+        <v>35554.76</v>
+      </c>
+      <c r="M32" s="18">
+        <v>300</v>
+      </c>
+      <c r="N32" s="14">
+        <v>100</v>
+      </c>
+      <c r="O32" s="14">
+        <v>400</v>
+      </c>
+      <c r="W32" s="36">
         <v>0.13980000000000001</v>
       </c>
-      <c r="Y32" s="4">
+      <c r="X32" s="36">
         <v>0.34599999999999997</v>
       </c>
     </row>
-    <row r="33" spans="11:25">
-      <c r="K33" s="19">
-        <v>300</v>
-      </c>
-      <c r="L33" s="15">
-        <v>100</v>
-      </c>
-      <c r="M33" s="15">
-        <v>400</v>
-      </c>
-      <c r="X33" s="4">
+    <row r="33" spans="10:24">
+      <c r="J33" s="49">
+        <v>11220</v>
+      </c>
+      <c r="K33" s="49">
+        <v>24996.880000000001</v>
+      </c>
+      <c r="L33" s="49">
+        <v>35319.280000000006</v>
+      </c>
+      <c r="M33" s="18">
+        <v>300</v>
+      </c>
+      <c r="N33" s="14">
+        <v>100</v>
+      </c>
+      <c r="O33" s="14">
+        <v>400</v>
+      </c>
+      <c r="W33" s="36">
         <v>0.13950000000000001</v>
       </c>
-      <c r="Y33" s="4">
+      <c r="X33" s="36">
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="34" spans="11:25">
-      <c r="K34" s="19">
-        <v>300</v>
-      </c>
-      <c r="L34" s="15">
-        <v>100</v>
-      </c>
-      <c r="M34" s="15">
-        <v>400</v>
-      </c>
-      <c r="X34" s="4">
+    <row r="34" spans="10:24">
+      <c r="J34" s="49">
+        <v>11200</v>
+      </c>
+      <c r="K34" s="49">
+        <v>24844.799999999999</v>
+      </c>
+      <c r="L34" s="49">
+        <v>35148.800000000003</v>
+      </c>
+      <c r="M34" s="18">
+        <v>300</v>
+      </c>
+      <c r="N34" s="14">
+        <v>100</v>
+      </c>
+      <c r="O34" s="14">
+        <v>400</v>
+      </c>
+      <c r="W34" s="36">
         <v>0.13930000000000001</v>
       </c>
-      <c r="Y34" s="4">
+      <c r="X34" s="36">
         <v>0.34200000000000003</v>
       </c>
     </row>
-    <row r="35" spans="11:25">
-      <c r="K35" s="19">
-        <v>300</v>
-      </c>
-      <c r="L35" s="15">
-        <v>100</v>
-      </c>
-      <c r="M35" s="15">
-        <v>400</v>
-      </c>
-      <c r="X35" s="4">
+    <row r="35" spans="10:24">
+      <c r="J35" s="49">
+        <v>11180</v>
+      </c>
+      <c r="K35" s="49">
+        <v>24757.72</v>
+      </c>
+      <c r="L35" s="49">
+        <v>35043.32</v>
+      </c>
+      <c r="M35" s="18">
+        <v>300</v>
+      </c>
+      <c r="N35" s="14">
+        <v>100</v>
+      </c>
+      <c r="O35" s="14">
+        <v>400</v>
+      </c>
+      <c r="W35" s="36">
         <v>0.1391</v>
       </c>
-      <c r="Y35" s="4">
+      <c r="X35" s="36">
         <v>0.34</v>
       </c>
     </row>
-    <row r="36" spans="11:25">
-      <c r="K36" s="19">
-        <v>300</v>
-      </c>
-      <c r="L36" s="15">
-        <v>100</v>
-      </c>
-      <c r="M36" s="15">
-        <v>400</v>
-      </c>
-      <c r="X36" s="4">
+    <row r="36" spans="10:24">
+      <c r="J36" s="49">
+        <v>11160</v>
+      </c>
+      <c r="K36" s="49">
+        <v>24670.639999999999</v>
+      </c>
+      <c r="L36" s="49">
+        <v>34937.839999999997</v>
+      </c>
+      <c r="M36" s="18">
+        <v>300</v>
+      </c>
+      <c r="N36" s="14">
+        <v>100</v>
+      </c>
+      <c r="O36" s="14">
+        <v>400</v>
+      </c>
+      <c r="W36" s="36">
         <v>0.13880000000000001</v>
       </c>
-      <c r="Y36" s="4">
+      <c r="X36" s="36">
         <v>0.33900000000000002</v>
       </c>
     </row>
-    <row r="37" spans="11:25">
-      <c r="K37" s="19">
-        <v>300</v>
-      </c>
-      <c r="L37" s="15">
-        <v>100</v>
-      </c>
-      <c r="M37" s="15">
-        <v>400</v>
-      </c>
-      <c r="X37" s="4">
+    <row r="37" spans="10:24">
+      <c r="J37" s="49">
+        <v>11140</v>
+      </c>
+      <c r="K37" s="49">
+        <v>24583.559999999998</v>
+      </c>
+      <c r="L37" s="49">
+        <v>34832.36</v>
+      </c>
+      <c r="M37" s="18">
+        <v>300</v>
+      </c>
+      <c r="N37" s="14">
+        <v>100</v>
+      </c>
+      <c r="O37" s="14">
+        <v>400</v>
+      </c>
+      <c r="W37" s="36">
         <v>0.1386</v>
       </c>
-      <c r="Y37" s="4">
+      <c r="X37" s="36">
         <v>0.33800000000000002</v>
       </c>
     </row>
-    <row r="38" spans="11:25">
-      <c r="K38" s="19">
-        <v>300</v>
-      </c>
-      <c r="L38" s="15">
-        <v>100</v>
-      </c>
-      <c r="M38" s="15">
+    <row r="38" spans="10:24">
+      <c r="J38" s="49">
+        <v>11120</v>
+      </c>
+      <c r="K38" s="49">
+        <v>24496.48</v>
+      </c>
+      <c r="L38" s="49">
+        <v>34726.879999999997</v>
+      </c>
+      <c r="M38" s="18">
+        <v>300</v>
+      </c>
+      <c r="N38" s="14">
+        <v>100</v>
+      </c>
+      <c r="O38" s="14">
         <v>400</v>
       </c>
     </row>
@@ -3372,10 +3671,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC38"/>
+  <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3383,253 +3682,233 @@
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.33203125" customWidth="1"/>
-    <col min="27" max="27" width="13.33203125" customWidth="1"/>
-    <col min="28" max="28" width="22.33203125" customWidth="1"/>
-    <col min="29" max="29" width="21.5" customWidth="1"/>
-    <col min="30" max="30" width="10" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.6640625" customWidth="1"/>
-    <col min="114" max="114" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="15" customWidth="1"/>
-    <col min="138" max="138" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="149" max="150" width="13.33203125" customWidth="1"/>
-    <col min="152" max="152" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.33203125" customWidth="1"/>
+    <col min="48" max="48" width="14.6640625" customWidth="1"/>
+    <col min="107" max="107" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="15" customWidth="1"/>
+    <col min="131" max="131" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="142" max="143" width="13.33203125" customWidth="1"/>
+    <col min="145" max="145" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="46" customFormat="1" ht="64" customHeight="1">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:25" s="16" customFormat="1" ht="64" customHeight="1">
+      <c r="B1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="K1" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="N1" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="O1" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="N1" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="O1" s="46" t="s">
+      <c r="P1" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q1" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="46" t="s">
+      <c r="Q1" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="S1" s="46" t="s">
+      <c r="R1" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="T1" s="46" t="s">
+      <c r="S1" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="46" t="s">
+      <c r="T1" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="V1" s="46" t="s">
+      <c r="U1" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="W1" s="46" t="s">
+      <c r="V1" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="X1" s="46" t="s">
+      <c r="W1" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="Y1" s="46" t="s">
+      <c r="X1" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="Z1" s="46" t="s">
+      <c r="Y1" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="AA1" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="AB1" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC1" s="46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" s="35" customFormat="1">
-      <c r="A2" s="35" t="s">
+    </row>
+    <row r="2" spans="1:25" s="33" customFormat="1">
+      <c r="A2" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="34">
         <v>45674</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="22">
         <v>1674</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="33">
         <v>1</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="22">
         <v>19721</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="22">
         <v>19202</v>
       </c>
-      <c r="G2" s="37">
+      <c r="G2" s="35">
         <v>0.1246</v>
       </c>
       <c r="H2" s="10">
         <v>0.10100000000000001</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="24">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J2" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="K2" s="19">
-        <v>300</v>
-      </c>
-      <c r="L2" s="20">
-        <v>100</v>
-      </c>
-      <c r="M2" s="20">
-        <v>400</v>
-      </c>
-      <c r="N2" s="31">
-        <v>0.3</v>
-      </c>
-      <c r="O2" s="30">
+      <c r="J2" s="50">
+        <v>39255.300000000003</v>
+      </c>
+      <c r="K2" s="50">
+        <v>42494.92</v>
+      </c>
+      <c r="L2" s="50">
+        <v>80061.820000000007</v>
+      </c>
+      <c r="M2" s="18">
+        <v>300</v>
+      </c>
+      <c r="N2" s="19">
+        <v>100</v>
+      </c>
+      <c r="O2" s="19">
+        <v>400</v>
+      </c>
+      <c r="P2" s="29">
         <v>1</v>
       </c>
-      <c r="P2" s="35">
+      <c r="Q2" s="36">
+        <v>5.3900709219858204E-3</v>
+      </c>
+      <c r="R2" s="24">
         <v>0</v>
       </c>
-      <c r="Q2" s="35">
-        <v>0</v>
-      </c>
-      <c r="R2" s="38">
-        <v>5.3900709219858204E-3</v>
-      </c>
-      <c r="S2" s="25">
-        <v>0</v>
-      </c>
-      <c r="T2" s="25">
+      <c r="S2" s="24">
         <v>8.1560283687943296E-4</v>
       </c>
-      <c r="U2" s="25">
+      <c r="T2" s="24">
         <v>3.3444816053511699E-5</v>
       </c>
-      <c r="V2" s="25">
+      <c r="U2" s="24">
         <v>1E-3</v>
       </c>
-      <c r="W2" s="25">
+      <c r="V2" s="24">
         <v>6.6889632107023397E-5</v>
       </c>
-      <c r="X2" s="30">
+      <c r="W2" s="29">
         <v>0.29580000000000001</v>
       </c>
-      <c r="Y2" s="30">
+      <c r="X2" s="29">
         <v>0.73499999999999999</v>
       </c>
-      <c r="Z2" s="40">
+      <c r="Y2" s="38">
         <v>1</v>
       </c>
-      <c r="AA2" s="9">
-        <v>1000</v>
-      </c>
-      <c r="AB2" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="AC2" s="9">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" s="9" customFormat="1">
+    </row>
+    <row r="3" spans="1:25" s="9" customFormat="1">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="15"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="10"/>
-      <c r="I3" s="25">
+      <c r="I3" s="24">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K3" s="20">
-        <v>300</v>
-      </c>
-      <c r="L3" s="15">
-        <v>100</v>
-      </c>
-      <c r="M3" s="15">
-        <v>400</v>
-      </c>
-      <c r="O3" s="31">
+      <c r="J3" s="48">
+        <v>35888.700000000004</v>
+      </c>
+      <c r="K3" s="48">
+        <v>37756.68</v>
+      </c>
+      <c r="L3" s="48">
+        <v>72101.78</v>
+      </c>
+      <c r="M3" s="19">
+        <v>300</v>
+      </c>
+      <c r="N3" s="14">
+        <v>100</v>
+      </c>
+      <c r="O3" s="14">
+        <v>400</v>
+      </c>
+      <c r="P3" s="30">
         <v>1</v>
       </c>
-      <c r="R3" s="10">
+      <c r="Q3" s="10">
         <v>8.6879432624113496E-3</v>
       </c>
-      <c r="S3" s="26">
+      <c r="R3" s="25">
         <v>5.0167224080267597E-4</v>
       </c>
-      <c r="T3" s="26">
+      <c r="S3" s="25">
         <v>1.3829787234042601E-3</v>
       </c>
-      <c r="U3" s="26">
+      <c r="T3" s="25">
         <v>3.3444816053511699E-4</v>
       </c>
-      <c r="V3" s="26">
+      <c r="U3" s="25">
         <v>1.4886731391585801E-3</v>
       </c>
-      <c r="W3" s="26">
+      <c r="V3" s="25">
         <v>2.6755852842809402E-4</v>
       </c>
+      <c r="W3" s="9">
+        <v>0.28089999999999998</v>
+      </c>
       <c r="X3" s="9">
-        <v>0.28089999999999998</v>
-      </c>
-      <c r="Y3" s="9">
         <v>0.66200000000000003</v>
       </c>
-      <c r="Z3" s="41">
+      <c r="Y3" s="39">
         <v>1.12380952380952</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="9" customFormat="1">
+    <row r="4" spans="1:25" s="9" customFormat="1">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -3637,52 +3916,59 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="25">
+      <c r="I4" s="24">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="21">
-        <v>300</v>
-      </c>
-      <c r="L4" s="15">
-        <v>100</v>
-      </c>
-      <c r="M4" s="15">
-        <v>400</v>
-      </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="32">
+      <c r="J4" s="48">
+        <v>34884.300000000003</v>
+      </c>
+      <c r="K4" s="48">
+        <v>34450.519999999997</v>
+      </c>
+      <c r="L4" s="48">
+        <v>67834.420000000013</v>
+      </c>
+      <c r="M4" s="20">
+        <v>300</v>
+      </c>
+      <c r="N4" s="14">
+        <v>100</v>
+      </c>
+      <c r="O4" s="14">
+        <v>400</v>
+      </c>
+      <c r="P4" s="31">
         <v>1</v>
       </c>
-      <c r="R4" s="10">
+      <c r="Q4" s="10">
         <v>1.0638297872340399E-2</v>
       </c>
-      <c r="S4" s="27">
+      <c r="R4" s="26">
         <v>9.6989966555183996E-4</v>
       </c>
-      <c r="T4" s="27">
+      <c r="S4" s="26">
         <v>1.70212765957447E-3</v>
       </c>
-      <c r="U4" s="27">
+      <c r="T4" s="26">
         <v>7.6923076923076901E-4</v>
       </c>
-      <c r="V4" s="27">
+      <c r="U4" s="26">
         <v>1.94174757281553E-3</v>
       </c>
-      <c r="W4" s="27">
+      <c r="V4" s="26">
         <v>5.6856187290969904E-4</v>
       </c>
-      <c r="X4" s="9">
+      <c r="W4" s="9">
         <v>0.22259999999999999</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="X4" s="8">
         <v>0.65</v>
       </c>
-      <c r="Z4" s="42">
+      <c r="Y4" s="40">
         <v>1.2253968253968299</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="9" customFormat="1">
+    <row r="5" spans="1:25" s="9" customFormat="1">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -3690,52 +3976,59 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="I5" s="25">
+      <c r="I5" s="24">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="21">
-        <v>300</v>
-      </c>
-      <c r="L5" s="15">
-        <v>100</v>
-      </c>
-      <c r="M5" s="15">
-        <v>400</v>
-      </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="32">
+      <c r="J5" s="48">
+        <v>32698.800000000003</v>
+      </c>
+      <c r="K5" s="48">
+        <v>32378.32</v>
+      </c>
+      <c r="L5" s="48">
+        <v>63670.720000000001</v>
+      </c>
+      <c r="M5" s="20">
+        <v>300</v>
+      </c>
+      <c r="N5" s="14">
+        <v>100</v>
+      </c>
+      <c r="O5" s="14">
+        <v>400</v>
+      </c>
+      <c r="P5" s="31">
         <v>0.98936170212765995</v>
       </c>
-      <c r="R5" s="10">
+      <c r="Q5" s="10">
         <v>1.24113475177305E-2</v>
       </c>
-      <c r="S5" s="27">
+      <c r="R5" s="26">
         <v>1.3712374581939799E-3</v>
       </c>
-      <c r="T5" s="27">
+      <c r="S5" s="26">
         <v>1.87943262411348E-3</v>
       </c>
-      <c r="U5" s="27">
+      <c r="T5" s="26">
         <v>1.10367892976589E-3</v>
       </c>
-      <c r="V5" s="27">
+      <c r="U5" s="26">
         <v>2.2330097087378598E-3</v>
       </c>
-      <c r="W5" s="27">
+      <c r="V5" s="26">
         <v>9.3645484949832799E-4</v>
       </c>
-      <c r="X5" s="9">
+      <c r="W5" s="9">
         <v>0.20979999999999999</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="X5" s="8">
         <v>0.64</v>
       </c>
-      <c r="Z5" s="42">
+      <c r="Y5" s="40">
         <v>1.35238095238095</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:25">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
@@ -3744,54 +4037,59 @@
       <c r="F6" s="2"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="25">
+      <c r="I6" s="24">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="22">
-        <v>300</v>
-      </c>
-      <c r="L6" s="15">
-        <v>100</v>
-      </c>
-      <c r="M6" s="15">
-        <v>400</v>
-      </c>
-      <c r="O6" s="30">
+      <c r="J6" s="49">
+        <v>31182.9</v>
+      </c>
+      <c r="K6" s="49">
+        <v>30343.56</v>
+      </c>
+      <c r="L6" s="49">
+        <v>60185.260000000009</v>
+      </c>
+      <c r="M6" s="21">
+        <v>300</v>
+      </c>
+      <c r="N6" s="14">
+        <v>100</v>
+      </c>
+      <c r="O6" s="14">
+        <v>400</v>
+      </c>
+      <c r="P6" s="29">
         <v>0.97163120567375905</v>
       </c>
-      <c r="R6" s="24">
+      <c r="Q6" s="23">
         <v>1.3829787234042599E-2</v>
       </c>
-      <c r="S6" s="28">
+      <c r="R6" s="27">
         <v>1.7391304347826101E-3</v>
       </c>
-      <c r="T6" s="28">
+      <c r="S6" s="27">
         <v>2.1985815602836899E-3</v>
       </c>
-      <c r="U6" s="28">
+      <c r="T6" s="27">
         <v>1.60535117056856E-3</v>
       </c>
-      <c r="V6" s="28">
+      <c r="U6" s="27">
         <v>2.5889967637540501E-3</v>
       </c>
-      <c r="W6" s="28">
+      <c r="V6" s="27">
         <v>1.3712374581939799E-3</v>
       </c>
-      <c r="X6" s="4">
+      <c r="W6" s="4">
         <v>0.19389999999999999</v>
       </c>
-      <c r="Y6" s="18">
+      <c r="X6" s="17">
         <v>0.60899999999999999</v>
       </c>
-      <c r="Z6" s="43">
+      <c r="Y6" s="41">
         <v>1.4539682539682499</v>
       </c>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-    </row>
-    <row r="7" spans="1:29" s="4" customFormat="1">
+    </row>
+    <row r="7" spans="1:25" s="4" customFormat="1">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -3800,776 +4098,1060 @@
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="25">
+      <c r="I7" s="24">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="23">
-        <v>300</v>
-      </c>
-      <c r="L7" s="15">
-        <v>100</v>
-      </c>
-      <c r="M7" s="15">
-        <v>400</v>
-      </c>
-      <c r="O7" s="30">
+      <c r="J7" s="49">
+        <v>29332.2</v>
+      </c>
+      <c r="K7" s="49">
+        <v>28485.08</v>
+      </c>
+      <c r="L7" s="49">
+        <v>56555.68</v>
+      </c>
+      <c r="M7" s="22">
+        <v>300</v>
+      </c>
+      <c r="N7" s="14">
+        <v>100</v>
+      </c>
+      <c r="O7" s="14">
+        <v>400</v>
+      </c>
+      <c r="P7" s="29">
         <v>0.95390070921985803</v>
       </c>
-      <c r="R7" s="24">
+      <c r="Q7" s="23">
         <v>1.5957446808510599E-2</v>
       </c>
-      <c r="S7" s="29">
+      <c r="R7" s="28">
         <v>2.10702341137124E-3</v>
       </c>
-      <c r="T7" s="29">
+      <c r="S7" s="28">
         <v>2.5177304964538998E-3</v>
       </c>
-      <c r="U7" s="29">
+      <c r="T7" s="28">
         <v>2.0066889632107E-3</v>
       </c>
-      <c r="V7" s="29">
+      <c r="U7" s="28">
         <v>2.8478964401294502E-3</v>
       </c>
-      <c r="W7" s="29">
+      <c r="V7" s="28">
         <v>1.7725752508361201E-3</v>
       </c>
-      <c r="X7" s="4">
+      <c r="W7" s="4">
         <v>0.18640000000000001</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="X7" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Z7" s="44">
+      <c r="Y7" s="42">
         <v>1.5492063492063499</v>
       </c>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-    </row>
-    <row r="8" spans="1:29">
-      <c r="I8" s="25">
+    </row>
+    <row r="8" spans="1:25">
+      <c r="I8" s="24">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K8" s="19">
-        <v>300</v>
-      </c>
-      <c r="L8" s="15">
-        <v>100</v>
-      </c>
-      <c r="M8" s="15">
-        <v>400</v>
-      </c>
-      <c r="O8" s="30">
+      <c r="J8" s="49">
+        <v>28160.400000000001</v>
+      </c>
+      <c r="K8" s="49">
+        <v>26924.560000000001</v>
+      </c>
+      <c r="L8" s="49">
+        <v>53873.760000000009</v>
+      </c>
+      <c r="M8" s="18">
+        <v>300</v>
+      </c>
+      <c r="N8" s="14">
+        <v>100</v>
+      </c>
+      <c r="O8" s="14">
+        <v>400</v>
+      </c>
+      <c r="P8" s="29">
         <v>0.91843971631205701</v>
       </c>
+      <c r="Q8" s="23">
+        <v>1.89716312056738E-2</v>
+      </c>
       <c r="R8" s="24">
-        <v>1.89716312056738E-2</v>
-      </c>
-      <c r="S8" s="25">
         <v>2.4414715719063501E-3</v>
       </c>
-      <c r="T8" s="25">
+      <c r="S8" s="24">
         <v>2.9432624113475202E-3</v>
       </c>
-      <c r="U8" s="25">
+      <c r="T8" s="24">
         <v>2.5083612040133802E-3</v>
       </c>
-      <c r="V8" s="25">
+      <c r="U8" s="24">
         <v>3.20388349514563E-3</v>
       </c>
-      <c r="W8" s="25">
+      <c r="V8" s="24">
         <v>2.2408026755852801E-3</v>
       </c>
+      <c r="W8" s="4">
+        <v>0.1799</v>
+      </c>
       <c r="X8" s="4">
-        <v>0.1799</v>
-      </c>
-      <c r="Y8" s="4">
         <v>0.54500000000000004</v>
       </c>
-      <c r="Z8" s="40">
+      <c r="Y8" s="38">
         <v>1.6317460317460299</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
-      <c r="A9" s="45" t="s">
+    <row r="9" spans="1:25">
+      <c r="A9" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="24">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K9" s="19">
-        <v>300</v>
-      </c>
-      <c r="L9" s="15">
-        <v>100</v>
-      </c>
-      <c r="M9" s="15">
-        <v>400</v>
-      </c>
-      <c r="O9" s="30">
+      <c r="J9" s="49">
+        <v>27146.7</v>
+      </c>
+      <c r="K9" s="49">
+        <v>25307.88</v>
+      </c>
+      <c r="L9" s="49">
+        <v>51286.98</v>
+      </c>
+      <c r="M9" s="18">
+        <v>300</v>
+      </c>
+      <c r="N9" s="14">
+        <v>100</v>
+      </c>
+      <c r="O9" s="14">
+        <v>400</v>
+      </c>
+      <c r="P9" s="29">
         <v>0.879432624113475</v>
       </c>
+      <c r="Q9" s="23">
+        <v>2.2163120567375901E-2</v>
+      </c>
       <c r="R9" s="24">
-        <v>2.2163120567375901E-2</v>
-      </c>
-      <c r="S9" s="25">
         <v>2.9096989966555199E-3</v>
       </c>
-      <c r="T9" s="25">
+      <c r="S9" s="24">
         <v>3.43971631205674E-3</v>
       </c>
-      <c r="U9" s="25">
+      <c r="T9" s="24">
         <v>2.9765886287625399E-3</v>
       </c>
-      <c r="V9" s="25">
+      <c r="U9" s="24">
         <v>3.5922330097087401E-3</v>
       </c>
-      <c r="W9" s="25">
+      <c r="V9" s="24">
         <v>2.7090301003344498E-3</v>
       </c>
+      <c r="W9" s="4">
+        <v>0.17349999999999999</v>
+      </c>
       <c r="X9" s="4">
-        <v>0.17349999999999999</v>
-      </c>
-      <c r="Y9" s="4">
         <v>0.505</v>
       </c>
-      <c r="Z9" s="40">
+      <c r="Y9" s="38">
         <v>1.6952380952381001</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
-      <c r="I10" s="25">
+    <row r="10" spans="1:25">
+      <c r="I10" s="24">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K10" s="19">
-        <v>300</v>
-      </c>
-      <c r="L10" s="15">
-        <v>100</v>
-      </c>
-      <c r="M10" s="15">
-        <v>400</v>
-      </c>
-      <c r="O10" s="30">
+      <c r="J10" s="49">
+        <v>26142.300000000003</v>
+      </c>
+      <c r="K10" s="49">
+        <v>23626.720000000001</v>
+      </c>
+      <c r="L10" s="49">
+        <v>48644.62</v>
+      </c>
+      <c r="M10" s="18">
+        <v>300</v>
+      </c>
+      <c r="N10" s="14">
+        <v>100</v>
+      </c>
+      <c r="O10" s="14">
+        <v>400</v>
+      </c>
+      <c r="P10" s="29">
         <v>0.83333333333333304</v>
       </c>
+      <c r="Q10" s="23">
+        <v>2.4468085106383E-2</v>
+      </c>
       <c r="R10" s="24">
-        <v>2.4468085106383E-2</v>
-      </c>
-      <c r="S10" s="25">
         <v>3.24414715719064E-3</v>
       </c>
-      <c r="T10" s="25">
+      <c r="S10" s="24">
         <v>4.1134751773049599E-3</v>
       </c>
-      <c r="U10" s="25">
+      <c r="T10" s="24">
         <v>3.3779264214046801E-3</v>
       </c>
-      <c r="V10" s="25">
+      <c r="U10" s="24">
         <v>4.1100323624595498E-3</v>
       </c>
-      <c r="W10" s="25">
+      <c r="V10" s="24">
         <v>3.17725752508361E-3</v>
       </c>
+      <c r="W10" s="4">
+        <v>0.16489999999999999</v>
+      </c>
       <c r="X10" s="4">
-        <v>0.16489999999999999</v>
-      </c>
-      <c r="Y10" s="4">
         <v>0.48499999999999999</v>
       </c>
-      <c r="Z10" s="40">
+      <c r="Y10" s="38">
         <v>1.7904761904761901</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
-      <c r="I11" s="25">
+    <row r="11" spans="1:25">
+      <c r="I11" s="24">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K11" s="19">
-        <v>300</v>
-      </c>
-      <c r="L11" s="15">
-        <v>100</v>
-      </c>
-      <c r="M11" s="15">
-        <v>400</v>
-      </c>
-      <c r="O11" s="30">
+      <c r="J11" s="49">
+        <v>24793.800000000003</v>
+      </c>
+      <c r="K11" s="49">
+        <v>22511.32</v>
+      </c>
+      <c r="L11" s="49">
+        <v>46238.720000000001</v>
+      </c>
+      <c r="M11" s="18">
+        <v>300</v>
+      </c>
+      <c r="N11" s="14">
+        <v>100</v>
+      </c>
+      <c r="O11" s="14">
+        <v>400</v>
+      </c>
+      <c r="P11" s="29">
         <v>0.78723404255319196</v>
       </c>
+      <c r="Q11" s="23">
+        <v>2.73049645390071E-2</v>
+      </c>
       <c r="R11" s="24">
-        <v>2.73049645390071E-2</v>
-      </c>
-      <c r="S11" s="25">
         <v>3.5785953177257502E-3</v>
       </c>
-      <c r="T11" s="25">
+      <c r="S11" s="24">
         <v>4.4680851063829798E-3</v>
       </c>
-      <c r="U11" s="25">
+      <c r="T11" s="24">
         <v>3.7792642140468198E-3</v>
       </c>
-      <c r="V11" s="25">
+      <c r="U11" s="24">
         <v>4.6601941747572801E-3</v>
       </c>
-      <c r="W11" s="25">
+      <c r="V11" s="24">
         <v>3.6454849498327802E-3</v>
       </c>
+      <c r="W11" s="4">
+        <v>0.16159999999999999</v>
+      </c>
       <c r="X11" s="4">
-        <v>0.16159999999999999</v>
-      </c>
-      <c r="Y11" s="4">
         <v>0.45900000000000002</v>
       </c>
-      <c r="Z11" s="40">
+      <c r="Y11" s="38">
         <v>1.89206349206349</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
-      <c r="I12" s="25">
+    <row r="12" spans="1:25">
+      <c r="I12" s="24">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K12" s="19">
-        <v>300</v>
-      </c>
-      <c r="L12" s="15">
-        <v>100</v>
-      </c>
-      <c r="M12" s="15">
-        <v>400</v>
-      </c>
-      <c r="O12" s="30">
+      <c r="J12" s="49">
+        <v>24291.600000000002</v>
+      </c>
+      <c r="K12" s="49">
+        <v>21508.240000000002</v>
+      </c>
+      <c r="L12" s="49">
+        <v>44755.040000000001</v>
+      </c>
+      <c r="M12" s="18">
+        <v>300</v>
+      </c>
+      <c r="N12" s="14">
+        <v>100</v>
+      </c>
+      <c r="O12" s="14">
+        <v>400</v>
+      </c>
+      <c r="P12" s="29">
         <v>0.70567375886524797</v>
       </c>
+      <c r="Q12" s="23">
+        <v>3.0496453900709201E-2</v>
+      </c>
       <c r="R12" s="24">
-        <v>3.0496453900709201E-2</v>
-      </c>
-      <c r="S12" s="25">
         <v>4.0133779264214103E-3</v>
       </c>
-      <c r="T12" s="25">
+      <c r="S12" s="24">
         <v>5.1063829787233997E-3</v>
       </c>
-      <c r="U12" s="25">
+      <c r="T12" s="24">
         <v>4.2809364548495E-3</v>
       </c>
-      <c r="V12" s="25">
+      <c r="U12" s="24">
         <v>5.2427184466019398E-3</v>
       </c>
-      <c r="W12" s="25">
+      <c r="V12" s="24">
         <v>4.0802675585284304E-3</v>
       </c>
+      <c r="W12" s="4">
+        <v>0.15740000000000001</v>
+      </c>
       <c r="X12" s="4">
-        <v>0.15740000000000001</v>
-      </c>
-      <c r="Y12" s="4">
         <v>0.44400000000000001</v>
       </c>
-      <c r="Z12" s="40">
+      <c r="Y12" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
-      <c r="K13" s="19">
-        <v>300</v>
-      </c>
-      <c r="L13" s="15">
-        <v>100</v>
-      </c>
-      <c r="M13" s="15">
-        <v>400</v>
-      </c>
-      <c r="O13" s="30">
+    <row r="13" spans="1:25">
+      <c r="J13" s="49">
+        <v>23622</v>
+      </c>
+      <c r="K13" s="49">
+        <v>20170.8</v>
+      </c>
+      <c r="L13" s="49">
+        <v>42776.800000000003</v>
+      </c>
+      <c r="M13" s="18">
+        <v>300</v>
+      </c>
+      <c r="N13" s="14">
+        <v>100</v>
+      </c>
+      <c r="O13" s="14">
+        <v>400</v>
+      </c>
+      <c r="P13" s="29">
         <v>0.62411347517730498</v>
       </c>
-      <c r="R13" s="24">
+      <c r="Q13" s="23">
         <v>3.2269503546099303E-2</v>
       </c>
+      <c r="W13" s="4">
+        <v>0.152</v>
+      </c>
       <c r="X13" s="4">
+        <v>0.42399999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="J14" s="49">
+        <v>22775.7</v>
+      </c>
+      <c r="K14" s="49">
+        <v>18823.48</v>
+      </c>
+      <c r="L14" s="49">
+        <v>40619.58</v>
+      </c>
+      <c r="M14" s="18">
+        <v>300</v>
+      </c>
+      <c r="N14" s="14">
+        <v>100</v>
+      </c>
+      <c r="O14" s="14">
+        <v>400</v>
+      </c>
+      <c r="P14" s="29">
+        <v>0.46099290780141799</v>
+      </c>
+      <c r="Q14" s="23">
+        <v>3.5106382978723399E-2</v>
+      </c>
+      <c r="W14" s="4">
+        <v>0.153</v>
+      </c>
+      <c r="X14" s="4">
+        <v>0.41199999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="J15" s="49">
+        <v>22943.100000000002</v>
+      </c>
+      <c r="K15" s="49">
+        <v>17792.84</v>
+      </c>
+      <c r="L15" s="49">
+        <v>39749.14</v>
+      </c>
+      <c r="M15" s="18">
+        <v>300</v>
+      </c>
+      <c r="N15" s="14">
+        <v>100</v>
+      </c>
+      <c r="O15" s="14">
+        <v>400</v>
+      </c>
+      <c r="P15" s="29">
+        <v>0.28723404255319201</v>
+      </c>
+      <c r="Q15" s="23">
+        <v>3.7411347517730502E-2</v>
+      </c>
+      <c r="W15" s="4">
         <v>0.152</v>
       </c>
-      <c r="Y13" s="4">
-        <v>0.42399999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
-      <c r="A14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="K14" s="19">
-        <v>300</v>
-      </c>
-      <c r="L14" s="15">
-        <v>100</v>
-      </c>
-      <c r="M14" s="15">
-        <v>400</v>
-      </c>
-      <c r="O14" s="30">
-        <v>0.46099290780141799</v>
-      </c>
-      <c r="R14" s="24">
-        <v>3.5106382978723399E-2</v>
-      </c>
-      <c r="X14" s="4">
-        <v>0.153</v>
-      </c>
-      <c r="Y14" s="4">
-        <v>0.41199999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29">
-      <c r="A15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="K15" s="19">
-        <v>300</v>
-      </c>
-      <c r="L15" s="15">
-        <v>100</v>
-      </c>
-      <c r="M15" s="15">
-        <v>400</v>
-      </c>
-      <c r="O15" s="30">
-        <v>0.28723404255319201</v>
-      </c>
-      <c r="R15" s="24">
-        <v>3.7411347517730502E-2</v>
-      </c>
       <c r="X15" s="4">
-        <v>0.152</v>
-      </c>
-      <c r="Y15" s="4">
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
-      <c r="K16" s="19">
-        <v>300</v>
-      </c>
-      <c r="L16" s="15">
-        <v>100</v>
-      </c>
-      <c r="M16" s="15">
-        <v>400</v>
-      </c>
-      <c r="O16" s="30">
+    <row r="16" spans="1:25">
+      <c r="J16" s="49">
+        <v>22775.7</v>
+      </c>
+      <c r="K16" s="49">
+        <v>17068.48</v>
+      </c>
+      <c r="L16" s="49">
+        <v>38864.58</v>
+      </c>
+      <c r="M16" s="18">
+        <v>300</v>
+      </c>
+      <c r="N16" s="14">
+        <v>100</v>
+      </c>
+      <c r="O16" s="14">
+        <v>400</v>
+      </c>
+      <c r="P16" s="29">
         <v>0.184397163120567</v>
       </c>
-      <c r="R16" s="24">
+      <c r="Q16" s="23">
         <v>3.9716312056737597E-2</v>
       </c>
+      <c r="W16" s="4">
+        <v>0.15090000000000001</v>
+      </c>
       <c r="X16" s="4">
-        <v>0.15090000000000001</v>
-      </c>
-      <c r="Y16" s="4">
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="17" spans="11:25">
-      <c r="K17" s="19">
-        <v>300</v>
-      </c>
-      <c r="L17" s="15">
-        <v>100</v>
-      </c>
-      <c r="M17" s="15">
-        <v>400</v>
-      </c>
-      <c r="O17" s="30">
+    <row r="17" spans="10:24">
+      <c r="J17" s="49">
+        <v>22608.300000000003</v>
+      </c>
+      <c r="K17" s="49">
+        <v>16279.12</v>
+      </c>
+      <c r="L17" s="49">
+        <v>37915.020000000004</v>
+      </c>
+      <c r="M17" s="18">
+        <v>300</v>
+      </c>
+      <c r="N17" s="14">
+        <v>100</v>
+      </c>
+      <c r="O17" s="14">
+        <v>400</v>
+      </c>
+      <c r="P17" s="29">
         <v>8.5106382978723402E-2</v>
       </c>
-      <c r="R17" s="24">
+      <c r="Q17" s="23">
         <v>4.3262411347517703E-2</v>
       </c>
+      <c r="W17" s="4">
+        <v>0.14979999999999999</v>
+      </c>
       <c r="X17" s="4">
-        <v>0.14979999999999999</v>
-      </c>
-      <c r="Y17" s="4">
         <v>0.379</v>
       </c>
     </row>
-    <row r="18" spans="11:25">
-      <c r="K18" s="19">
-        <v>300</v>
-      </c>
-      <c r="L18" s="15">
-        <v>100</v>
-      </c>
-      <c r="M18" s="15">
-        <v>400</v>
-      </c>
-      <c r="O18" s="30">
+    <row r="18" spans="10:24">
+      <c r="J18" s="49">
+        <v>22440.9</v>
+      </c>
+      <c r="K18" s="49">
+        <v>15749.76</v>
+      </c>
+      <c r="L18" s="49">
+        <v>37225.460000000006</v>
+      </c>
+      <c r="M18" s="18">
+        <v>300</v>
+      </c>
+      <c r="N18" s="14">
+        <v>100</v>
+      </c>
+      <c r="O18" s="14">
+        <v>400</v>
+      </c>
+      <c r="P18" s="29">
         <v>4.2553191489361701E-2</v>
       </c>
-      <c r="R18" s="24">
+      <c r="Q18" s="23">
         <v>4.4858156028368797E-2</v>
       </c>
+      <c r="W18" s="4">
+        <v>0.1487</v>
+      </c>
       <c r="X18" s="4">
-        <v>0.1487</v>
-      </c>
-      <c r="Y18" s="4">
         <v>0.379</v>
       </c>
     </row>
-    <row r="19" spans="11:25">
-      <c r="K19" s="19">
-        <v>300</v>
-      </c>
-      <c r="L19" s="15">
-        <v>100</v>
-      </c>
-      <c r="M19" s="15">
-        <v>400</v>
-      </c>
-      <c r="O19" s="30">
+    <row r="19" spans="10:24">
+      <c r="J19" s="49">
+        <v>22273.5</v>
+      </c>
+      <c r="K19" s="49">
+        <v>15610.4</v>
+      </c>
+      <c r="L19" s="49">
+        <v>36925.9</v>
+      </c>
+      <c r="M19" s="18">
+        <v>300</v>
+      </c>
+      <c r="N19" s="14">
+        <v>100</v>
+      </c>
+      <c r="O19" s="14">
+        <v>400</v>
+      </c>
+      <c r="P19" s="29">
         <v>2.1276595744680899E-2</v>
       </c>
-      <c r="R19" s="24">
+      <c r="Q19" s="23">
         <v>4.6808510638297898E-2</v>
       </c>
+      <c r="W19" s="4">
+        <v>0.1479</v>
+      </c>
       <c r="X19" s="4">
-        <v>0.1479</v>
-      </c>
-      <c r="Y19" s="4">
         <v>0.372</v>
       </c>
     </row>
-    <row r="20" spans="11:25">
-      <c r="K20" s="19">
-        <v>300</v>
-      </c>
-      <c r="L20" s="15">
-        <v>100</v>
-      </c>
-      <c r="M20" s="15">
-        <v>400</v>
-      </c>
-      <c r="O20" s="30">
+    <row r="20" spans="10:24">
+      <c r="J20" s="49">
+        <v>22134</v>
+      </c>
+      <c r="K20" s="49">
+        <v>15537.6</v>
+      </c>
+      <c r="L20" s="49">
+        <v>36719.599999999999</v>
+      </c>
+      <c r="M20" s="18">
+        <v>300</v>
+      </c>
+      <c r="N20" s="14">
+        <v>100</v>
+      </c>
+      <c r="O20" s="14">
+        <v>400</v>
+      </c>
+      <c r="P20" s="29">
         <v>3.54609929078014E-3</v>
       </c>
-      <c r="R20" s="24">
+      <c r="Q20" s="23">
         <v>4.8936170212766E-2</v>
       </c>
+      <c r="W20" s="4">
+        <v>0.14660000000000001</v>
+      </c>
       <c r="X20" s="4">
-        <v>0.14660000000000001</v>
-      </c>
-      <c r="Y20" s="4">
         <v>0.371</v>
       </c>
     </row>
-    <row r="21" spans="11:25">
-      <c r="K21" s="19">
-        <v>300</v>
-      </c>
-      <c r="L21" s="15">
-        <v>100</v>
-      </c>
-      <c r="M21" s="15">
-        <v>400</v>
-      </c>
-      <c r="O21" s="30">
+    <row r="21" spans="10:24">
+      <c r="J21" s="49">
+        <v>21938.7</v>
+      </c>
+      <c r="K21" s="49">
+        <v>15201.68</v>
+      </c>
+      <c r="L21" s="49">
+        <v>36196.780000000006</v>
+      </c>
+      <c r="M21" s="18">
+        <v>300</v>
+      </c>
+      <c r="N21" s="14">
+        <v>100</v>
+      </c>
+      <c r="O21" s="14">
+        <v>400</v>
+      </c>
+      <c r="P21" s="29">
         <v>0</v>
       </c>
-      <c r="R21" s="24">
+      <c r="Q21" s="23">
         <v>0.05</v>
       </c>
+      <c r="W21" s="4">
+        <v>0.14369999999999999</v>
+      </c>
       <c r="X21" s="4">
-        <v>0.14369999999999999</v>
-      </c>
-      <c r="Y21" s="4">
         <v>0.36699999999999999</v>
       </c>
     </row>
-    <row r="22" spans="11:25">
-      <c r="K22" s="19">
-        <v>300</v>
-      </c>
-      <c r="L22" s="15">
-        <v>100</v>
-      </c>
-      <c r="M22" s="15">
-        <v>400</v>
-      </c>
-      <c r="O22" s="30">
+    <row r="22" spans="10:24">
+      <c r="J22" s="49">
+        <v>21483</v>
+      </c>
+      <c r="K22" s="49">
+        <v>14981.2</v>
+      </c>
+      <c r="L22" s="49">
+        <v>35540.199999999997</v>
+      </c>
+      <c r="M22" s="18">
+        <v>300</v>
+      </c>
+      <c r="N22" s="14">
+        <v>100</v>
+      </c>
+      <c r="O22" s="14">
+        <v>400</v>
+      </c>
+      <c r="P22" s="29">
         <v>0</v>
       </c>
-      <c r="R22" s="24">
+      <c r="Q22" s="23">
         <v>5.0999999999999997E-2</v>
       </c>
+      <c r="W22" s="4">
+        <v>0.14230000000000001</v>
+      </c>
       <c r="X22" s="4">
-        <v>0.14230000000000001</v>
-      </c>
-      <c r="Y22" s="4">
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="23" spans="11:25">
-      <c r="K23" s="19">
-        <v>300</v>
-      </c>
-      <c r="L23" s="15">
-        <v>100</v>
-      </c>
-      <c r="M23" s="15">
-        <v>400</v>
+    <row r="23" spans="10:24">
+      <c r="J23" s="49">
+        <v>21269.100000000002</v>
+      </c>
+      <c r="K23" s="49">
+        <v>14904.24</v>
+      </c>
+      <c r="L23" s="49">
+        <v>35258.54</v>
+      </c>
+      <c r="M23" s="18">
+        <v>300</v>
+      </c>
+      <c r="N23" s="14">
+        <v>100</v>
+      </c>
+      <c r="O23" s="14">
+        <v>400</v>
+      </c>
+      <c r="W23" s="4">
+        <v>0.1419</v>
       </c>
       <c r="X23" s="4">
-        <v>0.1419</v>
-      </c>
-      <c r="Y23" s="4">
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="24" spans="11:25">
-      <c r="K24" s="19">
-        <v>300</v>
-      </c>
-      <c r="L24" s="15">
-        <v>100</v>
-      </c>
-      <c r="M24" s="15">
-        <v>400</v>
+    <row r="24" spans="10:24">
+      <c r="J24" s="49">
+        <v>21204</v>
+      </c>
+      <c r="K24" s="49">
+        <v>14835.6</v>
+      </c>
+      <c r="L24" s="49">
+        <v>35127.599999999999</v>
+      </c>
+      <c r="M24" s="18">
+        <v>300</v>
+      </c>
+      <c r="N24" s="14">
+        <v>100</v>
+      </c>
+      <c r="O24" s="14">
+        <v>400</v>
+      </c>
+      <c r="W24" s="4">
+        <v>0.14169999999999999</v>
       </c>
       <c r="X24" s="4">
-        <v>0.14169999999999999</v>
-      </c>
-      <c r="Y24" s="4">
         <v>0.36099999999999999</v>
       </c>
     </row>
-    <row r="25" spans="11:25">
-      <c r="K25" s="19">
-        <v>300</v>
-      </c>
-      <c r="L25" s="15">
-        <v>100</v>
-      </c>
-      <c r="M25" s="15">
-        <v>400</v>
+    <row r="25" spans="10:24">
+      <c r="J25" s="49">
+        <v>21166.800000000003</v>
+      </c>
+      <c r="K25" s="49">
+        <v>14768.52</v>
+      </c>
+      <c r="L25" s="49">
+        <v>35024.920000000006</v>
+      </c>
+      <c r="M25" s="18">
+        <v>300</v>
+      </c>
+      <c r="N25" s="14">
+        <v>100</v>
+      </c>
+      <c r="O25" s="14">
+        <v>400</v>
+      </c>
+      <c r="W25" s="4">
+        <v>0.1414</v>
       </c>
       <c r="X25" s="4">
-        <v>0.1414</v>
-      </c>
-      <c r="Y25" s="4">
         <v>0.35899999999999999</v>
       </c>
     </row>
-    <row r="26" spans="11:25">
-      <c r="K26" s="19">
-        <v>300</v>
-      </c>
-      <c r="L26" s="15">
-        <v>100</v>
-      </c>
-      <c r="M26" s="15">
-        <v>400</v>
+    <row r="26" spans="10:24">
+      <c r="J26" s="49">
+        <v>21129.600000000002</v>
+      </c>
+      <c r="K26" s="49">
+        <v>14701.44</v>
+      </c>
+      <c r="L26" s="49">
+        <v>34922.239999999998</v>
+      </c>
+      <c r="M26" s="18">
+        <v>300</v>
+      </c>
+      <c r="N26" s="14">
+        <v>100</v>
+      </c>
+      <c r="O26" s="14">
+        <v>400</v>
+      </c>
+      <c r="W26" s="4">
+        <v>0.14119999999999999</v>
       </c>
       <c r="X26" s="4">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="Y26" s="4">
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="27" spans="11:25">
-      <c r="K27" s="19">
-        <v>300</v>
-      </c>
-      <c r="L27" s="15">
-        <v>100</v>
-      </c>
-      <c r="M27" s="15">
-        <v>400</v>
+    <row r="27" spans="10:24">
+      <c r="J27" s="49">
+        <v>21092.400000000001</v>
+      </c>
+      <c r="K27" s="49">
+        <v>14569.36</v>
+      </c>
+      <c r="L27" s="49">
+        <v>34754.560000000005</v>
+      </c>
+      <c r="M27" s="18">
+        <v>300</v>
+      </c>
+      <c r="N27" s="14">
+        <v>100</v>
+      </c>
+      <c r="O27" s="14">
+        <v>400</v>
+      </c>
+      <c r="W27" s="4">
+        <v>0.14099999999999999</v>
       </c>
       <c r="X27" s="4">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="Y27" s="4">
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="28" spans="11:25">
-      <c r="K28" s="19">
-        <v>300</v>
-      </c>
-      <c r="L28" s="15">
-        <v>100</v>
-      </c>
-      <c r="M28" s="15">
-        <v>400</v>
+    <row r="28" spans="10:24">
+      <c r="J28" s="49">
+        <v>21055.200000000001</v>
+      </c>
+      <c r="K28" s="49">
+        <v>14437.279999999999</v>
+      </c>
+      <c r="L28" s="49">
+        <v>34586.879999999997</v>
+      </c>
+      <c r="M28" s="18">
+        <v>300</v>
+      </c>
+      <c r="N28" s="14">
+        <v>100</v>
+      </c>
+      <c r="O28" s="14">
+        <v>400</v>
+      </c>
+      <c r="W28" s="4">
+        <v>0.14069999999999999</v>
       </c>
       <c r="X28" s="4">
-        <v>0.14069999999999999</v>
-      </c>
-      <c r="Y28" s="4">
         <v>0.35299999999999998</v>
       </c>
     </row>
-    <row r="29" spans="11:25">
-      <c r="K29" s="19">
-        <v>300</v>
-      </c>
-      <c r="L29" s="15">
-        <v>100</v>
-      </c>
-      <c r="M29" s="15">
-        <v>400</v>
+    <row r="29" spans="10:24">
+      <c r="J29" s="49">
+        <v>21018</v>
+      </c>
+      <c r="K29" s="49">
+        <v>14240.2</v>
+      </c>
+      <c r="L29" s="49">
+        <v>34354.199999999997</v>
+      </c>
+      <c r="M29" s="18">
+        <v>300</v>
+      </c>
+      <c r="N29" s="14">
+        <v>100</v>
+      </c>
+      <c r="O29" s="14">
+        <v>400</v>
+      </c>
+      <c r="W29" s="4">
+        <v>0.14050000000000001</v>
       </c>
       <c r="X29" s="4">
-        <v>0.14050000000000001</v>
-      </c>
-      <c r="Y29" s="4">
         <v>0.35099999999999998</v>
       </c>
     </row>
-    <row r="30" spans="11:25">
-      <c r="K30" s="19">
-        <v>300</v>
-      </c>
-      <c r="L30" s="15">
-        <v>100</v>
-      </c>
-      <c r="M30" s="15">
-        <v>400</v>
+    <row r="30" spans="10:24">
+      <c r="J30" s="49">
+        <v>20980.800000000003</v>
+      </c>
+      <c r="K30" s="49">
+        <v>14173.119999999999</v>
+      </c>
+      <c r="L30" s="49">
+        <v>34251.519999999997</v>
+      </c>
+      <c r="M30" s="18">
+        <v>300</v>
+      </c>
+      <c r="N30" s="14">
+        <v>100</v>
+      </c>
+      <c r="O30" s="14">
+        <v>400</v>
+      </c>
+      <c r="W30" s="4">
+        <v>0.14019999999999999</v>
       </c>
       <c r="X30" s="4">
-        <v>0.14019999999999999</v>
-      </c>
-      <c r="Y30" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="31" spans="11:25">
-      <c r="K31" s="19">
-        <v>300</v>
-      </c>
-      <c r="L31" s="15">
-        <v>100</v>
-      </c>
-      <c r="M31" s="15">
-        <v>400</v>
+    <row r="31" spans="10:24">
+      <c r="J31" s="49">
+        <v>20943.600000000002</v>
+      </c>
+      <c r="K31" s="49">
+        <v>14106.04</v>
+      </c>
+      <c r="L31" s="49">
+        <v>34148.839999999997</v>
+      </c>
+      <c r="M31" s="18">
+        <v>300</v>
+      </c>
+      <c r="N31" s="14">
+        <v>100</v>
+      </c>
+      <c r="O31" s="14">
+        <v>400</v>
+      </c>
+      <c r="W31" s="4">
+        <v>0.14000000000000001</v>
       </c>
       <c r="X31" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Y31" s="4">
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="32" spans="11:25">
-      <c r="K32" s="19">
-        <v>300</v>
-      </c>
-      <c r="L32" s="15">
-        <v>100</v>
-      </c>
-      <c r="M32" s="15">
-        <v>400</v>
+    <row r="32" spans="10:24">
+      <c r="J32" s="49">
+        <v>20906.400000000001</v>
+      </c>
+      <c r="K32" s="49">
+        <v>13973.960000000001</v>
+      </c>
+      <c r="L32" s="49">
+        <v>33981.160000000003</v>
+      </c>
+      <c r="M32" s="18">
+        <v>300</v>
+      </c>
+      <c r="N32" s="14">
+        <v>100</v>
+      </c>
+      <c r="O32" s="14">
+        <v>400</v>
+      </c>
+      <c r="W32" s="4">
+        <v>0.13980000000000001</v>
       </c>
       <c r="X32" s="4">
-        <v>0.13980000000000001</v>
-      </c>
-      <c r="Y32" s="4">
         <v>0.34599999999999997</v>
       </c>
     </row>
-    <row r="33" spans="11:25">
-      <c r="K33" s="19">
-        <v>300</v>
-      </c>
-      <c r="L33" s="15">
-        <v>100</v>
-      </c>
-      <c r="M33" s="15">
-        <v>400</v>
+    <row r="33" spans="10:24">
+      <c r="J33" s="49">
+        <v>20869.2</v>
+      </c>
+      <c r="K33" s="49">
+        <v>13776.880000000001</v>
+      </c>
+      <c r="L33" s="49">
+        <v>33748.480000000003</v>
+      </c>
+      <c r="M33" s="18">
+        <v>300</v>
+      </c>
+      <c r="N33" s="14">
+        <v>100</v>
+      </c>
+      <c r="O33" s="14">
+        <v>400</v>
+      </c>
+      <c r="W33" s="4">
+        <v>0.13950000000000001</v>
       </c>
       <c r="X33" s="4">
-        <v>0.13950000000000001</v>
-      </c>
-      <c r="Y33" s="4">
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="34" spans="11:25">
-      <c r="K34" s="19">
-        <v>300</v>
-      </c>
-      <c r="L34" s="15">
-        <v>100</v>
-      </c>
-      <c r="M34" s="15">
-        <v>400</v>
+    <row r="34" spans="10:24">
+      <c r="J34" s="49">
+        <v>20832</v>
+      </c>
+      <c r="K34" s="49">
+        <v>13644.8</v>
+      </c>
+      <c r="L34" s="49">
+        <v>33580.800000000003</v>
+      </c>
+      <c r="M34" s="18">
+        <v>300</v>
+      </c>
+      <c r="N34" s="14">
+        <v>100</v>
+      </c>
+      <c r="O34" s="14">
+        <v>400</v>
+      </c>
+      <c r="W34" s="4">
+        <v>0.13930000000000001</v>
       </c>
       <c r="X34" s="4">
-        <v>0.13930000000000001</v>
-      </c>
-      <c r="Y34" s="4">
         <v>0.34200000000000003</v>
       </c>
     </row>
-    <row r="35" spans="11:25">
-      <c r="K35" s="19">
-        <v>300</v>
-      </c>
-      <c r="L35" s="15">
-        <v>100</v>
-      </c>
-      <c r="M35" s="15">
-        <v>400</v>
+    <row r="35" spans="10:24">
+      <c r="J35" s="49">
+        <v>20794.800000000003</v>
+      </c>
+      <c r="K35" s="49">
+        <v>13577.720000000001</v>
+      </c>
+      <c r="L35" s="49">
+        <v>33478.120000000003</v>
+      </c>
+      <c r="M35" s="18">
+        <v>300</v>
+      </c>
+      <c r="N35" s="14">
+        <v>100</v>
+      </c>
+      <c r="O35" s="14">
+        <v>400</v>
+      </c>
+      <c r="W35" s="4">
+        <v>0.1391</v>
       </c>
       <c r="X35" s="4">
-        <v>0.1391</v>
-      </c>
-      <c r="Y35" s="4">
         <v>0.34</v>
       </c>
     </row>
-    <row r="36" spans="11:25">
-      <c r="K36" s="19">
-        <v>300</v>
-      </c>
-      <c r="L36" s="15">
-        <v>100</v>
-      </c>
-      <c r="M36" s="15">
-        <v>400</v>
+    <row r="36" spans="10:24">
+      <c r="J36" s="49">
+        <v>20757.600000000002</v>
+      </c>
+      <c r="K36" s="49">
+        <v>13510.64</v>
+      </c>
+      <c r="L36" s="49">
+        <v>33375.440000000002</v>
+      </c>
+      <c r="M36" s="18">
+        <v>300</v>
+      </c>
+      <c r="N36" s="14">
+        <v>100</v>
+      </c>
+      <c r="O36" s="14">
+        <v>400</v>
+      </c>
+      <c r="W36" s="4">
+        <v>0.13880000000000001</v>
       </c>
       <c r="X36" s="4">
-        <v>0.13880000000000001</v>
-      </c>
-      <c r="Y36" s="4">
         <v>0.33900000000000002</v>
       </c>
     </row>
-    <row r="37" spans="11:25">
-      <c r="K37" s="19">
-        <v>300</v>
-      </c>
-      <c r="L37" s="15">
-        <v>100</v>
-      </c>
-      <c r="M37" s="15">
-        <v>400</v>
+    <row r="37" spans="10:24">
+      <c r="J37" s="49">
+        <v>20720.400000000001</v>
+      </c>
+      <c r="K37" s="49">
+        <v>13443.56</v>
+      </c>
+      <c r="L37" s="49">
+        <v>33272.76</v>
+      </c>
+      <c r="M37" s="18">
+        <v>300</v>
+      </c>
+      <c r="N37" s="14">
+        <v>100</v>
+      </c>
+      <c r="O37" s="14">
+        <v>400</v>
+      </c>
+      <c r="W37" s="4">
+        <v>0.1386</v>
       </c>
       <c r="X37" s="4">
-        <v>0.1386</v>
-      </c>
-      <c r="Y37" s="4">
         <v>0.33800000000000002</v>
       </c>
     </row>
-    <row r="38" spans="11:25">
-      <c r="K38" s="19">
-        <v>300</v>
-      </c>
-      <c r="L38" s="15">
-        <v>100</v>
-      </c>
-      <c r="M38" s="15">
+    <row r="38" spans="10:24">
+      <c r="J38" s="49">
+        <v>20683.2</v>
+      </c>
+      <c r="K38" s="49">
+        <v>13376.48</v>
+      </c>
+      <c r="L38" s="49">
+        <v>33170.080000000002</v>
+      </c>
+      <c r="M38" s="18">
+        <v>300</v>
+      </c>
+      <c r="N38" s="14">
+        <v>100</v>
+      </c>
+      <c r="O38" s="14">
         <v>400</v>
       </c>
     </row>
@@ -4586,195 +5168,218 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="22" max="22" width="13" customWidth="1"/>
+    <col min="23" max="23" width="14.5" customWidth="1"/>
+    <col min="24" max="24" width="13.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="39" customFormat="1" ht="90">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:24" s="37" customFormat="1" ht="90">
+      <c r="B1" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="L1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="N1" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="O1" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="P1" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="Q1" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="R1" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="S1" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="T1" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="U1" s="15" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="8">
+      <c r="V1" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="33">
+        <v>0</v>
+      </c>
+      <c r="D2" s="33">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
         <v>0.01</v>
       </c>
-      <c r="B3" s="9">
+      <c r="F2" s="9">
         <v>5</v>
       </c>
-      <c r="C3" s="9">
-        <v>2.30610932476E-4</v>
-      </c>
-      <c r="D3" s="9">
+      <c r="G2" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="14">
+        <v>20</v>
+      </c>
+      <c r="I2" s="9">
+        <v>10</v>
+      </c>
+      <c r="J2" s="13">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K2" s="9">
         <v>1</v>
       </c>
-      <c r="E3" s="9">
-        <v>0.71805497590300005</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="9">
-        <v>57051.68</v>
-      </c>
-      <c r="H3" s="9">
-        <v>19295</v>
-      </c>
-      <c r="I3" s="9">
-        <v>74803.08</v>
-      </c>
-      <c r="J3" s="9">
-        <v>0.65</v>
-      </c>
-      <c r="K3" s="9">
-        <v>0.97</v>
-      </c>
-      <c r="L3" s="15">
-        <v>20</v>
-      </c>
-      <c r="M3" s="9">
+      <c r="L2" s="9">
+        <v>1</v>
+      </c>
+      <c r="M2" s="9">
+        <v>1</v>
+      </c>
+      <c r="N2" s="9">
+        <v>1</v>
+      </c>
+      <c r="O2" s="9">
+        <v>1</v>
+      </c>
+      <c r="P2" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="9">
         <v>10</v>
       </c>
-      <c r="N3" s="14">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="O3" s="9">
+      <c r="R2" s="14">
+        <v>2000000</v>
+      </c>
+      <c r="S2" s="9">
+        <v>2</v>
+      </c>
+      <c r="T2" s="9">
         <v>1</v>
       </c>
-      <c r="P3" s="9">
+      <c r="U2" s="9">
         <v>1</v>
       </c>
-      <c r="Q3" s="9">
-        <v>1</v>
-      </c>
-      <c r="R3" s="9">
-        <v>1</v>
-      </c>
-      <c r="S3" s="9">
-        <v>1</v>
-      </c>
-      <c r="T3" s="9">
-        <v>1</v>
-      </c>
-      <c r="U3" s="9">
-        <v>10</v>
-      </c>
-      <c r="V3" s="15">
-        <v>2000000</v>
-      </c>
-      <c r="W3" s="9">
-        <v>2</v>
-      </c>
-      <c r="X3" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="9">
-        <v>1</v>
-      </c>
+      <c r="V2" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="W2" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="X2" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="J3" s="13"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4788,7 +5393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ET7"/>
   <sheetViews>
@@ -5258,7 +5863,7 @@
       </c>
     </row>
     <row r="7" spans="1:150">
-      <c r="T7" s="39" t="s">
+      <c r="T7" s="37" t="s">
         <v>164</v>
       </c>
     </row>

--- a/Model/Data/import.xlsx
+++ b/Model/Data/import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-37740" yWindow="-7700" windowWidth="36320" windowHeight="20840" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-35260" yWindow="-7700" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LA" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sydney (incomplete)" sheetId="5" r:id="rId3"/>
     <sheet name="sensitivity" sheetId="3" r:id="rId4"/>
     <sheet name="all_variables" sheetId="2" r:id="rId5"/>
+    <sheet name="Demand Charge" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -908,7 +909,7 @@
     <author>Nick Laws</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -929,6 +930,30 @@
           </rPr>
           <t xml:space="preserve">
 manual sensitivity analyses show that LA is highly sensitive to this value.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LA value</t>
         </r>
       </text>
     </comment>
@@ -937,7 +962,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="173">
   <si>
     <t>population growth rate</t>
   </si>
@@ -1435,6 +1460,27 @@
   </si>
   <si>
     <t>default value:</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Retail Price</t>
+  </si>
+  <si>
+    <t>Bass flows</t>
+  </si>
+  <si>
+    <t>New homes</t>
+  </si>
+  <si>
+    <t>direct PV use</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Boulder</t>
   </si>
 </sst>
 </file>
@@ -1521,7 +1567,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1540,6 +1586,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1550,7 +1614,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="84">
+  <cellStyleXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1635,8 +1699,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1759,8 +1828,21 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="84">
+  <cellStyles count="89">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1843,6 +1925,11 @@
     <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -3673,8 +3760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:L1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3803,10 +3890,10 @@
         <v>39255.300000000003</v>
       </c>
       <c r="K2" s="50">
-        <v>42494.92</v>
+        <v>66571.504000000001</v>
       </c>
       <c r="L2" s="50">
-        <v>80061.820000000007</v>
+        <v>104138.40400000001</v>
       </c>
       <c r="M2" s="18">
         <v>300</v>
@@ -3863,10 +3950,10 @@
         <v>35888.700000000004</v>
       </c>
       <c r="K3" s="48">
-        <v>37756.68</v>
+        <v>59768.415999999997</v>
       </c>
       <c r="L3" s="48">
-        <v>72101.78</v>
+        <v>94113.516000000003</v>
       </c>
       <c r="M3" s="19">
         <v>300</v>
@@ -3923,10 +4010,10 @@
         <v>34884.300000000003</v>
       </c>
       <c r="K4" s="48">
-        <v>34450.519999999997</v>
+        <v>55846.224000000002</v>
       </c>
       <c r="L4" s="48">
-        <v>67834.420000000013</v>
+        <v>89230.124000000011</v>
       </c>
       <c r="M4" s="20">
         <v>300</v>
@@ -3983,10 +4070,10 @@
         <v>32698.800000000003</v>
       </c>
       <c r="K5" s="48">
-        <v>32378.32</v>
+        <v>52433.583999999995</v>
       </c>
       <c r="L5" s="48">
-        <v>63670.720000000001</v>
+        <v>83725.983999999997</v>
       </c>
       <c r="M5" s="20">
         <v>300</v>
@@ -4044,10 +4131,10 @@
         <v>31182.9</v>
       </c>
       <c r="K6" s="49">
-        <v>30343.56</v>
+        <v>49469.072</v>
       </c>
       <c r="L6" s="49">
-        <v>60185.260000000009</v>
+        <v>79310.772000000012</v>
       </c>
       <c r="M6" s="21">
         <v>300</v>
@@ -4105,10 +4192,10 @@
         <v>29332.2</v>
       </c>
       <c r="K7" s="49">
-        <v>28485.08</v>
+        <v>46475.495999999999</v>
       </c>
       <c r="L7" s="49">
-        <v>56555.68</v>
+        <v>74546.09599999999</v>
       </c>
       <c r="M7" s="22">
         <v>300</v>
@@ -4158,10 +4245,10 @@
         <v>28160.400000000001</v>
       </c>
       <c r="K8" s="49">
-        <v>26924.560000000001</v>
+        <v>44196.271999999997</v>
       </c>
       <c r="L8" s="49">
-        <v>53873.760000000009</v>
+        <v>71145.471999999994</v>
       </c>
       <c r="M8" s="18">
         <v>300</v>
@@ -4214,10 +4301,10 @@
         <v>27146.7</v>
       </c>
       <c r="K9" s="49">
-        <v>25307.88</v>
+        <v>41957.856</v>
       </c>
       <c r="L9" s="49">
-        <v>51286.98</v>
+        <v>67936.955999999991</v>
       </c>
       <c r="M9" s="18">
         <v>300</v>
@@ -4267,10 +4354,10 @@
         <v>26142.300000000003</v>
       </c>
       <c r="K10" s="49">
-        <v>23626.720000000001</v>
+        <v>39660.664000000004</v>
       </c>
       <c r="L10" s="49">
-        <v>48644.62</v>
+        <v>64678.564000000006</v>
       </c>
       <c r="M10" s="18">
         <v>300</v>
@@ -4320,10 +4407,10 @@
         <v>24793.800000000003</v>
       </c>
       <c r="K11" s="49">
-        <v>22511.32</v>
+        <v>37718.183999999994</v>
       </c>
       <c r="L11" s="49">
-        <v>46238.720000000001</v>
+        <v>61445.583999999995</v>
       </c>
       <c r="M11" s="18">
         <v>300</v>
@@ -4373,10 +4460,10 @@
         <v>24291.600000000002</v>
       </c>
       <c r="K12" s="49">
-        <v>21508.240000000002</v>
+        <v>36407.087999999996</v>
       </c>
       <c r="L12" s="49">
-        <v>44755.040000000001</v>
+        <v>59653.887999999992</v>
       </c>
       <c r="M12" s="18">
         <v>300</v>
@@ -4423,10 +4510,10 @@
         <v>23622</v>
       </c>
       <c r="K13" s="49">
-        <v>20170.8</v>
+        <v>34658.959999999999</v>
       </c>
       <c r="L13" s="49">
-        <v>42776.800000000003</v>
+        <v>57264.959999999999</v>
       </c>
       <c r="M13" s="18">
         <v>300</v>
@@ -4459,10 +4546,10 @@
         <v>22775.7</v>
       </c>
       <c r="K14" s="49">
-        <v>18823.48</v>
+        <v>32792.576000000001</v>
       </c>
       <c r="L14" s="49">
-        <v>40619.58</v>
+        <v>54588.675999999999</v>
       </c>
       <c r="M14" s="18">
         <v>300</v>
@@ -4494,10 +4581,10 @@
         <v>22943.100000000002</v>
       </c>
       <c r="K15" s="49">
-        <v>17792.84</v>
+        <v>31864.608</v>
       </c>
       <c r="L15" s="49">
-        <v>39749.14</v>
+        <v>53820.907999999996</v>
       </c>
       <c r="M15" s="18">
         <v>300</v>
@@ -4526,10 +4613,10 @@
         <v>22775.7</v>
       </c>
       <c r="K16" s="49">
-        <v>17068.48</v>
+        <v>31037.575999999997</v>
       </c>
       <c r="L16" s="49">
-        <v>38864.58</v>
+        <v>52833.675999999999</v>
       </c>
       <c r="M16" s="18">
         <v>300</v>
@@ -4558,10 +4645,10 @@
         <v>22608.300000000003</v>
       </c>
       <c r="K17" s="49">
-        <v>16279.12</v>
+        <v>30145.544000000002</v>
       </c>
       <c r="L17" s="49">
-        <v>37915.020000000004</v>
+        <v>51781.444000000003</v>
       </c>
       <c r="M17" s="18">
         <v>300</v>
@@ -4590,10 +4677,10 @@
         <v>22440.9</v>
       </c>
       <c r="K18" s="49">
-        <v>15749.76</v>
+        <v>29513.511999999995</v>
       </c>
       <c r="L18" s="49">
-        <v>37225.460000000006</v>
+        <v>50989.212</v>
       </c>
       <c r="M18" s="18">
         <v>300</v>
@@ -4622,10 +4709,10 @@
         <v>22273.5</v>
       </c>
       <c r="K19" s="49">
-        <v>15610.4</v>
+        <v>29271.479999999996</v>
       </c>
       <c r="L19" s="49">
-        <v>36925.9</v>
+        <v>50586.979999999996</v>
       </c>
       <c r="M19" s="18">
         <v>300</v>
@@ -4654,10 +4741,10 @@
         <v>22134</v>
       </c>
       <c r="K20" s="49">
-        <v>15537.6</v>
+        <v>29113.119999999995</v>
       </c>
       <c r="L20" s="49">
-        <v>36719.599999999999</v>
+        <v>50295.119999999995</v>
       </c>
       <c r="M20" s="18">
         <v>300</v>
@@ -4686,10 +4773,10 @@
         <v>21938.7</v>
       </c>
       <c r="K21" s="49">
-        <v>15201.68</v>
+        <v>28657.415999999997</v>
       </c>
       <c r="L21" s="49">
-        <v>36196.780000000006</v>
+        <v>49652.515999999996</v>
       </c>
       <c r="M21" s="18">
         <v>300</v>
@@ -4718,10 +4805,10 @@
         <v>21483</v>
       </c>
       <c r="K22" s="49">
-        <v>14981.2</v>
+        <v>28157.439999999999</v>
       </c>
       <c r="L22" s="49">
-        <v>35540.199999999997</v>
+        <v>48716.44</v>
       </c>
       <c r="M22" s="18">
         <v>300</v>
@@ -4750,10 +4837,10 @@
         <v>21269.100000000002</v>
       </c>
       <c r="K23" s="49">
-        <v>14904.24</v>
+        <v>27949.288</v>
       </c>
       <c r="L23" s="49">
-        <v>35258.54</v>
+        <v>48303.588000000003</v>
       </c>
       <c r="M23" s="18">
         <v>300</v>
@@ -4776,10 +4863,10 @@
         <v>21204</v>
       </c>
       <c r="K24" s="49">
-        <v>14835.6</v>
+        <v>27840.719999999998</v>
       </c>
       <c r="L24" s="49">
-        <v>35127.599999999999</v>
+        <v>48132.72</v>
       </c>
       <c r="M24" s="18">
         <v>300</v>
@@ -4802,10 +4889,10 @@
         <v>21166.800000000003</v>
       </c>
       <c r="K25" s="49">
-        <v>14768.52</v>
+        <v>27750.824000000001</v>
       </c>
       <c r="L25" s="49">
-        <v>35024.920000000006</v>
+        <v>48007.224000000002</v>
       </c>
       <c r="M25" s="18">
         <v>300</v>
@@ -4828,10 +4915,10 @@
         <v>21129.600000000002</v>
       </c>
       <c r="K26" s="49">
-        <v>14701.44</v>
+        <v>27660.928</v>
       </c>
       <c r="L26" s="49">
-        <v>34922.239999999998</v>
+        <v>47881.728000000003</v>
       </c>
       <c r="M26" s="18">
         <v>300</v>
@@ -4854,10 +4941,10 @@
         <v>21092.400000000001</v>
       </c>
       <c r="K27" s="49">
-        <v>14569.36</v>
+        <v>27506.031999999999</v>
       </c>
       <c r="L27" s="49">
-        <v>34754.560000000005</v>
+        <v>47691.232000000004</v>
       </c>
       <c r="M27" s="18">
         <v>300</v>
@@ -4880,10 +4967,10 @@
         <v>21055.200000000001</v>
       </c>
       <c r="K28" s="49">
-        <v>14437.279999999999</v>
+        <v>27351.135999999995</v>
       </c>
       <c r="L28" s="49">
-        <v>34586.879999999997</v>
+        <v>47500.735999999997</v>
       </c>
       <c r="M28" s="18">
         <v>300</v>
@@ -4906,10 +4993,10 @@
         <v>21018</v>
       </c>
       <c r="K29" s="49">
-        <v>14240.2</v>
+        <v>27131.239999999998</v>
       </c>
       <c r="L29" s="49">
-        <v>34354.199999999997</v>
+        <v>47245.24</v>
       </c>
       <c r="M29" s="18">
         <v>300</v>
@@ -4932,10 +5019,10 @@
         <v>20980.800000000003</v>
       </c>
       <c r="K30" s="49">
-        <v>14173.119999999999</v>
+        <v>27041.343999999997</v>
       </c>
       <c r="L30" s="49">
-        <v>34251.519999999997</v>
+        <v>47119.743999999999</v>
       </c>
       <c r="M30" s="18">
         <v>300</v>
@@ -4958,10 +5045,10 @@
         <v>20943.600000000002</v>
       </c>
       <c r="K31" s="49">
-        <v>14106.04</v>
+        <v>26951.447999999997</v>
       </c>
       <c r="L31" s="49">
-        <v>34148.839999999997</v>
+        <v>46994.247999999992</v>
       </c>
       <c r="M31" s="18">
         <v>300</v>
@@ -4984,10 +5071,10 @@
         <v>20906.400000000001</v>
       </c>
       <c r="K32" s="49">
-        <v>13973.960000000001</v>
+        <v>26796.552</v>
       </c>
       <c r="L32" s="49">
-        <v>33981.160000000003</v>
+        <v>46803.752000000008</v>
       </c>
       <c r="M32" s="18">
         <v>300</v>
@@ -5010,10 +5097,10 @@
         <v>20869.2</v>
       </c>
       <c r="K33" s="49">
-        <v>13776.880000000001</v>
+        <v>26576.655999999999</v>
       </c>
       <c r="L33" s="49">
-        <v>33748.480000000003</v>
+        <v>46548.256000000001</v>
       </c>
       <c r="M33" s="18">
         <v>300</v>
@@ -5036,10 +5123,10 @@
         <v>20832</v>
       </c>
       <c r="K34" s="49">
-        <v>13644.8</v>
+        <v>26421.759999999995</v>
       </c>
       <c r="L34" s="49">
-        <v>33580.800000000003</v>
+        <v>46357.759999999995</v>
       </c>
       <c r="M34" s="18">
         <v>300</v>
@@ -5062,10 +5149,10 @@
         <v>20794.800000000003</v>
       </c>
       <c r="K35" s="49">
-        <v>13577.720000000001</v>
+        <v>26331.864000000001</v>
       </c>
       <c r="L35" s="49">
-        <v>33478.120000000003</v>
+        <v>46232.264000000003</v>
       </c>
       <c r="M35" s="18">
         <v>300</v>
@@ -5088,10 +5175,10 @@
         <v>20757.600000000002</v>
       </c>
       <c r="K36" s="49">
-        <v>13510.64</v>
+        <v>26241.967999999997</v>
       </c>
       <c r="L36" s="49">
-        <v>33375.440000000002</v>
+        <v>46106.767999999996</v>
       </c>
       <c r="M36" s="18">
         <v>300</v>
@@ -5114,10 +5201,10 @@
         <v>20720.400000000001</v>
       </c>
       <c r="K37" s="49">
-        <v>13443.56</v>
+        <v>26152.071999999996</v>
       </c>
       <c r="L37" s="49">
-        <v>33272.76</v>
+        <v>45981.271999999997</v>
       </c>
       <c r="M37" s="18">
         <v>300</v>
@@ -5140,10 +5227,10 @@
         <v>20683.2</v>
       </c>
       <c r="K38" s="49">
-        <v>13376.48</v>
+        <v>26062.175999999999</v>
       </c>
       <c r="L38" s="49">
-        <v>33170.080000000002</v>
+        <v>45855.776000000005</v>
       </c>
       <c r="M38" s="18">
         <v>300</v>
@@ -5186,149 +5273,149 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="22" max="22" width="13" customWidth="1"/>
-    <col min="23" max="23" width="14.5" customWidth="1"/>
-    <col min="24" max="24" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="37" customFormat="1" ht="90">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="15" t="s">
+      <c r="J1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="K1" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="N1" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="O1" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="P1" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="Q1" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="R1" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="S1" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="T1" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="U1" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="M1" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="S1" s="15" t="s">
+      <c r="V1" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="W1" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="X1" s="58" t="s">
         <v>143</v>
-      </c>
-      <c r="V1" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="W1" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="X1" s="15" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>165</v>
       </c>
-      <c r="B2">
-        <v>0.5</v>
+      <c r="B2" s="33">
+        <v>0</v>
       </c>
       <c r="C2" s="33">
         <v>0</v>
       </c>
-      <c r="D2" s="33">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8">
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+      <c r="H2" s="14">
+        <v>2000000</v>
+      </c>
+      <c r="I2">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="8">
         <v>0.01</v>
       </c>
-      <c r="F2" s="9">
+      <c r="K2" s="14">
+        <v>1000</v>
+      </c>
+      <c r="L2" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="M2" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="N2" s="9">
         <v>5</v>
       </c>
-      <c r="G2" s="51">
+      <c r="O2" s="51">
         <v>0.5</v>
       </c>
-      <c r="H2" s="14">
+      <c r="P2" s="14">
         <v>20</v>
-      </c>
-      <c r="I2" s="9">
-        <v>10</v>
-      </c>
-      <c r="J2" s="13">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K2" s="9">
-        <v>1</v>
-      </c>
-      <c r="L2" s="9">
-        <v>1</v>
-      </c>
-      <c r="M2" s="9">
-        <v>1</v>
-      </c>
-      <c r="N2" s="9">
-        <v>1</v>
-      </c>
-      <c r="O2" s="9">
-        <v>1</v>
-      </c>
-      <c r="P2" s="9">
-        <v>1</v>
       </c>
       <c r="Q2" s="9">
         <v>10</v>
       </c>
-      <c r="R2" s="14">
-        <v>2000000</v>
-      </c>
-      <c r="S2" s="9">
-        <v>2</v>
+      <c r="R2" s="9">
+        <v>10</v>
+      </c>
+      <c r="S2" s="13">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="T2" s="9">
         <v>1</v>
@@ -5337,49 +5424,69 @@
         <v>1</v>
       </c>
       <c r="V2" s="9">
-        <v>0.01</v>
+        <v>2</v>
       </c>
       <c r="W2" s="9">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="X2" s="9">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:24">
+      <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="J3" s="13"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="S3" s="13"/>
     </row>
     <row r="4" spans="1:24">
+      <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:24">
+      <c r="B5" s="9"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:24">
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:24">
+      <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="61" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="59" t="s">
+        <v>169</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5876,4 +5983,46 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="62">
+        <v>6211.2916123429659</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="62">
+        <v>7007.1402678343975</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Model/Data/import.xlsx
+++ b/Model/Data/import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-35260" yWindow="-7700" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-35260" yWindow="-7700" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LA" sheetId="1" r:id="rId1"/>
@@ -909,6 +909,469 @@
     <author>Nick Laws</author>
   </authors>
   <commentList>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+calibrated to produce correct fraction of utility costs from generation
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>45% for Sydney</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+graphical, initialized with latest census value. Assumed to drop with time for LA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+see spreadsheet "FCI and LOCE forecasts Boulder"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+(graphical s-curve) 
+function of (customers_with_PV+defectors)
+/ (total_households+1)
+This function slows the rate of solar adoption as the ratio of </t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>homes with PV</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (including defectors) to</t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> total homes</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> approaches  the ratio of </t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>owner occupied homes</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> to </t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>total homes</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>. This limit on the number of homes with PV is placed in the model under the assumption that renters and landlords are unlikely to install PV systems on rental units.
+LA has ~50% rental fraction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nick Laws:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>function of ( NPV - INIT(NPV) )+incentive.
+Initial value of PV innovation rate set to 0.5% of regular customers per year (same as 2014 value found from permit data)
+Assumed to grow linearly to 5% when NPV reaches $10,000 greater than NPV in 2015
+(0.5% value estimated using Census values and reported PV installations by Souther California Edison)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+graphical function of NPV + incentive
+Assumed to be 0.1% of existing PV customers per year for a $2,000 NPV. 
+Grows linearly to 0.4% for NPV = $10,000</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nick Laws:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Graphical function of NPV+incentive
+Battery innovation rate is assumed to be 
+0.1% of existing offgrid customers per year for the initial NPV. 
+Grows linearly to 0.5% for a $10,000 increase in NPV from the initial NPV.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nick Laws:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Graphical function of NPV + incentive
+Battery imitation rate is assumed to be 
+0.1% of existing PV customers per year for a $2,000 NPV. 
+Grows linearly to 0.4% for NPV = $10,000</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nick Laws:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Graphical function of NPV+incentive
+Pv&amp;Battery innovation rate is assumed to be 
+0.1% of existing offgrid customers per year for zero NPV+incentive. 
+Grows linearly to 0.5% for a $10,000  NPV+incentive.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Graphical function of NPV + incentive
+PV&amp;Battery imitation rate is assumed to be 
+0.1% of existing PV customers per year for a $2,000 NPV. 
+Grows linearly to 0.4% for NPV = $10,000</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+used for comparison plots</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+used for comparison plots</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+graphical function of (customers_with_PV+defectors)
+/ total_households
+Increases PV adoption through imitation as the number of homes with PV systems increases.
+Starts as 1 (no effect) with no PV homes. Grows linearly to 2 as all homes become PV homes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>these are time vectors, but we should not change them for each city? Perhaps have to switch to AUS dollars?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Nick Laws</author>
+  </authors>
+  <commentList>
     <comment ref="I1" authorId="0">
       <text>
         <r>
@@ -962,7 +1425,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="173">
   <si>
     <t>population growth rate</t>
   </si>
@@ -1492,7 +1955,14 @@
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1614,119 +2084,123 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="89">
+  <cellStyleXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1735,13 +2209,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1772,7 +2246,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1783,26 +2257,26 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1817,8 +2291,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1829,20 +2303,25 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="89" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="89">
+  <cellStyles count="93">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1930,8 +2409,12 @@
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="89" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2263,7 +2746,7 @@
   <dimension ref="A1:Y38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="M2" sqref="M2:O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3761,7 +4244,7 @@
   <dimension ref="A1:Y38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5255,14 +5738,1101 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:28" s="16" customFormat="1" ht="64" customHeight="1">
+      <c r="B1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="P1" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="R1" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="S1" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="U1" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="V1" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="W1" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="X1" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y1" s="58" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="16" customFormat="1" ht="18" customHeight="1">
+      <c r="B2">
+        <v>1448848</v>
+      </c>
+      <c r="C2">
+        <v>293639</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>7000</v>
+      </c>
+      <c r="F2">
+        <v>5694</v>
+      </c>
+      <c r="G2">
+        <v>32.4</v>
+      </c>
+      <c r="H2" s="63"/>
+      <c r="I2" s="65">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2" s="18">
+        <v>300</v>
+      </c>
+      <c r="N2" s="19">
+        <v>100</v>
+      </c>
+      <c r="O2" s="19">
+        <v>400</v>
+      </c>
+      <c r="P2" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="36">
+        <v>5.3900709219858204E-3</v>
+      </c>
+      <c r="R2" s="24">
+        <v>0</v>
+      </c>
+      <c r="S2" s="24">
+        <v>8.1560283687943296E-4</v>
+      </c>
+      <c r="T2" s="24">
+        <v>3.3444816053511699E-5</v>
+      </c>
+      <c r="U2" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="V2" s="24">
+        <v>6.6889632107023397E-5</v>
+      </c>
+      <c r="W2" s="29">
+        <v>0.29580000000000001</v>
+      </c>
+      <c r="X2" s="29">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="Y2" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="H3" s="64"/>
+      <c r="I3" s="65">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M3" s="19">
+        <v>300</v>
+      </c>
+      <c r="N3" s="14">
+        <v>100</v>
+      </c>
+      <c r="O3" s="14">
+        <v>400</v>
+      </c>
+      <c r="P3" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>8.6879432624113496E-3</v>
+      </c>
+      <c r="R3" s="25">
+        <v>5.0167224080267597E-4</v>
+      </c>
+      <c r="S3" s="25">
+        <v>1.3829787234042601E-3</v>
+      </c>
+      <c r="T3" s="25">
+        <v>3.3444816053511699E-4</v>
+      </c>
+      <c r="U3" s="25">
+        <v>1.4886731391585801E-3</v>
+      </c>
+      <c r="V3" s="25">
+        <v>2.6755852842809402E-4</v>
+      </c>
+      <c r="W3" s="9">
+        <v>0.28089999999999998</v>
+      </c>
+      <c r="X3" s="9">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="Y3" s="39">
+        <v>1.12380952380952</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="I4" s="65">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M4" s="20">
+        <v>300</v>
+      </c>
+      <c r="N4" s="14">
+        <v>100</v>
+      </c>
+      <c r="O4" s="14">
+        <v>400</v>
+      </c>
+      <c r="P4" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>1.0638297872340399E-2</v>
+      </c>
+      <c r="R4" s="26">
+        <v>9.6989966555183996E-4</v>
+      </c>
+      <c r="S4" s="26">
+        <v>1.70212765957447E-3</v>
+      </c>
+      <c r="T4" s="26">
+        <v>7.6923076923076901E-4</v>
+      </c>
+      <c r="U4" s="26">
+        <v>1.94174757281553E-3</v>
+      </c>
+      <c r="V4" s="26">
+        <v>5.6856187290969904E-4</v>
+      </c>
+      <c r="W4" s="9">
+        <v>0.22259999999999999</v>
+      </c>
+      <c r="X4" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="Y4" s="40">
+        <v>1.2253968253968299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="I5" s="65">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M5" s="20">
+        <v>300</v>
+      </c>
+      <c r="N5" s="14">
+        <v>100</v>
+      </c>
+      <c r="O5" s="14">
+        <v>400</v>
+      </c>
+      <c r="P5" s="31">
+        <v>0.98936170212765995</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>1.24113475177305E-2</v>
+      </c>
+      <c r="R5" s="26">
+        <v>1.3712374581939799E-3</v>
+      </c>
+      <c r="S5" s="26">
+        <v>1.87943262411348E-3</v>
+      </c>
+      <c r="T5" s="26">
+        <v>1.10367892976589E-3</v>
+      </c>
+      <c r="U5" s="26">
+        <v>2.2330097087378598E-3</v>
+      </c>
+      <c r="V5" s="26">
+        <v>9.3645484949832799E-4</v>
+      </c>
+      <c r="W5" s="9">
+        <v>0.20979999999999999</v>
+      </c>
+      <c r="X5" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="Y5" s="40">
+        <v>1.35238095238095</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="I6" s="65">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M6" s="21">
+        <v>300</v>
+      </c>
+      <c r="N6" s="14">
+        <v>100</v>
+      </c>
+      <c r="O6" s="14">
+        <v>400</v>
+      </c>
+      <c r="P6" s="29">
+        <v>0.97163120567375905</v>
+      </c>
+      <c r="Q6" s="23">
+        <v>1.3829787234042599E-2</v>
+      </c>
+      <c r="R6" s="27">
+        <v>1.7391304347826101E-3</v>
+      </c>
+      <c r="S6" s="27">
+        <v>2.1985815602836899E-3</v>
+      </c>
+      <c r="T6" s="27">
+        <v>1.60535117056856E-3</v>
+      </c>
+      <c r="U6" s="27">
+        <v>2.5889967637540501E-3</v>
+      </c>
+      <c r="V6" s="27">
+        <v>1.3712374581939799E-3</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0.19389999999999999</v>
+      </c>
+      <c r="X6" s="17">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="Y6" s="41">
+        <v>1.4539682539682499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="I7" s="65">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M7" s="22">
+        <v>300</v>
+      </c>
+      <c r="N7" s="14">
+        <v>100</v>
+      </c>
+      <c r="O7" s="14">
+        <v>400</v>
+      </c>
+      <c r="P7" s="29">
+        <v>0.95390070921985803</v>
+      </c>
+      <c r="Q7" s="23">
+        <v>1.5957446808510599E-2</v>
+      </c>
+      <c r="R7" s="28">
+        <v>2.10702341137124E-3</v>
+      </c>
+      <c r="S7" s="28">
+        <v>2.5177304964538998E-3</v>
+      </c>
+      <c r="T7" s="28">
+        <v>2.0066889632107E-3</v>
+      </c>
+      <c r="U7" s="28">
+        <v>2.8478964401294502E-3</v>
+      </c>
+      <c r="V7" s="28">
+        <v>1.7725752508361201E-3</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0.18640000000000001</v>
+      </c>
+      <c r="X7" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Y7" s="42">
+        <v>1.5492063492063499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="I8" s="65">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M8" s="18">
+        <v>300</v>
+      </c>
+      <c r="N8" s="14">
+        <v>100</v>
+      </c>
+      <c r="O8" s="14">
+        <v>400</v>
+      </c>
+      <c r="P8" s="29">
+        <v>0.91843971631205701</v>
+      </c>
+      <c r="Q8" s="23">
+        <v>1.89716312056738E-2</v>
+      </c>
+      <c r="R8" s="24">
+        <v>2.4414715719063501E-3</v>
+      </c>
+      <c r="S8" s="24">
+        <v>2.9432624113475202E-3</v>
+      </c>
+      <c r="T8" s="24">
+        <v>2.5083612040133802E-3</v>
+      </c>
+      <c r="U8" s="24">
+        <v>3.20388349514563E-3</v>
+      </c>
+      <c r="V8" s="24">
+        <v>2.2408026755852801E-3</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0.1799</v>
+      </c>
+      <c r="X8" s="4">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="Y8" s="38">
+        <v>1.6317460317460299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="I9" s="65">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M9" s="18">
+        <v>300</v>
+      </c>
+      <c r="N9" s="14">
+        <v>100</v>
+      </c>
+      <c r="O9" s="14">
+        <v>400</v>
+      </c>
+      <c r="P9" s="29">
+        <v>0.879432624113475</v>
+      </c>
+      <c r="Q9" s="23">
+        <v>2.2163120567375901E-2</v>
+      </c>
+      <c r="R9" s="24">
+        <v>2.9096989966555199E-3</v>
+      </c>
+      <c r="S9" s="24">
+        <v>3.43971631205674E-3</v>
+      </c>
+      <c r="T9" s="24">
+        <v>2.9765886287625399E-3</v>
+      </c>
+      <c r="U9" s="24">
+        <v>3.5922330097087401E-3</v>
+      </c>
+      <c r="V9" s="24">
+        <v>2.7090301003344498E-3</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0.17349999999999999</v>
+      </c>
+      <c r="X9" s="4">
+        <v>0.505</v>
+      </c>
+      <c r="Y9" s="38">
+        <v>1.6952380952381001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="I10" s="65">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M10" s="18">
+        <v>300</v>
+      </c>
+      <c r="N10" s="14">
+        <v>100</v>
+      </c>
+      <c r="O10" s="14">
+        <v>400</v>
+      </c>
+      <c r="P10" s="29">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="Q10" s="23">
+        <v>2.4468085106383E-2</v>
+      </c>
+      <c r="R10" s="24">
+        <v>3.24414715719064E-3</v>
+      </c>
+      <c r="S10" s="24">
+        <v>4.1134751773049599E-3</v>
+      </c>
+      <c r="T10" s="24">
+        <v>3.3779264214046801E-3</v>
+      </c>
+      <c r="U10" s="24">
+        <v>4.1100323624595498E-3</v>
+      </c>
+      <c r="V10" s="24">
+        <v>3.17725752508361E-3</v>
+      </c>
+      <c r="W10" s="4">
+        <v>0.16489999999999999</v>
+      </c>
+      <c r="X10" s="4">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="Y10" s="38">
+        <v>1.7904761904761901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="I11" s="65">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M11" s="18">
+        <v>300</v>
+      </c>
+      <c r="N11" s="14">
+        <v>100</v>
+      </c>
+      <c r="O11" s="14">
+        <v>400</v>
+      </c>
+      <c r="P11" s="29">
+        <v>0.78723404255319196</v>
+      </c>
+      <c r="Q11" s="23">
+        <v>2.73049645390071E-2</v>
+      </c>
+      <c r="R11" s="24">
+        <v>3.5785953177257502E-3</v>
+      </c>
+      <c r="S11" s="24">
+        <v>4.4680851063829798E-3</v>
+      </c>
+      <c r="T11" s="24">
+        <v>3.7792642140468198E-3</v>
+      </c>
+      <c r="U11" s="24">
+        <v>4.6601941747572801E-3</v>
+      </c>
+      <c r="V11" s="24">
+        <v>3.6454849498327802E-3</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0.16159999999999999</v>
+      </c>
+      <c r="X11" s="4">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="Y11" s="38">
+        <v>1.89206349206349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="I12" s="65">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M12" s="18">
+        <v>300</v>
+      </c>
+      <c r="N12" s="14">
+        <v>100</v>
+      </c>
+      <c r="O12" s="14">
+        <v>400</v>
+      </c>
+      <c r="P12" s="29">
+        <v>0.70567375886524797</v>
+      </c>
+      <c r="Q12" s="23">
+        <v>3.0496453900709201E-2</v>
+      </c>
+      <c r="R12" s="24">
+        <v>4.0133779264214103E-3</v>
+      </c>
+      <c r="S12" s="24">
+        <v>5.1063829787233997E-3</v>
+      </c>
+      <c r="T12" s="24">
+        <v>4.2809364548495E-3</v>
+      </c>
+      <c r="U12" s="24">
+        <v>5.2427184466019398E-3</v>
+      </c>
+      <c r="V12" s="24">
+        <v>4.0802675585284304E-3</v>
+      </c>
+      <c r="W12" s="4">
+        <v>0.15740000000000001</v>
+      </c>
+      <c r="X12" s="4">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="Y12" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="M13" s="18">
+        <v>300</v>
+      </c>
+      <c r="N13" s="14">
+        <v>100</v>
+      </c>
+      <c r="O13" s="14">
+        <v>400</v>
+      </c>
+      <c r="P13" s="29">
+        <v>0.62411347517730498</v>
+      </c>
+      <c r="Q13" s="23">
+        <v>3.2269503546099303E-2</v>
+      </c>
+      <c r="W13" s="4">
+        <v>0.152</v>
+      </c>
+      <c r="X13" s="4">
+        <v>0.42399999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="M14" s="18">
+        <v>300</v>
+      </c>
+      <c r="N14" s="14">
+        <v>100</v>
+      </c>
+      <c r="O14" s="14">
+        <v>400</v>
+      </c>
+      <c r="P14" s="29">
+        <v>0.46099290780141799</v>
+      </c>
+      <c r="Q14" s="23">
+        <v>3.5106382978723399E-2</v>
+      </c>
+      <c r="W14" s="4">
+        <v>0.153</v>
+      </c>
+      <c r="X14" s="4">
+        <v>0.41199999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="M15" s="18">
+        <v>300</v>
+      </c>
+      <c r="N15" s="14">
+        <v>100</v>
+      </c>
+      <c r="O15" s="14">
+        <v>400</v>
+      </c>
+      <c r="P15" s="29">
+        <v>0.28723404255319201</v>
+      </c>
+      <c r="Q15" s="23">
+        <v>3.7411347517730502E-2</v>
+      </c>
+      <c r="W15" s="4">
+        <v>0.152</v>
+      </c>
+      <c r="X15" s="4">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="M16" s="18">
+        <v>300</v>
+      </c>
+      <c r="N16" s="14">
+        <v>100</v>
+      </c>
+      <c r="O16" s="14">
+        <v>400</v>
+      </c>
+      <c r="P16" s="29">
+        <v>0.184397163120567</v>
+      </c>
+      <c r="Q16" s="23">
+        <v>3.9716312056737597E-2</v>
+      </c>
+      <c r="W16" s="4">
+        <v>0.15090000000000001</v>
+      </c>
+      <c r="X16" s="4">
+        <v>0.38700000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="13:24">
+      <c r="M17" s="18">
+        <v>300</v>
+      </c>
+      <c r="N17" s="14">
+        <v>100</v>
+      </c>
+      <c r="O17" s="14">
+        <v>400</v>
+      </c>
+      <c r="P17" s="29">
+        <v>8.5106382978723402E-2</v>
+      </c>
+      <c r="Q17" s="23">
+        <v>4.3262411347517703E-2</v>
+      </c>
+      <c r="W17" s="4">
+        <v>0.14979999999999999</v>
+      </c>
+      <c r="X17" s="4">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="18" spans="13:24">
+      <c r="M18" s="18">
+        <v>300</v>
+      </c>
+      <c r="N18" s="14">
+        <v>100</v>
+      </c>
+      <c r="O18" s="14">
+        <v>400</v>
+      </c>
+      <c r="P18" s="29">
+        <v>4.2553191489361701E-2</v>
+      </c>
+      <c r="Q18" s="23">
+        <v>4.4858156028368797E-2</v>
+      </c>
+      <c r="W18" s="4">
+        <v>0.1487</v>
+      </c>
+      <c r="X18" s="4">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="19" spans="13:24">
+      <c r="M19" s="18">
+        <v>300</v>
+      </c>
+      <c r="N19" s="14">
+        <v>100</v>
+      </c>
+      <c r="O19" s="14">
+        <v>400</v>
+      </c>
+      <c r="P19" s="29">
+        <v>2.1276595744680899E-2</v>
+      </c>
+      <c r="Q19" s="23">
+        <v>4.6808510638297898E-2</v>
+      </c>
+      <c r="W19" s="4">
+        <v>0.1479</v>
+      </c>
+      <c r="X19" s="4">
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="20" spans="13:24">
+      <c r="M20" s="18">
+        <v>300</v>
+      </c>
+      <c r="N20" s="14">
+        <v>100</v>
+      </c>
+      <c r="O20" s="14">
+        <v>400</v>
+      </c>
+      <c r="P20" s="29">
+        <v>3.54609929078014E-3</v>
+      </c>
+      <c r="Q20" s="23">
+        <v>4.8936170212766E-2</v>
+      </c>
+      <c r="W20" s="4">
+        <v>0.14660000000000001</v>
+      </c>
+      <c r="X20" s="4">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="21" spans="13:24">
+      <c r="M21" s="18">
+        <v>300</v>
+      </c>
+      <c r="N21" s="14">
+        <v>100</v>
+      </c>
+      <c r="O21" s="14">
+        <v>400</v>
+      </c>
+      <c r="P21" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="W21" s="4">
+        <v>0.14369999999999999</v>
+      </c>
+      <c r="X21" s="4">
+        <v>0.36699999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="13:24">
+      <c r="M22" s="18">
+        <v>300</v>
+      </c>
+      <c r="N22" s="14">
+        <v>100</v>
+      </c>
+      <c r="O22" s="14">
+        <v>400</v>
+      </c>
+      <c r="P22" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="23">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="W22" s="4">
+        <v>0.14230000000000001</v>
+      </c>
+      <c r="X22" s="4">
+        <v>0.36399999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="13:24">
+      <c r="M23" s="18">
+        <v>300</v>
+      </c>
+      <c r="N23" s="14">
+        <v>100</v>
+      </c>
+      <c r="O23" s="14">
+        <v>400</v>
+      </c>
+      <c r="W23" s="4">
+        <v>0.1419</v>
+      </c>
+      <c r="X23" s="4">
+        <v>0.36199999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="13:24">
+      <c r="M24" s="18">
+        <v>300</v>
+      </c>
+      <c r="N24" s="14">
+        <v>100</v>
+      </c>
+      <c r="O24" s="14">
+        <v>400</v>
+      </c>
+      <c r="W24" s="4">
+        <v>0.14169999999999999</v>
+      </c>
+      <c r="X24" s="4">
+        <v>0.36099999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="13:24">
+      <c r="M25" s="18">
+        <v>300</v>
+      </c>
+      <c r="N25" s="14">
+        <v>100</v>
+      </c>
+      <c r="O25" s="14">
+        <v>400</v>
+      </c>
+      <c r="W25" s="4">
+        <v>0.1414</v>
+      </c>
+      <c r="X25" s="4">
+        <v>0.35899999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="13:24">
+      <c r="M26" s="18">
+        <v>300</v>
+      </c>
+      <c r="N26" s="14">
+        <v>100</v>
+      </c>
+      <c r="O26" s="14">
+        <v>400</v>
+      </c>
+      <c r="W26" s="4">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="X26" s="4">
+        <v>0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="13:24">
+      <c r="M27" s="18">
+        <v>300</v>
+      </c>
+      <c r="N27" s="14">
+        <v>100</v>
+      </c>
+      <c r="O27" s="14">
+        <v>400</v>
+      </c>
+      <c r="W27" s="4">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="X27" s="4">
+        <v>0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="13:24">
+      <c r="M28" s="18">
+        <v>300</v>
+      </c>
+      <c r="N28" s="14">
+        <v>100</v>
+      </c>
+      <c r="O28" s="14">
+        <v>400</v>
+      </c>
+      <c r="W28" s="4">
+        <v>0.14069999999999999</v>
+      </c>
+      <c r="X28" s="4">
+        <v>0.35299999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="13:24">
+      <c r="M29" s="18">
+        <v>300</v>
+      </c>
+      <c r="N29" s="14">
+        <v>100</v>
+      </c>
+      <c r="O29" s="14">
+        <v>400</v>
+      </c>
+      <c r="W29" s="4">
+        <v>0.14050000000000001</v>
+      </c>
+      <c r="X29" s="4">
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="13:24">
+      <c r="M30" s="18">
+        <v>300</v>
+      </c>
+      <c r="N30" s="14">
+        <v>100</v>
+      </c>
+      <c r="O30" s="14">
+        <v>400</v>
+      </c>
+      <c r="W30" s="4">
+        <v>0.14019999999999999</v>
+      </c>
+      <c r="X30" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="31" spans="13:24">
+      <c r="M31" s="18">
+        <v>300</v>
+      </c>
+      <c r="N31" s="14">
+        <v>100</v>
+      </c>
+      <c r="O31" s="14">
+        <v>400</v>
+      </c>
+      <c r="W31" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="X31" s="4">
+        <v>0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="13:24">
+      <c r="M32" s="18">
+        <v>300</v>
+      </c>
+      <c r="N32" s="14">
+        <v>100</v>
+      </c>
+      <c r="O32" s="14">
+        <v>400</v>
+      </c>
+      <c r="W32" s="4">
+        <v>0.13980000000000001</v>
+      </c>
+      <c r="X32" s="4">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="13:24">
+      <c r="M33" s="18">
+        <v>300</v>
+      </c>
+      <c r="N33" s="14">
+        <v>100</v>
+      </c>
+      <c r="O33" s="14">
+        <v>400</v>
+      </c>
+      <c r="W33" s="4">
+        <v>0.13950000000000001</v>
+      </c>
+      <c r="X33" s="4">
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="13:24">
+      <c r="M34" s="18">
+        <v>300</v>
+      </c>
+      <c r="N34" s="14">
+        <v>100</v>
+      </c>
+      <c r="O34" s="14">
+        <v>400</v>
+      </c>
+      <c r="W34" s="4">
+        <v>0.13930000000000001</v>
+      </c>
+      <c r="X34" s="4">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="13:24">
+      <c r="M35" s="18">
+        <v>300</v>
+      </c>
+      <c r="N35" s="14">
+        <v>100</v>
+      </c>
+      <c r="O35" s="14">
+        <v>400</v>
+      </c>
+      <c r="W35" s="4">
+        <v>0.1391</v>
+      </c>
+      <c r="X35" s="4">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="36" spans="13:24">
+      <c r="M36" s="18">
+        <v>300</v>
+      </c>
+      <c r="N36" s="14">
+        <v>100</v>
+      </c>
+      <c r="O36" s="14">
+        <v>400</v>
+      </c>
+      <c r="W36" s="4">
+        <v>0.13880000000000001</v>
+      </c>
+      <c r="X36" s="4">
+        <v>0.33900000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="13:24">
+      <c r="M37" s="18">
+        <v>300</v>
+      </c>
+      <c r="N37" s="14">
+        <v>100</v>
+      </c>
+      <c r="O37" s="14">
+        <v>400</v>
+      </c>
+      <c r="W37" s="4">
+        <v>0.1386</v>
+      </c>
+      <c r="X37" s="4">
+        <v>0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="13:24">
+      <c r="M38" s="18">
+        <v>300</v>
+      </c>
+      <c r="N38" s="14">
+        <v>100</v>
+      </c>
+      <c r="O38" s="14">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5275,7 +6845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>

--- a/Model/Data/import.xlsx
+++ b/Model/Data/import.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\thayerfs\f0020gy\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-35260" yWindow="-7700" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26265" windowHeight="11535" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LA" sheetId="1" r:id="rId1"/>
@@ -29,7 +34,7 @@
     <author>Nick Laws</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -204,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -230,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -258,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -285,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -313,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="W1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -340,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -364,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -388,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -415,7 +420,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LA value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -457,7 +486,7 @@
     <author>Nick Laws</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -481,7 +510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -505,7 +534,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -529,7 +558,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -629,7 +658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -656,7 +685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -682,7 +711,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -710,7 +739,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -737,7 +766,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -765,7 +794,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="W1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -792,7 +821,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -816,7 +845,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -840,7 +869,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -867,7 +896,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LA value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -909,7 +962,7 @@
     <author>Nick Laws</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -944,7 +997,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -968,7 +1021,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -992,7 +1045,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1092,7 +1145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1119,7 +1172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1145,7 +1198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1173,7 +1226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1200,7 +1253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1228,7 +1281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="W1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1255,7 +1308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1279,7 +1332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1303,7 +1356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1330,7 +1383,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LA value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1372,7 +1449,7 @@
     <author>Nick Laws</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1393,30 +1470,6 @@
           </rPr>
           <t xml:space="preserve">
 manual sensitivity analyses show that LA is highly sensitive to this value.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Laws:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LA value</t>
         </r>
       </text>
     </comment>
@@ -1425,7 +1478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="177">
   <si>
     <t>population growth rate</t>
   </si>
@@ -1944,6 +1997,18 @@
   </si>
   <si>
     <t>Boulder</t>
+  </si>
+  <si>
+    <t>blue text is values to vary in sensitivity analyses</t>
+  </si>
+  <si>
+    <t>option 1</t>
+  </si>
+  <si>
+    <t>option 2</t>
+  </si>
+  <si>
+    <t>default values in Bold</t>
   </si>
 </sst>
 </file>
@@ -1955,7 +2020,7 @@
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2036,6 +2101,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2179,7 +2259,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2320,6 +2400,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="89" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="93">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2418,6 +2512,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2743,33 +2845,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y38"/>
+  <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:O38"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="49"/>
-    <col min="16" max="16" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="10.83203125" style="36"/>
-    <col min="25" max="25" width="15.33203125" customWidth="1"/>
-    <col min="48" max="48" width="14.6640625" customWidth="1"/>
-    <col min="107" max="107" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="15" customWidth="1"/>
-    <col min="131" max="131" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="142" max="143" width="13.33203125" customWidth="1"/>
-    <col min="145" max="145" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="49"/>
+    <col min="17" max="17" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.875" style="36"/>
+    <col min="26" max="26" width="15.375" customWidth="1"/>
+    <col min="49" max="49" width="14.625" customWidth="1"/>
+    <col min="108" max="108" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="15" customWidth="1"/>
+    <col min="132" max="132" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="143" max="144" width="13.375" customWidth="1"/>
+    <col min="146" max="146" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="15" customFormat="1" ht="64" customHeight="1">
+    <row r="1" spans="1:26" s="15" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="s">
         <v>7</v>
       </c>
@@ -2779,71 +2881,74 @@
       <c r="D1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="J1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="K1" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="Q1" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="T1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="U1" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="V1" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="W1" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="W1" s="52" t="s">
+      <c r="X1" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="X1" s="52" t="s">
+      <c r="Y1" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Z1" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="33" customFormat="1">
+    <row r="2" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>150</v>
       </c>
@@ -2856,1374 +2961,1381 @@
       <c r="D2" s="33">
         <v>1</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="14">
+        <v>2000000</v>
+      </c>
+      <c r="F2" s="22">
         <v>16648</v>
       </c>
-      <c r="F2" s="22">
+      <c r="G2" s="22">
         <v>12469</v>
       </c>
-      <c r="G2" s="35">
+      <c r="H2" s="35">
         <v>0.20899999999999999</v>
       </c>
-      <c r="H2" s="10">
+      <c r="I2" s="10">
         <v>0.11799999999999999</v>
       </c>
-      <c r="I2" s="24">
+      <c r="J2" s="24">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="J2" s="47">
+      <c r="K2" s="47">
         <v>21105</v>
       </c>
-      <c r="K2" s="47">
+      <c r="L2" s="47">
         <v>63599.92</v>
       </c>
-      <c r="L2" s="47">
+      <c r="M2" s="47">
         <v>83016.52</v>
       </c>
-      <c r="M2" s="18">
-        <v>300</v>
-      </c>
-      <c r="N2" s="19">
-        <v>100</v>
+      <c r="N2" s="18">
+        <v>300</v>
       </c>
       <c r="O2" s="19">
-        <v>400</v>
-      </c>
-      <c r="P2" s="29">
+        <v>100</v>
+      </c>
+      <c r="P2" s="19">
+        <v>400</v>
+      </c>
+      <c r="Q2" s="29">
         <v>1</v>
       </c>
-      <c r="Q2" s="36">
+      <c r="R2" s="36">
         <v>5.3900709219858204E-3</v>
       </c>
-      <c r="R2" s="24">
+      <c r="S2" s="24">
         <v>0</v>
       </c>
-      <c r="S2" s="24">
+      <c r="T2" s="24">
         <v>8.1560283687943296E-4</v>
       </c>
-      <c r="T2" s="24">
+      <c r="U2" s="24">
         <v>3.3444816053511699E-5</v>
       </c>
-      <c r="U2" s="24">
+      <c r="V2" s="24">
         <v>1E-3</v>
       </c>
-      <c r="V2" s="24">
+      <c r="W2" s="24">
         <v>6.6889632107023397E-5</v>
       </c>
-      <c r="W2" s="36">
+      <c r="X2" s="36">
         <v>0.29580000000000001</v>
       </c>
-      <c r="X2" s="36">
+      <c r="Y2" s="36">
         <v>0.73499999999999999</v>
       </c>
-      <c r="Y2" s="38">
+      <c r="Z2" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="9" customFormat="1">
+    <row r="3" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="10"/>
-      <c r="I3" s="25">
+      <c r="E3"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="10"/>
+      <c r="J3" s="25">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="J3" s="48">
+      <c r="K3" s="48">
         <v>19295</v>
       </c>
-      <c r="K3" s="48">
+      <c r="L3" s="48">
         <v>57051.68</v>
       </c>
-      <c r="L3" s="48">
+      <c r="M3" s="48">
         <v>74803.079999999987</v>
       </c>
-      <c r="M3" s="19">
-        <v>300</v>
-      </c>
-      <c r="N3" s="14">
-        <v>100</v>
+      <c r="N3" s="19">
+        <v>300</v>
       </c>
       <c r="O3" s="14">
-        <v>400</v>
-      </c>
-      <c r="P3" s="30">
+        <v>100</v>
+      </c>
+      <c r="P3" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q3" s="30">
         <v>1</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="R3" s="10">
         <v>8.6879432624113496E-3</v>
       </c>
-      <c r="R3" s="25">
+      <c r="S3" s="25">
         <v>5.0167224080267597E-4</v>
       </c>
-      <c r="S3" s="25">
+      <c r="T3" s="25">
         <v>1.3829787234042601E-3</v>
       </c>
-      <c r="T3" s="25">
+      <c r="U3" s="25">
         <v>3.3444816053511699E-4</v>
       </c>
-      <c r="U3" s="25">
+      <c r="V3" s="25">
         <v>1.4886731391585801E-3</v>
       </c>
-      <c r="V3" s="25">
+      <c r="W3" s="25">
         <v>2.6755852842809402E-4</v>
       </c>
-      <c r="W3" s="53">
+      <c r="X3" s="53">
         <v>0.28089999999999998</v>
       </c>
-      <c r="X3" s="53">
+      <c r="Y3" s="53">
         <v>0.66200000000000003</v>
       </c>
-      <c r="Y3" s="39">
+      <c r="Z3" s="39">
         <v>1.12380952380952</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="9" customFormat="1">
+    <row r="4" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="E4"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="I4" s="26">
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="J4" s="26">
         <v>5.8842443729903498E-3</v>
       </c>
-      <c r="J4" s="49">
+      <c r="K4" s="49">
         <v>18755</v>
       </c>
-      <c r="K4" s="49">
+      <c r="L4" s="49">
         <v>53205.52</v>
       </c>
-      <c r="L4" s="49">
+      <c r="M4" s="49">
         <v>70460.12</v>
       </c>
-      <c r="M4" s="20">
-        <v>300</v>
-      </c>
-      <c r="N4" s="14">
-        <v>100</v>
+      <c r="N4" s="20">
+        <v>300</v>
       </c>
       <c r="O4" s="14">
-        <v>400</v>
-      </c>
-      <c r="P4" s="31">
+        <v>100</v>
+      </c>
+      <c r="P4" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q4" s="31">
         <v>1</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="R4" s="10">
         <v>1.0638297872340399E-2</v>
       </c>
-      <c r="R4" s="26">
+      <c r="S4" s="26">
         <v>9.6989966555183996E-4</v>
       </c>
-      <c r="S4" s="26">
+      <c r="T4" s="26">
         <v>1.70212765957447E-3</v>
       </c>
-      <c r="T4" s="26">
+      <c r="U4" s="26">
         <v>7.6923076923076901E-4</v>
       </c>
-      <c r="U4" s="26">
+      <c r="V4" s="26">
         <v>1.94174757281553E-3</v>
       </c>
-      <c r="V4" s="26">
+      <c r="W4" s="26">
         <v>5.6856187290969904E-4</v>
       </c>
-      <c r="W4" s="53">
+      <c r="X4" s="53">
         <v>0.22259999999999999</v>
       </c>
-      <c r="X4" s="54">
+      <c r="Y4" s="54">
         <v>0.65</v>
       </c>
-      <c r="Y4" s="40">
+      <c r="Z4" s="40">
         <v>1.2253968253968299</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="9" customFormat="1">
+    <row r="5" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="E5"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="I5" s="26">
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="J5" s="26">
         <v>5.8070739549839203E-3</v>
       </c>
-      <c r="J5" s="49">
+      <c r="K5" s="49">
         <v>17580</v>
       </c>
-      <c r="K5" s="49">
+      <c r="L5" s="49">
         <v>49958.32</v>
       </c>
-      <c r="L5" s="49">
+      <c r="M5" s="49">
         <v>66131.920000000013</v>
       </c>
-      <c r="M5" s="20">
-        <v>300</v>
-      </c>
-      <c r="N5" s="14">
-        <v>100</v>
+      <c r="N5" s="20">
+        <v>300</v>
       </c>
       <c r="O5" s="14">
-        <v>400</v>
-      </c>
-      <c r="P5" s="31">
+        <v>100</v>
+      </c>
+      <c r="P5" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q5" s="31">
         <v>0.98936170212765995</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="R5" s="10">
         <v>1.24113475177305E-2</v>
       </c>
-      <c r="R5" s="26">
+      <c r="S5" s="26">
         <v>1.3712374581939799E-3</v>
       </c>
-      <c r="S5" s="26">
+      <c r="T5" s="26">
         <v>1.87943262411348E-3</v>
       </c>
-      <c r="T5" s="26">
+      <c r="U5" s="26">
         <v>1.10367892976589E-3</v>
       </c>
-      <c r="U5" s="26">
+      <c r="V5" s="26">
         <v>2.2330097087378598E-3</v>
       </c>
-      <c r="V5" s="26">
+      <c r="W5" s="26">
         <v>9.3645484949832799E-4</v>
       </c>
-      <c r="W5" s="53">
+      <c r="X5" s="53">
         <v>0.20979999999999999</v>
       </c>
-      <c r="X5" s="54">
+      <c r="Y5" s="54">
         <v>0.64</v>
       </c>
-      <c r="Y5" s="40">
+      <c r="Z5" s="40">
         <v>1.35238095238095</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="27">
+      <c r="I6" s="1"/>
+      <c r="J6" s="27">
         <v>5.6141479099678501E-3</v>
       </c>
-      <c r="J6" s="49">
+      <c r="K6" s="49">
         <v>16765</v>
       </c>
-      <c r="K6" s="49">
+      <c r="L6" s="49">
         <v>47108.56</v>
       </c>
-      <c r="L6" s="49">
+      <c r="M6" s="49">
         <v>62532.36</v>
       </c>
-      <c r="M6" s="21">
-        <v>300</v>
-      </c>
-      <c r="N6" s="14">
-        <v>100</v>
+      <c r="N6" s="21">
+        <v>300</v>
       </c>
       <c r="O6" s="14">
-        <v>400</v>
-      </c>
-      <c r="P6" s="29">
+        <v>100</v>
+      </c>
+      <c r="P6" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q6" s="29">
         <v>0.97163120567375905</v>
       </c>
-      <c r="Q6" s="23">
+      <c r="R6" s="23">
         <v>1.3829787234042599E-2</v>
       </c>
-      <c r="R6" s="27">
+      <c r="S6" s="27">
         <v>1.7391304347826101E-3</v>
       </c>
-      <c r="S6" s="27">
+      <c r="T6" s="27">
         <v>2.1985815602836899E-3</v>
       </c>
-      <c r="T6" s="27">
+      <c r="U6" s="27">
         <v>1.60535117056856E-3</v>
       </c>
-      <c r="U6" s="27">
+      <c r="V6" s="27">
         <v>2.5889967637540501E-3</v>
       </c>
-      <c r="V6" s="27">
+      <c r="W6" s="27">
         <v>1.3712374581939799E-3</v>
       </c>
-      <c r="W6" s="36">
+      <c r="X6" s="36">
         <v>0.19389999999999999</v>
       </c>
-      <c r="X6" s="55">
+      <c r="Y6" s="55">
         <v>0.60899999999999999</v>
       </c>
-      <c r="Y6" s="41">
+      <c r="Z6" s="41">
         <v>1.4539682539682499</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="4" customFormat="1">
+    <row r="7" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="28">
+      <c r="E7"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="28">
         <v>5.3440514469453399E-3</v>
       </c>
-      <c r="J7" s="49">
+      <c r="K7" s="49">
         <v>15770</v>
       </c>
-      <c r="K7" s="49">
+      <c r="L7" s="49">
         <v>44255.08</v>
       </c>
-      <c r="L7" s="49">
+      <c r="M7" s="49">
         <v>58763.48</v>
       </c>
-      <c r="M7" s="22">
-        <v>300</v>
-      </c>
-      <c r="N7" s="14">
-        <v>100</v>
+      <c r="N7" s="22">
+        <v>300</v>
       </c>
       <c r="O7" s="14">
-        <v>400</v>
-      </c>
-      <c r="P7" s="29">
+        <v>100</v>
+      </c>
+      <c r="P7" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q7" s="29">
         <v>0.95390070921985803</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="R7" s="23">
         <v>1.5957446808510599E-2</v>
       </c>
-      <c r="R7" s="28">
+      <c r="S7" s="28">
         <v>2.10702341137124E-3</v>
       </c>
-      <c r="S7" s="28">
+      <c r="T7" s="28">
         <v>2.5177304964538998E-3</v>
       </c>
-      <c r="T7" s="28">
+      <c r="U7" s="28">
         <v>2.0066889632107E-3</v>
       </c>
-      <c r="U7" s="28">
+      <c r="V7" s="28">
         <v>2.8478964401294502E-3</v>
       </c>
-      <c r="V7" s="28">
+      <c r="W7" s="28">
         <v>1.7725752508361201E-3</v>
       </c>
-      <c r="W7" s="36">
+      <c r="X7" s="36">
         <v>0.18640000000000001</v>
       </c>
-      <c r="X7" s="35">
+      <c r="Y7" s="35">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Y7" s="42">
+      <c r="Z7" s="42">
         <v>1.5492063492063499</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
-      <c r="I8" s="24">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J8" s="24">
         <v>5.0739549839228298E-3</v>
       </c>
-      <c r="J8" s="49">
+      <c r="K8" s="49">
         <v>15140</v>
       </c>
-      <c r="K8" s="49">
+      <c r="L8" s="49">
         <v>42064.56</v>
       </c>
-      <c r="L8" s="49">
+      <c r="M8" s="49">
         <v>55993.36</v>
       </c>
-      <c r="M8" s="18">
-        <v>300</v>
-      </c>
-      <c r="N8" s="14">
-        <v>100</v>
+      <c r="N8" s="18">
+        <v>300</v>
       </c>
       <c r="O8" s="14">
-        <v>400</v>
-      </c>
-      <c r="P8" s="29">
+        <v>100</v>
+      </c>
+      <c r="P8" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q8" s="29">
         <v>0.91843971631205701</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="R8" s="23">
         <v>1.89716312056738E-2</v>
       </c>
-      <c r="R8" s="24">
+      <c r="S8" s="24">
         <v>2.4414715719063501E-3</v>
       </c>
-      <c r="S8" s="24">
+      <c r="T8" s="24">
         <v>2.9432624113475202E-3</v>
       </c>
-      <c r="T8" s="24">
+      <c r="U8" s="24">
         <v>2.5083612040133802E-3</v>
       </c>
-      <c r="U8" s="24">
+      <c r="V8" s="24">
         <v>3.20388349514563E-3</v>
       </c>
-      <c r="V8" s="24">
+      <c r="W8" s="24">
         <v>2.2408026755852801E-3</v>
       </c>
-      <c r="W8" s="36">
+      <c r="X8" s="36">
         <v>0.1799</v>
       </c>
-      <c r="X8" s="36">
+      <c r="Y8" s="36">
         <v>0.54500000000000004</v>
       </c>
-      <c r="Y8" s="38">
+      <c r="Z8" s="38">
         <v>1.6317460317460299</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="I9" s="24">
+      <c r="J9" s="24">
         <v>4.6881028938906798E-3</v>
       </c>
-      <c r="J9" s="49">
+      <c r="K9" s="49">
         <v>14595</v>
       </c>
-      <c r="K9" s="49">
+      <c r="L9" s="49">
         <v>39902.880000000005</v>
       </c>
-      <c r="L9" s="49">
+      <c r="M9" s="49">
         <v>53330.280000000006</v>
       </c>
-      <c r="M9" s="18">
-        <v>300</v>
-      </c>
-      <c r="N9" s="14">
-        <v>100</v>
+      <c r="N9" s="18">
+        <v>300</v>
       </c>
       <c r="O9" s="14">
-        <v>400</v>
-      </c>
-      <c r="P9" s="29">
+        <v>100</v>
+      </c>
+      <c r="P9" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q9" s="29">
         <v>0.879432624113475</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="R9" s="23">
         <v>2.2163120567375901E-2</v>
       </c>
-      <c r="R9" s="24">
+      <c r="S9" s="24">
         <v>2.9096989966555199E-3</v>
       </c>
-      <c r="S9" s="24">
+      <c r="T9" s="24">
         <v>3.43971631205674E-3</v>
       </c>
-      <c r="T9" s="24">
+      <c r="U9" s="24">
         <v>2.9765886287625399E-3</v>
       </c>
-      <c r="U9" s="24">
+      <c r="V9" s="24">
         <v>3.5922330097087401E-3</v>
       </c>
-      <c r="V9" s="24">
+      <c r="W9" s="24">
         <v>2.7090301003344498E-3</v>
       </c>
-      <c r="W9" s="36">
+      <c r="X9" s="36">
         <v>0.17349999999999999</v>
       </c>
-      <c r="X9" s="36">
+      <c r="Y9" s="36">
         <v>0.505</v>
       </c>
-      <c r="Y9" s="38">
+      <c r="Z9" s="38">
         <v>1.6952380952381001</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
-      <c r="I10" s="24">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J10" s="24">
         <v>4.1093247588424404E-3</v>
       </c>
-      <c r="J10" s="49">
+      <c r="K10" s="49">
         <v>14055</v>
       </c>
-      <c r="K10" s="49">
+      <c r="L10" s="49">
         <v>37681.72</v>
       </c>
-      <c r="L10" s="49">
+      <c r="M10" s="49">
         <v>50612.32</v>
       </c>
-      <c r="M10" s="18">
-        <v>300</v>
-      </c>
-      <c r="N10" s="14">
-        <v>100</v>
+      <c r="N10" s="18">
+        <v>300</v>
       </c>
       <c r="O10" s="14">
-        <v>400</v>
-      </c>
-      <c r="P10" s="29">
+        <v>100</v>
+      </c>
+      <c r="P10" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q10" s="29">
         <v>0.83333333333333304</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="R10" s="23">
         <v>2.4468085106383E-2</v>
       </c>
-      <c r="R10" s="24">
+      <c r="S10" s="24">
         <v>3.24414715719064E-3</v>
       </c>
-      <c r="S10" s="24">
+      <c r="T10" s="24">
         <v>4.1134751773049599E-3</v>
       </c>
-      <c r="T10" s="24">
+      <c r="U10" s="24">
         <v>3.3779264214046801E-3</v>
       </c>
-      <c r="U10" s="24">
+      <c r="V10" s="24">
         <v>4.1100323624595498E-3</v>
       </c>
-      <c r="V10" s="24">
+      <c r="W10" s="24">
         <v>3.17725752508361E-3</v>
       </c>
-      <c r="W10" s="36">
+      <c r="X10" s="36">
         <v>0.16489999999999999</v>
       </c>
-      <c r="X10" s="36">
+      <c r="Y10" s="36">
         <v>0.48499999999999999</v>
       </c>
-      <c r="Y10" s="38">
+      <c r="Z10" s="38">
         <v>1.7904761904761901</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
-      <c r="I11" s="24">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J11" s="24">
         <v>3.6077170418006401E-3</v>
       </c>
-      <c r="J11" s="49">
+      <c r="K11" s="49">
         <v>13330</v>
       </c>
-      <c r="K11" s="49">
+      <c r="L11" s="49">
         <v>35841.32</v>
       </c>
-      <c r="L11" s="49">
+      <c r="M11" s="49">
         <v>48104.92</v>
       </c>
-      <c r="M11" s="18">
-        <v>300</v>
-      </c>
-      <c r="N11" s="14">
-        <v>100</v>
+      <c r="N11" s="18">
+        <v>300</v>
       </c>
       <c r="O11" s="14">
-        <v>400</v>
-      </c>
-      <c r="P11" s="29">
+        <v>100</v>
+      </c>
+      <c r="P11" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q11" s="29">
         <v>0.78723404255319196</v>
       </c>
-      <c r="Q11" s="23">
+      <c r="R11" s="23">
         <v>2.73049645390071E-2</v>
       </c>
-      <c r="R11" s="24">
+      <c r="S11" s="24">
         <v>3.5785953177257502E-3</v>
       </c>
-      <c r="S11" s="24">
+      <c r="T11" s="24">
         <v>4.4680851063829798E-3</v>
       </c>
-      <c r="T11" s="24">
+      <c r="U11" s="24">
         <v>3.7792642140468198E-3</v>
       </c>
-      <c r="U11" s="24">
+      <c r="V11" s="24">
         <v>4.6601941747572801E-3</v>
       </c>
-      <c r="V11" s="24">
+      <c r="W11" s="24">
         <v>3.6454849498327802E-3</v>
       </c>
-      <c r="W11" s="36">
+      <c r="X11" s="36">
         <v>0.16159999999999999</v>
       </c>
-      <c r="X11" s="36">
+      <c r="Y11" s="36">
         <v>0.45900000000000002</v>
       </c>
-      <c r="Y11" s="38">
+      <c r="Z11" s="38">
         <v>1.89206349206349</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
-      <c r="I12" s="24">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J12" s="24">
         <v>2.9710610932475899E-3</v>
       </c>
-      <c r="J12" s="49">
+      <c r="K12" s="49">
         <v>13060</v>
       </c>
-      <c r="K12" s="49">
+      <c r="L12" s="49">
         <v>34568.240000000005</v>
       </c>
-      <c r="L12" s="49">
+      <c r="M12" s="49">
         <v>46583.44</v>
       </c>
-      <c r="M12" s="18">
-        <v>300</v>
-      </c>
-      <c r="N12" s="14">
-        <v>100</v>
+      <c r="N12" s="18">
+        <v>300</v>
       </c>
       <c r="O12" s="14">
-        <v>400</v>
-      </c>
-      <c r="P12" s="29">
+        <v>100</v>
+      </c>
+      <c r="P12" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q12" s="29">
         <v>0.70567375886524797</v>
       </c>
-      <c r="Q12" s="23">
+      <c r="R12" s="23">
         <v>3.0496453900709201E-2</v>
       </c>
-      <c r="R12" s="24">
+      <c r="S12" s="24">
         <v>4.0133779264214103E-3</v>
       </c>
-      <c r="S12" s="24">
+      <c r="T12" s="24">
         <v>5.1063829787233997E-3</v>
       </c>
-      <c r="T12" s="24">
+      <c r="U12" s="24">
         <v>4.2809364548495E-3</v>
       </c>
-      <c r="U12" s="24">
+      <c r="V12" s="24">
         <v>5.2427184466019398E-3</v>
       </c>
-      <c r="V12" s="24">
+      <c r="W12" s="24">
         <v>4.0802675585284304E-3</v>
       </c>
-      <c r="W12" s="36">
+      <c r="X12" s="36">
         <v>0.15740000000000001</v>
       </c>
-      <c r="X12" s="36">
+      <c r="Y12" s="36">
         <v>0.44400000000000001</v>
       </c>
-      <c r="Y12" s="38">
+      <c r="Z12" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
-      <c r="J13" s="49">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K13" s="49">
         <v>12700</v>
       </c>
-      <c r="K13" s="49">
+      <c r="L13" s="49">
         <v>32870.800000000003</v>
       </c>
-      <c r="L13" s="49">
+      <c r="M13" s="49">
         <v>44554.8</v>
       </c>
-      <c r="M13" s="18">
-        <v>300</v>
-      </c>
-      <c r="N13" s="14">
-        <v>100</v>
+      <c r="N13" s="18">
+        <v>300</v>
       </c>
       <c r="O13" s="14">
-        <v>400</v>
-      </c>
-      <c r="P13" s="29">
+        <v>100</v>
+      </c>
+      <c r="P13" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q13" s="29">
         <v>0.62411347517730498</v>
       </c>
-      <c r="Q13" s="23">
+      <c r="R13" s="23">
         <v>3.2269503546099303E-2</v>
       </c>
-      <c r="W13" s="36">
+      <c r="X13" s="36">
         <v>0.152</v>
       </c>
-      <c r="X13" s="36">
+      <c r="Y13" s="36">
         <v>0.42399999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="J14" s="49">
+      <c r="F14" s="12"/>
+      <c r="K14" s="49">
         <v>12245</v>
       </c>
-      <c r="K14" s="49">
+      <c r="L14" s="49">
         <v>31068.48</v>
       </c>
-      <c r="L14" s="49">
+      <c r="M14" s="49">
         <v>42333.88</v>
       </c>
-      <c r="M14" s="18">
-        <v>300</v>
-      </c>
-      <c r="N14" s="14">
-        <v>100</v>
+      <c r="N14" s="18">
+        <v>300</v>
       </c>
       <c r="O14" s="14">
-        <v>400</v>
-      </c>
-      <c r="P14" s="29">
+        <v>100</v>
+      </c>
+      <c r="P14" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q14" s="29">
         <v>0.46099290780141799</v>
       </c>
-      <c r="Q14" s="23">
+      <c r="R14" s="23">
         <v>3.5106382978723399E-2</v>
       </c>
-      <c r="W14" s="36">
+      <c r="X14" s="36">
         <v>0.153</v>
       </c>
-      <c r="X14" s="36">
+      <c r="Y14" s="36">
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="C15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="J15" s="49">
+      <c r="F15" s="12"/>
+      <c r="K15" s="49">
         <v>12335</v>
       </c>
-      <c r="K15" s="49">
+      <c r="L15" s="49">
         <v>30127.84</v>
       </c>
-      <c r="L15" s="49">
+      <c r="M15" s="49">
         <v>41476.039999999994</v>
       </c>
-      <c r="M15" s="18">
-        <v>300</v>
-      </c>
-      <c r="N15" s="14">
-        <v>100</v>
+      <c r="N15" s="18">
+        <v>300</v>
       </c>
       <c r="O15" s="14">
-        <v>400</v>
-      </c>
-      <c r="P15" s="29">
+        <v>100</v>
+      </c>
+      <c r="P15" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q15" s="29">
         <v>0.28723404255319201</v>
       </c>
-      <c r="Q15" s="23">
+      <c r="R15" s="23">
         <v>3.7411347517730502E-2</v>
       </c>
-      <c r="W15" s="36">
+      <c r="X15" s="36">
         <v>0.152</v>
       </c>
-      <c r="X15" s="36">
+      <c r="Y15" s="36">
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
-      <c r="J16" s="49">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K16" s="49">
         <v>12245</v>
       </c>
-      <c r="K16" s="49">
+      <c r="L16" s="49">
         <v>29313.48</v>
       </c>
-      <c r="L16" s="49">
+      <c r="M16" s="49">
         <v>40578.879999999997</v>
       </c>
-      <c r="M16" s="18">
-        <v>300</v>
-      </c>
-      <c r="N16" s="14">
-        <v>100</v>
+      <c r="N16" s="18">
+        <v>300</v>
       </c>
       <c r="O16" s="14">
-        <v>400</v>
-      </c>
-      <c r="P16" s="29">
+        <v>100</v>
+      </c>
+      <c r="P16" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q16" s="29">
         <v>0.184397163120567</v>
       </c>
-      <c r="Q16" s="23">
+      <c r="R16" s="23">
         <v>3.9716312056737597E-2</v>
       </c>
-      <c r="W16" s="36">
+      <c r="X16" s="36">
         <v>0.15090000000000001</v>
       </c>
-      <c r="X16" s="36">
+      <c r="Y16" s="36">
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="17" spans="10:24">
-      <c r="J17" s="49">
+    <row r="17" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K17" s="49">
         <v>12155</v>
       </c>
-      <c r="K17" s="49">
+      <c r="L17" s="49">
         <v>28434.120000000003</v>
       </c>
-      <c r="L17" s="49">
+      <c r="M17" s="49">
         <v>39616.720000000001</v>
       </c>
-      <c r="M17" s="18">
-        <v>300</v>
-      </c>
-      <c r="N17" s="14">
-        <v>100</v>
+      <c r="N17" s="18">
+        <v>300</v>
       </c>
       <c r="O17" s="14">
-        <v>400</v>
-      </c>
-      <c r="P17" s="29">
+        <v>100</v>
+      </c>
+      <c r="P17" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q17" s="29">
         <v>8.5106382978723402E-2</v>
       </c>
-      <c r="Q17" s="23">
+      <c r="R17" s="23">
         <v>4.3262411347517703E-2</v>
       </c>
-      <c r="W17" s="36">
+      <c r="X17" s="36">
         <v>0.14979999999999999</v>
       </c>
-      <c r="X17" s="36">
+      <c r="Y17" s="36">
         <v>0.379</v>
       </c>
     </row>
-    <row r="18" spans="10:24">
-      <c r="J18" s="49">
+    <row r="18" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K18" s="49">
         <v>12065</v>
       </c>
-      <c r="K18" s="49">
+      <c r="L18" s="49">
         <v>27814.760000000002</v>
       </c>
-      <c r="L18" s="49">
+      <c r="M18" s="49">
         <v>38914.560000000005</v>
       </c>
-      <c r="M18" s="18">
-        <v>300</v>
-      </c>
-      <c r="N18" s="14">
-        <v>100</v>
+      <c r="N18" s="18">
+        <v>300</v>
       </c>
       <c r="O18" s="14">
-        <v>400</v>
-      </c>
-      <c r="P18" s="29">
+        <v>100</v>
+      </c>
+      <c r="P18" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q18" s="29">
         <v>4.2553191489361701E-2</v>
       </c>
-      <c r="Q18" s="23">
+      <c r="R18" s="23">
         <v>4.4858156028368797E-2</v>
       </c>
-      <c r="W18" s="36">
+      <c r="X18" s="36">
         <v>0.1487</v>
       </c>
-      <c r="X18" s="36">
+      <c r="Y18" s="36">
         <v>0.379</v>
       </c>
     </row>
-    <row r="19" spans="10:24">
-      <c r="J19" s="49">
+    <row r="19" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K19" s="49">
         <v>11975</v>
       </c>
-      <c r="K19" s="49">
+      <c r="L19" s="49">
         <v>27585.4</v>
       </c>
-      <c r="L19" s="49">
+      <c r="M19" s="49">
         <v>38602.400000000001</v>
       </c>
-      <c r="M19" s="18">
-        <v>300</v>
-      </c>
-      <c r="N19" s="14">
-        <v>100</v>
+      <c r="N19" s="18">
+        <v>300</v>
       </c>
       <c r="O19" s="14">
-        <v>400</v>
-      </c>
-      <c r="P19" s="29">
+        <v>100</v>
+      </c>
+      <c r="P19" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q19" s="29">
         <v>2.1276595744680899E-2</v>
       </c>
-      <c r="Q19" s="23">
+      <c r="R19" s="23">
         <v>4.6808510638297898E-2</v>
       </c>
-      <c r="W19" s="36">
+      <c r="X19" s="36">
         <v>0.1479</v>
       </c>
-      <c r="X19" s="36">
+      <c r="Y19" s="36">
         <v>0.372</v>
       </c>
     </row>
-    <row r="20" spans="10:24">
-      <c r="J20" s="49">
+    <row r="20" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K20" s="49">
         <v>11900</v>
       </c>
-      <c r="K20" s="49">
+      <c r="L20" s="49">
         <v>27437.599999999999</v>
       </c>
-      <c r="L20" s="49">
+      <c r="M20" s="49">
         <v>38385.599999999999</v>
       </c>
-      <c r="M20" s="18">
-        <v>300</v>
-      </c>
-      <c r="N20" s="14">
-        <v>100</v>
+      <c r="N20" s="18">
+        <v>300</v>
       </c>
       <c r="O20" s="14">
-        <v>400</v>
-      </c>
-      <c r="P20" s="29">
+        <v>100</v>
+      </c>
+      <c r="P20" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q20" s="29">
         <v>3.54609929078014E-3</v>
       </c>
-      <c r="Q20" s="23">
+      <c r="R20" s="23">
         <v>4.8936170212766E-2</v>
       </c>
-      <c r="W20" s="36">
+      <c r="X20" s="36">
         <v>0.14660000000000001</v>
       </c>
-      <c r="X20" s="36">
+      <c r="Y20" s="36">
         <v>0.371</v>
       </c>
     </row>
-    <row r="21" spans="10:24">
-      <c r="J21" s="49">
+    <row r="21" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K21" s="49">
         <v>11795</v>
       </c>
-      <c r="K21" s="49">
+      <c r="L21" s="49">
         <v>26996.68</v>
       </c>
-      <c r="L21" s="49">
+      <c r="M21" s="49">
         <v>37848.080000000002</v>
       </c>
-      <c r="M21" s="18">
-        <v>300</v>
-      </c>
-      <c r="N21" s="14">
-        <v>100</v>
+      <c r="N21" s="18">
+        <v>300</v>
       </c>
       <c r="O21" s="14">
-        <v>400</v>
-      </c>
-      <c r="P21" s="29">
+        <v>100</v>
+      </c>
+      <c r="P21" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q21" s="29">
         <v>0</v>
       </c>
-      <c r="Q21" s="23">
+      <c r="R21" s="23">
         <v>0.05</v>
       </c>
-      <c r="W21" s="36">
+      <c r="X21" s="36">
         <v>0.14369999999999999</v>
       </c>
-      <c r="X21" s="36">
+      <c r="Y21" s="36">
         <v>0.36699999999999999</v>
       </c>
     </row>
-    <row r="22" spans="10:24">
-      <c r="J22" s="49">
+    <row r="22" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K22" s="49">
         <v>11550</v>
       </c>
-      <c r="K22" s="49">
+      <c r="L22" s="49">
         <v>26531.200000000001</v>
       </c>
-      <c r="L22" s="49">
+      <c r="M22" s="49">
         <v>37157.199999999997</v>
       </c>
-      <c r="M22" s="18">
-        <v>300</v>
-      </c>
-      <c r="N22" s="14">
-        <v>100</v>
+      <c r="N22" s="18">
+        <v>300</v>
       </c>
       <c r="O22" s="14">
-        <v>400</v>
-      </c>
-      <c r="P22" s="29">
+        <v>100</v>
+      </c>
+      <c r="P22" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q22" s="29">
         <v>0</v>
       </c>
-      <c r="Q22" s="23">
+      <c r="R22" s="23">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="W22" s="36">
+      <c r="X22" s="36">
         <v>0.14230000000000001</v>
       </c>
-      <c r="X22" s="36">
+      <c r="Y22" s="36">
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="23" spans="10:24">
-      <c r="J23" s="49">
+    <row r="23" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K23" s="49">
         <v>11435</v>
       </c>
-      <c r="K23" s="49">
+      <c r="L23" s="49">
         <v>26339.239999999998</v>
       </c>
-      <c r="L23" s="49">
+      <c r="M23" s="49">
         <v>36859.439999999995</v>
       </c>
-      <c r="M23" s="18">
-        <v>300</v>
-      </c>
-      <c r="N23" s="14">
-        <v>100</v>
+      <c r="N23" s="18">
+        <v>300</v>
       </c>
       <c r="O23" s="14">
-        <v>400</v>
-      </c>
-      <c r="W23" s="36">
+        <v>100</v>
+      </c>
+      <c r="P23" s="14">
+        <v>400</v>
+      </c>
+      <c r="X23" s="36">
         <v>0.1419</v>
       </c>
-      <c r="X23" s="36">
+      <c r="Y23" s="36">
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="24" spans="10:24">
-      <c r="J24" s="49">
+    <row r="24" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K24" s="49">
         <v>11400</v>
       </c>
-      <c r="K24" s="49">
+      <c r="L24" s="49">
         <v>26235.599999999999</v>
       </c>
-      <c r="L24" s="49">
+      <c r="M24" s="49">
         <v>36723.599999999999</v>
       </c>
-      <c r="M24" s="18">
-        <v>300</v>
-      </c>
-      <c r="N24" s="14">
-        <v>100</v>
+      <c r="N24" s="18">
+        <v>300</v>
       </c>
       <c r="O24" s="14">
-        <v>400</v>
-      </c>
-      <c r="W24" s="36">
+        <v>100</v>
+      </c>
+      <c r="P24" s="14">
+        <v>400</v>
+      </c>
+      <c r="X24" s="36">
         <v>0.14169999999999999</v>
       </c>
-      <c r="X24" s="36">
+      <c r="Y24" s="36">
         <v>0.36099999999999999</v>
       </c>
     </row>
-    <row r="25" spans="10:24">
-      <c r="J25" s="49">
+    <row r="25" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K25" s="49">
         <v>11380</v>
       </c>
-      <c r="K25" s="49">
+      <c r="L25" s="49">
         <v>26148.52</v>
       </c>
-      <c r="L25" s="49">
+      <c r="M25" s="49">
         <v>36618.120000000003</v>
       </c>
-      <c r="M25" s="18">
-        <v>300</v>
-      </c>
-      <c r="N25" s="14">
-        <v>100</v>
+      <c r="N25" s="18">
+        <v>300</v>
       </c>
       <c r="O25" s="14">
-        <v>400</v>
-      </c>
-      <c r="W25" s="36">
+        <v>100</v>
+      </c>
+      <c r="P25" s="14">
+        <v>400</v>
+      </c>
+      <c r="X25" s="36">
         <v>0.1414</v>
       </c>
-      <c r="X25" s="36">
+      <c r="Y25" s="36">
         <v>0.35899999999999999</v>
       </c>
     </row>
-    <row r="26" spans="10:24">
-      <c r="J26" s="49">
+    <row r="26" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K26" s="49">
         <v>11360</v>
       </c>
-      <c r="K26" s="49">
+      <c r="L26" s="49">
         <v>26061.440000000002</v>
       </c>
-      <c r="L26" s="49">
+      <c r="M26" s="49">
         <v>36512.639999999999</v>
       </c>
-      <c r="M26" s="18">
-        <v>300</v>
-      </c>
-      <c r="N26" s="14">
-        <v>100</v>
+      <c r="N26" s="18">
+        <v>300</v>
       </c>
       <c r="O26" s="14">
-        <v>400</v>
-      </c>
-      <c r="W26" s="36">
+        <v>100</v>
+      </c>
+      <c r="P26" s="14">
+        <v>400</v>
+      </c>
+      <c r="X26" s="36">
         <v>0.14119999999999999</v>
       </c>
-      <c r="X26" s="36">
+      <c r="Y26" s="36">
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="27" spans="10:24">
-      <c r="J27" s="49">
+    <row r="27" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K27" s="49">
         <v>11340</v>
       </c>
-      <c r="K27" s="49">
+      <c r="L27" s="49">
         <v>25909.360000000001</v>
       </c>
-      <c r="L27" s="49">
+      <c r="M27" s="49">
         <v>36342.160000000003</v>
       </c>
-      <c r="M27" s="18">
-        <v>300</v>
-      </c>
-      <c r="N27" s="14">
-        <v>100</v>
+      <c r="N27" s="18">
+        <v>300</v>
       </c>
       <c r="O27" s="14">
-        <v>400</v>
-      </c>
-      <c r="W27" s="36">
+        <v>100</v>
+      </c>
+      <c r="P27" s="14">
+        <v>400</v>
+      </c>
+      <c r="X27" s="36">
         <v>0.14099999999999999</v>
       </c>
-      <c r="X27" s="36">
+      <c r="Y27" s="36">
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="28" spans="10:24">
-      <c r="J28" s="49">
+    <row r="28" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K28" s="49">
         <v>11320</v>
       </c>
-      <c r="K28" s="49">
+      <c r="L28" s="49">
         <v>25757.279999999999</v>
       </c>
-      <c r="L28" s="49">
+      <c r="M28" s="49">
         <v>36171.68</v>
       </c>
-      <c r="M28" s="18">
-        <v>300</v>
-      </c>
-      <c r="N28" s="14">
-        <v>100</v>
+      <c r="N28" s="18">
+        <v>300</v>
       </c>
       <c r="O28" s="14">
-        <v>400</v>
-      </c>
-      <c r="W28" s="36">
+        <v>100</v>
+      </c>
+      <c r="P28" s="14">
+        <v>400</v>
+      </c>
+      <c r="X28" s="36">
         <v>0.14069999999999999</v>
       </c>
-      <c r="X28" s="36">
+      <c r="Y28" s="36">
         <v>0.35299999999999998</v>
       </c>
     </row>
-    <row r="29" spans="10:24">
-      <c r="J29" s="49">
+    <row r="29" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K29" s="49">
         <v>11300</v>
       </c>
-      <c r="K29" s="49">
+      <c r="L29" s="49">
         <v>25540.2</v>
       </c>
-      <c r="L29" s="49">
+      <c r="M29" s="49">
         <v>35936.199999999997</v>
       </c>
-      <c r="M29" s="18">
-        <v>300</v>
-      </c>
-      <c r="N29" s="14">
-        <v>100</v>
+      <c r="N29" s="18">
+        <v>300</v>
       </c>
       <c r="O29" s="14">
-        <v>400</v>
-      </c>
-      <c r="W29" s="36">
+        <v>100</v>
+      </c>
+      <c r="P29" s="14">
+        <v>400</v>
+      </c>
+      <c r="X29" s="36">
         <v>0.14050000000000001</v>
       </c>
-      <c r="X29" s="36">
+      <c r="Y29" s="36">
         <v>0.35099999999999998</v>
       </c>
     </row>
-    <row r="30" spans="10:24">
-      <c r="J30" s="49">
+    <row r="30" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K30" s="49">
         <v>11280</v>
       </c>
-      <c r="K30" s="49">
+      <c r="L30" s="49">
         <v>25453.119999999999</v>
       </c>
-      <c r="L30" s="49">
+      <c r="M30" s="49">
         <v>35830.719999999994</v>
       </c>
-      <c r="M30" s="18">
-        <v>300</v>
-      </c>
-      <c r="N30" s="14">
-        <v>100</v>
+      <c r="N30" s="18">
+        <v>300</v>
       </c>
       <c r="O30" s="14">
-        <v>400</v>
-      </c>
-      <c r="W30" s="36">
+        <v>100</v>
+      </c>
+      <c r="P30" s="14">
+        <v>400</v>
+      </c>
+      <c r="X30" s="36">
         <v>0.14019999999999999</v>
       </c>
-      <c r="X30" s="36">
+      <c r="Y30" s="36">
         <v>0.35</v>
       </c>
     </row>
-    <row r="31" spans="10:24">
-      <c r="J31" s="49">
+    <row r="31" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K31" s="49">
         <v>11260</v>
       </c>
-      <c r="K31" s="49">
+      <c r="L31" s="49">
         <v>25366.04</v>
       </c>
-      <c r="L31" s="49">
+      <c r="M31" s="49">
         <v>35725.24</v>
       </c>
-      <c r="M31" s="18">
-        <v>300</v>
-      </c>
-      <c r="N31" s="14">
-        <v>100</v>
+      <c r="N31" s="18">
+        <v>300</v>
       </c>
       <c r="O31" s="14">
-        <v>400</v>
-      </c>
-      <c r="W31" s="36">
+        <v>100</v>
+      </c>
+      <c r="P31" s="14">
+        <v>400</v>
+      </c>
+      <c r="X31" s="36">
         <v>0.14000000000000001</v>
       </c>
-      <c r="X31" s="36">
+      <c r="Y31" s="36">
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="32" spans="10:24">
-      <c r="J32" s="49">
+    <row r="32" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K32" s="49">
         <v>11240</v>
       </c>
-      <c r="K32" s="49">
+      <c r="L32" s="49">
         <v>25213.96</v>
       </c>
-      <c r="L32" s="49">
+      <c r="M32" s="49">
         <v>35554.76</v>
       </c>
-      <c r="M32" s="18">
-        <v>300</v>
-      </c>
-      <c r="N32" s="14">
-        <v>100</v>
+      <c r="N32" s="18">
+        <v>300</v>
       </c>
       <c r="O32" s="14">
-        <v>400</v>
-      </c>
-      <c r="W32" s="36">
+        <v>100</v>
+      </c>
+      <c r="P32" s="14">
+        <v>400</v>
+      </c>
+      <c r="X32" s="36">
         <v>0.13980000000000001</v>
       </c>
-      <c r="X32" s="36">
+      <c r="Y32" s="36">
         <v>0.34599999999999997</v>
       </c>
     </row>
-    <row r="33" spans="10:24">
-      <c r="J33" s="49">
+    <row r="33" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K33" s="49">
         <v>11220</v>
       </c>
-      <c r="K33" s="49">
+      <c r="L33" s="49">
         <v>24996.880000000001</v>
       </c>
-      <c r="L33" s="49">
+      <c r="M33" s="49">
         <v>35319.280000000006</v>
       </c>
-      <c r="M33" s="18">
-        <v>300</v>
-      </c>
-      <c r="N33" s="14">
-        <v>100</v>
+      <c r="N33" s="18">
+        <v>300</v>
       </c>
       <c r="O33" s="14">
-        <v>400</v>
-      </c>
-      <c r="W33" s="36">
+        <v>100</v>
+      </c>
+      <c r="P33" s="14">
+        <v>400</v>
+      </c>
+      <c r="X33" s="36">
         <v>0.13950000000000001</v>
       </c>
-      <c r="X33" s="36">
+      <c r="Y33" s="36">
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="34" spans="10:24">
-      <c r="J34" s="49">
+    <row r="34" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K34" s="49">
         <v>11200</v>
       </c>
-      <c r="K34" s="49">
+      <c r="L34" s="49">
         <v>24844.799999999999</v>
       </c>
-      <c r="L34" s="49">
+      <c r="M34" s="49">
         <v>35148.800000000003</v>
       </c>
-      <c r="M34" s="18">
-        <v>300</v>
-      </c>
-      <c r="N34" s="14">
-        <v>100</v>
+      <c r="N34" s="18">
+        <v>300</v>
       </c>
       <c r="O34" s="14">
-        <v>400</v>
-      </c>
-      <c r="W34" s="36">
+        <v>100</v>
+      </c>
+      <c r="P34" s="14">
+        <v>400</v>
+      </c>
+      <c r="X34" s="36">
         <v>0.13930000000000001</v>
       </c>
-      <c r="X34" s="36">
+      <c r="Y34" s="36">
         <v>0.34200000000000003</v>
       </c>
     </row>
-    <row r="35" spans="10:24">
-      <c r="J35" s="49">
+    <row r="35" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K35" s="49">
         <v>11180</v>
       </c>
-      <c r="K35" s="49">
+      <c r="L35" s="49">
         <v>24757.72</v>
       </c>
-      <c r="L35" s="49">
+      <c r="M35" s="49">
         <v>35043.32</v>
       </c>
-      <c r="M35" s="18">
-        <v>300</v>
-      </c>
-      <c r="N35" s="14">
-        <v>100</v>
+      <c r="N35" s="18">
+        <v>300</v>
       </c>
       <c r="O35" s="14">
-        <v>400</v>
-      </c>
-      <c r="W35" s="36">
+        <v>100</v>
+      </c>
+      <c r="P35" s="14">
+        <v>400</v>
+      </c>
+      <c r="X35" s="36">
         <v>0.1391</v>
       </c>
-      <c r="X35" s="36">
+      <c r="Y35" s="36">
         <v>0.34</v>
       </c>
     </row>
-    <row r="36" spans="10:24">
-      <c r="J36" s="49">
+    <row r="36" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K36" s="49">
         <v>11160</v>
       </c>
-      <c r="K36" s="49">
+      <c r="L36" s="49">
         <v>24670.639999999999</v>
       </c>
-      <c r="L36" s="49">
+      <c r="M36" s="49">
         <v>34937.839999999997</v>
       </c>
-      <c r="M36" s="18">
-        <v>300</v>
-      </c>
-      <c r="N36" s="14">
-        <v>100</v>
+      <c r="N36" s="18">
+        <v>300</v>
       </c>
       <c r="O36" s="14">
-        <v>400</v>
-      </c>
-      <c r="W36" s="36">
+        <v>100</v>
+      </c>
+      <c r="P36" s="14">
+        <v>400</v>
+      </c>
+      <c r="X36" s="36">
         <v>0.13880000000000001</v>
       </c>
-      <c r="X36" s="36">
+      <c r="Y36" s="36">
         <v>0.33900000000000002</v>
       </c>
     </row>
-    <row r="37" spans="10:24">
-      <c r="J37" s="49">
+    <row r="37" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K37" s="49">
         <v>11140</v>
       </c>
-      <c r="K37" s="49">
+      <c r="L37" s="49">
         <v>24583.559999999998</v>
       </c>
-      <c r="L37" s="49">
+      <c r="M37" s="49">
         <v>34832.36</v>
       </c>
-      <c r="M37" s="18">
-        <v>300</v>
-      </c>
-      <c r="N37" s="14">
-        <v>100</v>
+      <c r="N37" s="18">
+        <v>300</v>
       </c>
       <c r="O37" s="14">
-        <v>400</v>
-      </c>
-      <c r="W37" s="36">
+        <v>100</v>
+      </c>
+      <c r="P37" s="14">
+        <v>400</v>
+      </c>
+      <c r="X37" s="36">
         <v>0.1386</v>
       </c>
-      <c r="X37" s="36">
+      <c r="Y37" s="36">
         <v>0.33800000000000002</v>
       </c>
     </row>
-    <row r="38" spans="10:24">
-      <c r="J38" s="49">
+    <row r="38" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K38" s="49">
         <v>11120</v>
       </c>
-      <c r="K38" s="49">
+      <c r="L38" s="49">
         <v>24496.48</v>
       </c>
-      <c r="L38" s="49">
+      <c r="M38" s="49">
         <v>34726.879999999997</v>
       </c>
-      <c r="M38" s="18">
-        <v>300</v>
-      </c>
-      <c r="N38" s="14">
-        <v>100</v>
+      <c r="N38" s="18">
+        <v>300</v>
       </c>
       <c r="O38" s="14">
+        <v>100</v>
+      </c>
+      <c r="P38" s="14">
         <v>400</v>
       </c>
     </row>
@@ -4241,33 +4353,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y38"/>
+  <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="16" max="16" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.33203125" customWidth="1"/>
-    <col min="48" max="48" width="14.6640625" customWidth="1"/>
-    <col min="107" max="107" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="15" customWidth="1"/>
-    <col min="131" max="131" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="142" max="143" width="13.33203125" customWidth="1"/>
-    <col min="145" max="145" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" customWidth="1"/>
+    <col min="17" max="17" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.375" customWidth="1"/>
+    <col min="49" max="49" width="14.625" customWidth="1"/>
+    <col min="108" max="108" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="15" customWidth="1"/>
+    <col min="132" max="132" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="143" max="144" width="13.375" customWidth="1"/>
+    <col min="146" max="146" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="16" customFormat="1" ht="64" customHeight="1">
+    <row r="1" spans="1:26" s="16" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
         <v>7</v>
       </c>
@@ -4277,71 +4389,74 @@
       <c r="D1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="K1" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="N1" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="O1" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="P1" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="Q1" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="R1" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="R1" s="44" t="s">
+      <c r="S1" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="T1" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="U1" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="U1" s="44" t="s">
+      <c r="V1" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="V1" s="44" t="s">
+      <c r="W1" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="W1" s="44" t="s">
+      <c r="X1" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="X1" s="44" t="s">
+      <c r="Y1" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="Y1" s="44" t="s">
+      <c r="Z1" s="44" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="33" customFormat="1">
+    <row r="2" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>150</v>
       </c>
@@ -4354,1374 +4469,1381 @@
       <c r="D2" s="33">
         <v>1</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="14">
+        <v>2000000</v>
+      </c>
+      <c r="F2" s="22">
         <v>19721</v>
       </c>
-      <c r="F2" s="22">
+      <c r="G2" s="22">
         <v>19202</v>
       </c>
-      <c r="G2" s="35">
+      <c r="H2" s="35">
         <v>0.1246</v>
       </c>
-      <c r="H2" s="10">
+      <c r="I2" s="10">
         <v>0.10100000000000001</v>
       </c>
-      <c r="I2" s="24">
+      <c r="J2" s="24">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J2" s="50">
+      <c r="K2" s="50">
         <v>39255.300000000003</v>
       </c>
-      <c r="K2" s="50">
+      <c r="L2" s="50">
         <v>66571.504000000001</v>
       </c>
-      <c r="L2" s="50">
+      <c r="M2" s="50">
         <v>104138.40400000001</v>
       </c>
-      <c r="M2" s="18">
-        <v>300</v>
-      </c>
-      <c r="N2" s="19">
-        <v>100</v>
+      <c r="N2" s="18">
+        <v>300</v>
       </c>
       <c r="O2" s="19">
-        <v>400</v>
-      </c>
-      <c r="P2" s="29">
+        <v>100</v>
+      </c>
+      <c r="P2" s="19">
+        <v>400</v>
+      </c>
+      <c r="Q2" s="29">
         <v>1</v>
       </c>
-      <c r="Q2" s="36">
+      <c r="R2" s="36">
         <v>5.3900709219858204E-3</v>
       </c>
-      <c r="R2" s="24">
+      <c r="S2" s="24">
         <v>0</v>
       </c>
-      <c r="S2" s="24">
+      <c r="T2" s="24">
         <v>8.1560283687943296E-4</v>
       </c>
-      <c r="T2" s="24">
+      <c r="U2" s="24">
         <v>3.3444816053511699E-5</v>
       </c>
-      <c r="U2" s="24">
+      <c r="V2" s="24">
         <v>1E-3</v>
       </c>
-      <c r="V2" s="24">
+      <c r="W2" s="24">
         <v>6.6889632107023397E-5</v>
       </c>
-      <c r="W2" s="29">
+      <c r="X2" s="29">
         <v>0.29580000000000001</v>
       </c>
-      <c r="X2" s="29">
+      <c r="Y2" s="29">
         <v>0.73499999999999999</v>
       </c>
-      <c r="Y2" s="38">
+      <c r="Z2" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="9" customFormat="1">
+    <row r="3" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="10"/>
-      <c r="I3" s="24">
+      <c r="E3"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="10"/>
+      <c r="J3" s="24">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J3" s="48">
+      <c r="K3" s="48">
         <v>35888.700000000004</v>
       </c>
-      <c r="K3" s="48">
+      <c r="L3" s="48">
         <v>59768.415999999997</v>
       </c>
-      <c r="L3" s="48">
+      <c r="M3" s="48">
         <v>94113.516000000003</v>
       </c>
-      <c r="M3" s="19">
-        <v>300</v>
-      </c>
-      <c r="N3" s="14">
-        <v>100</v>
+      <c r="N3" s="19">
+        <v>300</v>
       </c>
       <c r="O3" s="14">
-        <v>400</v>
-      </c>
-      <c r="P3" s="30">
+        <v>100</v>
+      </c>
+      <c r="P3" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q3" s="30">
         <v>1</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="R3" s="10">
         <v>8.6879432624113496E-3</v>
       </c>
-      <c r="R3" s="25">
+      <c r="S3" s="25">
         <v>5.0167224080267597E-4</v>
       </c>
-      <c r="S3" s="25">
+      <c r="T3" s="25">
         <v>1.3829787234042601E-3</v>
       </c>
-      <c r="T3" s="25">
+      <c r="U3" s="25">
         <v>3.3444816053511699E-4</v>
       </c>
-      <c r="U3" s="25">
+      <c r="V3" s="25">
         <v>1.4886731391585801E-3</v>
       </c>
-      <c r="V3" s="25">
+      <c r="W3" s="25">
         <v>2.6755852842809402E-4</v>
       </c>
-      <c r="W3" s="9">
+      <c r="X3" s="9">
         <v>0.28089999999999998</v>
       </c>
-      <c r="X3" s="9">
+      <c r="Y3" s="9">
         <v>0.66200000000000003</v>
       </c>
-      <c r="Y3" s="39">
+      <c r="Z3" s="39">
         <v>1.12380952380952</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="9" customFormat="1">
+    <row r="4" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="E4"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="I4" s="24">
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="J4" s="24">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J4" s="48">
+      <c r="K4" s="48">
         <v>34884.300000000003</v>
       </c>
-      <c r="K4" s="48">
+      <c r="L4" s="48">
         <v>55846.224000000002</v>
       </c>
-      <c r="L4" s="48">
+      <c r="M4" s="48">
         <v>89230.124000000011</v>
       </c>
-      <c r="M4" s="20">
-        <v>300</v>
-      </c>
-      <c r="N4" s="14">
-        <v>100</v>
+      <c r="N4" s="20">
+        <v>300</v>
       </c>
       <c r="O4" s="14">
-        <v>400</v>
-      </c>
-      <c r="P4" s="31">
+        <v>100</v>
+      </c>
+      <c r="P4" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q4" s="31">
         <v>1</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="R4" s="10">
         <v>1.0638297872340399E-2</v>
       </c>
-      <c r="R4" s="26">
+      <c r="S4" s="26">
         <v>9.6989966555183996E-4</v>
       </c>
-      <c r="S4" s="26">
+      <c r="T4" s="26">
         <v>1.70212765957447E-3</v>
       </c>
-      <c r="T4" s="26">
+      <c r="U4" s="26">
         <v>7.6923076923076901E-4</v>
       </c>
-      <c r="U4" s="26">
+      <c r="V4" s="26">
         <v>1.94174757281553E-3</v>
       </c>
-      <c r="V4" s="26">
+      <c r="W4" s="26">
         <v>5.6856187290969904E-4</v>
       </c>
-      <c r="W4" s="9">
+      <c r="X4" s="9">
         <v>0.22259999999999999</v>
       </c>
-      <c r="X4" s="8">
+      <c r="Y4" s="8">
         <v>0.65</v>
       </c>
-      <c r="Y4" s="40">
+      <c r="Z4" s="40">
         <v>1.2253968253968299</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="9" customFormat="1">
+    <row r="5" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="E5"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="I5" s="24">
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="J5" s="24">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J5" s="48">
+      <c r="K5" s="48">
         <v>32698.800000000003</v>
       </c>
-      <c r="K5" s="48">
+      <c r="L5" s="48">
         <v>52433.583999999995</v>
       </c>
-      <c r="L5" s="48">
+      <c r="M5" s="48">
         <v>83725.983999999997</v>
       </c>
-      <c r="M5" s="20">
-        <v>300</v>
-      </c>
-      <c r="N5" s="14">
-        <v>100</v>
+      <c r="N5" s="20">
+        <v>300</v>
       </c>
       <c r="O5" s="14">
-        <v>400</v>
-      </c>
-      <c r="P5" s="31">
+        <v>100</v>
+      </c>
+      <c r="P5" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q5" s="31">
         <v>0.98936170212765995</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="R5" s="10">
         <v>1.24113475177305E-2</v>
       </c>
-      <c r="R5" s="26">
+      <c r="S5" s="26">
         <v>1.3712374581939799E-3</v>
       </c>
-      <c r="S5" s="26">
+      <c r="T5" s="26">
         <v>1.87943262411348E-3</v>
       </c>
-      <c r="T5" s="26">
+      <c r="U5" s="26">
         <v>1.10367892976589E-3</v>
       </c>
-      <c r="U5" s="26">
+      <c r="V5" s="26">
         <v>2.2330097087378598E-3</v>
       </c>
-      <c r="V5" s="26">
+      <c r="W5" s="26">
         <v>9.3645484949832799E-4</v>
       </c>
-      <c r="W5" s="9">
+      <c r="X5" s="9">
         <v>0.20979999999999999</v>
       </c>
-      <c r="X5" s="8">
+      <c r="Y5" s="8">
         <v>0.64</v>
       </c>
-      <c r="Y5" s="40">
+      <c r="Z5" s="40">
         <v>1.35238095238095</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="24">
+      <c r="I6" s="1"/>
+      <c r="J6" s="24">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J6" s="49">
+      <c r="K6" s="49">
         <v>31182.9</v>
       </c>
-      <c r="K6" s="49">
+      <c r="L6" s="49">
         <v>49469.072</v>
       </c>
-      <c r="L6" s="49">
+      <c r="M6" s="49">
         <v>79310.772000000012</v>
       </c>
-      <c r="M6" s="21">
-        <v>300</v>
-      </c>
-      <c r="N6" s="14">
-        <v>100</v>
+      <c r="N6" s="21">
+        <v>300</v>
       </c>
       <c r="O6" s="14">
-        <v>400</v>
-      </c>
-      <c r="P6" s="29">
+        <v>100</v>
+      </c>
+      <c r="P6" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q6" s="29">
         <v>0.97163120567375905</v>
       </c>
-      <c r="Q6" s="23">
+      <c r="R6" s="23">
         <v>1.3829787234042599E-2</v>
       </c>
-      <c r="R6" s="27">
+      <c r="S6" s="27">
         <v>1.7391304347826101E-3</v>
       </c>
-      <c r="S6" s="27">
+      <c r="T6" s="27">
         <v>2.1985815602836899E-3</v>
       </c>
-      <c r="T6" s="27">
+      <c r="U6" s="27">
         <v>1.60535117056856E-3</v>
       </c>
-      <c r="U6" s="27">
+      <c r="V6" s="27">
         <v>2.5889967637540501E-3</v>
       </c>
-      <c r="V6" s="27">
+      <c r="W6" s="27">
         <v>1.3712374581939799E-3</v>
       </c>
-      <c r="W6" s="4">
+      <c r="X6" s="4">
         <v>0.19389999999999999</v>
       </c>
-      <c r="X6" s="17">
+      <c r="Y6" s="17">
         <v>0.60899999999999999</v>
       </c>
-      <c r="Y6" s="41">
+      <c r="Z6" s="41">
         <v>1.4539682539682499</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="4" customFormat="1">
+    <row r="7" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="24">
+      <c r="E7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="24">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J7" s="49">
+      <c r="K7" s="49">
         <v>29332.2</v>
       </c>
-      <c r="K7" s="49">
+      <c r="L7" s="49">
         <v>46475.495999999999</v>
       </c>
-      <c r="L7" s="49">
+      <c r="M7" s="49">
         <v>74546.09599999999</v>
       </c>
-      <c r="M7" s="22">
-        <v>300</v>
-      </c>
-      <c r="N7" s="14">
-        <v>100</v>
+      <c r="N7" s="22">
+        <v>300</v>
       </c>
       <c r="O7" s="14">
-        <v>400</v>
-      </c>
-      <c r="P7" s="29">
+        <v>100</v>
+      </c>
+      <c r="P7" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q7" s="29">
         <v>0.95390070921985803</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="R7" s="23">
         <v>1.5957446808510599E-2</v>
       </c>
-      <c r="R7" s="28">
+      <c r="S7" s="28">
         <v>2.10702341137124E-3</v>
       </c>
-      <c r="S7" s="28">
+      <c r="T7" s="28">
         <v>2.5177304964538998E-3</v>
       </c>
-      <c r="T7" s="28">
+      <c r="U7" s="28">
         <v>2.0066889632107E-3</v>
       </c>
-      <c r="U7" s="28">
+      <c r="V7" s="28">
         <v>2.8478964401294502E-3</v>
       </c>
-      <c r="V7" s="28">
+      <c r="W7" s="28">
         <v>1.7725752508361201E-3</v>
       </c>
-      <c r="W7" s="4">
+      <c r="X7" s="4">
         <v>0.18640000000000001</v>
       </c>
-      <c r="X7" s="3">
+      <c r="Y7" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Y7" s="42">
+      <c r="Z7" s="42">
         <v>1.5492063492063499</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
-      <c r="I8" s="24">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J8" s="24">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J8" s="49">
+      <c r="K8" s="49">
         <v>28160.400000000001</v>
       </c>
-      <c r="K8" s="49">
+      <c r="L8" s="49">
         <v>44196.271999999997</v>
       </c>
-      <c r="L8" s="49">
+      <c r="M8" s="49">
         <v>71145.471999999994</v>
       </c>
-      <c r="M8" s="18">
-        <v>300</v>
-      </c>
-      <c r="N8" s="14">
-        <v>100</v>
+      <c r="N8" s="18">
+        <v>300</v>
       </c>
       <c r="O8" s="14">
-        <v>400</v>
-      </c>
-      <c r="P8" s="29">
+        <v>100</v>
+      </c>
+      <c r="P8" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q8" s="29">
         <v>0.91843971631205701</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="R8" s="23">
         <v>1.89716312056738E-2</v>
       </c>
-      <c r="R8" s="24">
+      <c r="S8" s="24">
         <v>2.4414715719063501E-3</v>
       </c>
-      <c r="S8" s="24">
+      <c r="T8" s="24">
         <v>2.9432624113475202E-3</v>
       </c>
-      <c r="T8" s="24">
+      <c r="U8" s="24">
         <v>2.5083612040133802E-3</v>
       </c>
-      <c r="U8" s="24">
+      <c r="V8" s="24">
         <v>3.20388349514563E-3</v>
       </c>
-      <c r="V8" s="24">
+      <c r="W8" s="24">
         <v>2.2408026755852801E-3</v>
       </c>
-      <c r="W8" s="4">
+      <c r="X8" s="4">
         <v>0.1799</v>
       </c>
-      <c r="X8" s="4">
+      <c r="Y8" s="4">
         <v>0.54500000000000004</v>
       </c>
-      <c r="Y8" s="38">
+      <c r="Z8" s="38">
         <v>1.6317460317460299</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="I9" s="24">
+      <c r="J9" s="24">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J9" s="49">
+      <c r="K9" s="49">
         <v>27146.7</v>
       </c>
-      <c r="K9" s="49">
+      <c r="L9" s="49">
         <v>41957.856</v>
       </c>
-      <c r="L9" s="49">
+      <c r="M9" s="49">
         <v>67936.955999999991</v>
       </c>
-      <c r="M9" s="18">
-        <v>300</v>
-      </c>
-      <c r="N9" s="14">
-        <v>100</v>
+      <c r="N9" s="18">
+        <v>300</v>
       </c>
       <c r="O9" s="14">
-        <v>400</v>
-      </c>
-      <c r="P9" s="29">
+        <v>100</v>
+      </c>
+      <c r="P9" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q9" s="29">
         <v>0.879432624113475</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="R9" s="23">
         <v>2.2163120567375901E-2</v>
       </c>
-      <c r="R9" s="24">
+      <c r="S9" s="24">
         <v>2.9096989966555199E-3</v>
       </c>
-      <c r="S9" s="24">
+      <c r="T9" s="24">
         <v>3.43971631205674E-3</v>
       </c>
-      <c r="T9" s="24">
+      <c r="U9" s="24">
         <v>2.9765886287625399E-3</v>
       </c>
-      <c r="U9" s="24">
+      <c r="V9" s="24">
         <v>3.5922330097087401E-3</v>
       </c>
-      <c r="V9" s="24">
+      <c r="W9" s="24">
         <v>2.7090301003344498E-3</v>
       </c>
-      <c r="W9" s="4">
+      <c r="X9" s="4">
         <v>0.17349999999999999</v>
       </c>
-      <c r="X9" s="4">
+      <c r="Y9" s="4">
         <v>0.505</v>
       </c>
-      <c r="Y9" s="38">
+      <c r="Z9" s="38">
         <v>1.6952380952381001</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
-      <c r="I10" s="24">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J10" s="24">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J10" s="49">
+      <c r="K10" s="49">
         <v>26142.300000000003</v>
       </c>
-      <c r="K10" s="49">
+      <c r="L10" s="49">
         <v>39660.664000000004</v>
       </c>
-      <c r="L10" s="49">
+      <c r="M10" s="49">
         <v>64678.564000000006</v>
       </c>
-      <c r="M10" s="18">
-        <v>300</v>
-      </c>
-      <c r="N10" s="14">
-        <v>100</v>
+      <c r="N10" s="18">
+        <v>300</v>
       </c>
       <c r="O10" s="14">
-        <v>400</v>
-      </c>
-      <c r="P10" s="29">
+        <v>100</v>
+      </c>
+      <c r="P10" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q10" s="29">
         <v>0.83333333333333304</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="R10" s="23">
         <v>2.4468085106383E-2</v>
       </c>
-      <c r="R10" s="24">
+      <c r="S10" s="24">
         <v>3.24414715719064E-3</v>
       </c>
-      <c r="S10" s="24">
+      <c r="T10" s="24">
         <v>4.1134751773049599E-3</v>
       </c>
-      <c r="T10" s="24">
+      <c r="U10" s="24">
         <v>3.3779264214046801E-3</v>
       </c>
-      <c r="U10" s="24">
+      <c r="V10" s="24">
         <v>4.1100323624595498E-3</v>
       </c>
-      <c r="V10" s="24">
+      <c r="W10" s="24">
         <v>3.17725752508361E-3</v>
       </c>
-      <c r="W10" s="4">
+      <c r="X10" s="4">
         <v>0.16489999999999999</v>
       </c>
-      <c r="X10" s="4">
+      <c r="Y10" s="4">
         <v>0.48499999999999999</v>
       </c>
-      <c r="Y10" s="38">
+      <c r="Z10" s="38">
         <v>1.7904761904761901</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
-      <c r="I11" s="24">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J11" s="24">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J11" s="49">
+      <c r="K11" s="49">
         <v>24793.800000000003</v>
       </c>
-      <c r="K11" s="49">
+      <c r="L11" s="49">
         <v>37718.183999999994</v>
       </c>
-      <c r="L11" s="49">
+      <c r="M11" s="49">
         <v>61445.583999999995</v>
       </c>
-      <c r="M11" s="18">
-        <v>300</v>
-      </c>
-      <c r="N11" s="14">
-        <v>100</v>
+      <c r="N11" s="18">
+        <v>300</v>
       </c>
       <c r="O11" s="14">
-        <v>400</v>
-      </c>
-      <c r="P11" s="29">
+        <v>100</v>
+      </c>
+      <c r="P11" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q11" s="29">
         <v>0.78723404255319196</v>
       </c>
-      <c r="Q11" s="23">
+      <c r="R11" s="23">
         <v>2.73049645390071E-2</v>
       </c>
-      <c r="R11" s="24">
+      <c r="S11" s="24">
         <v>3.5785953177257502E-3</v>
       </c>
-      <c r="S11" s="24">
+      <c r="T11" s="24">
         <v>4.4680851063829798E-3</v>
       </c>
-      <c r="T11" s="24">
+      <c r="U11" s="24">
         <v>3.7792642140468198E-3</v>
       </c>
-      <c r="U11" s="24">
+      <c r="V11" s="24">
         <v>4.6601941747572801E-3</v>
       </c>
-      <c r="V11" s="24">
+      <c r="W11" s="24">
         <v>3.6454849498327802E-3</v>
       </c>
-      <c r="W11" s="4">
+      <c r="X11" s="4">
         <v>0.16159999999999999</v>
       </c>
-      <c r="X11" s="4">
+      <c r="Y11" s="4">
         <v>0.45900000000000002</v>
       </c>
-      <c r="Y11" s="38">
+      <c r="Z11" s="38">
         <v>1.89206349206349</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
-      <c r="I12" s="24">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J12" s="24">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J12" s="49">
+      <c r="K12" s="49">
         <v>24291.600000000002</v>
       </c>
-      <c r="K12" s="49">
+      <c r="L12" s="49">
         <v>36407.087999999996</v>
       </c>
-      <c r="L12" s="49">
+      <c r="M12" s="49">
         <v>59653.887999999992</v>
       </c>
-      <c r="M12" s="18">
-        <v>300</v>
-      </c>
-      <c r="N12" s="14">
-        <v>100</v>
+      <c r="N12" s="18">
+        <v>300</v>
       </c>
       <c r="O12" s="14">
-        <v>400</v>
-      </c>
-      <c r="P12" s="29">
+        <v>100</v>
+      </c>
+      <c r="P12" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q12" s="29">
         <v>0.70567375886524797</v>
       </c>
-      <c r="Q12" s="23">
+      <c r="R12" s="23">
         <v>3.0496453900709201E-2</v>
       </c>
-      <c r="R12" s="24">
+      <c r="S12" s="24">
         <v>4.0133779264214103E-3</v>
       </c>
-      <c r="S12" s="24">
+      <c r="T12" s="24">
         <v>5.1063829787233997E-3</v>
       </c>
-      <c r="T12" s="24">
+      <c r="U12" s="24">
         <v>4.2809364548495E-3</v>
       </c>
-      <c r="U12" s="24">
+      <c r="V12" s="24">
         <v>5.2427184466019398E-3</v>
       </c>
-      <c r="V12" s="24">
+      <c r="W12" s="24">
         <v>4.0802675585284304E-3</v>
       </c>
-      <c r="W12" s="4">
+      <c r="X12" s="4">
         <v>0.15740000000000001</v>
       </c>
-      <c r="X12" s="4">
+      <c r="Y12" s="4">
         <v>0.44400000000000001</v>
       </c>
-      <c r="Y12" s="38">
+      <c r="Z12" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
-      <c r="J13" s="49">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K13" s="49">
         <v>23622</v>
       </c>
-      <c r="K13" s="49">
+      <c r="L13" s="49">
         <v>34658.959999999999</v>
       </c>
-      <c r="L13" s="49">
+      <c r="M13" s="49">
         <v>57264.959999999999</v>
       </c>
-      <c r="M13" s="18">
-        <v>300</v>
-      </c>
-      <c r="N13" s="14">
-        <v>100</v>
+      <c r="N13" s="18">
+        <v>300</v>
       </c>
       <c r="O13" s="14">
-        <v>400</v>
-      </c>
-      <c r="P13" s="29">
+        <v>100</v>
+      </c>
+      <c r="P13" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q13" s="29">
         <v>0.62411347517730498</v>
       </c>
-      <c r="Q13" s="23">
+      <c r="R13" s="23">
         <v>3.2269503546099303E-2</v>
       </c>
-      <c r="W13" s="4">
+      <c r="X13" s="4">
         <v>0.152</v>
       </c>
-      <c r="X13" s="4">
+      <c r="Y13" s="4">
         <v>0.42399999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="J14" s="49">
+      <c r="F14" s="12"/>
+      <c r="K14" s="49">
         <v>22775.7</v>
       </c>
-      <c r="K14" s="49">
+      <c r="L14" s="49">
         <v>32792.576000000001</v>
       </c>
-      <c r="L14" s="49">
+      <c r="M14" s="49">
         <v>54588.675999999999</v>
       </c>
-      <c r="M14" s="18">
-        <v>300</v>
-      </c>
-      <c r="N14" s="14">
-        <v>100</v>
+      <c r="N14" s="18">
+        <v>300</v>
       </c>
       <c r="O14" s="14">
-        <v>400</v>
-      </c>
-      <c r="P14" s="29">
+        <v>100</v>
+      </c>
+      <c r="P14" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q14" s="29">
         <v>0.46099290780141799</v>
       </c>
-      <c r="Q14" s="23">
+      <c r="R14" s="23">
         <v>3.5106382978723399E-2</v>
       </c>
-      <c r="W14" s="4">
+      <c r="X14" s="4">
         <v>0.153</v>
       </c>
-      <c r="X14" s="4">
+      <c r="Y14" s="4">
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="C15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="J15" s="49">
+      <c r="F15" s="12"/>
+      <c r="K15" s="49">
         <v>22943.100000000002</v>
       </c>
-      <c r="K15" s="49">
+      <c r="L15" s="49">
         <v>31864.608</v>
       </c>
-      <c r="L15" s="49">
+      <c r="M15" s="49">
         <v>53820.907999999996</v>
       </c>
-      <c r="M15" s="18">
-        <v>300</v>
-      </c>
-      <c r="N15" s="14">
-        <v>100</v>
+      <c r="N15" s="18">
+        <v>300</v>
       </c>
       <c r="O15" s="14">
-        <v>400</v>
-      </c>
-      <c r="P15" s="29">
+        <v>100</v>
+      </c>
+      <c r="P15" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q15" s="29">
         <v>0.28723404255319201</v>
       </c>
-      <c r="Q15" s="23">
+      <c r="R15" s="23">
         <v>3.7411347517730502E-2</v>
       </c>
-      <c r="W15" s="4">
+      <c r="X15" s="4">
         <v>0.152</v>
       </c>
-      <c r="X15" s="4">
+      <c r="Y15" s="4">
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
-      <c r="J16" s="49">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K16" s="49">
         <v>22775.7</v>
       </c>
-      <c r="K16" s="49">
+      <c r="L16" s="49">
         <v>31037.575999999997</v>
       </c>
-      <c r="L16" s="49">
+      <c r="M16" s="49">
         <v>52833.675999999999</v>
       </c>
-      <c r="M16" s="18">
-        <v>300</v>
-      </c>
-      <c r="N16" s="14">
-        <v>100</v>
+      <c r="N16" s="18">
+        <v>300</v>
       </c>
       <c r="O16" s="14">
-        <v>400</v>
-      </c>
-      <c r="P16" s="29">
+        <v>100</v>
+      </c>
+      <c r="P16" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q16" s="29">
         <v>0.184397163120567</v>
       </c>
-      <c r="Q16" s="23">
+      <c r="R16" s="23">
         <v>3.9716312056737597E-2</v>
       </c>
-      <c r="W16" s="4">
+      <c r="X16" s="4">
         <v>0.15090000000000001</v>
       </c>
-      <c r="X16" s="4">
+      <c r="Y16" s="4">
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="17" spans="10:24">
-      <c r="J17" s="49">
+    <row r="17" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K17" s="49">
         <v>22608.300000000003</v>
       </c>
-      <c r="K17" s="49">
+      <c r="L17" s="49">
         <v>30145.544000000002</v>
       </c>
-      <c r="L17" s="49">
+      <c r="M17" s="49">
         <v>51781.444000000003</v>
       </c>
-      <c r="M17" s="18">
-        <v>300</v>
-      </c>
-      <c r="N17" s="14">
-        <v>100</v>
+      <c r="N17" s="18">
+        <v>300</v>
       </c>
       <c r="O17" s="14">
-        <v>400</v>
-      </c>
-      <c r="P17" s="29">
+        <v>100</v>
+      </c>
+      <c r="P17" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q17" s="29">
         <v>8.5106382978723402E-2</v>
       </c>
-      <c r="Q17" s="23">
+      <c r="R17" s="23">
         <v>4.3262411347517703E-2</v>
       </c>
-      <c r="W17" s="4">
+      <c r="X17" s="4">
         <v>0.14979999999999999</v>
       </c>
-      <c r="X17" s="4">
+      <c r="Y17" s="4">
         <v>0.379</v>
       </c>
     </row>
-    <row r="18" spans="10:24">
-      <c r="J18" s="49">
+    <row r="18" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K18" s="49">
         <v>22440.9</v>
       </c>
-      <c r="K18" s="49">
+      <c r="L18" s="49">
         <v>29513.511999999995</v>
       </c>
-      <c r="L18" s="49">
+      <c r="M18" s="49">
         <v>50989.212</v>
       </c>
-      <c r="M18" s="18">
-        <v>300</v>
-      </c>
-      <c r="N18" s="14">
-        <v>100</v>
+      <c r="N18" s="18">
+        <v>300</v>
       </c>
       <c r="O18" s="14">
-        <v>400</v>
-      </c>
-      <c r="P18" s="29">
+        <v>100</v>
+      </c>
+      <c r="P18" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q18" s="29">
         <v>4.2553191489361701E-2</v>
       </c>
-      <c r="Q18" s="23">
+      <c r="R18" s="23">
         <v>4.4858156028368797E-2</v>
       </c>
-      <c r="W18" s="4">
+      <c r="X18" s="4">
         <v>0.1487</v>
       </c>
-      <c r="X18" s="4">
+      <c r="Y18" s="4">
         <v>0.379</v>
       </c>
     </row>
-    <row r="19" spans="10:24">
-      <c r="J19" s="49">
+    <row r="19" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K19" s="49">
         <v>22273.5</v>
       </c>
-      <c r="K19" s="49">
+      <c r="L19" s="49">
         <v>29271.479999999996</v>
       </c>
-      <c r="L19" s="49">
+      <c r="M19" s="49">
         <v>50586.979999999996</v>
       </c>
-      <c r="M19" s="18">
-        <v>300</v>
-      </c>
-      <c r="N19" s="14">
-        <v>100</v>
+      <c r="N19" s="18">
+        <v>300</v>
       </c>
       <c r="O19" s="14">
-        <v>400</v>
-      </c>
-      <c r="P19" s="29">
+        <v>100</v>
+      </c>
+      <c r="P19" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q19" s="29">
         <v>2.1276595744680899E-2</v>
       </c>
-      <c r="Q19" s="23">
+      <c r="R19" s="23">
         <v>4.6808510638297898E-2</v>
       </c>
-      <c r="W19" s="4">
+      <c r="X19" s="4">
         <v>0.1479</v>
       </c>
-      <c r="X19" s="4">
+      <c r="Y19" s="4">
         <v>0.372</v>
       </c>
     </row>
-    <row r="20" spans="10:24">
-      <c r="J20" s="49">
+    <row r="20" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K20" s="49">
         <v>22134</v>
       </c>
-      <c r="K20" s="49">
+      <c r="L20" s="49">
         <v>29113.119999999995</v>
       </c>
-      <c r="L20" s="49">
+      <c r="M20" s="49">
         <v>50295.119999999995</v>
       </c>
-      <c r="M20" s="18">
-        <v>300</v>
-      </c>
-      <c r="N20" s="14">
-        <v>100</v>
+      <c r="N20" s="18">
+        <v>300</v>
       </c>
       <c r="O20" s="14">
-        <v>400</v>
-      </c>
-      <c r="P20" s="29">
+        <v>100</v>
+      </c>
+      <c r="P20" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q20" s="29">
         <v>3.54609929078014E-3</v>
       </c>
-      <c r="Q20" s="23">
+      <c r="R20" s="23">
         <v>4.8936170212766E-2</v>
       </c>
-      <c r="W20" s="4">
+      <c r="X20" s="4">
         <v>0.14660000000000001</v>
       </c>
-      <c r="X20" s="4">
+      <c r="Y20" s="4">
         <v>0.371</v>
       </c>
     </row>
-    <row r="21" spans="10:24">
-      <c r="J21" s="49">
+    <row r="21" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K21" s="49">
         <v>21938.7</v>
       </c>
-      <c r="K21" s="49">
+      <c r="L21" s="49">
         <v>28657.415999999997</v>
       </c>
-      <c r="L21" s="49">
+      <c r="M21" s="49">
         <v>49652.515999999996</v>
       </c>
-      <c r="M21" s="18">
-        <v>300</v>
-      </c>
-      <c r="N21" s="14">
-        <v>100</v>
+      <c r="N21" s="18">
+        <v>300</v>
       </c>
       <c r="O21" s="14">
-        <v>400</v>
-      </c>
-      <c r="P21" s="29">
+        <v>100</v>
+      </c>
+      <c r="P21" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q21" s="29">
         <v>0</v>
       </c>
-      <c r="Q21" s="23">
+      <c r="R21" s="23">
         <v>0.05</v>
       </c>
-      <c r="W21" s="4">
+      <c r="X21" s="4">
         <v>0.14369999999999999</v>
       </c>
-      <c r="X21" s="4">
+      <c r="Y21" s="4">
         <v>0.36699999999999999</v>
       </c>
     </row>
-    <row r="22" spans="10:24">
-      <c r="J22" s="49">
+    <row r="22" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K22" s="49">
         <v>21483</v>
       </c>
-      <c r="K22" s="49">
+      <c r="L22" s="49">
         <v>28157.439999999999</v>
       </c>
-      <c r="L22" s="49">
+      <c r="M22" s="49">
         <v>48716.44</v>
       </c>
-      <c r="M22" s="18">
-        <v>300</v>
-      </c>
-      <c r="N22" s="14">
-        <v>100</v>
+      <c r="N22" s="18">
+        <v>300</v>
       </c>
       <c r="O22" s="14">
-        <v>400</v>
-      </c>
-      <c r="P22" s="29">
+        <v>100</v>
+      </c>
+      <c r="P22" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q22" s="29">
         <v>0</v>
       </c>
-      <c r="Q22" s="23">
+      <c r="R22" s="23">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="W22" s="4">
+      <c r="X22" s="4">
         <v>0.14230000000000001</v>
       </c>
-      <c r="X22" s="4">
+      <c r="Y22" s="4">
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="23" spans="10:24">
-      <c r="J23" s="49">
+    <row r="23" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K23" s="49">
         <v>21269.100000000002</v>
       </c>
-      <c r="K23" s="49">
+      <c r="L23" s="49">
         <v>27949.288</v>
       </c>
-      <c r="L23" s="49">
+      <c r="M23" s="49">
         <v>48303.588000000003</v>
       </c>
-      <c r="M23" s="18">
-        <v>300</v>
-      </c>
-      <c r="N23" s="14">
-        <v>100</v>
+      <c r="N23" s="18">
+        <v>300</v>
       </c>
       <c r="O23" s="14">
-        <v>400</v>
-      </c>
-      <c r="W23" s="4">
+        <v>100</v>
+      </c>
+      <c r="P23" s="14">
+        <v>400</v>
+      </c>
+      <c r="X23" s="4">
         <v>0.1419</v>
       </c>
-      <c r="X23" s="4">
+      <c r="Y23" s="4">
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="24" spans="10:24">
-      <c r="J24" s="49">
+    <row r="24" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K24" s="49">
         <v>21204</v>
       </c>
-      <c r="K24" s="49">
+      <c r="L24" s="49">
         <v>27840.719999999998</v>
       </c>
-      <c r="L24" s="49">
+      <c r="M24" s="49">
         <v>48132.72</v>
       </c>
-      <c r="M24" s="18">
-        <v>300</v>
-      </c>
-      <c r="N24" s="14">
-        <v>100</v>
+      <c r="N24" s="18">
+        <v>300</v>
       </c>
       <c r="O24" s="14">
-        <v>400</v>
-      </c>
-      <c r="W24" s="4">
+        <v>100</v>
+      </c>
+      <c r="P24" s="14">
+        <v>400</v>
+      </c>
+      <c r="X24" s="4">
         <v>0.14169999999999999</v>
       </c>
-      <c r="X24" s="4">
+      <c r="Y24" s="4">
         <v>0.36099999999999999</v>
       </c>
     </row>
-    <row r="25" spans="10:24">
-      <c r="J25" s="49">
+    <row r="25" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K25" s="49">
         <v>21166.800000000003</v>
       </c>
-      <c r="K25" s="49">
+      <c r="L25" s="49">
         <v>27750.824000000001</v>
       </c>
-      <c r="L25" s="49">
+      <c r="M25" s="49">
         <v>48007.224000000002</v>
       </c>
-      <c r="M25" s="18">
-        <v>300</v>
-      </c>
-      <c r="N25" s="14">
-        <v>100</v>
+      <c r="N25" s="18">
+        <v>300</v>
       </c>
       <c r="O25" s="14">
-        <v>400</v>
-      </c>
-      <c r="W25" s="4">
+        <v>100</v>
+      </c>
+      <c r="P25" s="14">
+        <v>400</v>
+      </c>
+      <c r="X25" s="4">
         <v>0.1414</v>
       </c>
-      <c r="X25" s="4">
+      <c r="Y25" s="4">
         <v>0.35899999999999999</v>
       </c>
     </row>
-    <row r="26" spans="10:24">
-      <c r="J26" s="49">
+    <row r="26" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K26" s="49">
         <v>21129.600000000002</v>
       </c>
-      <c r="K26" s="49">
+      <c r="L26" s="49">
         <v>27660.928</v>
       </c>
-      <c r="L26" s="49">
+      <c r="M26" s="49">
         <v>47881.728000000003</v>
       </c>
-      <c r="M26" s="18">
-        <v>300</v>
-      </c>
-      <c r="N26" s="14">
-        <v>100</v>
+      <c r="N26" s="18">
+        <v>300</v>
       </c>
       <c r="O26" s="14">
-        <v>400</v>
-      </c>
-      <c r="W26" s="4">
+        <v>100</v>
+      </c>
+      <c r="P26" s="14">
+        <v>400</v>
+      </c>
+      <c r="X26" s="4">
         <v>0.14119999999999999</v>
       </c>
-      <c r="X26" s="4">
+      <c r="Y26" s="4">
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="27" spans="10:24">
-      <c r="J27" s="49">
+    <row r="27" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K27" s="49">
         <v>21092.400000000001</v>
       </c>
-      <c r="K27" s="49">
+      <c r="L27" s="49">
         <v>27506.031999999999</v>
       </c>
-      <c r="L27" s="49">
+      <c r="M27" s="49">
         <v>47691.232000000004</v>
       </c>
-      <c r="M27" s="18">
-        <v>300</v>
-      </c>
-      <c r="N27" s="14">
-        <v>100</v>
+      <c r="N27" s="18">
+        <v>300</v>
       </c>
       <c r="O27" s="14">
-        <v>400</v>
-      </c>
-      <c r="W27" s="4">
+        <v>100</v>
+      </c>
+      <c r="P27" s="14">
+        <v>400</v>
+      </c>
+      <c r="X27" s="4">
         <v>0.14099999999999999</v>
       </c>
-      <c r="X27" s="4">
+      <c r="Y27" s="4">
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="28" spans="10:24">
-      <c r="J28" s="49">
+    <row r="28" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K28" s="49">
         <v>21055.200000000001</v>
       </c>
-      <c r="K28" s="49">
+      <c r="L28" s="49">
         <v>27351.135999999995</v>
       </c>
-      <c r="L28" s="49">
+      <c r="M28" s="49">
         <v>47500.735999999997</v>
       </c>
-      <c r="M28" s="18">
-        <v>300</v>
-      </c>
-      <c r="N28" s="14">
-        <v>100</v>
+      <c r="N28" s="18">
+        <v>300</v>
       </c>
       <c r="O28" s="14">
-        <v>400</v>
-      </c>
-      <c r="W28" s="4">
+        <v>100</v>
+      </c>
+      <c r="P28" s="14">
+        <v>400</v>
+      </c>
+      <c r="X28" s="4">
         <v>0.14069999999999999</v>
       </c>
-      <c r="X28" s="4">
+      <c r="Y28" s="4">
         <v>0.35299999999999998</v>
       </c>
     </row>
-    <row r="29" spans="10:24">
-      <c r="J29" s="49">
+    <row r="29" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K29" s="49">
         <v>21018</v>
       </c>
-      <c r="K29" s="49">
+      <c r="L29" s="49">
         <v>27131.239999999998</v>
       </c>
-      <c r="L29" s="49">
+      <c r="M29" s="49">
         <v>47245.24</v>
       </c>
-      <c r="M29" s="18">
-        <v>300</v>
-      </c>
-      <c r="N29" s="14">
-        <v>100</v>
+      <c r="N29" s="18">
+        <v>300</v>
       </c>
       <c r="O29" s="14">
-        <v>400</v>
-      </c>
-      <c r="W29" s="4">
+        <v>100</v>
+      </c>
+      <c r="P29" s="14">
+        <v>400</v>
+      </c>
+      <c r="X29" s="4">
         <v>0.14050000000000001</v>
       </c>
-      <c r="X29" s="4">
+      <c r="Y29" s="4">
         <v>0.35099999999999998</v>
       </c>
     </row>
-    <row r="30" spans="10:24">
-      <c r="J30" s="49">
+    <row r="30" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K30" s="49">
         <v>20980.800000000003</v>
       </c>
-      <c r="K30" s="49">
+      <c r="L30" s="49">
         <v>27041.343999999997</v>
       </c>
-      <c r="L30" s="49">
+      <c r="M30" s="49">
         <v>47119.743999999999</v>
       </c>
-      <c r="M30" s="18">
-        <v>300</v>
-      </c>
-      <c r="N30" s="14">
-        <v>100</v>
+      <c r="N30" s="18">
+        <v>300</v>
       </c>
       <c r="O30" s="14">
-        <v>400</v>
-      </c>
-      <c r="W30" s="4">
+        <v>100</v>
+      </c>
+      <c r="P30" s="14">
+        <v>400</v>
+      </c>
+      <c r="X30" s="4">
         <v>0.14019999999999999</v>
       </c>
-      <c r="X30" s="4">
+      <c r="Y30" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="31" spans="10:24">
-      <c r="J31" s="49">
+    <row r="31" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K31" s="49">
         <v>20943.600000000002</v>
       </c>
-      <c r="K31" s="49">
+      <c r="L31" s="49">
         <v>26951.447999999997</v>
       </c>
-      <c r="L31" s="49">
+      <c r="M31" s="49">
         <v>46994.247999999992</v>
       </c>
-      <c r="M31" s="18">
-        <v>300</v>
-      </c>
-      <c r="N31" s="14">
-        <v>100</v>
+      <c r="N31" s="18">
+        <v>300</v>
       </c>
       <c r="O31" s="14">
-        <v>400</v>
-      </c>
-      <c r="W31" s="4">
+        <v>100</v>
+      </c>
+      <c r="P31" s="14">
+        <v>400</v>
+      </c>
+      <c r="X31" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="X31" s="4">
+      <c r="Y31" s="4">
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="32" spans="10:24">
-      <c r="J32" s="49">
+    <row r="32" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K32" s="49">
         <v>20906.400000000001</v>
       </c>
-      <c r="K32" s="49">
+      <c r="L32" s="49">
         <v>26796.552</v>
       </c>
-      <c r="L32" s="49">
+      <c r="M32" s="49">
         <v>46803.752000000008</v>
       </c>
-      <c r="M32" s="18">
-        <v>300</v>
-      </c>
-      <c r="N32" s="14">
-        <v>100</v>
+      <c r="N32" s="18">
+        <v>300</v>
       </c>
       <c r="O32" s="14">
-        <v>400</v>
-      </c>
-      <c r="W32" s="4">
+        <v>100</v>
+      </c>
+      <c r="P32" s="14">
+        <v>400</v>
+      </c>
+      <c r="X32" s="4">
         <v>0.13980000000000001</v>
       </c>
-      <c r="X32" s="4">
+      <c r="Y32" s="4">
         <v>0.34599999999999997</v>
       </c>
     </row>
-    <row r="33" spans="10:24">
-      <c r="J33" s="49">
+    <row r="33" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K33" s="49">
         <v>20869.2</v>
       </c>
-      <c r="K33" s="49">
+      <c r="L33" s="49">
         <v>26576.655999999999</v>
       </c>
-      <c r="L33" s="49">
+      <c r="M33" s="49">
         <v>46548.256000000001</v>
       </c>
-      <c r="M33" s="18">
-        <v>300</v>
-      </c>
-      <c r="N33" s="14">
-        <v>100</v>
+      <c r="N33" s="18">
+        <v>300</v>
       </c>
       <c r="O33" s="14">
-        <v>400</v>
-      </c>
-      <c r="W33" s="4">
+        <v>100</v>
+      </c>
+      <c r="P33" s="14">
+        <v>400</v>
+      </c>
+      <c r="X33" s="4">
         <v>0.13950000000000001</v>
       </c>
-      <c r="X33" s="4">
+      <c r="Y33" s="4">
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="34" spans="10:24">
-      <c r="J34" s="49">
+    <row r="34" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K34" s="49">
         <v>20832</v>
       </c>
-      <c r="K34" s="49">
+      <c r="L34" s="49">
         <v>26421.759999999995</v>
       </c>
-      <c r="L34" s="49">
+      <c r="M34" s="49">
         <v>46357.759999999995</v>
       </c>
-      <c r="M34" s="18">
-        <v>300</v>
-      </c>
-      <c r="N34" s="14">
-        <v>100</v>
+      <c r="N34" s="18">
+        <v>300</v>
       </c>
       <c r="O34" s="14">
-        <v>400</v>
-      </c>
-      <c r="W34" s="4">
+        <v>100</v>
+      </c>
+      <c r="P34" s="14">
+        <v>400</v>
+      </c>
+      <c r="X34" s="4">
         <v>0.13930000000000001</v>
       </c>
-      <c r="X34" s="4">
+      <c r="Y34" s="4">
         <v>0.34200000000000003</v>
       </c>
     </row>
-    <row r="35" spans="10:24">
-      <c r="J35" s="49">
+    <row r="35" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K35" s="49">
         <v>20794.800000000003</v>
       </c>
-      <c r="K35" s="49">
+      <c r="L35" s="49">
         <v>26331.864000000001</v>
       </c>
-      <c r="L35" s="49">
+      <c r="M35" s="49">
         <v>46232.264000000003</v>
       </c>
-      <c r="M35" s="18">
-        <v>300</v>
-      </c>
-      <c r="N35" s="14">
-        <v>100</v>
+      <c r="N35" s="18">
+        <v>300</v>
       </c>
       <c r="O35" s="14">
-        <v>400</v>
-      </c>
-      <c r="W35" s="4">
+        <v>100</v>
+      </c>
+      <c r="P35" s="14">
+        <v>400</v>
+      </c>
+      <c r="X35" s="4">
         <v>0.1391</v>
       </c>
-      <c r="X35" s="4">
+      <c r="Y35" s="4">
         <v>0.34</v>
       </c>
     </row>
-    <row r="36" spans="10:24">
-      <c r="J36" s="49">
+    <row r="36" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K36" s="49">
         <v>20757.600000000002</v>
       </c>
-      <c r="K36" s="49">
+      <c r="L36" s="49">
         <v>26241.967999999997</v>
       </c>
-      <c r="L36" s="49">
+      <c r="M36" s="49">
         <v>46106.767999999996</v>
       </c>
-      <c r="M36" s="18">
-        <v>300</v>
-      </c>
-      <c r="N36" s="14">
-        <v>100</v>
+      <c r="N36" s="18">
+        <v>300</v>
       </c>
       <c r="O36" s="14">
-        <v>400</v>
-      </c>
-      <c r="W36" s="4">
+        <v>100</v>
+      </c>
+      <c r="P36" s="14">
+        <v>400</v>
+      </c>
+      <c r="X36" s="4">
         <v>0.13880000000000001</v>
       </c>
-      <c r="X36" s="4">
+      <c r="Y36" s="4">
         <v>0.33900000000000002</v>
       </c>
     </row>
-    <row r="37" spans="10:24">
-      <c r="J37" s="49">
+    <row r="37" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K37" s="49">
         <v>20720.400000000001</v>
       </c>
-      <c r="K37" s="49">
+      <c r="L37" s="49">
         <v>26152.071999999996</v>
       </c>
-      <c r="L37" s="49">
+      <c r="M37" s="49">
         <v>45981.271999999997</v>
       </c>
-      <c r="M37" s="18">
-        <v>300</v>
-      </c>
-      <c r="N37" s="14">
-        <v>100</v>
+      <c r="N37" s="18">
+        <v>300</v>
       </c>
       <c r="O37" s="14">
-        <v>400</v>
-      </c>
-      <c r="W37" s="4">
+        <v>100</v>
+      </c>
+      <c r="P37" s="14">
+        <v>400</v>
+      </c>
+      <c r="X37" s="4">
         <v>0.1386</v>
       </c>
-      <c r="X37" s="4">
+      <c r="Y37" s="4">
         <v>0.33800000000000002</v>
       </c>
     </row>
-    <row r="38" spans="10:24">
-      <c r="J38" s="49">
+    <row r="38" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K38" s="49">
         <v>20683.2</v>
       </c>
-      <c r="K38" s="49">
+      <c r="L38" s="49">
         <v>26062.175999999999</v>
       </c>
-      <c r="L38" s="49">
+      <c r="M38" s="49">
         <v>45855.776000000005</v>
       </c>
-      <c r="M38" s="18">
-        <v>300</v>
-      </c>
-      <c r="N38" s="14">
-        <v>100</v>
+      <c r="N38" s="18">
+        <v>300</v>
       </c>
       <c r="O38" s="14">
+        <v>100</v>
+      </c>
+      <c r="P38" s="14">
         <v>400</v>
       </c>
     </row>
@@ -5739,15 +5861,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB38"/>
+  <dimension ref="A1:AC38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" s="16" customFormat="1" ht="64" customHeight="1">
+    <row r="1" spans="1:29" s="16" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
         <v>7</v>
       </c>
@@ -5757,71 +5879,74 @@
       <c r="D1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="K1" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="N1" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="O1" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="O1" s="58" t="s">
+      <c r="P1" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="P1" s="58" t="s">
+      <c r="Q1" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="R1" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="R1" s="58" t="s">
+      <c r="S1" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="T1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="58" t="s">
+      <c r="U1" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="U1" s="58" t="s">
+      <c r="V1" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="V1" s="58" t="s">
+      <c r="W1" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="W1" s="58" t="s">
+      <c r="X1" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="X1" s="58" t="s">
+      <c r="Y1" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="Y1" s="58" t="s">
+      <c r="Z1" s="58" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="16" customFormat="1" ht="18" customHeight="1">
+    <row r="2" spans="1:29" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1448848</v>
       </c>
@@ -5831,1002 +5956,1005 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="14">
+        <v>2000000</v>
+      </c>
+      <c r="F2">
         <v>7000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>5694</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>32.4</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="65">
+      <c r="I2" s="63"/>
+      <c r="J2" s="65">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
-      <c r="M2" s="18">
-        <v>300</v>
-      </c>
-      <c r="N2" s="19">
-        <v>100</v>
+      <c r="M2"/>
+      <c r="N2" s="18">
+        <v>300</v>
       </c>
       <c r="O2" s="19">
-        <v>400</v>
-      </c>
-      <c r="P2" s="29">
+        <v>100</v>
+      </c>
+      <c r="P2" s="19">
+        <v>400</v>
+      </c>
+      <c r="Q2" s="29">
         <v>1</v>
       </c>
-      <c r="Q2" s="36">
+      <c r="R2" s="36">
         <v>5.3900709219858204E-3</v>
       </c>
-      <c r="R2" s="24">
+      <c r="S2" s="24">
         <v>0</v>
       </c>
-      <c r="S2" s="24">
+      <c r="T2" s="24">
         <v>8.1560283687943296E-4</v>
       </c>
-      <c r="T2" s="24">
+      <c r="U2" s="24">
         <v>3.3444816053511699E-5</v>
       </c>
-      <c r="U2" s="24">
+      <c r="V2" s="24">
         <v>1E-3</v>
       </c>
-      <c r="V2" s="24">
+      <c r="W2" s="24">
         <v>6.6889632107023397E-5</v>
       </c>
-      <c r="W2" s="29">
+      <c r="X2" s="29">
         <v>0.29580000000000001</v>
       </c>
-      <c r="X2" s="29">
+      <c r="Y2" s="29">
         <v>0.73499999999999999</v>
       </c>
-      <c r="Y2" s="38">
+      <c r="Z2" s="38">
         <v>1</v>
       </c>
-      <c r="Z2"/>
       <c r="AA2"/>
       <c r="AB2"/>
-    </row>
-    <row r="3" spans="1:28">
-      <c r="H3" s="64"/>
-      <c r="I3" s="65">
+      <c r="AC2"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="I3" s="64"/>
+      <c r="J3" s="65">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="M3" s="19">
-        <v>300</v>
-      </c>
-      <c r="N3" s="14">
-        <v>100</v>
+      <c r="N3" s="19">
+        <v>300</v>
       </c>
       <c r="O3" s="14">
-        <v>400</v>
-      </c>
-      <c r="P3" s="30">
+        <v>100</v>
+      </c>
+      <c r="P3" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q3" s="30">
         <v>1</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="R3" s="10">
         <v>8.6879432624113496E-3</v>
       </c>
-      <c r="R3" s="25">
+      <c r="S3" s="25">
         <v>5.0167224080267597E-4</v>
       </c>
-      <c r="S3" s="25">
+      <c r="T3" s="25">
         <v>1.3829787234042601E-3</v>
       </c>
-      <c r="T3" s="25">
+      <c r="U3" s="25">
         <v>3.3444816053511699E-4</v>
       </c>
-      <c r="U3" s="25">
+      <c r="V3" s="25">
         <v>1.4886731391585801E-3</v>
       </c>
-      <c r="V3" s="25">
+      <c r="W3" s="25">
         <v>2.6755852842809402E-4</v>
       </c>
-      <c r="W3" s="9">
+      <c r="X3" s="9">
         <v>0.28089999999999998</v>
       </c>
-      <c r="X3" s="9">
+      <c r="Y3" s="9">
         <v>0.66200000000000003</v>
       </c>
-      <c r="Y3" s="39">
+      <c r="Z3" s="39">
         <v>1.12380952380952</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
-      <c r="I4" s="65">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="J4" s="65">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="M4" s="20">
-        <v>300</v>
-      </c>
-      <c r="N4" s="14">
-        <v>100</v>
+      <c r="N4" s="20">
+        <v>300</v>
       </c>
       <c r="O4" s="14">
-        <v>400</v>
-      </c>
-      <c r="P4" s="31">
+        <v>100</v>
+      </c>
+      <c r="P4" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q4" s="31">
         <v>1</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="R4" s="10">
         <v>1.0638297872340399E-2</v>
       </c>
-      <c r="R4" s="26">
+      <c r="S4" s="26">
         <v>9.6989966555183996E-4</v>
       </c>
-      <c r="S4" s="26">
+      <c r="T4" s="26">
         <v>1.70212765957447E-3</v>
       </c>
-      <c r="T4" s="26">
+      <c r="U4" s="26">
         <v>7.6923076923076901E-4</v>
       </c>
-      <c r="U4" s="26">
+      <c r="V4" s="26">
         <v>1.94174757281553E-3</v>
       </c>
-      <c r="V4" s="26">
+      <c r="W4" s="26">
         <v>5.6856187290969904E-4</v>
       </c>
-      <c r="W4" s="9">
+      <c r="X4" s="9">
         <v>0.22259999999999999</v>
       </c>
-      <c r="X4" s="8">
+      <c r="Y4" s="8">
         <v>0.65</v>
       </c>
-      <c r="Y4" s="40">
+      <c r="Z4" s="40">
         <v>1.2253968253968299</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
-      <c r="I5" s="65">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="J5" s="65">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="M5" s="20">
-        <v>300</v>
-      </c>
-      <c r="N5" s="14">
-        <v>100</v>
+      <c r="N5" s="20">
+        <v>300</v>
       </c>
       <c r="O5" s="14">
-        <v>400</v>
-      </c>
-      <c r="P5" s="31">
+        <v>100</v>
+      </c>
+      <c r="P5" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q5" s="31">
         <v>0.98936170212765995</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="R5" s="10">
         <v>1.24113475177305E-2</v>
       </c>
-      <c r="R5" s="26">
+      <c r="S5" s="26">
         <v>1.3712374581939799E-3</v>
       </c>
-      <c r="S5" s="26">
+      <c r="T5" s="26">
         <v>1.87943262411348E-3</v>
       </c>
-      <c r="T5" s="26">
+      <c r="U5" s="26">
         <v>1.10367892976589E-3</v>
       </c>
-      <c r="U5" s="26">
+      <c r="V5" s="26">
         <v>2.2330097087378598E-3</v>
       </c>
-      <c r="V5" s="26">
+      <c r="W5" s="26">
         <v>9.3645484949832799E-4</v>
       </c>
-      <c r="W5" s="9">
+      <c r="X5" s="9">
         <v>0.20979999999999999</v>
       </c>
-      <c r="X5" s="8">
+      <c r="Y5" s="8">
         <v>0.64</v>
       </c>
-      <c r="Y5" s="40">
+      <c r="Z5" s="40">
         <v>1.35238095238095</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
-      <c r="I6" s="65">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="J6" s="65">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="M6" s="21">
-        <v>300</v>
-      </c>
-      <c r="N6" s="14">
-        <v>100</v>
+      <c r="N6" s="21">
+        <v>300</v>
       </c>
       <c r="O6" s="14">
-        <v>400</v>
-      </c>
-      <c r="P6" s="29">
+        <v>100</v>
+      </c>
+      <c r="P6" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q6" s="29">
         <v>0.97163120567375905</v>
       </c>
-      <c r="Q6" s="23">
+      <c r="R6" s="23">
         <v>1.3829787234042599E-2</v>
       </c>
-      <c r="R6" s="27">
+      <c r="S6" s="27">
         <v>1.7391304347826101E-3</v>
       </c>
-      <c r="S6" s="27">
+      <c r="T6" s="27">
         <v>2.1985815602836899E-3</v>
       </c>
-      <c r="T6" s="27">
+      <c r="U6" s="27">
         <v>1.60535117056856E-3</v>
       </c>
-      <c r="U6" s="27">
+      <c r="V6" s="27">
         <v>2.5889967637540501E-3</v>
       </c>
-      <c r="V6" s="27">
+      <c r="W6" s="27">
         <v>1.3712374581939799E-3</v>
       </c>
-      <c r="W6" s="4">
+      <c r="X6" s="4">
         <v>0.19389999999999999</v>
       </c>
-      <c r="X6" s="17">
+      <c r="Y6" s="17">
         <v>0.60899999999999999</v>
       </c>
-      <c r="Y6" s="41">
+      <c r="Z6" s="41">
         <v>1.4539682539682499</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="I7" s="65">
+      <c r="J7" s="65">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="M7" s="22">
-        <v>300</v>
-      </c>
-      <c r="N7" s="14">
-        <v>100</v>
+      <c r="N7" s="22">
+        <v>300</v>
       </c>
       <c r="O7" s="14">
-        <v>400</v>
-      </c>
-      <c r="P7" s="29">
+        <v>100</v>
+      </c>
+      <c r="P7" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q7" s="29">
         <v>0.95390070921985803</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="R7" s="23">
         <v>1.5957446808510599E-2</v>
       </c>
-      <c r="R7" s="28">
+      <c r="S7" s="28">
         <v>2.10702341137124E-3</v>
       </c>
-      <c r="S7" s="28">
+      <c r="T7" s="28">
         <v>2.5177304964538998E-3</v>
       </c>
-      <c r="T7" s="28">
+      <c r="U7" s="28">
         <v>2.0066889632107E-3</v>
       </c>
-      <c r="U7" s="28">
+      <c r="V7" s="28">
         <v>2.8478964401294502E-3</v>
       </c>
-      <c r="V7" s="28">
+      <c r="W7" s="28">
         <v>1.7725752508361201E-3</v>
       </c>
-      <c r="W7" s="4">
+      <c r="X7" s="4">
         <v>0.18640000000000001</v>
       </c>
-      <c r="X7" s="3">
+      <c r="Y7" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Y7" s="42">
+      <c r="Z7" s="42">
         <v>1.5492063492063499</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
-      <c r="I8" s="65">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="J8" s="65">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="M8" s="18">
-        <v>300</v>
-      </c>
-      <c r="N8" s="14">
-        <v>100</v>
+      <c r="N8" s="18">
+        <v>300</v>
       </c>
       <c r="O8" s="14">
-        <v>400</v>
-      </c>
-      <c r="P8" s="29">
+        <v>100</v>
+      </c>
+      <c r="P8" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q8" s="29">
         <v>0.91843971631205701</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="R8" s="23">
         <v>1.89716312056738E-2</v>
       </c>
-      <c r="R8" s="24">
+      <c r="S8" s="24">
         <v>2.4414715719063501E-3</v>
       </c>
-      <c r="S8" s="24">
+      <c r="T8" s="24">
         <v>2.9432624113475202E-3</v>
       </c>
-      <c r="T8" s="24">
+      <c r="U8" s="24">
         <v>2.5083612040133802E-3</v>
       </c>
-      <c r="U8" s="24">
+      <c r="V8" s="24">
         <v>3.20388349514563E-3</v>
       </c>
-      <c r="V8" s="24">
+      <c r="W8" s="24">
         <v>2.2408026755852801E-3</v>
       </c>
-      <c r="W8" s="4">
+      <c r="X8" s="4">
         <v>0.1799</v>
       </c>
-      <c r="X8" s="4">
+      <c r="Y8" s="4">
         <v>0.54500000000000004</v>
       </c>
-      <c r="Y8" s="38">
+      <c r="Z8" s="38">
         <v>1.6317460317460299</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
-      <c r="I9" s="65">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="J9" s="65">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="M9" s="18">
-        <v>300</v>
-      </c>
-      <c r="N9" s="14">
-        <v>100</v>
+      <c r="N9" s="18">
+        <v>300</v>
       </c>
       <c r="O9" s="14">
-        <v>400</v>
-      </c>
-      <c r="P9" s="29">
+        <v>100</v>
+      </c>
+      <c r="P9" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q9" s="29">
         <v>0.879432624113475</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="R9" s="23">
         <v>2.2163120567375901E-2</v>
       </c>
-      <c r="R9" s="24">
+      <c r="S9" s="24">
         <v>2.9096989966555199E-3</v>
       </c>
-      <c r="S9" s="24">
+      <c r="T9" s="24">
         <v>3.43971631205674E-3</v>
       </c>
-      <c r="T9" s="24">
+      <c r="U9" s="24">
         <v>2.9765886287625399E-3</v>
       </c>
-      <c r="U9" s="24">
+      <c r="V9" s="24">
         <v>3.5922330097087401E-3</v>
       </c>
-      <c r="V9" s="24">
+      <c r="W9" s="24">
         <v>2.7090301003344498E-3</v>
       </c>
-      <c r="W9" s="4">
+      <c r="X9" s="4">
         <v>0.17349999999999999</v>
       </c>
-      <c r="X9" s="4">
+      <c r="Y9" s="4">
         <v>0.505</v>
       </c>
-      <c r="Y9" s="38">
+      <c r="Z9" s="38">
         <v>1.6952380952381001</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
-      <c r="I10" s="65">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="J10" s="65">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="M10" s="18">
-        <v>300</v>
-      </c>
-      <c r="N10" s="14">
-        <v>100</v>
+      <c r="N10" s="18">
+        <v>300</v>
       </c>
       <c r="O10" s="14">
-        <v>400</v>
-      </c>
-      <c r="P10" s="29">
+        <v>100</v>
+      </c>
+      <c r="P10" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q10" s="29">
         <v>0.83333333333333304</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="R10" s="23">
         <v>2.4468085106383E-2</v>
       </c>
-      <c r="R10" s="24">
+      <c r="S10" s="24">
         <v>3.24414715719064E-3</v>
       </c>
-      <c r="S10" s="24">
+      <c r="T10" s="24">
         <v>4.1134751773049599E-3</v>
       </c>
-      <c r="T10" s="24">
+      <c r="U10" s="24">
         <v>3.3779264214046801E-3</v>
       </c>
-      <c r="U10" s="24">
+      <c r="V10" s="24">
         <v>4.1100323624595498E-3</v>
       </c>
-      <c r="V10" s="24">
+      <c r="W10" s="24">
         <v>3.17725752508361E-3</v>
       </c>
-      <c r="W10" s="4">
+      <c r="X10" s="4">
         <v>0.16489999999999999</v>
       </c>
-      <c r="X10" s="4">
+      <c r="Y10" s="4">
         <v>0.48499999999999999</v>
       </c>
-      <c r="Y10" s="38">
+      <c r="Z10" s="38">
         <v>1.7904761904761901</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
-      <c r="I11" s="65">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="J11" s="65">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="M11" s="18">
-        <v>300</v>
-      </c>
-      <c r="N11" s="14">
-        <v>100</v>
+      <c r="N11" s="18">
+        <v>300</v>
       </c>
       <c r="O11" s="14">
-        <v>400</v>
-      </c>
-      <c r="P11" s="29">
+        <v>100</v>
+      </c>
+      <c r="P11" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q11" s="29">
         <v>0.78723404255319196</v>
       </c>
-      <c r="Q11" s="23">
+      <c r="R11" s="23">
         <v>2.73049645390071E-2</v>
       </c>
-      <c r="R11" s="24">
+      <c r="S11" s="24">
         <v>3.5785953177257502E-3</v>
       </c>
-      <c r="S11" s="24">
+      <c r="T11" s="24">
         <v>4.4680851063829798E-3</v>
       </c>
-      <c r="T11" s="24">
+      <c r="U11" s="24">
         <v>3.7792642140468198E-3</v>
       </c>
-      <c r="U11" s="24">
+      <c r="V11" s="24">
         <v>4.6601941747572801E-3</v>
       </c>
-      <c r="V11" s="24">
+      <c r="W11" s="24">
         <v>3.6454849498327802E-3</v>
       </c>
-      <c r="W11" s="4">
+      <c r="X11" s="4">
         <v>0.16159999999999999</v>
       </c>
-      <c r="X11" s="4">
+      <c r="Y11" s="4">
         <v>0.45900000000000002</v>
       </c>
-      <c r="Y11" s="38">
+      <c r="Z11" s="38">
         <v>1.89206349206349</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
-      <c r="I12" s="65">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="J12" s="65">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="M12" s="18">
-        <v>300</v>
-      </c>
-      <c r="N12" s="14">
-        <v>100</v>
+      <c r="N12" s="18">
+        <v>300</v>
       </c>
       <c r="O12" s="14">
-        <v>400</v>
-      </c>
-      <c r="P12" s="29">
+        <v>100</v>
+      </c>
+      <c r="P12" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q12" s="29">
         <v>0.70567375886524797</v>
       </c>
-      <c r="Q12" s="23">
+      <c r="R12" s="23">
         <v>3.0496453900709201E-2</v>
       </c>
-      <c r="R12" s="24">
+      <c r="S12" s="24">
         <v>4.0133779264214103E-3</v>
       </c>
-      <c r="S12" s="24">
+      <c r="T12" s="24">
         <v>5.1063829787233997E-3</v>
       </c>
-      <c r="T12" s="24">
+      <c r="U12" s="24">
         <v>4.2809364548495E-3</v>
       </c>
-      <c r="U12" s="24">
+      <c r="V12" s="24">
         <v>5.2427184466019398E-3</v>
       </c>
-      <c r="V12" s="24">
+      <c r="W12" s="24">
         <v>4.0802675585284304E-3</v>
       </c>
-      <c r="W12" s="4">
+      <c r="X12" s="4">
         <v>0.15740000000000001</v>
       </c>
-      <c r="X12" s="4">
+      <c r="Y12" s="4">
         <v>0.44400000000000001</v>
       </c>
-      <c r="Y12" s="38">
+      <c r="Z12" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
-      <c r="M13" s="18">
-        <v>300</v>
-      </c>
-      <c r="N13" s="14">
-        <v>100</v>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="N13" s="18">
+        <v>300</v>
       </c>
       <c r="O13" s="14">
-        <v>400</v>
-      </c>
-      <c r="P13" s="29">
+        <v>100</v>
+      </c>
+      <c r="P13" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q13" s="29">
         <v>0.62411347517730498</v>
       </c>
-      <c r="Q13" s="23">
+      <c r="R13" s="23">
         <v>3.2269503546099303E-2</v>
       </c>
-      <c r="W13" s="4">
+      <c r="X13" s="4">
         <v>0.152</v>
       </c>
-      <c r="X13" s="4">
+      <c r="Y13" s="4">
         <v>0.42399999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
-      <c r="M14" s="18">
-        <v>300</v>
-      </c>
-      <c r="N14" s="14">
-        <v>100</v>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="N14" s="18">
+        <v>300</v>
       </c>
       <c r="O14" s="14">
-        <v>400</v>
-      </c>
-      <c r="P14" s="29">
+        <v>100</v>
+      </c>
+      <c r="P14" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q14" s="29">
         <v>0.46099290780141799</v>
       </c>
-      <c r="Q14" s="23">
+      <c r="R14" s="23">
         <v>3.5106382978723399E-2</v>
       </c>
-      <c r="W14" s="4">
+      <c r="X14" s="4">
         <v>0.153</v>
       </c>
-      <c r="X14" s="4">
+      <c r="Y14" s="4">
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
-      <c r="M15" s="18">
-        <v>300</v>
-      </c>
-      <c r="N15" s="14">
-        <v>100</v>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="N15" s="18">
+        <v>300</v>
       </c>
       <c r="O15" s="14">
-        <v>400</v>
-      </c>
-      <c r="P15" s="29">
+        <v>100</v>
+      </c>
+      <c r="P15" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q15" s="29">
         <v>0.28723404255319201</v>
       </c>
-      <c r="Q15" s="23">
+      <c r="R15" s="23">
         <v>3.7411347517730502E-2</v>
       </c>
-      <c r="W15" s="4">
+      <c r="X15" s="4">
         <v>0.152</v>
       </c>
-      <c r="X15" s="4">
+      <c r="Y15" s="4">
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
-      <c r="M16" s="18">
-        <v>300</v>
-      </c>
-      <c r="N16" s="14">
-        <v>100</v>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="N16" s="18">
+        <v>300</v>
       </c>
       <c r="O16" s="14">
-        <v>400</v>
-      </c>
-      <c r="P16" s="29">
+        <v>100</v>
+      </c>
+      <c r="P16" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q16" s="29">
         <v>0.184397163120567</v>
       </c>
-      <c r="Q16" s="23">
+      <c r="R16" s="23">
         <v>3.9716312056737597E-2</v>
       </c>
-      <c r="W16" s="4">
+      <c r="X16" s="4">
         <v>0.15090000000000001</v>
       </c>
-      <c r="X16" s="4">
+      <c r="Y16" s="4">
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="17" spans="13:24">
-      <c r="M17" s="18">
-        <v>300</v>
-      </c>
-      <c r="N17" s="14">
-        <v>100</v>
+    <row r="17" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N17" s="18">
+        <v>300</v>
       </c>
       <c r="O17" s="14">
-        <v>400</v>
-      </c>
-      <c r="P17" s="29">
+        <v>100</v>
+      </c>
+      <c r="P17" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q17" s="29">
         <v>8.5106382978723402E-2</v>
       </c>
-      <c r="Q17" s="23">
+      <c r="R17" s="23">
         <v>4.3262411347517703E-2</v>
       </c>
-      <c r="W17" s="4">
+      <c r="X17" s="4">
         <v>0.14979999999999999</v>
       </c>
-      <c r="X17" s="4">
+      <c r="Y17" s="4">
         <v>0.379</v>
       </c>
     </row>
-    <row r="18" spans="13:24">
-      <c r="M18" s="18">
-        <v>300</v>
-      </c>
-      <c r="N18" s="14">
-        <v>100</v>
+    <row r="18" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N18" s="18">
+        <v>300</v>
       </c>
       <c r="O18" s="14">
-        <v>400</v>
-      </c>
-      <c r="P18" s="29">
+        <v>100</v>
+      </c>
+      <c r="P18" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q18" s="29">
         <v>4.2553191489361701E-2</v>
       </c>
-      <c r="Q18" s="23">
+      <c r="R18" s="23">
         <v>4.4858156028368797E-2</v>
       </c>
-      <c r="W18" s="4">
+      <c r="X18" s="4">
         <v>0.1487</v>
       </c>
-      <c r="X18" s="4">
+      <c r="Y18" s="4">
         <v>0.379</v>
       </c>
     </row>
-    <row r="19" spans="13:24">
-      <c r="M19" s="18">
-        <v>300</v>
-      </c>
-      <c r="N19" s="14">
-        <v>100</v>
+    <row r="19" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N19" s="18">
+        <v>300</v>
       </c>
       <c r="O19" s="14">
-        <v>400</v>
-      </c>
-      <c r="P19" s="29">
+        <v>100</v>
+      </c>
+      <c r="P19" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q19" s="29">
         <v>2.1276595744680899E-2</v>
       </c>
-      <c r="Q19" s="23">
+      <c r="R19" s="23">
         <v>4.6808510638297898E-2</v>
       </c>
-      <c r="W19" s="4">
+      <c r="X19" s="4">
         <v>0.1479</v>
       </c>
-      <c r="X19" s="4">
+      <c r="Y19" s="4">
         <v>0.372</v>
       </c>
     </row>
-    <row r="20" spans="13:24">
-      <c r="M20" s="18">
-        <v>300</v>
-      </c>
-      <c r="N20" s="14">
-        <v>100</v>
+    <row r="20" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N20" s="18">
+        <v>300</v>
       </c>
       <c r="O20" s="14">
-        <v>400</v>
-      </c>
-      <c r="P20" s="29">
+        <v>100</v>
+      </c>
+      <c r="P20" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q20" s="29">
         <v>3.54609929078014E-3</v>
       </c>
-      <c r="Q20" s="23">
+      <c r="R20" s="23">
         <v>4.8936170212766E-2</v>
       </c>
-      <c r="W20" s="4">
+      <c r="X20" s="4">
         <v>0.14660000000000001</v>
       </c>
-      <c r="X20" s="4">
+      <c r="Y20" s="4">
         <v>0.371</v>
       </c>
     </row>
-    <row r="21" spans="13:24">
-      <c r="M21" s="18">
-        <v>300</v>
-      </c>
-      <c r="N21" s="14">
-        <v>100</v>
+    <row r="21" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N21" s="18">
+        <v>300</v>
       </c>
       <c r="O21" s="14">
-        <v>400</v>
-      </c>
-      <c r="P21" s="29">
+        <v>100</v>
+      </c>
+      <c r="P21" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q21" s="29">
         <v>0</v>
       </c>
-      <c r="Q21" s="23">
+      <c r="R21" s="23">
         <v>0.05</v>
       </c>
-      <c r="W21" s="4">
+      <c r="X21" s="4">
         <v>0.14369999999999999</v>
       </c>
-      <c r="X21" s="4">
+      <c r="Y21" s="4">
         <v>0.36699999999999999</v>
       </c>
     </row>
-    <row r="22" spans="13:24">
-      <c r="M22" s="18">
-        <v>300</v>
-      </c>
-      <c r="N22" s="14">
-        <v>100</v>
+    <row r="22" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N22" s="18">
+        <v>300</v>
       </c>
       <c r="O22" s="14">
-        <v>400</v>
-      </c>
-      <c r="P22" s="29">
+        <v>100</v>
+      </c>
+      <c r="P22" s="14">
+        <v>400</v>
+      </c>
+      <c r="Q22" s="29">
         <v>0</v>
       </c>
-      <c r="Q22" s="23">
+      <c r="R22" s="23">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="W22" s="4">
+      <c r="X22" s="4">
         <v>0.14230000000000001</v>
       </c>
-      <c r="X22" s="4">
+      <c r="Y22" s="4">
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="23" spans="13:24">
-      <c r="M23" s="18">
-        <v>300</v>
-      </c>
-      <c r="N23" s="14">
-        <v>100</v>
+    <row r="23" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N23" s="18">
+        <v>300</v>
       </c>
       <c r="O23" s="14">
-        <v>400</v>
-      </c>
-      <c r="W23" s="4">
+        <v>100</v>
+      </c>
+      <c r="P23" s="14">
+        <v>400</v>
+      </c>
+      <c r="X23" s="4">
         <v>0.1419</v>
       </c>
-      <c r="X23" s="4">
+      <c r="Y23" s="4">
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="24" spans="13:24">
-      <c r="M24" s="18">
-        <v>300</v>
-      </c>
-      <c r="N24" s="14">
-        <v>100</v>
+    <row r="24" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N24" s="18">
+        <v>300</v>
       </c>
       <c r="O24" s="14">
-        <v>400</v>
-      </c>
-      <c r="W24" s="4">
+        <v>100</v>
+      </c>
+      <c r="P24" s="14">
+        <v>400</v>
+      </c>
+      <c r="X24" s="4">
         <v>0.14169999999999999</v>
       </c>
-      <c r="X24" s="4">
+      <c r="Y24" s="4">
         <v>0.36099999999999999</v>
       </c>
     </row>
-    <row r="25" spans="13:24">
-      <c r="M25" s="18">
-        <v>300</v>
-      </c>
-      <c r="N25" s="14">
-        <v>100</v>
+    <row r="25" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N25" s="18">
+        <v>300</v>
       </c>
       <c r="O25" s="14">
-        <v>400</v>
-      </c>
-      <c r="W25" s="4">
+        <v>100</v>
+      </c>
+      <c r="P25" s="14">
+        <v>400</v>
+      </c>
+      <c r="X25" s="4">
         <v>0.1414</v>
       </c>
-      <c r="X25" s="4">
+      <c r="Y25" s="4">
         <v>0.35899999999999999</v>
       </c>
     </row>
-    <row r="26" spans="13:24">
-      <c r="M26" s="18">
-        <v>300</v>
-      </c>
-      <c r="N26" s="14">
-        <v>100</v>
+    <row r="26" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N26" s="18">
+        <v>300</v>
       </c>
       <c r="O26" s="14">
-        <v>400</v>
-      </c>
-      <c r="W26" s="4">
+        <v>100</v>
+      </c>
+      <c r="P26" s="14">
+        <v>400</v>
+      </c>
+      <c r="X26" s="4">
         <v>0.14119999999999999</v>
       </c>
-      <c r="X26" s="4">
+      <c r="Y26" s="4">
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="27" spans="13:24">
-      <c r="M27" s="18">
-        <v>300</v>
-      </c>
-      <c r="N27" s="14">
-        <v>100</v>
+    <row r="27" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N27" s="18">
+        <v>300</v>
       </c>
       <c r="O27" s="14">
-        <v>400</v>
-      </c>
-      <c r="W27" s="4">
+        <v>100</v>
+      </c>
+      <c r="P27" s="14">
+        <v>400</v>
+      </c>
+      <c r="X27" s="4">
         <v>0.14099999999999999</v>
       </c>
-      <c r="X27" s="4">
+      <c r="Y27" s="4">
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="28" spans="13:24">
-      <c r="M28" s="18">
-        <v>300</v>
-      </c>
-      <c r="N28" s="14">
-        <v>100</v>
+    <row r="28" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N28" s="18">
+        <v>300</v>
       </c>
       <c r="O28" s="14">
-        <v>400</v>
-      </c>
-      <c r="W28" s="4">
+        <v>100</v>
+      </c>
+      <c r="P28" s="14">
+        <v>400</v>
+      </c>
+      <c r="X28" s="4">
         <v>0.14069999999999999</v>
       </c>
-      <c r="X28" s="4">
+      <c r="Y28" s="4">
         <v>0.35299999999999998</v>
       </c>
     </row>
-    <row r="29" spans="13:24">
-      <c r="M29" s="18">
-        <v>300</v>
-      </c>
-      <c r="N29" s="14">
-        <v>100</v>
+    <row r="29" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N29" s="18">
+        <v>300</v>
       </c>
       <c r="O29" s="14">
-        <v>400</v>
-      </c>
-      <c r="W29" s="4">
+        <v>100</v>
+      </c>
+      <c r="P29" s="14">
+        <v>400</v>
+      </c>
+      <c r="X29" s="4">
         <v>0.14050000000000001</v>
       </c>
-      <c r="X29" s="4">
+      <c r="Y29" s="4">
         <v>0.35099999999999998</v>
       </c>
     </row>
-    <row r="30" spans="13:24">
-      <c r="M30" s="18">
-        <v>300</v>
-      </c>
-      <c r="N30" s="14">
-        <v>100</v>
+    <row r="30" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N30" s="18">
+        <v>300</v>
       </c>
       <c r="O30" s="14">
-        <v>400</v>
-      </c>
-      <c r="W30" s="4">
+        <v>100</v>
+      </c>
+      <c r="P30" s="14">
+        <v>400</v>
+      </c>
+      <c r="X30" s="4">
         <v>0.14019999999999999</v>
       </c>
-      <c r="X30" s="4">
+      <c r="Y30" s="4">
         <v>0.35</v>
       </c>
     </row>
-    <row r="31" spans="13:24">
-      <c r="M31" s="18">
-        <v>300</v>
-      </c>
-      <c r="N31" s="14">
-        <v>100</v>
+    <row r="31" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N31" s="18">
+        <v>300</v>
       </c>
       <c r="O31" s="14">
-        <v>400</v>
-      </c>
-      <c r="W31" s="4">
+        <v>100</v>
+      </c>
+      <c r="P31" s="14">
+        <v>400</v>
+      </c>
+      <c r="X31" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="X31" s="4">
+      <c r="Y31" s="4">
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="32" spans="13:24">
-      <c r="M32" s="18">
-        <v>300</v>
-      </c>
-      <c r="N32" s="14">
-        <v>100</v>
+    <row r="32" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N32" s="18">
+        <v>300</v>
       </c>
       <c r="O32" s="14">
-        <v>400</v>
-      </c>
-      <c r="W32" s="4">
+        <v>100</v>
+      </c>
+      <c r="P32" s="14">
+        <v>400</v>
+      </c>
+      <c r="X32" s="4">
         <v>0.13980000000000001</v>
       </c>
-      <c r="X32" s="4">
+      <c r="Y32" s="4">
         <v>0.34599999999999997</v>
       </c>
     </row>
-    <row r="33" spans="13:24">
-      <c r="M33" s="18">
-        <v>300</v>
-      </c>
-      <c r="N33" s="14">
-        <v>100</v>
+    <row r="33" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N33" s="18">
+        <v>300</v>
       </c>
       <c r="O33" s="14">
-        <v>400</v>
-      </c>
-      <c r="W33" s="4">
+        <v>100</v>
+      </c>
+      <c r="P33" s="14">
+        <v>400</v>
+      </c>
+      <c r="X33" s="4">
         <v>0.13950000000000001</v>
       </c>
-      <c r="X33" s="4">
+      <c r="Y33" s="4">
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="34" spans="13:24">
-      <c r="M34" s="18">
-        <v>300</v>
-      </c>
-      <c r="N34" s="14">
-        <v>100</v>
+    <row r="34" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N34" s="18">
+        <v>300</v>
       </c>
       <c r="O34" s="14">
-        <v>400</v>
-      </c>
-      <c r="W34" s="4">
+        <v>100</v>
+      </c>
+      <c r="P34" s="14">
+        <v>400</v>
+      </c>
+      <c r="X34" s="4">
         <v>0.13930000000000001</v>
       </c>
-      <c r="X34" s="4">
+      <c r="Y34" s="4">
         <v>0.34200000000000003</v>
       </c>
     </row>
-    <row r="35" spans="13:24">
-      <c r="M35" s="18">
-        <v>300</v>
-      </c>
-      <c r="N35" s="14">
-        <v>100</v>
+    <row r="35" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N35" s="18">
+        <v>300</v>
       </c>
       <c r="O35" s="14">
-        <v>400</v>
-      </c>
-      <c r="W35" s="4">
+        <v>100</v>
+      </c>
+      <c r="P35" s="14">
+        <v>400</v>
+      </c>
+      <c r="X35" s="4">
         <v>0.1391</v>
       </c>
-      <c r="X35" s="4">
+      <c r="Y35" s="4">
         <v>0.34</v>
       </c>
     </row>
-    <row r="36" spans="13:24">
-      <c r="M36" s="18">
-        <v>300</v>
-      </c>
-      <c r="N36" s="14">
-        <v>100</v>
+    <row r="36" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N36" s="18">
+        <v>300</v>
       </c>
       <c r="O36" s="14">
-        <v>400</v>
-      </c>
-      <c r="W36" s="4">
+        <v>100</v>
+      </c>
+      <c r="P36" s="14">
+        <v>400</v>
+      </c>
+      <c r="X36" s="4">
         <v>0.13880000000000001</v>
       </c>
-      <c r="X36" s="4">
+      <c r="Y36" s="4">
         <v>0.33900000000000002</v>
       </c>
     </row>
-    <row r="37" spans="13:24">
-      <c r="M37" s="18">
-        <v>300</v>
-      </c>
-      <c r="N37" s="14">
-        <v>100</v>
+    <row r="37" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N37" s="18">
+        <v>300</v>
       </c>
       <c r="O37" s="14">
-        <v>400</v>
-      </c>
-      <c r="W37" s="4">
+        <v>100</v>
+      </c>
+      <c r="P37" s="14">
+        <v>400</v>
+      </c>
+      <c r="X37" s="4">
         <v>0.1386</v>
       </c>
-      <c r="X37" s="4">
+      <c r="Y37" s="4">
         <v>0.33800000000000002</v>
       </c>
     </row>
-    <row r="38" spans="13:24">
-      <c r="M38" s="18">
-        <v>300</v>
-      </c>
-      <c r="N38" s="14">
-        <v>100</v>
+    <row r="38" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N38" s="18">
+        <v>300</v>
       </c>
       <c r="O38" s="14">
+        <v>100</v>
+      </c>
+      <c r="P38" s="14">
         <v>400</v>
       </c>
     </row>
@@ -6843,225 +6971,259 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X14"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.625" customWidth="1"/>
+    <col min="12" max="12" width="13.375" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="37" customFormat="1" ht="90">
-      <c r="B1" s="60" t="s">
+    <row r="1" spans="1:23" s="37" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="I1" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" s="60" t="s">
-        <v>131</v>
-      </c>
-      <c r="H1" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="I1" s="32" t="s">
+      <c r="J1" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="K1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="L1" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="M1" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="N1" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="N1" s="57" t="s">
+      <c r="O1" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="57" t="s">
+      <c r="P1" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="57" t="s">
+      <c r="Q1" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="Q1" s="57" t="s">
+      <c r="R1" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="R1" s="57" t="s">
+      <c r="S1" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="T1" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="T1" s="58" t="s">
-        <v>126</v>
-      </c>
       <c r="U1" s="58" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="V1" s="58" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="W1" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="X1" s="58" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
-      <c r="A2" t="s">
+    <row r="2" spans="1:23" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B3" s="33">
         <v>0</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C3" s="33">
         <v>0</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D3" s="9">
         <v>1</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E3" s="9">
         <v>1</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F3" s="9">
         <v>1</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G3" s="9">
         <v>1</v>
       </c>
-      <c r="H2" s="14">
-        <v>2000000</v>
-      </c>
-      <c r="I2">
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3">
         <v>0.5</v>
       </c>
-      <c r="J2" s="8">
+      <c r="K3" s="8">
         <v>0.01</v>
       </c>
-      <c r="K2" s="14">
+      <c r="L3" s="14">
         <v>1000</v>
       </c>
-      <c r="L2" s="9">
+      <c r="M3" s="9">
         <v>0.01</v>
       </c>
-      <c r="M2" s="9">
+      <c r="N3" s="9">
         <v>0.01</v>
       </c>
-      <c r="N2" s="9">
+      <c r="O3" s="9">
         <v>5</v>
       </c>
-      <c r="O2" s="51">
+      <c r="P3" s="51">
         <v>0.5</v>
       </c>
-      <c r="P2" s="14">
+      <c r="Q3" s="14">
         <v>20</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="R3" s="9">
         <v>10</v>
       </c>
-      <c r="R2" s="9">
+      <c r="S3" s="9">
         <v>10</v>
       </c>
-      <c r="S2" s="13">
+      <c r="T3" s="13">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="T2" s="9">
+      <c r="U3" s="9">
+        <v>2</v>
+      </c>
+      <c r="V3" s="9">
         <v>1</v>
       </c>
-      <c r="U2" s="9">
+      <c r="W3" s="9">
         <v>1</v>
       </c>
-      <c r="V2" s="9">
-        <v>2</v>
-      </c>
-      <c r="W2" s="9">
-        <v>1</v>
-      </c>
-      <c r="X2" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="S3" s="13"/>
-    </row>
-    <row r="4" spans="1:24">
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>175</v>
+      </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="N4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="T4" s="13"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
-      <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="61" t="s">
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="69" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="61" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="11" t="s">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="56" t="s">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="56" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="59" t="s">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="59" t="s">
         <v>169</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7078,16 +7240,16 @@
       <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:150" s="5" customFormat="1" ht="64" customHeight="1">
+    <row r="1" spans="1:150" s="5" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -7539,7 +7701,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:150">
+    <row r="7" spans="1:150" x14ac:dyDescent="0.25">
       <c r="T7" s="37" t="s">
         <v>164</v>
       </c>
@@ -7559,19 +7721,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>171</v>
       </c>
@@ -7579,7 +7743,7 @@
         <v>6211.2916123429659</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>172</v>
       </c>

--- a/Model/Data/import.xlsx
+++ b/Model/Data/import.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\thayerfs\f0020gy\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26265" windowHeight="11535" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26260" windowHeight="15700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="LA" sheetId="1" r:id="rId1"/>
     <sheet name="Boulder" sheetId="4" r:id="rId2"/>
-    <sheet name="Sydney (incomplete)" sheetId="5" r:id="rId3"/>
+    <sheet name="Sydney" sheetId="5" r:id="rId3"/>
     <sheet name="sensitivity" sheetId="3" r:id="rId4"/>
     <sheet name="all_variables" sheetId="2" r:id="rId5"/>
     <sheet name="Demand Charge" sheetId="6" r:id="rId6"/>
@@ -34,7 +29,7 @@
     <author>Nick Laws</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -182,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -209,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -263,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -290,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -318,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="W1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -345,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -369,7 +364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -393,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -444,7 +439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -486,7 +481,7 @@
     <author>Nick Laws</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -510,7 +505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -534,7 +529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -558,7 +553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -658,7 +653,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -685,7 +680,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -711,7 +706,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -739,7 +734,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -766,7 +761,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -794,7 +789,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="W1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -821,7 +816,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -845,7 +840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -869,7 +864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -896,31 +891,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Laws:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LA value</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -962,7 +933,31 @@
     <author>Nick Laws</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+table 1 of 2014-Residential-Electricity-Price-Trends-Report. Representative value for NSW is ~29 AUS cents/kWh. Converted to USD with 1.4 AUD = 1 USD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -997,7 +992,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1021,7 +1016,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1041,11 +1036,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-see spreadsheet "FCI and LOCE forecasts Boulder"</t>
+see spreadsheet "FCI and LOCE forecasts Sydney"</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1145,7 +1140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1172,7 +1167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1198,7 +1193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1226,7 +1221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1253,7 +1248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1281,7 +1276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="W1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1308,7 +1303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1332,7 +1327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1356,7 +1351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1383,31 +1378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Laws:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LA value</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1449,7 +1420,207 @@
     <author>Nick Laws</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+(graphical s-curve) 
+function of (customers_with_PV+defectors)
+/ (total_households+1)
+This function slows the rate of solar adoption as the ratio of </t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>homes with PV</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (including defectors) to</t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> total homes</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> approaches  the ratio of </t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>owner occupied homes</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> to </t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>total homes</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>. This limit on the number of homes with PV is placed in the model under the assumption that renters and landlords are unlikely to install PV systems on rental units.
+LA has ~50% rental fraction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+(graphical s-curve) 
+function of (customers_with_PV+defectors)
+/ (total_households+1)
+This function slows the rate of solar adoption as the ratio of </t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>homes with PV</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (including defectors) to</t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> total homes</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> approaches  the ratio of </t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>owner occupied homes</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> to </t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>total homes</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>. This limit on the number of homes with PV is placed in the model under the assumption that renters and landlords are unlikely to install PV systems on rental units.
+LA has ~50% rental fraction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1478,7 +1649,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="172">
   <si>
     <t>population growth rate</t>
   </si>
@@ -1948,12 +2119,6 @@
     <t>check applicability to other locations</t>
   </si>
   <si>
-    <t>project lifetime NPV</t>
-  </si>
-  <si>
-    <t>scale factor B house attractiveness</t>
-  </si>
-  <si>
     <t>util fixed cost growth rate % per year</t>
   </si>
   <si>
@@ -1975,9 +2140,6 @@
     <t>Note: this is a one time export. Some variable names have changed (for clarity)</t>
   </si>
   <si>
-    <t>default value:</t>
-  </si>
-  <si>
     <t>NPV</t>
   </si>
   <si>
@@ -1987,9 +2149,6 @@
     <t>Bass flows</t>
   </si>
   <si>
-    <t>New homes</t>
-  </si>
-  <si>
     <t>direct PV use</t>
   </si>
   <si>
@@ -1999,28 +2158,24 @@
     <t>Boulder</t>
   </si>
   <si>
-    <t>blue text is values to vary in sensitivity analyses</t>
-  </si>
-  <si>
-    <t>option 1</t>
-  </si>
-  <si>
-    <t>option 2</t>
-  </si>
-  <si>
     <t>default values in Bold</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>(estimated)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2095,13 +2250,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
@@ -2114,6 +2262,32 @@
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2164,7 +2338,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="93">
+  <cellStyleXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2258,8 +2432,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2287,7 +2473,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2371,7 +2556,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2383,39 +2567,52 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="89" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="89" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="93">
+  <cellStyles count="105">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2506,6 +2703,18 @@
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="89" builtinId="5"/>
@@ -2845,251 +3054,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z38"/>
+  <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="9" max="9" width="11.875" customWidth="1"/>
-    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="49"/>
-    <col min="17" max="17" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="48"/>
+    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="10.875" style="36"/>
-    <col min="26" max="26" width="15.375" customWidth="1"/>
-    <col min="49" max="49" width="14.625" customWidth="1"/>
-    <col min="108" max="108" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="11" style="35"/>
+    <col min="26" max="26" width="15.33203125" customWidth="1"/>
+    <col min="49" max="49" width="14.6640625" customWidth="1"/>
+    <col min="108" max="108" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="122" max="122" width="15" customWidth="1"/>
-    <col min="132" max="132" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="143" max="144" width="13.375" customWidth="1"/>
-    <col min="146" max="146" width="13.625" customWidth="1"/>
+    <col min="132" max="132" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="143" max="144" width="13.33203125" customWidth="1"/>
+    <col min="146" max="146" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="15" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:27" s="14" customFormat="1" ht="64" customHeight="1">
+      <c r="B1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="H1" s="15" t="s">
+      <c r="G1" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="T1" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="U1" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="X1" s="52" t="s">
+      <c r="X1" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="Y1" s="52" t="s">
+      <c r="Y1" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="14" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="AA1" s="50" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="32" customFormat="1">
+      <c r="A2" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="33">
         <v>3361031</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="21">
         <v>14344</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="32">
         <v>1</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>2000000</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="21">
         <v>16648</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="21">
         <v>12469</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="34">
         <v>0.20899999999999999</v>
       </c>
       <c r="I2" s="10">
         <v>0.11799999999999999</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="23">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K2" s="47">
+      <c r="K2" s="46">
         <v>21105</v>
       </c>
-      <c r="L2" s="47">
+      <c r="L2" s="46">
         <v>63599.92</v>
       </c>
-      <c r="M2" s="47">
+      <c r="M2" s="46">
         <v>83016.52</v>
       </c>
-      <c r="N2" s="18">
-        <v>300</v>
-      </c>
-      <c r="O2" s="19">
-        <v>100</v>
-      </c>
-      <c r="P2" s="19">
-        <v>400</v>
-      </c>
-      <c r="Q2" s="29">
+      <c r="N2" s="17">
+        <v>300</v>
+      </c>
+      <c r="O2" s="18">
+        <v>100</v>
+      </c>
+      <c r="P2" s="18">
+        <v>400</v>
+      </c>
+      <c r="Q2" s="28">
         <v>1</v>
       </c>
-      <c r="R2" s="36">
+      <c r="R2" s="35">
         <v>5.3900709219858204E-3</v>
       </c>
-      <c r="S2" s="24">
+      <c r="S2" s="23">
         <v>0</v>
       </c>
-      <c r="T2" s="24">
+      <c r="T2" s="23">
         <v>8.1560283687943296E-4</v>
       </c>
-      <c r="U2" s="24">
+      <c r="U2" s="23">
         <v>3.3444816053511699E-5</v>
       </c>
-      <c r="V2" s="24">
+      <c r="V2" s="23">
         <v>1E-3</v>
       </c>
-      <c r="W2" s="24">
+      <c r="W2" s="23">
         <v>6.6889632107023397E-5</v>
       </c>
-      <c r="X2" s="36">
+      <c r="X2" s="35">
         <v>0.29580000000000001</v>
       </c>
-      <c r="Y2" s="36">
+      <c r="Y2" s="35">
         <v>0.73499999999999999</v>
       </c>
-      <c r="Z2" s="38">
+      <c r="Z2" s="37">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA2" s="58">
+        <v>6211.2916123429659</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" s="9" customFormat="1">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="14"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="10"/>
-      <c r="J3" s="25">
+      <c r="J3" s="24">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K3" s="48">
+      <c r="K3" s="47">
         <v>19295</v>
       </c>
-      <c r="L3" s="48">
+      <c r="L3" s="47">
         <v>57051.68</v>
       </c>
-      <c r="M3" s="48">
+      <c r="M3" s="47">
         <v>74803.079999999987</v>
       </c>
-      <c r="N3" s="19">
-        <v>300</v>
-      </c>
-      <c r="O3" s="14">
-        <v>100</v>
-      </c>
-      <c r="P3" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q3" s="30">
+      <c r="N3" s="18">
+        <v>300</v>
+      </c>
+      <c r="O3" s="13">
+        <v>100</v>
+      </c>
+      <c r="P3" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q3" s="29">
         <v>1</v>
       </c>
       <c r="R3" s="10">
         <v>8.6879432624113496E-3</v>
       </c>
-      <c r="S3" s="25">
+      <c r="S3" s="24">
         <v>5.0167224080267597E-4</v>
       </c>
-      <c r="T3" s="25">
+      <c r="T3" s="24">
         <v>1.3829787234042601E-3</v>
       </c>
-      <c r="U3" s="25">
+      <c r="U3" s="24">
         <v>3.3444816053511699E-4</v>
       </c>
-      <c r="V3" s="25">
+      <c r="V3" s="24">
         <v>1.4886731391585801E-3</v>
       </c>
-      <c r="W3" s="25">
+      <c r="W3" s="24">
         <v>2.6755852842809402E-4</v>
       </c>
-      <c r="X3" s="53">
+      <c r="X3" s="51">
         <v>0.28089999999999998</v>
       </c>
-      <c r="Y3" s="53">
+      <c r="Y3" s="51">
         <v>0.66200000000000003</v>
       </c>
-      <c r="Z3" s="39">
+      <c r="Z3" s="38">
         <v>1.12380952380952</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="9" customFormat="1">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -3098,59 +3313,59 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="8"/>
-      <c r="J4" s="26">
+      <c r="J4" s="25">
         <v>5.8842443729903498E-3</v>
       </c>
-      <c r="K4" s="49">
+      <c r="K4" s="48">
         <v>18755</v>
       </c>
-      <c r="L4" s="49">
+      <c r="L4" s="48">
         <v>53205.52</v>
       </c>
-      <c r="M4" s="49">
+      <c r="M4" s="48">
         <v>70460.12</v>
       </c>
-      <c r="N4" s="20">
-        <v>300</v>
-      </c>
-      <c r="O4" s="14">
-        <v>100</v>
-      </c>
-      <c r="P4" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q4" s="31">
+      <c r="N4" s="19">
+        <v>300</v>
+      </c>
+      <c r="O4" s="13">
+        <v>100</v>
+      </c>
+      <c r="P4" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q4" s="30">
         <v>1</v>
       </c>
       <c r="R4" s="10">
         <v>1.0638297872340399E-2</v>
       </c>
-      <c r="S4" s="26">
+      <c r="S4" s="25">
         <v>9.6989966555183996E-4</v>
       </c>
-      <c r="T4" s="26">
+      <c r="T4" s="25">
         <v>1.70212765957447E-3</v>
       </c>
-      <c r="U4" s="26">
+      <c r="U4" s="25">
         <v>7.6923076923076901E-4</v>
       </c>
-      <c r="V4" s="26">
+      <c r="V4" s="25">
         <v>1.94174757281553E-3</v>
       </c>
-      <c r="W4" s="26">
+      <c r="W4" s="25">
         <v>5.6856187290969904E-4</v>
       </c>
-      <c r="X4" s="53">
+      <c r="X4" s="51">
         <v>0.22259999999999999</v>
       </c>
-      <c r="Y4" s="54">
+      <c r="Y4" s="52">
         <v>0.65</v>
       </c>
-      <c r="Z4" s="40">
+      <c r="Z4" s="39">
         <v>1.2253968253968299</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="9" customFormat="1">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -3159,59 +3374,59 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="8"/>
-      <c r="J5" s="26">
+      <c r="J5" s="25">
         <v>5.8070739549839203E-3</v>
       </c>
-      <c r="K5" s="49">
+      <c r="K5" s="48">
         <v>17580</v>
       </c>
-      <c r="L5" s="49">
+      <c r="L5" s="48">
         <v>49958.32</v>
       </c>
-      <c r="M5" s="49">
+      <c r="M5" s="48">
         <v>66131.920000000013</v>
       </c>
-      <c r="N5" s="20">
-        <v>300</v>
-      </c>
-      <c r="O5" s="14">
-        <v>100</v>
-      </c>
-      <c r="P5" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q5" s="31">
+      <c r="N5" s="19">
+        <v>300</v>
+      </c>
+      <c r="O5" s="13">
+        <v>100</v>
+      </c>
+      <c r="P5" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q5" s="30">
         <v>0.98936170212765995</v>
       </c>
       <c r="R5" s="10">
         <v>1.24113475177305E-2</v>
       </c>
-      <c r="S5" s="26">
+      <c r="S5" s="25">
         <v>1.3712374581939799E-3</v>
       </c>
-      <c r="T5" s="26">
+      <c r="T5" s="25">
         <v>1.87943262411348E-3</v>
       </c>
-      <c r="U5" s="26">
+      <c r="U5" s="25">
         <v>1.10367892976589E-3</v>
       </c>
-      <c r="V5" s="26">
+      <c r="V5" s="25">
         <v>2.2330097087378598E-3</v>
       </c>
-      <c r="W5" s="26">
+      <c r="W5" s="25">
         <v>9.3645484949832799E-4</v>
       </c>
-      <c r="X5" s="53">
+      <c r="X5" s="51">
         <v>0.20979999999999999</v>
       </c>
-      <c r="Y5" s="54">
+      <c r="Y5" s="52">
         <v>0.64</v>
       </c>
-      <c r="Z5" s="40">
+      <c r="Z5" s="39">
         <v>1.35238095238095</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
@@ -3220,1122 +3435,1122 @@
       <c r="G6" s="2"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="27">
+      <c r="J6" s="26">
         <v>5.6141479099678501E-3</v>
       </c>
-      <c r="K6" s="49">
+      <c r="K6" s="48">
         <v>16765</v>
       </c>
-      <c r="L6" s="49">
+      <c r="L6" s="48">
         <v>47108.56</v>
       </c>
-      <c r="M6" s="49">
+      <c r="M6" s="48">
         <v>62532.36</v>
       </c>
-      <c r="N6" s="21">
-        <v>300</v>
-      </c>
-      <c r="O6" s="14">
-        <v>100</v>
-      </c>
-      <c r="P6" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q6" s="29">
+      <c r="N6" s="20">
+        <v>300</v>
+      </c>
+      <c r="O6" s="13">
+        <v>100</v>
+      </c>
+      <c r="P6" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q6" s="28">
         <v>0.97163120567375905</v>
       </c>
-      <c r="R6" s="23">
+      <c r="R6" s="22">
         <v>1.3829787234042599E-2</v>
       </c>
-      <c r="S6" s="27">
+      <c r="S6" s="26">
         <v>1.7391304347826101E-3</v>
       </c>
-      <c r="T6" s="27">
+      <c r="T6" s="26">
         <v>2.1985815602836899E-3</v>
       </c>
-      <c r="U6" s="27">
+      <c r="U6" s="26">
         <v>1.60535117056856E-3</v>
       </c>
-      <c r="V6" s="27">
+      <c r="V6" s="26">
         <v>2.5889967637540501E-3</v>
       </c>
-      <c r="W6" s="27">
+      <c r="W6" s="26">
         <v>1.3712374581939799E-3</v>
       </c>
-      <c r="X6" s="36">
+      <c r="X6" s="35">
         <v>0.19389999999999999</v>
       </c>
-      <c r="Y6" s="55">
+      <c r="Y6" s="53">
         <v>0.60899999999999999</v>
       </c>
-      <c r="Z6" s="41">
+      <c r="Z6" s="40">
         <v>1.4539682539682499</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="4" customFormat="1">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7"/>
-      <c r="F7" s="45"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="28">
+      <c r="J7" s="27">
         <v>5.3440514469453399E-3</v>
       </c>
-      <c r="K7" s="49">
+      <c r="K7" s="48">
         <v>15770</v>
       </c>
-      <c r="L7" s="49">
+      <c r="L7" s="48">
         <v>44255.08</v>
       </c>
-      <c r="M7" s="49">
+      <c r="M7" s="48">
         <v>58763.48</v>
       </c>
-      <c r="N7" s="22">
-        <v>300</v>
-      </c>
-      <c r="O7" s="14">
-        <v>100</v>
-      </c>
-      <c r="P7" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q7" s="29">
+      <c r="N7" s="21">
+        <v>300</v>
+      </c>
+      <c r="O7" s="13">
+        <v>100</v>
+      </c>
+      <c r="P7" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q7" s="28">
         <v>0.95390070921985803</v>
       </c>
-      <c r="R7" s="23">
+      <c r="R7" s="22">
         <v>1.5957446808510599E-2</v>
       </c>
-      <c r="S7" s="28">
+      <c r="S7" s="27">
         <v>2.10702341137124E-3</v>
       </c>
-      <c r="T7" s="28">
+      <c r="T7" s="27">
         <v>2.5177304964538998E-3</v>
       </c>
-      <c r="U7" s="28">
+      <c r="U7" s="27">
         <v>2.0066889632107E-3</v>
       </c>
-      <c r="V7" s="28">
+      <c r="V7" s="27">
         <v>2.8478964401294502E-3</v>
       </c>
-      <c r="W7" s="28">
+      <c r="W7" s="27">
         <v>1.7725752508361201E-3</v>
       </c>
-      <c r="X7" s="36">
+      <c r="X7" s="35">
         <v>0.18640000000000001</v>
       </c>
-      <c r="Y7" s="35">
+      <c r="Y7" s="34">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Z7" s="42">
+      <c r="Z7" s="41">
         <v>1.5492063492063499</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="J8" s="24">
+    <row r="8" spans="1:27">
+      <c r="J8" s="23">
         <v>5.0739549839228298E-3</v>
       </c>
-      <c r="K8" s="49">
+      <c r="K8" s="48">
         <v>15140</v>
       </c>
-      <c r="L8" s="49">
+      <c r="L8" s="48">
         <v>42064.56</v>
       </c>
-      <c r="M8" s="49">
+      <c r="M8" s="48">
         <v>55993.36</v>
       </c>
-      <c r="N8" s="18">
-        <v>300</v>
-      </c>
-      <c r="O8" s="14">
-        <v>100</v>
-      </c>
-      <c r="P8" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q8" s="29">
+      <c r="N8" s="17">
+        <v>300</v>
+      </c>
+      <c r="O8" s="13">
+        <v>100</v>
+      </c>
+      <c r="P8" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q8" s="28">
         <v>0.91843971631205701</v>
       </c>
-      <c r="R8" s="23">
+      <c r="R8" s="22">
         <v>1.89716312056738E-2</v>
       </c>
-      <c r="S8" s="24">
+      <c r="S8" s="23">
         <v>2.4414715719063501E-3</v>
       </c>
-      <c r="T8" s="24">
+      <c r="T8" s="23">
         <v>2.9432624113475202E-3</v>
       </c>
-      <c r="U8" s="24">
+      <c r="U8" s="23">
         <v>2.5083612040133802E-3</v>
       </c>
-      <c r="V8" s="24">
+      <c r="V8" s="23">
         <v>3.20388349514563E-3</v>
       </c>
-      <c r="W8" s="24">
+      <c r="W8" s="23">
         <v>2.2408026755852801E-3</v>
       </c>
-      <c r="X8" s="36">
+      <c r="X8" s="35">
         <v>0.1799</v>
       </c>
-      <c r="Y8" s="36">
+      <c r="Y8" s="35">
         <v>0.54500000000000004</v>
       </c>
-      <c r="Z8" s="38">
+      <c r="Z8" s="37">
         <v>1.6317460317460299</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27">
       <c r="A9" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="23">
         <v>4.6881028938906798E-3</v>
       </c>
-      <c r="K9" s="49">
+      <c r="K9" s="48">
         <v>14595</v>
       </c>
-      <c r="L9" s="49">
+      <c r="L9" s="48">
         <v>39902.880000000005</v>
       </c>
-      <c r="M9" s="49">
+      <c r="M9" s="48">
         <v>53330.280000000006</v>
       </c>
-      <c r="N9" s="18">
-        <v>300</v>
-      </c>
-      <c r="O9" s="14">
-        <v>100</v>
-      </c>
-      <c r="P9" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q9" s="29">
+      <c r="N9" s="17">
+        <v>300</v>
+      </c>
+      <c r="O9" s="13">
+        <v>100</v>
+      </c>
+      <c r="P9" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q9" s="28">
         <v>0.879432624113475</v>
       </c>
-      <c r="R9" s="23">
+      <c r="R9" s="22">
         <v>2.2163120567375901E-2</v>
       </c>
-      <c r="S9" s="24">
+      <c r="S9" s="23">
         <v>2.9096989966555199E-3</v>
       </c>
-      <c r="T9" s="24">
+      <c r="T9" s="23">
         <v>3.43971631205674E-3</v>
       </c>
-      <c r="U9" s="24">
+      <c r="U9" s="23">
         <v>2.9765886287625399E-3</v>
       </c>
-      <c r="V9" s="24">
+      <c r="V9" s="23">
         <v>3.5922330097087401E-3</v>
       </c>
-      <c r="W9" s="24">
+      <c r="W9" s="23">
         <v>2.7090301003344498E-3</v>
       </c>
-      <c r="X9" s="36">
+      <c r="X9" s="35">
         <v>0.17349999999999999</v>
       </c>
-      <c r="Y9" s="36">
+      <c r="Y9" s="35">
         <v>0.505</v>
       </c>
-      <c r="Z9" s="38">
+      <c r="Z9" s="37">
         <v>1.6952380952381001</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="J10" s="24">
+    <row r="10" spans="1:27">
+      <c r="J10" s="23">
         <v>4.1093247588424404E-3</v>
       </c>
-      <c r="K10" s="49">
+      <c r="K10" s="48">
         <v>14055</v>
       </c>
-      <c r="L10" s="49">
+      <c r="L10" s="48">
         <v>37681.72</v>
       </c>
-      <c r="M10" s="49">
+      <c r="M10" s="48">
         <v>50612.32</v>
       </c>
-      <c r="N10" s="18">
-        <v>300</v>
-      </c>
-      <c r="O10" s="14">
-        <v>100</v>
-      </c>
-      <c r="P10" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q10" s="29">
+      <c r="N10" s="17">
+        <v>300</v>
+      </c>
+      <c r="O10" s="13">
+        <v>100</v>
+      </c>
+      <c r="P10" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q10" s="28">
         <v>0.83333333333333304</v>
       </c>
-      <c r="R10" s="23">
+      <c r="R10" s="22">
         <v>2.4468085106383E-2</v>
       </c>
-      <c r="S10" s="24">
+      <c r="S10" s="23">
         <v>3.24414715719064E-3</v>
       </c>
-      <c r="T10" s="24">
+      <c r="T10" s="23">
         <v>4.1134751773049599E-3</v>
       </c>
-      <c r="U10" s="24">
+      <c r="U10" s="23">
         <v>3.3779264214046801E-3</v>
       </c>
-      <c r="V10" s="24">
+      <c r="V10" s="23">
         <v>4.1100323624595498E-3</v>
       </c>
-      <c r="W10" s="24">
+      <c r="W10" s="23">
         <v>3.17725752508361E-3</v>
       </c>
-      <c r="X10" s="36">
+      <c r="X10" s="35">
         <v>0.16489999999999999</v>
       </c>
-      <c r="Y10" s="36">
+      <c r="Y10" s="35">
         <v>0.48499999999999999</v>
       </c>
-      <c r="Z10" s="38">
+      <c r="Z10" s="37">
         <v>1.7904761904761901</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="J11" s="24">
+    <row r="11" spans="1:27">
+      <c r="J11" s="23">
         <v>3.6077170418006401E-3</v>
       </c>
-      <c r="K11" s="49">
+      <c r="K11" s="48">
         <v>13330</v>
       </c>
-      <c r="L11" s="49">
+      <c r="L11" s="48">
         <v>35841.32</v>
       </c>
-      <c r="M11" s="49">
+      <c r="M11" s="48">
         <v>48104.92</v>
       </c>
-      <c r="N11" s="18">
-        <v>300</v>
-      </c>
-      <c r="O11" s="14">
-        <v>100</v>
-      </c>
-      <c r="P11" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q11" s="29">
+      <c r="N11" s="17">
+        <v>300</v>
+      </c>
+      <c r="O11" s="13">
+        <v>100</v>
+      </c>
+      <c r="P11" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q11" s="28">
         <v>0.78723404255319196</v>
       </c>
-      <c r="R11" s="23">
+      <c r="R11" s="22">
         <v>2.73049645390071E-2</v>
       </c>
-      <c r="S11" s="24">
+      <c r="S11" s="23">
         <v>3.5785953177257502E-3</v>
       </c>
-      <c r="T11" s="24">
+      <c r="T11" s="23">
         <v>4.4680851063829798E-3</v>
       </c>
-      <c r="U11" s="24">
+      <c r="U11" s="23">
         <v>3.7792642140468198E-3</v>
       </c>
-      <c r="V11" s="24">
+      <c r="V11" s="23">
         <v>4.6601941747572801E-3</v>
       </c>
-      <c r="W11" s="24">
+      <c r="W11" s="23">
         <v>3.6454849498327802E-3</v>
       </c>
-      <c r="X11" s="36">
+      <c r="X11" s="35">
         <v>0.16159999999999999</v>
       </c>
-      <c r="Y11" s="36">
+      <c r="Y11" s="35">
         <v>0.45900000000000002</v>
       </c>
-      <c r="Z11" s="38">
+      <c r="Z11" s="37">
         <v>1.89206349206349</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="J12" s="24">
+    <row r="12" spans="1:27">
+      <c r="J12" s="23">
         <v>2.9710610932475899E-3</v>
       </c>
-      <c r="K12" s="49">
+      <c r="K12" s="48">
         <v>13060</v>
       </c>
-      <c r="L12" s="49">
+      <c r="L12" s="48">
         <v>34568.240000000005</v>
       </c>
-      <c r="M12" s="49">
+      <c r="M12" s="48">
         <v>46583.44</v>
       </c>
-      <c r="N12" s="18">
-        <v>300</v>
-      </c>
-      <c r="O12" s="14">
-        <v>100</v>
-      </c>
-      <c r="P12" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q12" s="29">
+      <c r="N12" s="17">
+        <v>300</v>
+      </c>
+      <c r="O12" s="13">
+        <v>100</v>
+      </c>
+      <c r="P12" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q12" s="28">
         <v>0.70567375886524797</v>
       </c>
-      <c r="R12" s="23">
+      <c r="R12" s="22">
         <v>3.0496453900709201E-2</v>
       </c>
-      <c r="S12" s="24">
+      <c r="S12" s="23">
         <v>4.0133779264214103E-3</v>
       </c>
-      <c r="T12" s="24">
+      <c r="T12" s="23">
         <v>5.1063829787233997E-3</v>
       </c>
-      <c r="U12" s="24">
+      <c r="U12" s="23">
         <v>4.2809364548495E-3</v>
       </c>
-      <c r="V12" s="24">
+      <c r="V12" s="23">
         <v>5.2427184466019398E-3</v>
       </c>
-      <c r="W12" s="24">
+      <c r="W12" s="23">
         <v>4.0802675585284304E-3</v>
       </c>
-      <c r="X12" s="36">
+      <c r="X12" s="35">
         <v>0.15740000000000001</v>
       </c>
-      <c r="Y12" s="36">
+      <c r="Y12" s="35">
         <v>0.44400000000000001</v>
       </c>
-      <c r="Z12" s="38">
+      <c r="Z12" s="37">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="K13" s="49">
+    <row r="13" spans="1:27">
+      <c r="K13" s="48">
         <v>12700</v>
       </c>
-      <c r="L13" s="49">
+      <c r="L13" s="48">
         <v>32870.800000000003</v>
       </c>
-      <c r="M13" s="49">
+      <c r="M13" s="48">
         <v>44554.8</v>
       </c>
-      <c r="N13" s="18">
-        <v>300</v>
-      </c>
-      <c r="O13" s="14">
-        <v>100</v>
-      </c>
-      <c r="P13" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q13" s="29">
+      <c r="N13" s="17">
+        <v>300</v>
+      </c>
+      <c r="O13" s="13">
+        <v>100</v>
+      </c>
+      <c r="P13" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q13" s="28">
         <v>0.62411347517730498</v>
       </c>
-      <c r="R13" s="23">
+      <c r="R13" s="22">
         <v>3.2269503546099303E-2</v>
       </c>
-      <c r="X13" s="36">
+      <c r="X13" s="35">
         <v>0.152</v>
       </c>
-      <c r="Y13" s="36">
+      <c r="Y13" s="35">
         <v>0.42399999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27">
       <c r="A14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="F14" s="12"/>
-      <c r="K14" s="49">
+      <c r="K14" s="48">
         <v>12245</v>
       </c>
-      <c r="L14" s="49">
+      <c r="L14" s="48">
         <v>31068.48</v>
       </c>
-      <c r="M14" s="49">
+      <c r="M14" s="48">
         <v>42333.88</v>
       </c>
-      <c r="N14" s="18">
-        <v>300</v>
-      </c>
-      <c r="O14" s="14">
-        <v>100</v>
-      </c>
-      <c r="P14" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q14" s="29">
+      <c r="N14" s="17">
+        <v>300</v>
+      </c>
+      <c r="O14" s="13">
+        <v>100</v>
+      </c>
+      <c r="P14" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q14" s="28">
         <v>0.46099290780141799</v>
       </c>
-      <c r="R14" s="23">
+      <c r="R14" s="22">
         <v>3.5106382978723399E-2</v>
       </c>
-      <c r="X14" s="36">
+      <c r="X14" s="35">
         <v>0.153</v>
       </c>
-      <c r="Y14" s="36">
+      <c r="Y14" s="35">
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27">
       <c r="A15" s="12"/>
       <c r="C15" s="12"/>
       <c r="F15" s="12"/>
-      <c r="K15" s="49">
+      <c r="K15" s="48">
         <v>12335</v>
       </c>
-      <c r="L15" s="49">
+      <c r="L15" s="48">
         <v>30127.84</v>
       </c>
-      <c r="M15" s="49">
+      <c r="M15" s="48">
         <v>41476.039999999994</v>
       </c>
-      <c r="N15" s="18">
-        <v>300</v>
-      </c>
-      <c r="O15" s="14">
-        <v>100</v>
-      </c>
-      <c r="P15" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q15" s="29">
+      <c r="N15" s="17">
+        <v>300</v>
+      </c>
+      <c r="O15" s="13">
+        <v>100</v>
+      </c>
+      <c r="P15" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q15" s="28">
         <v>0.28723404255319201</v>
       </c>
-      <c r="R15" s="23">
+      <c r="R15" s="22">
         <v>3.7411347517730502E-2</v>
       </c>
-      <c r="X15" s="36">
+      <c r="X15" s="35">
         <v>0.152</v>
       </c>
-      <c r="Y15" s="36">
+      <c r="Y15" s="35">
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="K16" s="49">
+    <row r="16" spans="1:27">
+      <c r="K16" s="48">
         <v>12245</v>
       </c>
-      <c r="L16" s="49">
+      <c r="L16" s="48">
         <v>29313.48</v>
       </c>
-      <c r="M16" s="49">
+      <c r="M16" s="48">
         <v>40578.879999999997</v>
       </c>
-      <c r="N16" s="18">
-        <v>300</v>
-      </c>
-      <c r="O16" s="14">
-        <v>100</v>
-      </c>
-      <c r="P16" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q16" s="29">
+      <c r="N16" s="17">
+        <v>300</v>
+      </c>
+      <c r="O16" s="13">
+        <v>100</v>
+      </c>
+      <c r="P16" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q16" s="28">
         <v>0.184397163120567</v>
       </c>
-      <c r="R16" s="23">
+      <c r="R16" s="22">
         <v>3.9716312056737597E-2</v>
       </c>
-      <c r="X16" s="36">
+      <c r="X16" s="35">
         <v>0.15090000000000001</v>
       </c>
-      <c r="Y16" s="36">
+      <c r="Y16" s="35">
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="17" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K17" s="49">
+    <row r="17" spans="11:25">
+      <c r="K17" s="48">
         <v>12155</v>
       </c>
-      <c r="L17" s="49">
+      <c r="L17" s="48">
         <v>28434.120000000003</v>
       </c>
-      <c r="M17" s="49">
+      <c r="M17" s="48">
         <v>39616.720000000001</v>
       </c>
-      <c r="N17" s="18">
-        <v>300</v>
-      </c>
-      <c r="O17" s="14">
-        <v>100</v>
-      </c>
-      <c r="P17" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q17" s="29">
+      <c r="N17" s="17">
+        <v>300</v>
+      </c>
+      <c r="O17" s="13">
+        <v>100</v>
+      </c>
+      <c r="P17" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q17" s="28">
         <v>8.5106382978723402E-2</v>
       </c>
-      <c r="R17" s="23">
+      <c r="R17" s="22">
         <v>4.3262411347517703E-2</v>
       </c>
-      <c r="X17" s="36">
+      <c r="X17" s="35">
         <v>0.14979999999999999</v>
       </c>
-      <c r="Y17" s="36">
+      <c r="Y17" s="35">
         <v>0.379</v>
       </c>
     </row>
-    <row r="18" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K18" s="49">
+    <row r="18" spans="11:25">
+      <c r="K18" s="48">
         <v>12065</v>
       </c>
-      <c r="L18" s="49">
+      <c r="L18" s="48">
         <v>27814.760000000002</v>
       </c>
-      <c r="M18" s="49">
+      <c r="M18" s="48">
         <v>38914.560000000005</v>
       </c>
-      <c r="N18" s="18">
-        <v>300</v>
-      </c>
-      <c r="O18" s="14">
-        <v>100</v>
-      </c>
-      <c r="P18" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q18" s="29">
+      <c r="N18" s="17">
+        <v>300</v>
+      </c>
+      <c r="O18" s="13">
+        <v>100</v>
+      </c>
+      <c r="P18" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q18" s="28">
         <v>4.2553191489361701E-2</v>
       </c>
-      <c r="R18" s="23">
+      <c r="R18" s="22">
         <v>4.4858156028368797E-2</v>
       </c>
-      <c r="X18" s="36">
+      <c r="X18" s="35">
         <v>0.1487</v>
       </c>
-      <c r="Y18" s="36">
+      <c r="Y18" s="35">
         <v>0.379</v>
       </c>
     </row>
-    <row r="19" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K19" s="49">
+    <row r="19" spans="11:25">
+      <c r="K19" s="48">
         <v>11975</v>
       </c>
-      <c r="L19" s="49">
+      <c r="L19" s="48">
         <v>27585.4</v>
       </c>
-      <c r="M19" s="49">
+      <c r="M19" s="48">
         <v>38602.400000000001</v>
       </c>
-      <c r="N19" s="18">
-        <v>300</v>
-      </c>
-      <c r="O19" s="14">
-        <v>100</v>
-      </c>
-      <c r="P19" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q19" s="29">
+      <c r="N19" s="17">
+        <v>300</v>
+      </c>
+      <c r="O19" s="13">
+        <v>100</v>
+      </c>
+      <c r="P19" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q19" s="28">
         <v>2.1276595744680899E-2</v>
       </c>
-      <c r="R19" s="23">
+      <c r="R19" s="22">
         <v>4.6808510638297898E-2</v>
       </c>
-      <c r="X19" s="36">
+      <c r="X19" s="35">
         <v>0.1479</v>
       </c>
-      <c r="Y19" s="36">
+      <c r="Y19" s="35">
         <v>0.372</v>
       </c>
     </row>
-    <row r="20" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K20" s="49">
+    <row r="20" spans="11:25">
+      <c r="K20" s="48">
         <v>11900</v>
       </c>
-      <c r="L20" s="49">
+      <c r="L20" s="48">
         <v>27437.599999999999</v>
       </c>
-      <c r="M20" s="49">
+      <c r="M20" s="48">
         <v>38385.599999999999</v>
       </c>
-      <c r="N20" s="18">
-        <v>300</v>
-      </c>
-      <c r="O20" s="14">
-        <v>100</v>
-      </c>
-      <c r="P20" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q20" s="29">
+      <c r="N20" s="17">
+        <v>300</v>
+      </c>
+      <c r="O20" s="13">
+        <v>100</v>
+      </c>
+      <c r="P20" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q20" s="28">
         <v>3.54609929078014E-3</v>
       </c>
-      <c r="R20" s="23">
+      <c r="R20" s="22">
         <v>4.8936170212766E-2</v>
       </c>
-      <c r="X20" s="36">
+      <c r="X20" s="35">
         <v>0.14660000000000001</v>
       </c>
-      <c r="Y20" s="36">
+      <c r="Y20" s="35">
         <v>0.371</v>
       </c>
     </row>
-    <row r="21" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K21" s="49">
+    <row r="21" spans="11:25">
+      <c r="K21" s="48">
         <v>11795</v>
       </c>
-      <c r="L21" s="49">
+      <c r="L21" s="48">
         <v>26996.68</v>
       </c>
-      <c r="M21" s="49">
+      <c r="M21" s="48">
         <v>37848.080000000002</v>
       </c>
-      <c r="N21" s="18">
-        <v>300</v>
-      </c>
-      <c r="O21" s="14">
-        <v>100</v>
-      </c>
-      <c r="P21" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q21" s="29">
+      <c r="N21" s="17">
+        <v>300</v>
+      </c>
+      <c r="O21" s="13">
+        <v>100</v>
+      </c>
+      <c r="P21" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q21" s="28">
         <v>0</v>
       </c>
-      <c r="R21" s="23">
+      <c r="R21" s="22">
         <v>0.05</v>
       </c>
-      <c r="X21" s="36">
+      <c r="X21" s="35">
         <v>0.14369999999999999</v>
       </c>
-      <c r="Y21" s="36">
+      <c r="Y21" s="35">
         <v>0.36699999999999999</v>
       </c>
     </row>
-    <row r="22" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K22" s="49">
+    <row r="22" spans="11:25">
+      <c r="K22" s="48">
         <v>11550</v>
       </c>
-      <c r="L22" s="49">
+      <c r="L22" s="48">
         <v>26531.200000000001</v>
       </c>
-      <c r="M22" s="49">
+      <c r="M22" s="48">
         <v>37157.199999999997</v>
       </c>
-      <c r="N22" s="18">
-        <v>300</v>
-      </c>
-      <c r="O22" s="14">
-        <v>100</v>
-      </c>
-      <c r="P22" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q22" s="29">
+      <c r="N22" s="17">
+        <v>300</v>
+      </c>
+      <c r="O22" s="13">
+        <v>100</v>
+      </c>
+      <c r="P22" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q22" s="28">
         <v>0</v>
       </c>
-      <c r="R22" s="23">
+      <c r="R22" s="22">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="X22" s="36">
+      <c r="X22" s="35">
         <v>0.14230000000000001</v>
       </c>
-      <c r="Y22" s="36">
+      <c r="Y22" s="35">
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="23" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K23" s="49">
+    <row r="23" spans="11:25">
+      <c r="K23" s="48">
         <v>11435</v>
       </c>
-      <c r="L23" s="49">
+      <c r="L23" s="48">
         <v>26339.239999999998</v>
       </c>
-      <c r="M23" s="49">
+      <c r="M23" s="48">
         <v>36859.439999999995</v>
       </c>
-      <c r="N23" s="18">
-        <v>300</v>
-      </c>
-      <c r="O23" s="14">
-        <v>100</v>
-      </c>
-      <c r="P23" s="14">
-        <v>400</v>
-      </c>
-      <c r="X23" s="36">
+      <c r="N23" s="17">
+        <v>300</v>
+      </c>
+      <c r="O23" s="13">
+        <v>100</v>
+      </c>
+      <c r="P23" s="13">
+        <v>400</v>
+      </c>
+      <c r="X23" s="35">
         <v>0.1419</v>
       </c>
-      <c r="Y23" s="36">
+      <c r="Y23" s="35">
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="24" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K24" s="49">
+    <row r="24" spans="11:25">
+      <c r="K24" s="48">
         <v>11400</v>
       </c>
-      <c r="L24" s="49">
+      <c r="L24" s="48">
         <v>26235.599999999999</v>
       </c>
-      <c r="M24" s="49">
+      <c r="M24" s="48">
         <v>36723.599999999999</v>
       </c>
-      <c r="N24" s="18">
-        <v>300</v>
-      </c>
-      <c r="O24" s="14">
-        <v>100</v>
-      </c>
-      <c r="P24" s="14">
-        <v>400</v>
-      </c>
-      <c r="X24" s="36">
+      <c r="N24" s="17">
+        <v>300</v>
+      </c>
+      <c r="O24" s="13">
+        <v>100</v>
+      </c>
+      <c r="P24" s="13">
+        <v>400</v>
+      </c>
+      <c r="X24" s="35">
         <v>0.14169999999999999</v>
       </c>
-      <c r="Y24" s="36">
+      <c r="Y24" s="35">
         <v>0.36099999999999999</v>
       </c>
     </row>
-    <row r="25" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K25" s="49">
+    <row r="25" spans="11:25">
+      <c r="K25" s="48">
         <v>11380</v>
       </c>
-      <c r="L25" s="49">
+      <c r="L25" s="48">
         <v>26148.52</v>
       </c>
-      <c r="M25" s="49">
+      <c r="M25" s="48">
         <v>36618.120000000003</v>
       </c>
-      <c r="N25" s="18">
-        <v>300</v>
-      </c>
-      <c r="O25" s="14">
-        <v>100</v>
-      </c>
-      <c r="P25" s="14">
-        <v>400</v>
-      </c>
-      <c r="X25" s="36">
+      <c r="N25" s="17">
+        <v>300</v>
+      </c>
+      <c r="O25" s="13">
+        <v>100</v>
+      </c>
+      <c r="P25" s="13">
+        <v>400</v>
+      </c>
+      <c r="X25" s="35">
         <v>0.1414</v>
       </c>
-      <c r="Y25" s="36">
+      <c r="Y25" s="35">
         <v>0.35899999999999999</v>
       </c>
     </row>
-    <row r="26" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K26" s="49">
+    <row r="26" spans="11:25">
+      <c r="K26" s="48">
         <v>11360</v>
       </c>
-      <c r="L26" s="49">
+      <c r="L26" s="48">
         <v>26061.440000000002</v>
       </c>
-      <c r="M26" s="49">
+      <c r="M26" s="48">
         <v>36512.639999999999</v>
       </c>
-      <c r="N26" s="18">
-        <v>300</v>
-      </c>
-      <c r="O26" s="14">
-        <v>100</v>
-      </c>
-      <c r="P26" s="14">
-        <v>400</v>
-      </c>
-      <c r="X26" s="36">
+      <c r="N26" s="17">
+        <v>300</v>
+      </c>
+      <c r="O26" s="13">
+        <v>100</v>
+      </c>
+      <c r="P26" s="13">
+        <v>400</v>
+      </c>
+      <c r="X26" s="35">
         <v>0.14119999999999999</v>
       </c>
-      <c r="Y26" s="36">
+      <c r="Y26" s="35">
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="27" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K27" s="49">
+    <row r="27" spans="11:25">
+      <c r="K27" s="48">
         <v>11340</v>
       </c>
-      <c r="L27" s="49">
+      <c r="L27" s="48">
         <v>25909.360000000001</v>
       </c>
-      <c r="M27" s="49">
+      <c r="M27" s="48">
         <v>36342.160000000003</v>
       </c>
-      <c r="N27" s="18">
-        <v>300</v>
-      </c>
-      <c r="O27" s="14">
-        <v>100</v>
-      </c>
-      <c r="P27" s="14">
-        <v>400</v>
-      </c>
-      <c r="X27" s="36">
+      <c r="N27" s="17">
+        <v>300</v>
+      </c>
+      <c r="O27" s="13">
+        <v>100</v>
+      </c>
+      <c r="P27" s="13">
+        <v>400</v>
+      </c>
+      <c r="X27" s="35">
         <v>0.14099999999999999</v>
       </c>
-      <c r="Y27" s="36">
+      <c r="Y27" s="35">
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="28" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K28" s="49">
+    <row r="28" spans="11:25">
+      <c r="K28" s="48">
         <v>11320</v>
       </c>
-      <c r="L28" s="49">
+      <c r="L28" s="48">
         <v>25757.279999999999</v>
       </c>
-      <c r="M28" s="49">
+      <c r="M28" s="48">
         <v>36171.68</v>
       </c>
-      <c r="N28" s="18">
-        <v>300</v>
-      </c>
-      <c r="O28" s="14">
-        <v>100</v>
-      </c>
-      <c r="P28" s="14">
-        <v>400</v>
-      </c>
-      <c r="X28" s="36">
+      <c r="N28" s="17">
+        <v>300</v>
+      </c>
+      <c r="O28" s="13">
+        <v>100</v>
+      </c>
+      <c r="P28" s="13">
+        <v>400</v>
+      </c>
+      <c r="X28" s="35">
         <v>0.14069999999999999</v>
       </c>
-      <c r="Y28" s="36">
+      <c r="Y28" s="35">
         <v>0.35299999999999998</v>
       </c>
     </row>
-    <row r="29" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K29" s="49">
+    <row r="29" spans="11:25">
+      <c r="K29" s="48">
         <v>11300</v>
       </c>
-      <c r="L29" s="49">
+      <c r="L29" s="48">
         <v>25540.2</v>
       </c>
-      <c r="M29" s="49">
+      <c r="M29" s="48">
         <v>35936.199999999997</v>
       </c>
-      <c r="N29" s="18">
-        <v>300</v>
-      </c>
-      <c r="O29" s="14">
-        <v>100</v>
-      </c>
-      <c r="P29" s="14">
-        <v>400</v>
-      </c>
-      <c r="X29" s="36">
+      <c r="N29" s="17">
+        <v>300</v>
+      </c>
+      <c r="O29" s="13">
+        <v>100</v>
+      </c>
+      <c r="P29" s="13">
+        <v>400</v>
+      </c>
+      <c r="X29" s="35">
         <v>0.14050000000000001</v>
       </c>
-      <c r="Y29" s="36">
+      <c r="Y29" s="35">
         <v>0.35099999999999998</v>
       </c>
     </row>
-    <row r="30" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K30" s="49">
+    <row r="30" spans="11:25">
+      <c r="K30" s="48">
         <v>11280</v>
       </c>
-      <c r="L30" s="49">
+      <c r="L30" s="48">
         <v>25453.119999999999</v>
       </c>
-      <c r="M30" s="49">
+      <c r="M30" s="48">
         <v>35830.719999999994</v>
       </c>
-      <c r="N30" s="18">
-        <v>300</v>
-      </c>
-      <c r="O30" s="14">
-        <v>100</v>
-      </c>
-      <c r="P30" s="14">
-        <v>400</v>
-      </c>
-      <c r="X30" s="36">
+      <c r="N30" s="17">
+        <v>300</v>
+      </c>
+      <c r="O30" s="13">
+        <v>100</v>
+      </c>
+      <c r="P30" s="13">
+        <v>400</v>
+      </c>
+      <c r="X30" s="35">
         <v>0.14019999999999999</v>
       </c>
-      <c r="Y30" s="36">
+      <c r="Y30" s="35">
         <v>0.35</v>
       </c>
     </row>
-    <row r="31" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K31" s="49">
+    <row r="31" spans="11:25">
+      <c r="K31" s="48">
         <v>11260</v>
       </c>
-      <c r="L31" s="49">
+      <c r="L31" s="48">
         <v>25366.04</v>
       </c>
-      <c r="M31" s="49">
+      <c r="M31" s="48">
         <v>35725.24</v>
       </c>
-      <c r="N31" s="18">
-        <v>300</v>
-      </c>
-      <c r="O31" s="14">
-        <v>100</v>
-      </c>
-      <c r="P31" s="14">
-        <v>400</v>
-      </c>
-      <c r="X31" s="36">
+      <c r="N31" s="17">
+        <v>300</v>
+      </c>
+      <c r="O31" s="13">
+        <v>100</v>
+      </c>
+      <c r="P31" s="13">
+        <v>400</v>
+      </c>
+      <c r="X31" s="35">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Y31" s="36">
+      <c r="Y31" s="35">
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="32" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K32" s="49">
+    <row r="32" spans="11:25">
+      <c r="K32" s="48">
         <v>11240</v>
       </c>
-      <c r="L32" s="49">
+      <c r="L32" s="48">
         <v>25213.96</v>
       </c>
-      <c r="M32" s="49">
+      <c r="M32" s="48">
         <v>35554.76</v>
       </c>
-      <c r="N32" s="18">
-        <v>300</v>
-      </c>
-      <c r="O32" s="14">
-        <v>100</v>
-      </c>
-      <c r="P32" s="14">
-        <v>400</v>
-      </c>
-      <c r="X32" s="36">
+      <c r="N32" s="17">
+        <v>300</v>
+      </c>
+      <c r="O32" s="13">
+        <v>100</v>
+      </c>
+      <c r="P32" s="13">
+        <v>400</v>
+      </c>
+      <c r="X32" s="35">
         <v>0.13980000000000001</v>
       </c>
-      <c r="Y32" s="36">
+      <c r="Y32" s="35">
         <v>0.34599999999999997</v>
       </c>
     </row>
-    <row r="33" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K33" s="49">
+    <row r="33" spans="11:25">
+      <c r="K33" s="48">
         <v>11220</v>
       </c>
-      <c r="L33" s="49">
+      <c r="L33" s="48">
         <v>24996.880000000001</v>
       </c>
-      <c r="M33" s="49">
+      <c r="M33" s="48">
         <v>35319.280000000006</v>
       </c>
-      <c r="N33" s="18">
-        <v>300</v>
-      </c>
-      <c r="O33" s="14">
-        <v>100</v>
-      </c>
-      <c r="P33" s="14">
-        <v>400</v>
-      </c>
-      <c r="X33" s="36">
+      <c r="N33" s="17">
+        <v>300</v>
+      </c>
+      <c r="O33" s="13">
+        <v>100</v>
+      </c>
+      <c r="P33" s="13">
+        <v>400</v>
+      </c>
+      <c r="X33" s="35">
         <v>0.13950000000000001</v>
       </c>
-      <c r="Y33" s="36">
+      <c r="Y33" s="35">
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="34" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K34" s="49">
+    <row r="34" spans="11:25">
+      <c r="K34" s="48">
         <v>11200</v>
       </c>
-      <c r="L34" s="49">
+      <c r="L34" s="48">
         <v>24844.799999999999</v>
       </c>
-      <c r="M34" s="49">
+      <c r="M34" s="48">
         <v>35148.800000000003</v>
       </c>
-      <c r="N34" s="18">
-        <v>300</v>
-      </c>
-      <c r="O34" s="14">
-        <v>100</v>
-      </c>
-      <c r="P34" s="14">
-        <v>400</v>
-      </c>
-      <c r="X34" s="36">
+      <c r="N34" s="17">
+        <v>300</v>
+      </c>
+      <c r="O34" s="13">
+        <v>100</v>
+      </c>
+      <c r="P34" s="13">
+        <v>400</v>
+      </c>
+      <c r="X34" s="35">
         <v>0.13930000000000001</v>
       </c>
-      <c r="Y34" s="36">
+      <c r="Y34" s="35">
         <v>0.34200000000000003</v>
       </c>
     </row>
-    <row r="35" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K35" s="49">
+    <row r="35" spans="11:25">
+      <c r="K35" s="48">
         <v>11180</v>
       </c>
-      <c r="L35" s="49">
+      <c r="L35" s="48">
         <v>24757.72</v>
       </c>
-      <c r="M35" s="49">
+      <c r="M35" s="48">
         <v>35043.32</v>
       </c>
-      <c r="N35" s="18">
-        <v>300</v>
-      </c>
-      <c r="O35" s="14">
-        <v>100</v>
-      </c>
-      <c r="P35" s="14">
-        <v>400</v>
-      </c>
-      <c r="X35" s="36">
+      <c r="N35" s="17">
+        <v>300</v>
+      </c>
+      <c r="O35" s="13">
+        <v>100</v>
+      </c>
+      <c r="P35" s="13">
+        <v>400</v>
+      </c>
+      <c r="X35" s="35">
         <v>0.1391</v>
       </c>
-      <c r="Y35" s="36">
+      <c r="Y35" s="35">
         <v>0.34</v>
       </c>
     </row>
-    <row r="36" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K36" s="49">
+    <row r="36" spans="11:25">
+      <c r="K36" s="48">
         <v>11160</v>
       </c>
-      <c r="L36" s="49">
+      <c r="L36" s="48">
         <v>24670.639999999999</v>
       </c>
-      <c r="M36" s="49">
+      <c r="M36" s="48">
         <v>34937.839999999997</v>
       </c>
-      <c r="N36" s="18">
-        <v>300</v>
-      </c>
-      <c r="O36" s="14">
-        <v>100</v>
-      </c>
-      <c r="P36" s="14">
-        <v>400</v>
-      </c>
-      <c r="X36" s="36">
+      <c r="N36" s="17">
+        <v>300</v>
+      </c>
+      <c r="O36" s="13">
+        <v>100</v>
+      </c>
+      <c r="P36" s="13">
+        <v>400</v>
+      </c>
+      <c r="X36" s="35">
         <v>0.13880000000000001</v>
       </c>
-      <c r="Y36" s="36">
+      <c r="Y36" s="35">
         <v>0.33900000000000002</v>
       </c>
     </row>
-    <row r="37" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K37" s="49">
+    <row r="37" spans="11:25">
+      <c r="K37" s="48">
         <v>11140</v>
       </c>
-      <c r="L37" s="49">
+      <c r="L37" s="48">
         <v>24583.559999999998</v>
       </c>
-      <c r="M37" s="49">
+      <c r="M37" s="48">
         <v>34832.36</v>
       </c>
-      <c r="N37" s="18">
-        <v>300</v>
-      </c>
-      <c r="O37" s="14">
-        <v>100</v>
-      </c>
-      <c r="P37" s="14">
-        <v>400</v>
-      </c>
-      <c r="X37" s="36">
+      <c r="N37" s="17">
+        <v>300</v>
+      </c>
+      <c r="O37" s="13">
+        <v>100</v>
+      </c>
+      <c r="P37" s="13">
+        <v>400</v>
+      </c>
+      <c r="X37" s="35">
         <v>0.1386</v>
       </c>
-      <c r="Y37" s="36">
+      <c r="Y37" s="35">
         <v>0.33800000000000002</v>
       </c>
     </row>
-    <row r="38" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K38" s="49">
+    <row r="38" spans="11:25">
+      <c r="K38" s="48">
         <v>11120</v>
       </c>
-      <c r="L38" s="49">
+      <c r="L38" s="48">
         <v>24496.48</v>
       </c>
-      <c r="M38" s="49">
+      <c r="M38" s="48">
         <v>34726.879999999997</v>
       </c>
-      <c r="N38" s="18">
-        <v>300</v>
-      </c>
-      <c r="O38" s="14">
-        <v>100</v>
-      </c>
-      <c r="P38" s="14">
+      <c r="N38" s="17">
+        <v>300</v>
+      </c>
+      <c r="O38" s="13">
+        <v>100</v>
+      </c>
+      <c r="P38" s="13">
         <v>400</v>
       </c>
     </row>
@@ -4353,238 +4568,244 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z38"/>
+  <dimension ref="A1:AA38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.625" customWidth="1"/>
-    <col min="17" max="17" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.375" customWidth="1"/>
-    <col min="49" max="49" width="14.625" customWidth="1"/>
-    <col min="108" max="108" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.33203125" customWidth="1"/>
+    <col min="49" max="49" width="14.6640625" customWidth="1"/>
+    <col min="108" max="108" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="122" max="122" width="15" customWidth="1"/>
-    <col min="132" max="132" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="143" max="144" width="13.375" customWidth="1"/>
-    <col min="146" max="146" width="13.625" customWidth="1"/>
+    <col min="132" max="132" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="143" max="144" width="13.33203125" customWidth="1"/>
+    <col min="146" max="146" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="16" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:27" s="15" customFormat="1" ht="64" customHeight="1">
+      <c r="B1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="H1" s="16" t="s">
+      <c r="G1" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="O1" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="P1" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q1" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="R1" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="S1" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="T1" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="O1" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="P1" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q1" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="R1" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="S1" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="T1" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="U1" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="V1" s="44" t="s">
+      <c r="V1" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="W1" s="44" t="s">
+      <c r="W1" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="X1" s="44" t="s">
+      <c r="X1" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="Y1" s="44" t="s">
+      <c r="Y1" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="Z1" s="44" t="s">
+      <c r="Z1" s="43" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="AA1" s="50" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="32" customFormat="1">
+      <c r="A2" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="33">
         <v>45674</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="21">
         <v>1674</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="32">
         <v>1</v>
       </c>
-      <c r="E2" s="14">
-        <v>2000000</v>
-      </c>
-      <c r="F2" s="22">
+      <c r="E2">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="21">
         <v>19721</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="21">
         <v>19202</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="34">
         <v>0.1246</v>
       </c>
       <c r="I2" s="10">
         <v>0.10100000000000001</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="23">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K2" s="50">
+      <c r="K2" s="49">
         <v>39255.300000000003</v>
       </c>
-      <c r="L2" s="50">
+      <c r="L2" s="49">
         <v>66571.504000000001</v>
       </c>
-      <c r="M2" s="50">
+      <c r="M2" s="49">
         <v>104138.40400000001</v>
       </c>
-      <c r="N2" s="18">
-        <v>300</v>
-      </c>
-      <c r="O2" s="19">
-        <v>100</v>
-      </c>
-      <c r="P2" s="19">
-        <v>400</v>
-      </c>
-      <c r="Q2" s="29">
+      <c r="N2" s="17">
+        <v>300</v>
+      </c>
+      <c r="O2" s="18">
+        <v>100</v>
+      </c>
+      <c r="P2" s="18">
+        <v>400</v>
+      </c>
+      <c r="Q2" s="28">
         <v>1</v>
       </c>
-      <c r="R2" s="36">
+      <c r="R2" s="35">
         <v>5.3900709219858204E-3</v>
       </c>
-      <c r="S2" s="24">
+      <c r="S2" s="23">
         <v>0</v>
       </c>
-      <c r="T2" s="24">
+      <c r="T2" s="23">
         <v>8.1560283687943296E-4</v>
       </c>
-      <c r="U2" s="24">
+      <c r="U2" s="23">
         <v>3.3444816053511699E-5</v>
       </c>
-      <c r="V2" s="24">
+      <c r="V2" s="23">
         <v>1E-3</v>
       </c>
-      <c r="W2" s="24">
+      <c r="W2" s="23">
         <v>6.6889632107023397E-5</v>
       </c>
-      <c r="X2" s="29">
+      <c r="X2" s="28">
         <v>0.29580000000000001</v>
       </c>
-      <c r="Y2" s="29">
+      <c r="Y2" s="28">
         <v>0.73499999999999999</v>
       </c>
-      <c r="Z2" s="38">
+      <c r="Z2" s="37">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA2" s="58">
+        <v>7007.1402678343975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" s="9" customFormat="1">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="14"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="10"/>
-      <c r="J3" s="24">
+      <c r="J3" s="23">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K3" s="48">
+      <c r="K3" s="47">
         <v>35888.700000000004</v>
       </c>
-      <c r="L3" s="48">
+      <c r="L3" s="47">
         <v>59768.415999999997</v>
       </c>
-      <c r="M3" s="48">
+      <c r="M3" s="47">
         <v>94113.516000000003</v>
       </c>
-      <c r="N3" s="19">
-        <v>300</v>
-      </c>
-      <c r="O3" s="14">
-        <v>100</v>
-      </c>
-      <c r="P3" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q3" s="30">
+      <c r="N3" s="18">
+        <v>300</v>
+      </c>
+      <c r="O3" s="13">
+        <v>100</v>
+      </c>
+      <c r="P3" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q3" s="29">
         <v>1</v>
       </c>
       <c r="R3" s="10">
         <v>8.6879432624113496E-3</v>
       </c>
-      <c r="S3" s="25">
+      <c r="S3" s="24">
         <v>5.0167224080267597E-4</v>
       </c>
-      <c r="T3" s="25">
+      <c r="T3" s="24">
         <v>1.3829787234042601E-3</v>
       </c>
-      <c r="U3" s="25">
+      <c r="U3" s="24">
         <v>3.3444816053511699E-4</v>
       </c>
-      <c r="V3" s="25">
+      <c r="V3" s="24">
         <v>1.4886731391585801E-3</v>
       </c>
-      <c r="W3" s="25">
+      <c r="W3" s="24">
         <v>2.6755852842809402E-4</v>
       </c>
       <c r="X3" s="9">
@@ -4593,11 +4814,11 @@
       <c r="Y3" s="9">
         <v>0.66200000000000003</v>
       </c>
-      <c r="Z3" s="39">
+      <c r="Z3" s="38">
         <v>1.12380952380952</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="9" customFormat="1">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -4606,46 +4827,46 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="8"/>
-      <c r="J4" s="24">
+      <c r="J4" s="23">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K4" s="48">
+      <c r="K4" s="47">
         <v>34884.300000000003</v>
       </c>
-      <c r="L4" s="48">
+      <c r="L4" s="47">
         <v>55846.224000000002</v>
       </c>
-      <c r="M4" s="48">
+      <c r="M4" s="47">
         <v>89230.124000000011</v>
       </c>
-      <c r="N4" s="20">
-        <v>300</v>
-      </c>
-      <c r="O4" s="14">
-        <v>100</v>
-      </c>
-      <c r="P4" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q4" s="31">
+      <c r="N4" s="19">
+        <v>300</v>
+      </c>
+      <c r="O4" s="13">
+        <v>100</v>
+      </c>
+      <c r="P4" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q4" s="30">
         <v>1</v>
       </c>
       <c r="R4" s="10">
         <v>1.0638297872340399E-2</v>
       </c>
-      <c r="S4" s="26">
+      <c r="S4" s="25">
         <v>9.6989966555183996E-4</v>
       </c>
-      <c r="T4" s="26">
+      <c r="T4" s="25">
         <v>1.70212765957447E-3</v>
       </c>
-      <c r="U4" s="26">
+      <c r="U4" s="25">
         <v>7.6923076923076901E-4</v>
       </c>
-      <c r="V4" s="26">
+      <c r="V4" s="25">
         <v>1.94174757281553E-3</v>
       </c>
-      <c r="W4" s="26">
+      <c r="W4" s="25">
         <v>5.6856187290969904E-4</v>
       </c>
       <c r="X4" s="9">
@@ -4654,11 +4875,11 @@
       <c r="Y4" s="8">
         <v>0.65</v>
       </c>
-      <c r="Z4" s="40">
+      <c r="Z4" s="39">
         <v>1.2253968253968299</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="9" customFormat="1">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -4667,46 +4888,46 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="8"/>
-      <c r="J5" s="24">
+      <c r="J5" s="23">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K5" s="48">
+      <c r="K5" s="47">
         <v>32698.800000000003</v>
       </c>
-      <c r="L5" s="48">
+      <c r="L5" s="47">
         <v>52433.583999999995</v>
       </c>
-      <c r="M5" s="48">
+      <c r="M5" s="47">
         <v>83725.983999999997</v>
       </c>
-      <c r="N5" s="20">
-        <v>300</v>
-      </c>
-      <c r="O5" s="14">
-        <v>100</v>
-      </c>
-      <c r="P5" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q5" s="31">
+      <c r="N5" s="19">
+        <v>300</v>
+      </c>
+      <c r="O5" s="13">
+        <v>100</v>
+      </c>
+      <c r="P5" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q5" s="30">
         <v>0.98936170212765995</v>
       </c>
       <c r="R5" s="10">
         <v>1.24113475177305E-2</v>
       </c>
-      <c r="S5" s="26">
+      <c r="S5" s="25">
         <v>1.3712374581939799E-3</v>
       </c>
-      <c r="T5" s="26">
+      <c r="T5" s="25">
         <v>1.87943262411348E-3</v>
       </c>
-      <c r="U5" s="26">
+      <c r="U5" s="25">
         <v>1.10367892976589E-3</v>
       </c>
-      <c r="V5" s="26">
+      <c r="V5" s="25">
         <v>2.2330097087378598E-3</v>
       </c>
-      <c r="W5" s="26">
+      <c r="W5" s="25">
         <v>9.3645484949832799E-4</v>
       </c>
       <c r="X5" s="9">
@@ -4715,11 +4936,11 @@
       <c r="Y5" s="8">
         <v>0.64</v>
       </c>
-      <c r="Z5" s="40">
+      <c r="Z5" s="39">
         <v>1.35238095238095</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
@@ -4728,59 +4949,59 @@
       <c r="G6" s="2"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="24">
+      <c r="J6" s="23">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K6" s="49">
+      <c r="K6" s="48">
         <v>31182.9</v>
       </c>
-      <c r="L6" s="49">
+      <c r="L6" s="48">
         <v>49469.072</v>
       </c>
-      <c r="M6" s="49">
+      <c r="M6" s="48">
         <v>79310.772000000012</v>
       </c>
-      <c r="N6" s="21">
-        <v>300</v>
-      </c>
-      <c r="O6" s="14">
-        <v>100</v>
-      </c>
-      <c r="P6" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q6" s="29">
+      <c r="N6" s="20">
+        <v>300</v>
+      </c>
+      <c r="O6" s="13">
+        <v>100</v>
+      </c>
+      <c r="P6" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q6" s="28">
         <v>0.97163120567375905</v>
       </c>
-      <c r="R6" s="23">
+      <c r="R6" s="22">
         <v>1.3829787234042599E-2</v>
       </c>
-      <c r="S6" s="27">
+      <c r="S6" s="26">
         <v>1.7391304347826101E-3</v>
       </c>
-      <c r="T6" s="27">
+      <c r="T6" s="26">
         <v>2.1985815602836899E-3</v>
       </c>
-      <c r="U6" s="27">
+      <c r="U6" s="26">
         <v>1.60535117056856E-3</v>
       </c>
-      <c r="V6" s="27">
+      <c r="V6" s="26">
         <v>2.5889967637540501E-3</v>
       </c>
-      <c r="W6" s="27">
+      <c r="W6" s="26">
         <v>1.3712374581939799E-3</v>
       </c>
       <c r="X6" s="4">
         <v>0.19389999999999999</v>
       </c>
-      <c r="Y6" s="17">
+      <c r="Y6" s="16">
         <v>0.60899999999999999</v>
       </c>
-      <c r="Z6" s="41">
+      <c r="Z6" s="40">
         <v>1.4539682539682499</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="4" customFormat="1">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -4790,46 +5011,46 @@
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="24">
+      <c r="J7" s="23">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K7" s="49">
+      <c r="K7" s="48">
         <v>29332.2</v>
       </c>
-      <c r="L7" s="49">
+      <c r="L7" s="48">
         <v>46475.495999999999</v>
       </c>
-      <c r="M7" s="49">
+      <c r="M7" s="48">
         <v>74546.09599999999</v>
       </c>
-      <c r="N7" s="22">
-        <v>300</v>
-      </c>
-      <c r="O7" s="14">
-        <v>100</v>
-      </c>
-      <c r="P7" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q7" s="29">
+      <c r="N7" s="21">
+        <v>300</v>
+      </c>
+      <c r="O7" s="13">
+        <v>100</v>
+      </c>
+      <c r="P7" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q7" s="28">
         <v>0.95390070921985803</v>
       </c>
-      <c r="R7" s="23">
+      <c r="R7" s="22">
         <v>1.5957446808510599E-2</v>
       </c>
-      <c r="S7" s="28">
+      <c r="S7" s="27">
         <v>2.10702341137124E-3</v>
       </c>
-      <c r="T7" s="28">
+      <c r="T7" s="27">
         <v>2.5177304964538998E-3</v>
       </c>
-      <c r="U7" s="28">
+      <c r="U7" s="27">
         <v>2.0066889632107E-3</v>
       </c>
-      <c r="V7" s="28">
+      <c r="V7" s="27">
         <v>2.8478964401294502E-3</v>
       </c>
-      <c r="W7" s="28">
+      <c r="W7" s="27">
         <v>1.7725752508361201E-3</v>
       </c>
       <c r="X7" s="4">
@@ -4838,51 +5059,51 @@
       <c r="Y7" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Z7" s="42">
+      <c r="Z7" s="41">
         <v>1.5492063492063499</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="J8" s="24">
+    <row r="8" spans="1:27">
+      <c r="J8" s="23">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K8" s="49">
+      <c r="K8" s="48">
         <v>28160.400000000001</v>
       </c>
-      <c r="L8" s="49">
+      <c r="L8" s="48">
         <v>44196.271999999997</v>
       </c>
-      <c r="M8" s="49">
+      <c r="M8" s="48">
         <v>71145.471999999994</v>
       </c>
-      <c r="N8" s="18">
-        <v>300</v>
-      </c>
-      <c r="O8" s="14">
-        <v>100</v>
-      </c>
-      <c r="P8" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q8" s="29">
+      <c r="N8" s="17">
+        <v>300</v>
+      </c>
+      <c r="O8" s="13">
+        <v>100</v>
+      </c>
+      <c r="P8" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q8" s="28">
         <v>0.91843971631205701</v>
       </c>
-      <c r="R8" s="23">
+      <c r="R8" s="22">
         <v>1.89716312056738E-2</v>
       </c>
-      <c r="S8" s="24">
+      <c r="S8" s="23">
         <v>2.4414715719063501E-3</v>
       </c>
-      <c r="T8" s="24">
+      <c r="T8" s="23">
         <v>2.9432624113475202E-3</v>
       </c>
-      <c r="U8" s="24">
+      <c r="U8" s="23">
         <v>2.5083612040133802E-3</v>
       </c>
-      <c r="V8" s="24">
+      <c r="V8" s="23">
         <v>3.20388349514563E-3</v>
       </c>
-      <c r="W8" s="24">
+      <c r="W8" s="23">
         <v>2.2408026755852801E-3</v>
       </c>
       <c r="X8" s="4">
@@ -4891,54 +5112,54 @@
       <c r="Y8" s="4">
         <v>0.54500000000000004</v>
       </c>
-      <c r="Z8" s="38">
+      <c r="Z8" s="37">
         <v>1.6317460317460299</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="J9" s="24">
+    <row r="9" spans="1:27">
+      <c r="A9" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="J9" s="23">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K9" s="49">
+      <c r="K9" s="48">
         <v>27146.7</v>
       </c>
-      <c r="L9" s="49">
+      <c r="L9" s="48">
         <v>41957.856</v>
       </c>
-      <c r="M9" s="49">
+      <c r="M9" s="48">
         <v>67936.955999999991</v>
       </c>
-      <c r="N9" s="18">
-        <v>300</v>
-      </c>
-      <c r="O9" s="14">
-        <v>100</v>
-      </c>
-      <c r="P9" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q9" s="29">
+      <c r="N9" s="17">
+        <v>300</v>
+      </c>
+      <c r="O9" s="13">
+        <v>100</v>
+      </c>
+      <c r="P9" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q9" s="28">
         <v>0.879432624113475</v>
       </c>
-      <c r="R9" s="23">
+      <c r="R9" s="22">
         <v>2.2163120567375901E-2</v>
       </c>
-      <c r="S9" s="24">
+      <c r="S9" s="23">
         <v>2.9096989966555199E-3</v>
       </c>
-      <c r="T9" s="24">
+      <c r="T9" s="23">
         <v>3.43971631205674E-3</v>
       </c>
-      <c r="U9" s="24">
+      <c r="U9" s="23">
         <v>2.9765886287625399E-3</v>
       </c>
-      <c r="V9" s="24">
+      <c r="V9" s="23">
         <v>3.5922330097087401E-3</v>
       </c>
-      <c r="W9" s="24">
+      <c r="W9" s="23">
         <v>2.7090301003344498E-3</v>
       </c>
       <c r="X9" s="4">
@@ -4947,51 +5168,51 @@
       <c r="Y9" s="4">
         <v>0.505</v>
       </c>
-      <c r="Z9" s="38">
+      <c r="Z9" s="37">
         <v>1.6952380952381001</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="J10" s="24">
+    <row r="10" spans="1:27">
+      <c r="J10" s="23">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K10" s="49">
+      <c r="K10" s="48">
         <v>26142.300000000003</v>
       </c>
-      <c r="L10" s="49">
+      <c r="L10" s="48">
         <v>39660.664000000004</v>
       </c>
-      <c r="M10" s="49">
+      <c r="M10" s="48">
         <v>64678.564000000006</v>
       </c>
-      <c r="N10" s="18">
-        <v>300</v>
-      </c>
-      <c r="O10" s="14">
-        <v>100</v>
-      </c>
-      <c r="P10" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q10" s="29">
+      <c r="N10" s="17">
+        <v>300</v>
+      </c>
+      <c r="O10" s="13">
+        <v>100</v>
+      </c>
+      <c r="P10" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q10" s="28">
         <v>0.83333333333333304</v>
       </c>
-      <c r="R10" s="23">
+      <c r="R10" s="22">
         <v>2.4468085106383E-2</v>
       </c>
-      <c r="S10" s="24">
+      <c r="S10" s="23">
         <v>3.24414715719064E-3</v>
       </c>
-      <c r="T10" s="24">
+      <c r="T10" s="23">
         <v>4.1134751773049599E-3</v>
       </c>
-      <c r="U10" s="24">
+      <c r="U10" s="23">
         <v>3.3779264214046801E-3</v>
       </c>
-      <c r="V10" s="24">
+      <c r="V10" s="23">
         <v>4.1100323624595498E-3</v>
       </c>
-      <c r="W10" s="24">
+      <c r="W10" s="23">
         <v>3.17725752508361E-3</v>
       </c>
       <c r="X10" s="4">
@@ -5000,51 +5221,51 @@
       <c r="Y10" s="4">
         <v>0.48499999999999999</v>
       </c>
-      <c r="Z10" s="38">
+      <c r="Z10" s="37">
         <v>1.7904761904761901</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="J11" s="24">
+    <row r="11" spans="1:27">
+      <c r="J11" s="23">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K11" s="49">
+      <c r="K11" s="48">
         <v>24793.800000000003</v>
       </c>
-      <c r="L11" s="49">
+      <c r="L11" s="48">
         <v>37718.183999999994</v>
       </c>
-      <c r="M11" s="49">
+      <c r="M11" s="48">
         <v>61445.583999999995</v>
       </c>
-      <c r="N11" s="18">
-        <v>300</v>
-      </c>
-      <c r="O11" s="14">
-        <v>100</v>
-      </c>
-      <c r="P11" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q11" s="29">
+      <c r="N11" s="17">
+        <v>300</v>
+      </c>
+      <c r="O11" s="13">
+        <v>100</v>
+      </c>
+      <c r="P11" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q11" s="28">
         <v>0.78723404255319196</v>
       </c>
-      <c r="R11" s="23">
+      <c r="R11" s="22">
         <v>2.73049645390071E-2</v>
       </c>
-      <c r="S11" s="24">
+      <c r="S11" s="23">
         <v>3.5785953177257502E-3</v>
       </c>
-      <c r="T11" s="24">
+      <c r="T11" s="23">
         <v>4.4680851063829798E-3</v>
       </c>
-      <c r="U11" s="24">
+      <c r="U11" s="23">
         <v>3.7792642140468198E-3</v>
       </c>
-      <c r="V11" s="24">
+      <c r="V11" s="23">
         <v>4.6601941747572801E-3</v>
       </c>
-      <c r="W11" s="24">
+      <c r="W11" s="23">
         <v>3.6454849498327802E-3</v>
       </c>
       <c r="X11" s="4">
@@ -5053,51 +5274,51 @@
       <c r="Y11" s="4">
         <v>0.45900000000000002</v>
       </c>
-      <c r="Z11" s="38">
+      <c r="Z11" s="37">
         <v>1.89206349206349</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="J12" s="24">
+    <row r="12" spans="1:27">
+      <c r="J12" s="23">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K12" s="49">
+      <c r="K12" s="48">
         <v>24291.600000000002</v>
       </c>
-      <c r="L12" s="49">
+      <c r="L12" s="48">
         <v>36407.087999999996</v>
       </c>
-      <c r="M12" s="49">
+      <c r="M12" s="48">
         <v>59653.887999999992</v>
       </c>
-      <c r="N12" s="18">
-        <v>300</v>
-      </c>
-      <c r="O12" s="14">
-        <v>100</v>
-      </c>
-      <c r="P12" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q12" s="29">
+      <c r="N12" s="17">
+        <v>300</v>
+      </c>
+      <c r="O12" s="13">
+        <v>100</v>
+      </c>
+      <c r="P12" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q12" s="28">
         <v>0.70567375886524797</v>
       </c>
-      <c r="R12" s="23">
+      <c r="R12" s="22">
         <v>3.0496453900709201E-2</v>
       </c>
-      <c r="S12" s="24">
+      <c r="S12" s="23">
         <v>4.0133779264214103E-3</v>
       </c>
-      <c r="T12" s="24">
+      <c r="T12" s="23">
         <v>5.1063829787233997E-3</v>
       </c>
-      <c r="U12" s="24">
+      <c r="U12" s="23">
         <v>4.2809364548495E-3</v>
       </c>
-      <c r="V12" s="24">
+      <c r="V12" s="23">
         <v>5.2427184466019398E-3</v>
       </c>
-      <c r="W12" s="24">
+      <c r="W12" s="23">
         <v>4.0802675585284304E-3</v>
       </c>
       <c r="X12" s="4">
@@ -5106,33 +5327,33 @@
       <c r="Y12" s="4">
         <v>0.44400000000000001</v>
       </c>
-      <c r="Z12" s="38">
+      <c r="Z12" s="37">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="K13" s="49">
+    <row r="13" spans="1:27">
+      <c r="K13" s="48">
         <v>23622</v>
       </c>
-      <c r="L13" s="49">
+      <c r="L13" s="48">
         <v>34658.959999999999</v>
       </c>
-      <c r="M13" s="49">
+      <c r="M13" s="48">
         <v>57264.959999999999</v>
       </c>
-      <c r="N13" s="18">
-        <v>300</v>
-      </c>
-      <c r="O13" s="14">
-        <v>100</v>
-      </c>
-      <c r="P13" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q13" s="29">
+      <c r="N13" s="17">
+        <v>300</v>
+      </c>
+      <c r="O13" s="13">
+        <v>100</v>
+      </c>
+      <c r="P13" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q13" s="28">
         <v>0.62411347517730498</v>
       </c>
-      <c r="R13" s="23">
+      <c r="R13" s="22">
         <v>3.2269503546099303E-2</v>
       </c>
       <c r="X13" s="4">
@@ -5142,33 +5363,33 @@
         <v>0.42399999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27">
       <c r="A14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="F14" s="12"/>
-      <c r="K14" s="49">
+      <c r="K14" s="48">
         <v>22775.7</v>
       </c>
-      <c r="L14" s="49">
+      <c r="L14" s="48">
         <v>32792.576000000001</v>
       </c>
-      <c r="M14" s="49">
+      <c r="M14" s="48">
         <v>54588.675999999999</v>
       </c>
-      <c r="N14" s="18">
-        <v>300</v>
-      </c>
-      <c r="O14" s="14">
-        <v>100</v>
-      </c>
-      <c r="P14" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q14" s="29">
+      <c r="N14" s="17">
+        <v>300</v>
+      </c>
+      <c r="O14" s="13">
+        <v>100</v>
+      </c>
+      <c r="P14" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q14" s="28">
         <v>0.46099290780141799</v>
       </c>
-      <c r="R14" s="23">
+      <c r="R14" s="22">
         <v>3.5106382978723399E-2</v>
       </c>
       <c r="X14" s="4">
@@ -5178,32 +5399,32 @@
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27">
       <c r="A15" s="12"/>
       <c r="C15" s="12"/>
       <c r="F15" s="12"/>
-      <c r="K15" s="49">
+      <c r="K15" s="48">
         <v>22943.100000000002</v>
       </c>
-      <c r="L15" s="49">
+      <c r="L15" s="48">
         <v>31864.608</v>
       </c>
-      <c r="M15" s="49">
+      <c r="M15" s="48">
         <v>53820.907999999996</v>
       </c>
-      <c r="N15" s="18">
-        <v>300</v>
-      </c>
-      <c r="O15" s="14">
-        <v>100</v>
-      </c>
-      <c r="P15" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q15" s="29">
+      <c r="N15" s="17">
+        <v>300</v>
+      </c>
+      <c r="O15" s="13">
+        <v>100</v>
+      </c>
+      <c r="P15" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q15" s="28">
         <v>0.28723404255319201</v>
       </c>
-      <c r="R15" s="23">
+      <c r="R15" s="22">
         <v>3.7411347517730502E-2</v>
       </c>
       <c r="X15" s="4">
@@ -5213,29 +5434,29 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="K16" s="49">
+    <row r="16" spans="1:27">
+      <c r="K16" s="48">
         <v>22775.7</v>
       </c>
-      <c r="L16" s="49">
+      <c r="L16" s="48">
         <v>31037.575999999997</v>
       </c>
-      <c r="M16" s="49">
+      <c r="M16" s="48">
         <v>52833.675999999999</v>
       </c>
-      <c r="N16" s="18">
-        <v>300</v>
-      </c>
-      <c r="O16" s="14">
-        <v>100</v>
-      </c>
-      <c r="P16" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q16" s="29">
+      <c r="N16" s="17">
+        <v>300</v>
+      </c>
+      <c r="O16" s="13">
+        <v>100</v>
+      </c>
+      <c r="P16" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q16" s="28">
         <v>0.184397163120567</v>
       </c>
-      <c r="R16" s="23">
+      <c r="R16" s="22">
         <v>3.9716312056737597E-2</v>
       </c>
       <c r="X16" s="4">
@@ -5245,29 +5466,29 @@
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="17" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K17" s="49">
+    <row r="17" spans="11:25">
+      <c r="K17" s="48">
         <v>22608.300000000003</v>
       </c>
-      <c r="L17" s="49">
+      <c r="L17" s="48">
         <v>30145.544000000002</v>
       </c>
-      <c r="M17" s="49">
+      <c r="M17" s="48">
         <v>51781.444000000003</v>
       </c>
-      <c r="N17" s="18">
-        <v>300</v>
-      </c>
-      <c r="O17" s="14">
-        <v>100</v>
-      </c>
-      <c r="P17" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q17" s="29">
+      <c r="N17" s="17">
+        <v>300</v>
+      </c>
+      <c r="O17" s="13">
+        <v>100</v>
+      </c>
+      <c r="P17" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q17" s="28">
         <v>8.5106382978723402E-2</v>
       </c>
-      <c r="R17" s="23">
+      <c r="R17" s="22">
         <v>4.3262411347517703E-2</v>
       </c>
       <c r="X17" s="4">
@@ -5277,29 +5498,29 @@
         <v>0.379</v>
       </c>
     </row>
-    <row r="18" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K18" s="49">
+    <row r="18" spans="11:25">
+      <c r="K18" s="48">
         <v>22440.9</v>
       </c>
-      <c r="L18" s="49">
+      <c r="L18" s="48">
         <v>29513.511999999995</v>
       </c>
-      <c r="M18" s="49">
+      <c r="M18" s="48">
         <v>50989.212</v>
       </c>
-      <c r="N18" s="18">
-        <v>300</v>
-      </c>
-      <c r="O18" s="14">
-        <v>100</v>
-      </c>
-      <c r="P18" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q18" s="29">
+      <c r="N18" s="17">
+        <v>300</v>
+      </c>
+      <c r="O18" s="13">
+        <v>100</v>
+      </c>
+      <c r="P18" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q18" s="28">
         <v>4.2553191489361701E-2</v>
       </c>
-      <c r="R18" s="23">
+      <c r="R18" s="22">
         <v>4.4858156028368797E-2</v>
       </c>
       <c r="X18" s="4">
@@ -5309,29 +5530,29 @@
         <v>0.379</v>
       </c>
     </row>
-    <row r="19" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K19" s="49">
+    <row r="19" spans="11:25">
+      <c r="K19" s="48">
         <v>22273.5</v>
       </c>
-      <c r="L19" s="49">
+      <c r="L19" s="48">
         <v>29271.479999999996</v>
       </c>
-      <c r="M19" s="49">
+      <c r="M19" s="48">
         <v>50586.979999999996</v>
       </c>
-      <c r="N19" s="18">
-        <v>300</v>
-      </c>
-      <c r="O19" s="14">
-        <v>100</v>
-      </c>
-      <c r="P19" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q19" s="29">
+      <c r="N19" s="17">
+        <v>300</v>
+      </c>
+      <c r="O19" s="13">
+        <v>100</v>
+      </c>
+      <c r="P19" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q19" s="28">
         <v>2.1276595744680899E-2</v>
       </c>
-      <c r="R19" s="23">
+      <c r="R19" s="22">
         <v>4.6808510638297898E-2</v>
       </c>
       <c r="X19" s="4">
@@ -5341,29 +5562,29 @@
         <v>0.372</v>
       </c>
     </row>
-    <row r="20" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K20" s="49">
+    <row r="20" spans="11:25">
+      <c r="K20" s="48">
         <v>22134</v>
       </c>
-      <c r="L20" s="49">
+      <c r="L20" s="48">
         <v>29113.119999999995</v>
       </c>
-      <c r="M20" s="49">
+      <c r="M20" s="48">
         <v>50295.119999999995</v>
       </c>
-      <c r="N20" s="18">
-        <v>300</v>
-      </c>
-      <c r="O20" s="14">
-        <v>100</v>
-      </c>
-      <c r="P20" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q20" s="29">
+      <c r="N20" s="17">
+        <v>300</v>
+      </c>
+      <c r="O20" s="13">
+        <v>100</v>
+      </c>
+      <c r="P20" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q20" s="28">
         <v>3.54609929078014E-3</v>
       </c>
-      <c r="R20" s="23">
+      <c r="R20" s="22">
         <v>4.8936170212766E-2</v>
       </c>
       <c r="X20" s="4">
@@ -5373,29 +5594,29 @@
         <v>0.371</v>
       </c>
     </row>
-    <row r="21" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K21" s="49">
+    <row r="21" spans="11:25">
+      <c r="K21" s="48">
         <v>21938.7</v>
       </c>
-      <c r="L21" s="49">
+      <c r="L21" s="48">
         <v>28657.415999999997</v>
       </c>
-      <c r="M21" s="49">
+      <c r="M21" s="48">
         <v>49652.515999999996</v>
       </c>
-      <c r="N21" s="18">
-        <v>300</v>
-      </c>
-      <c r="O21" s="14">
-        <v>100</v>
-      </c>
-      <c r="P21" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q21" s="29">
+      <c r="N21" s="17">
+        <v>300</v>
+      </c>
+      <c r="O21" s="13">
+        <v>100</v>
+      </c>
+      <c r="P21" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q21" s="28">
         <v>0</v>
       </c>
-      <c r="R21" s="23">
+      <c r="R21" s="22">
         <v>0.05</v>
       </c>
       <c r="X21" s="4">
@@ -5405,29 +5626,29 @@
         <v>0.36699999999999999</v>
       </c>
     </row>
-    <row r="22" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K22" s="49">
+    <row r="22" spans="11:25">
+      <c r="K22" s="48">
         <v>21483</v>
       </c>
-      <c r="L22" s="49">
+      <c r="L22" s="48">
         <v>28157.439999999999</v>
       </c>
-      <c r="M22" s="49">
+      <c r="M22" s="48">
         <v>48716.44</v>
       </c>
-      <c r="N22" s="18">
-        <v>300</v>
-      </c>
-      <c r="O22" s="14">
-        <v>100</v>
-      </c>
-      <c r="P22" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q22" s="29">
+      <c r="N22" s="17">
+        <v>300</v>
+      </c>
+      <c r="O22" s="13">
+        <v>100</v>
+      </c>
+      <c r="P22" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q22" s="28">
         <v>0</v>
       </c>
-      <c r="R22" s="23">
+      <c r="R22" s="22">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="X22" s="4">
@@ -5437,23 +5658,23 @@
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="23" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K23" s="49">
+    <row r="23" spans="11:25">
+      <c r="K23" s="48">
         <v>21269.100000000002</v>
       </c>
-      <c r="L23" s="49">
+      <c r="L23" s="48">
         <v>27949.288</v>
       </c>
-      <c r="M23" s="49">
+      <c r="M23" s="48">
         <v>48303.588000000003</v>
       </c>
-      <c r="N23" s="18">
-        <v>300</v>
-      </c>
-      <c r="O23" s="14">
-        <v>100</v>
-      </c>
-      <c r="P23" s="14">
+      <c r="N23" s="17">
+        <v>300</v>
+      </c>
+      <c r="O23" s="13">
+        <v>100</v>
+      </c>
+      <c r="P23" s="13">
         <v>400</v>
       </c>
       <c r="X23" s="4">
@@ -5463,23 +5684,23 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="24" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K24" s="49">
+    <row r="24" spans="11:25">
+      <c r="K24" s="48">
         <v>21204</v>
       </c>
-      <c r="L24" s="49">
+      <c r="L24" s="48">
         <v>27840.719999999998</v>
       </c>
-      <c r="M24" s="49">
+      <c r="M24" s="48">
         <v>48132.72</v>
       </c>
-      <c r="N24" s="18">
-        <v>300</v>
-      </c>
-      <c r="O24" s="14">
-        <v>100</v>
-      </c>
-      <c r="P24" s="14">
+      <c r="N24" s="17">
+        <v>300</v>
+      </c>
+      <c r="O24" s="13">
+        <v>100</v>
+      </c>
+      <c r="P24" s="13">
         <v>400</v>
       </c>
       <c r="X24" s="4">
@@ -5489,23 +5710,23 @@
         <v>0.36099999999999999</v>
       </c>
     </row>
-    <row r="25" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K25" s="49">
+    <row r="25" spans="11:25">
+      <c r="K25" s="48">
         <v>21166.800000000003</v>
       </c>
-      <c r="L25" s="49">
+      <c r="L25" s="48">
         <v>27750.824000000001</v>
       </c>
-      <c r="M25" s="49">
+      <c r="M25" s="48">
         <v>48007.224000000002</v>
       </c>
-      <c r="N25" s="18">
-        <v>300</v>
-      </c>
-      <c r="O25" s="14">
-        <v>100</v>
-      </c>
-      <c r="P25" s="14">
+      <c r="N25" s="17">
+        <v>300</v>
+      </c>
+      <c r="O25" s="13">
+        <v>100</v>
+      </c>
+      <c r="P25" s="13">
         <v>400</v>
       </c>
       <c r="X25" s="4">
@@ -5515,23 +5736,23 @@
         <v>0.35899999999999999</v>
       </c>
     </row>
-    <row r="26" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K26" s="49">
+    <row r="26" spans="11:25">
+      <c r="K26" s="48">
         <v>21129.600000000002</v>
       </c>
-      <c r="L26" s="49">
+      <c r="L26" s="48">
         <v>27660.928</v>
       </c>
-      <c r="M26" s="49">
+      <c r="M26" s="48">
         <v>47881.728000000003</v>
       </c>
-      <c r="N26" s="18">
-        <v>300</v>
-      </c>
-      <c r="O26" s="14">
-        <v>100</v>
-      </c>
-      <c r="P26" s="14">
+      <c r="N26" s="17">
+        <v>300</v>
+      </c>
+      <c r="O26" s="13">
+        <v>100</v>
+      </c>
+      <c r="P26" s="13">
         <v>400</v>
       </c>
       <c r="X26" s="4">
@@ -5541,23 +5762,23 @@
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="27" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K27" s="49">
+    <row r="27" spans="11:25">
+      <c r="K27" s="48">
         <v>21092.400000000001</v>
       </c>
-      <c r="L27" s="49">
+      <c r="L27" s="48">
         <v>27506.031999999999</v>
       </c>
-      <c r="M27" s="49">
+      <c r="M27" s="48">
         <v>47691.232000000004</v>
       </c>
-      <c r="N27" s="18">
-        <v>300</v>
-      </c>
-      <c r="O27" s="14">
-        <v>100</v>
-      </c>
-      <c r="P27" s="14">
+      <c r="N27" s="17">
+        <v>300</v>
+      </c>
+      <c r="O27" s="13">
+        <v>100</v>
+      </c>
+      <c r="P27" s="13">
         <v>400</v>
       </c>
       <c r="X27" s="4">
@@ -5567,23 +5788,23 @@
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="28" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K28" s="49">
+    <row r="28" spans="11:25">
+      <c r="K28" s="48">
         <v>21055.200000000001</v>
       </c>
-      <c r="L28" s="49">
+      <c r="L28" s="48">
         <v>27351.135999999995</v>
       </c>
-      <c r="M28" s="49">
+      <c r="M28" s="48">
         <v>47500.735999999997</v>
       </c>
-      <c r="N28" s="18">
-        <v>300</v>
-      </c>
-      <c r="O28" s="14">
-        <v>100</v>
-      </c>
-      <c r="P28" s="14">
+      <c r="N28" s="17">
+        <v>300</v>
+      </c>
+      <c r="O28" s="13">
+        <v>100</v>
+      </c>
+      <c r="P28" s="13">
         <v>400</v>
       </c>
       <c r="X28" s="4">
@@ -5593,23 +5814,23 @@
         <v>0.35299999999999998</v>
       </c>
     </row>
-    <row r="29" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K29" s="49">
+    <row r="29" spans="11:25">
+      <c r="K29" s="48">
         <v>21018</v>
       </c>
-      <c r="L29" s="49">
+      <c r="L29" s="48">
         <v>27131.239999999998</v>
       </c>
-      <c r="M29" s="49">
+      <c r="M29" s="48">
         <v>47245.24</v>
       </c>
-      <c r="N29" s="18">
-        <v>300</v>
-      </c>
-      <c r="O29" s="14">
-        <v>100</v>
-      </c>
-      <c r="P29" s="14">
+      <c r="N29" s="17">
+        <v>300</v>
+      </c>
+      <c r="O29" s="13">
+        <v>100</v>
+      </c>
+      <c r="P29" s="13">
         <v>400</v>
       </c>
       <c r="X29" s="4">
@@ -5619,23 +5840,23 @@
         <v>0.35099999999999998</v>
       </c>
     </row>
-    <row r="30" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K30" s="49">
+    <row r="30" spans="11:25">
+      <c r="K30" s="48">
         <v>20980.800000000003</v>
       </c>
-      <c r="L30" s="49">
+      <c r="L30" s="48">
         <v>27041.343999999997</v>
       </c>
-      <c r="M30" s="49">
+      <c r="M30" s="48">
         <v>47119.743999999999</v>
       </c>
-      <c r="N30" s="18">
-        <v>300</v>
-      </c>
-      <c r="O30" s="14">
-        <v>100</v>
-      </c>
-      <c r="P30" s="14">
+      <c r="N30" s="17">
+        <v>300</v>
+      </c>
+      <c r="O30" s="13">
+        <v>100</v>
+      </c>
+      <c r="P30" s="13">
         <v>400</v>
       </c>
       <c r="X30" s="4">
@@ -5645,23 +5866,23 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="31" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K31" s="49">
+    <row r="31" spans="11:25">
+      <c r="K31" s="48">
         <v>20943.600000000002</v>
       </c>
-      <c r="L31" s="49">
+      <c r="L31" s="48">
         <v>26951.447999999997</v>
       </c>
-      <c r="M31" s="49">
+      <c r="M31" s="48">
         <v>46994.247999999992</v>
       </c>
-      <c r="N31" s="18">
-        <v>300</v>
-      </c>
-      <c r="O31" s="14">
-        <v>100</v>
-      </c>
-      <c r="P31" s="14">
+      <c r="N31" s="17">
+        <v>300</v>
+      </c>
+      <c r="O31" s="13">
+        <v>100</v>
+      </c>
+      <c r="P31" s="13">
         <v>400</v>
       </c>
       <c r="X31" s="4">
@@ -5671,23 +5892,23 @@
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="32" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K32" s="49">
+    <row r="32" spans="11:25">
+      <c r="K32" s="48">
         <v>20906.400000000001</v>
       </c>
-      <c r="L32" s="49">
+      <c r="L32" s="48">
         <v>26796.552</v>
       </c>
-      <c r="M32" s="49">
+      <c r="M32" s="48">
         <v>46803.752000000008</v>
       </c>
-      <c r="N32" s="18">
-        <v>300</v>
-      </c>
-      <c r="O32" s="14">
-        <v>100</v>
-      </c>
-      <c r="P32" s="14">
+      <c r="N32" s="17">
+        <v>300</v>
+      </c>
+      <c r="O32" s="13">
+        <v>100</v>
+      </c>
+      <c r="P32" s="13">
         <v>400</v>
       </c>
       <c r="X32" s="4">
@@ -5697,23 +5918,23 @@
         <v>0.34599999999999997</v>
       </c>
     </row>
-    <row r="33" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K33" s="49">
+    <row r="33" spans="11:25">
+      <c r="K33" s="48">
         <v>20869.2</v>
       </c>
-      <c r="L33" s="49">
+      <c r="L33" s="48">
         <v>26576.655999999999</v>
       </c>
-      <c r="M33" s="49">
+      <c r="M33" s="48">
         <v>46548.256000000001</v>
       </c>
-      <c r="N33" s="18">
-        <v>300</v>
-      </c>
-      <c r="O33" s="14">
-        <v>100</v>
-      </c>
-      <c r="P33" s="14">
+      <c r="N33" s="17">
+        <v>300</v>
+      </c>
+      <c r="O33" s="13">
+        <v>100</v>
+      </c>
+      <c r="P33" s="13">
         <v>400</v>
       </c>
       <c r="X33" s="4">
@@ -5723,23 +5944,23 @@
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="34" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K34" s="49">
+    <row r="34" spans="11:25">
+      <c r="K34" s="48">
         <v>20832</v>
       </c>
-      <c r="L34" s="49">
+      <c r="L34" s="48">
         <v>26421.759999999995</v>
       </c>
-      <c r="M34" s="49">
+      <c r="M34" s="48">
         <v>46357.759999999995</v>
       </c>
-      <c r="N34" s="18">
-        <v>300</v>
-      </c>
-      <c r="O34" s="14">
-        <v>100</v>
-      </c>
-      <c r="P34" s="14">
+      <c r="N34" s="17">
+        <v>300</v>
+      </c>
+      <c r="O34" s="13">
+        <v>100</v>
+      </c>
+      <c r="P34" s="13">
         <v>400</v>
       </c>
       <c r="X34" s="4">
@@ -5749,23 +5970,23 @@
         <v>0.34200000000000003</v>
       </c>
     </row>
-    <row r="35" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K35" s="49">
+    <row r="35" spans="11:25">
+      <c r="K35" s="48">
         <v>20794.800000000003</v>
       </c>
-      <c r="L35" s="49">
+      <c r="L35" s="48">
         <v>26331.864000000001</v>
       </c>
-      <c r="M35" s="49">
+      <c r="M35" s="48">
         <v>46232.264000000003</v>
       </c>
-      <c r="N35" s="18">
-        <v>300</v>
-      </c>
-      <c r="O35" s="14">
-        <v>100</v>
-      </c>
-      <c r="P35" s="14">
+      <c r="N35" s="17">
+        <v>300</v>
+      </c>
+      <c r="O35" s="13">
+        <v>100</v>
+      </c>
+      <c r="P35" s="13">
         <v>400</v>
       </c>
       <c r="X35" s="4">
@@ -5775,23 +5996,23 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="36" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K36" s="49">
+    <row r="36" spans="11:25">
+      <c r="K36" s="48">
         <v>20757.600000000002</v>
       </c>
-      <c r="L36" s="49">
+      <c r="L36" s="48">
         <v>26241.967999999997</v>
       </c>
-      <c r="M36" s="49">
+      <c r="M36" s="48">
         <v>46106.767999999996</v>
       </c>
-      <c r="N36" s="18">
-        <v>300</v>
-      </c>
-      <c r="O36" s="14">
-        <v>100</v>
-      </c>
-      <c r="P36" s="14">
+      <c r="N36" s="17">
+        <v>300</v>
+      </c>
+      <c r="O36" s="13">
+        <v>100</v>
+      </c>
+      <c r="P36" s="13">
         <v>400</v>
       </c>
       <c r="X36" s="4">
@@ -5801,23 +6022,23 @@
         <v>0.33900000000000002</v>
       </c>
     </row>
-    <row r="37" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K37" s="49">
+    <row r="37" spans="11:25">
+      <c r="K37" s="48">
         <v>20720.400000000001</v>
       </c>
-      <c r="L37" s="49">
+      <c r="L37" s="48">
         <v>26152.071999999996</v>
       </c>
-      <c r="M37" s="49">
+      <c r="M37" s="48">
         <v>45981.271999999997</v>
       </c>
-      <c r="N37" s="18">
-        <v>300</v>
-      </c>
-      <c r="O37" s="14">
-        <v>100</v>
-      </c>
-      <c r="P37" s="14">
+      <c r="N37" s="17">
+        <v>300</v>
+      </c>
+      <c r="O37" s="13">
+        <v>100</v>
+      </c>
+      <c r="P37" s="13">
         <v>400</v>
       </c>
       <c r="X37" s="4">
@@ -5827,23 +6048,23 @@
         <v>0.33800000000000002</v>
       </c>
     </row>
-    <row r="38" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K38" s="49">
+    <row r="38" spans="11:25">
+      <c r="K38" s="48">
         <v>20683.2</v>
       </c>
-      <c r="L38" s="49">
+      <c r="L38" s="48">
         <v>26062.175999999999</v>
       </c>
-      <c r="M38" s="49">
+      <c r="M38" s="48">
         <v>45855.776000000005</v>
       </c>
-      <c r="N38" s="18">
-        <v>300</v>
-      </c>
-      <c r="O38" s="14">
-        <v>100</v>
-      </c>
-      <c r="P38" s="14">
+      <c r="N38" s="17">
+        <v>300</v>
+      </c>
+      <c r="O38" s="13">
+        <v>100</v>
+      </c>
+      <c r="P38" s="13">
         <v>400</v>
       </c>
     </row>
@@ -5864,100 +6085,103 @@
   <dimension ref="A1:AC38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:29" s="15" customFormat="1" ht="64" customHeight="1">
+      <c r="B1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="H1" s="16" t="s">
+      <c r="G1" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="O1" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="P1" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q1" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="R1" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="S1" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="T1" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="O1" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="P1" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q1" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="R1" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="S1" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="T1" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="U1" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="V1" s="58" t="s">
+      <c r="V1" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="W1" s="58" t="s">
+      <c r="W1" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="X1" s="58" t="s">
+      <c r="X1" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="Y1" s="58" t="s">
+      <c r="Y1" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="Z1" s="58" t="s">
+      <c r="Z1" s="55" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA1" s="50" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="15" customFormat="1" ht="18" customHeight="1">
       <c r="B2">
         <v>1448848</v>
       </c>
       <c r="C2">
-        <v>293639</v>
+        <v>153571</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="14">
-        <v>2000000</v>
+      <c r="E2">
+        <v>400000</v>
       </c>
       <c r="F2">
         <v>7000</v>
@@ -5965,92 +6189,112 @@
       <c r="G2">
         <v>5694</v>
       </c>
-      <c r="H2">
-        <v>32.4</v>
-      </c>
-      <c r="I2" s="63"/>
-      <c r="J2" s="65">
+      <c r="H2" s="22">
+        <f>0.29/1.4</f>
+        <v>0.20714285714285713</v>
+      </c>
+      <c r="I2" s="71">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="J2" s="60">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2" s="18">
-        <v>300</v>
-      </c>
-      <c r="O2" s="19">
-        <v>100</v>
-      </c>
-      <c r="P2" s="19">
-        <v>400</v>
-      </c>
-      <c r="Q2" s="29">
+      <c r="K2" s="58">
+        <v>8892.8571428571449</v>
+      </c>
+      <c r="L2" s="58">
+        <v>25606.285714285717</v>
+      </c>
+      <c r="M2" s="58">
+        <v>33787.71428571429</v>
+      </c>
+      <c r="N2" s="17">
+        <v>300</v>
+      </c>
+      <c r="O2" s="18">
+        <v>100</v>
+      </c>
+      <c r="P2" s="18">
+        <v>400</v>
+      </c>
+      <c r="Q2" s="28">
         <v>1</v>
       </c>
-      <c r="R2" s="36">
+      <c r="R2" s="35">
         <v>5.3900709219858204E-3</v>
       </c>
-      <c r="S2" s="24">
+      <c r="S2" s="23">
         <v>0</v>
       </c>
-      <c r="T2" s="24">
+      <c r="T2" s="23">
         <v>8.1560283687943296E-4</v>
       </c>
-      <c r="U2" s="24">
+      <c r="U2" s="23">
         <v>3.3444816053511699E-5</v>
       </c>
-      <c r="V2" s="24">
+      <c r="V2" s="23">
         <v>1E-3</v>
       </c>
-      <c r="W2" s="24">
+      <c r="W2" s="23">
         <v>6.6889632107023397E-5</v>
       </c>
-      <c r="X2" s="29">
+      <c r="X2" s="28">
         <v>0.29580000000000001</v>
       </c>
-      <c r="Y2" s="29">
+      <c r="Y2" s="28">
         <v>0.73499999999999999</v>
       </c>
-      <c r="Z2" s="38">
+      <c r="Z2" s="37">
         <v>1</v>
       </c>
-      <c r="AA2"/>
+      <c r="AA2">
+        <v>6000</v>
+      </c>
       <c r="AB2"/>
       <c r="AC2"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="I3" s="64"/>
-      <c r="J3" s="65">
+    <row r="3" spans="1:29">
+      <c r="I3" s="59"/>
+      <c r="J3" s="60">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="N3" s="19">
-        <v>300</v>
-      </c>
-      <c r="O3" s="14">
-        <v>100</v>
-      </c>
-      <c r="P3" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q3" s="30">
+      <c r="K3" s="58">
+        <v>8723.8928571428587</v>
+      </c>
+      <c r="L3" s="58">
+        <v>23933.266285714286</v>
+      </c>
+      <c r="M3" s="58">
+        <v>31959.247714285717</v>
+      </c>
+      <c r="N3" s="18">
+        <v>300</v>
+      </c>
+      <c r="O3" s="13">
+        <v>100</v>
+      </c>
+      <c r="P3" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q3" s="29">
         <v>1</v>
       </c>
       <c r="R3" s="10">
         <v>8.6879432624113496E-3</v>
       </c>
-      <c r="S3" s="25">
+      <c r="S3" s="24">
         <v>5.0167224080267597E-4</v>
       </c>
-      <c r="T3" s="25">
+      <c r="T3" s="24">
         <v>1.3829787234042601E-3</v>
       </c>
-      <c r="U3" s="25">
+      <c r="U3" s="24">
         <v>3.3444816053511699E-4</v>
       </c>
-      <c r="V3" s="25">
+      <c r="V3" s="24">
         <v>1.4886731391585801E-3</v>
       </c>
-      <c r="W3" s="25">
+      <c r="W3" s="24">
         <v>2.6755852842809402E-4</v>
       </c>
       <c r="X3" s="9">
@@ -6059,42 +6303,51 @@
       <c r="Y3" s="9">
         <v>0.66200000000000003</v>
       </c>
-      <c r="Z3" s="39">
+      <c r="Z3" s="38">
         <v>1.12380952380952</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="J4" s="65">
+    <row r="4" spans="1:29">
+      <c r="J4" s="60">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="N4" s="20">
-        <v>300</v>
-      </c>
-      <c r="O4" s="14">
-        <v>100</v>
-      </c>
-      <c r="P4" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q4" s="31">
+      <c r="K4" s="58">
+        <v>8558.138892857145</v>
+      </c>
+      <c r="L4" s="58">
+        <v>22863.534226285716</v>
+      </c>
+      <c r="M4" s="58">
+        <v>30737.022007714291</v>
+      </c>
+      <c r="N4" s="19">
+        <v>300</v>
+      </c>
+      <c r="O4" s="13">
+        <v>100</v>
+      </c>
+      <c r="P4" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q4" s="30">
         <v>1</v>
       </c>
       <c r="R4" s="10">
         <v>1.0638297872340399E-2</v>
       </c>
-      <c r="S4" s="26">
+      <c r="S4" s="25">
         <v>9.6989966555183996E-4</v>
       </c>
-      <c r="T4" s="26">
+      <c r="T4" s="25">
         <v>1.70212765957447E-3</v>
       </c>
-      <c r="U4" s="26">
+      <c r="U4" s="25">
         <v>7.6923076923076901E-4</v>
       </c>
-      <c r="V4" s="26">
+      <c r="V4" s="25">
         <v>1.94174757281553E-3</v>
       </c>
-      <c r="W4" s="26">
+      <c r="W4" s="25">
         <v>5.6856187290969904E-4</v>
       </c>
       <c r="X4" s="9">
@@ -6103,42 +6356,51 @@
       <c r="Y4" s="8">
         <v>0.65</v>
       </c>
-      <c r="Z4" s="40">
+      <c r="Z4" s="39">
         <v>1.2253968253968299</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="J5" s="65">
+    <row r="5" spans="1:29">
+      <c r="J5" s="60">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="N5" s="20">
-        <v>300</v>
-      </c>
-      <c r="O5" s="14">
-        <v>100</v>
-      </c>
-      <c r="P5" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q5" s="31">
+      <c r="K5" s="58">
+        <v>8395.534253892858</v>
+      </c>
+      <c r="L5" s="58">
+        <v>21797.027075986287</v>
+      </c>
+      <c r="M5" s="58">
+        <v>29520.918589567715</v>
+      </c>
+      <c r="N5" s="19">
+        <v>300</v>
+      </c>
+      <c r="O5" s="13">
+        <v>100</v>
+      </c>
+      <c r="P5" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q5" s="30">
         <v>0.98936170212765995</v>
       </c>
       <c r="R5" s="10">
         <v>1.24113475177305E-2</v>
       </c>
-      <c r="S5" s="26">
+      <c r="S5" s="25">
         <v>1.3712374581939799E-3</v>
       </c>
-      <c r="T5" s="26">
+      <c r="T5" s="25">
         <v>1.87943262411348E-3</v>
       </c>
-      <c r="U5" s="26">
+      <c r="U5" s="25">
         <v>1.10367892976589E-3</v>
       </c>
-      <c r="V5" s="26">
+      <c r="V5" s="25">
         <v>2.2330097087378598E-3</v>
       </c>
-      <c r="W5" s="26">
+      <c r="W5" s="25">
         <v>9.3645484949832799E-4</v>
       </c>
       <c r="X5" s="9">
@@ -6147,89 +6409,107 @@
       <c r="Y5" s="8">
         <v>0.64</v>
       </c>
-      <c r="Z5" s="40">
+      <c r="Z5" s="39">
         <v>1.35238095238095</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="J6" s="65">
+    <row r="6" spans="1:29">
+      <c r="J6" s="60">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="N6" s="21">
-        <v>300</v>
-      </c>
-      <c r="O6" s="14">
-        <v>100</v>
-      </c>
-      <c r="P6" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q6" s="29">
+      <c r="K6" s="58">
+        <v>8236.0191030688948</v>
+      </c>
+      <c r="L6" s="58">
+        <v>20823.683561542548</v>
+      </c>
+      <c r="M6" s="58">
+        <v>28400.821136365932</v>
+      </c>
+      <c r="N6" s="20">
+        <v>300</v>
+      </c>
+      <c r="O6" s="13">
+        <v>100</v>
+      </c>
+      <c r="P6" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q6" s="28">
         <v>0.97163120567375905</v>
       </c>
-      <c r="R6" s="23">
+      <c r="R6" s="22">
         <v>1.3829787234042599E-2</v>
       </c>
-      <c r="S6" s="27">
+      <c r="S6" s="26">
         <v>1.7391304347826101E-3</v>
       </c>
-      <c r="T6" s="27">
+      <c r="T6" s="26">
         <v>2.1985815602836899E-3</v>
       </c>
-      <c r="U6" s="27">
+      <c r="U6" s="26">
         <v>1.60535117056856E-3</v>
       </c>
-      <c r="V6" s="27">
+      <c r="V6" s="26">
         <v>2.5889967637540501E-3</v>
       </c>
-      <c r="W6" s="27">
+      <c r="W6" s="26">
         <v>1.3712374581939799E-3</v>
       </c>
       <c r="X6" s="4">
         <v>0.19389999999999999</v>
       </c>
-      <c r="Y6" s="17">
+      <c r="Y6" s="16">
         <v>0.60899999999999999</v>
       </c>
-      <c r="Z6" s="41">
+      <c r="Z6" s="40">
         <v>1.4539682539682499</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="J7" s="65">
+    <row r="7" spans="1:29">
+      <c r="A7" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="J7" s="60">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="N7" s="22">
-        <v>300</v>
-      </c>
-      <c r="O7" s="14">
-        <v>100</v>
-      </c>
-      <c r="P7" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q7" s="29">
+      <c r="K7" s="58">
+        <v>8079.5347401105855</v>
+      </c>
+      <c r="L7" s="58">
+        <v>19973.443573873239</v>
+      </c>
+      <c r="M7" s="58">
+        <v>27406.615534774977</v>
+      </c>
+      <c r="N7" s="21">
+        <v>300</v>
+      </c>
+      <c r="O7" s="13">
+        <v>100</v>
+      </c>
+      <c r="P7" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q7" s="28">
         <v>0.95390070921985803</v>
       </c>
-      <c r="R7" s="23">
+      <c r="R7" s="22">
         <v>1.5957446808510599E-2</v>
       </c>
-      <c r="S7" s="28">
+      <c r="S7" s="27">
         <v>2.10702341137124E-3</v>
       </c>
-      <c r="T7" s="28">
+      <c r="T7" s="27">
         <v>2.5177304964538998E-3</v>
       </c>
-      <c r="U7" s="28">
+      <c r="U7" s="27">
         <v>2.0066889632107E-3</v>
       </c>
-      <c r="V7" s="28">
+      <c r="V7" s="27">
         <v>2.8478964401294502E-3</v>
       </c>
-      <c r="W7" s="28">
+      <c r="W7" s="27">
         <v>1.7725752508361201E-3</v>
       </c>
       <c r="X7" s="4">
@@ -6238,42 +6518,51 @@
       <c r="Y7" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Z7" s="42">
+      <c r="Z7" s="41">
         <v>1.5492063492063499</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="J8" s="65">
+    <row r="8" spans="1:29">
+      <c r="J8" s="60">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="N8" s="18">
-        <v>300</v>
-      </c>
-      <c r="O8" s="14">
-        <v>100</v>
-      </c>
-      <c r="P8" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q8" s="29">
+      <c r="K8" s="58">
+        <v>7926.0235800484852</v>
+      </c>
+      <c r="L8" s="58">
+        <v>19096.24814596965</v>
+      </c>
+      <c r="M8" s="58">
+        <v>26388.189839614257</v>
+      </c>
+      <c r="N8" s="17">
+        <v>300</v>
+      </c>
+      <c r="O8" s="13">
+        <v>100</v>
+      </c>
+      <c r="P8" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q8" s="28">
         <v>0.91843971631205701</v>
       </c>
-      <c r="R8" s="23">
+      <c r="R8" s="22">
         <v>1.89716312056738E-2</v>
       </c>
-      <c r="S8" s="24">
+      <c r="S8" s="23">
         <v>2.4414715719063501E-3</v>
       </c>
-      <c r="T8" s="24">
+      <c r="T8" s="23">
         <v>2.9432624113475202E-3</v>
       </c>
-      <c r="U8" s="24">
+      <c r="U8" s="23">
         <v>2.5083612040133802E-3</v>
       </c>
-      <c r="V8" s="24">
+      <c r="V8" s="23">
         <v>3.20388349514563E-3</v>
       </c>
-      <c r="W8" s="24">
+      <c r="W8" s="23">
         <v>2.2408026755852801E-3</v>
       </c>
       <c r="X8" s="4">
@@ -6282,42 +6571,51 @@
       <c r="Y8" s="4">
         <v>0.54500000000000004</v>
       </c>
-      <c r="Z8" s="38">
+      <c r="Z8" s="37">
         <v>1.6317460317460299</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="J9" s="65">
+    <row r="9" spans="1:29">
+      <c r="J9" s="60">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="N9" s="18">
-        <v>300</v>
-      </c>
-      <c r="O9" s="14">
-        <v>100</v>
-      </c>
-      <c r="P9" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q9" s="29">
+      <c r="K9" s="58">
+        <v>7775.4291320275643</v>
+      </c>
+      <c r="L9" s="58">
+        <v>18192.039431196226</v>
+      </c>
+      <c r="M9" s="58">
+        <v>25345.434232661584</v>
+      </c>
+      <c r="N9" s="17">
+        <v>300</v>
+      </c>
+      <c r="O9" s="13">
+        <v>100</v>
+      </c>
+      <c r="P9" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q9" s="28">
         <v>0.879432624113475</v>
       </c>
-      <c r="R9" s="23">
+      <c r="R9" s="22">
         <v>2.2163120567375901E-2</v>
       </c>
-      <c r="S9" s="24">
+      <c r="S9" s="23">
         <v>2.9096989966555199E-3</v>
       </c>
-      <c r="T9" s="24">
+      <c r="T9" s="23">
         <v>3.43971631205674E-3</v>
       </c>
-      <c r="U9" s="24">
+      <c r="U9" s="23">
         <v>2.9765886287625399E-3</v>
       </c>
-      <c r="V9" s="24">
+      <c r="V9" s="23">
         <v>3.5922330097087401E-3</v>
       </c>
-      <c r="W9" s="24">
+      <c r="W9" s="23">
         <v>2.7090301003344498E-3</v>
       </c>
       <c r="X9" s="4">
@@ -6326,42 +6624,51 @@
       <c r="Y9" s="4">
         <v>0.505</v>
       </c>
-      <c r="Z9" s="38">
+      <c r="Z9" s="37">
         <v>1.6952380952381001</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="J10" s="65">
+    <row r="10" spans="1:29">
+      <c r="J10" s="60">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="N10" s="18">
-        <v>300</v>
-      </c>
-      <c r="O10" s="14">
-        <v>100</v>
-      </c>
-      <c r="P10" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q10" s="29">
+      <c r="K10" s="58">
+        <v>7627.6959785190402</v>
+      </c>
+      <c r="L10" s="58">
+        <v>17560.7606820035</v>
+      </c>
+      <c r="M10" s="58">
+        <v>24578.240982241019</v>
+      </c>
+      <c r="N10" s="17">
+        <v>300</v>
+      </c>
+      <c r="O10" s="13">
+        <v>100</v>
+      </c>
+      <c r="P10" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q10" s="28">
         <v>0.83333333333333304</v>
       </c>
-      <c r="R10" s="23">
+      <c r="R10" s="22">
         <v>2.4468085106383E-2</v>
       </c>
-      <c r="S10" s="24">
+      <c r="S10" s="23">
         <v>3.24414715719064E-3</v>
       </c>
-      <c r="T10" s="24">
+      <c r="T10" s="23">
         <v>4.1134751773049599E-3</v>
       </c>
-      <c r="U10" s="24">
+      <c r="U10" s="23">
         <v>3.3779264214046801E-3</v>
       </c>
-      <c r="V10" s="24">
+      <c r="V10" s="23">
         <v>4.1100323624595498E-3</v>
       </c>
-      <c r="W10" s="24">
+      <c r="W10" s="23">
         <v>3.17725752508361E-3</v>
       </c>
       <c r="X10" s="4">
@@ -6370,42 +6677,51 @@
       <c r="Y10" s="4">
         <v>0.48499999999999999</v>
       </c>
-      <c r="Z10" s="38">
+      <c r="Z10" s="37">
         <v>1.7904761904761901</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="J11" s="65">
+    <row r="11" spans="1:29">
+      <c r="J11" s="60">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="N11" s="18">
-        <v>300</v>
-      </c>
-      <c r="O11" s="14">
-        <v>100</v>
-      </c>
-      <c r="P11" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q11" s="29">
+      <c r="K11" s="58">
+        <v>7482.7697549271779</v>
+      </c>
+      <c r="L11" s="58">
+        <v>16962.356229045428</v>
+      </c>
+      <c r="M11" s="58">
+        <v>23846.50440357843</v>
+      </c>
+      <c r="N11" s="17">
+        <v>300</v>
+      </c>
+      <c r="O11" s="13">
+        <v>100</v>
+      </c>
+      <c r="P11" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q11" s="28">
         <v>0.78723404255319196</v>
       </c>
-      <c r="R11" s="23">
+      <c r="R11" s="22">
         <v>2.73049645390071E-2</v>
       </c>
-      <c r="S11" s="24">
+      <c r="S11" s="23">
         <v>3.5785953177257502E-3</v>
       </c>
-      <c r="T11" s="24">
+      <c r="T11" s="23">
         <v>4.4680851063829798E-3</v>
       </c>
-      <c r="U11" s="24">
+      <c r="U11" s="23">
         <v>3.7792642140468198E-3</v>
       </c>
-      <c r="V11" s="24">
+      <c r="V11" s="23">
         <v>4.6601941747572801E-3</v>
       </c>
-      <c r="W11" s="24">
+      <c r="W11" s="23">
         <v>3.6454849498327802E-3</v>
       </c>
       <c r="X11" s="4">
@@ -6414,42 +6730,51 @@
       <c r="Y11" s="4">
         <v>0.45900000000000002</v>
       </c>
-      <c r="Z11" s="38">
+      <c r="Z11" s="37">
         <v>1.89206349206349</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="J12" s="65">
+    <row r="12" spans="1:29">
+      <c r="J12" s="60">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="N12" s="18">
-        <v>300</v>
-      </c>
-      <c r="O12" s="14">
-        <v>100</v>
-      </c>
-      <c r="P12" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q12" s="29">
+      <c r="K12" s="58">
+        <v>7340.5971295835625</v>
+      </c>
+      <c r="L12" s="58">
+        <v>16216.77146069357</v>
+      </c>
+      <c r="M12" s="58">
+        <v>22970.120819910448</v>
+      </c>
+      <c r="N12" s="17">
+        <v>300</v>
+      </c>
+      <c r="O12" s="13">
+        <v>100</v>
+      </c>
+      <c r="P12" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q12" s="28">
         <v>0.70567375886524797</v>
       </c>
-      <c r="R12" s="23">
+      <c r="R12" s="22">
         <v>3.0496453900709201E-2</v>
       </c>
-      <c r="S12" s="24">
+      <c r="S12" s="23">
         <v>4.0133779264214103E-3</v>
       </c>
-      <c r="T12" s="24">
+      <c r="T12" s="23">
         <v>5.1063829787233997E-3</v>
       </c>
-      <c r="U12" s="24">
+      <c r="U12" s="23">
         <v>4.2809364548495E-3</v>
       </c>
-      <c r="V12" s="24">
+      <c r="V12" s="23">
         <v>5.2427184466019398E-3</v>
       </c>
-      <c r="W12" s="24">
+      <c r="W12" s="23">
         <v>4.0802675585284304E-3</v>
       </c>
       <c r="X12" s="4">
@@ -6458,24 +6783,33 @@
       <c r="Y12" s="4">
         <v>0.44400000000000001</v>
       </c>
-      <c r="Z12" s="38">
+      <c r="Z12" s="37">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="N13" s="18">
-        <v>300</v>
-      </c>
-      <c r="O13" s="14">
-        <v>100</v>
-      </c>
-      <c r="P13" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q13" s="29">
+    <row r="13" spans="1:29">
+      <c r="K13" s="58">
+        <v>7201.1257841214756</v>
+      </c>
+      <c r="L13" s="58">
+        <v>15473.952802940392</v>
+      </c>
+      <c r="M13" s="58">
+        <v>22098.988524332148</v>
+      </c>
+      <c r="N13" s="17">
+        <v>300</v>
+      </c>
+      <c r="O13" s="13">
+        <v>100</v>
+      </c>
+      <c r="P13" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q13" s="28">
         <v>0.62411347517730498</v>
       </c>
-      <c r="R13" s="23">
+      <c r="R13" s="22">
         <v>3.2269503546099303E-2</v>
       </c>
       <c r="X13" s="4">
@@ -6485,20 +6819,29 @@
         <v>0.42399999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="N14" s="18">
-        <v>300</v>
-      </c>
-      <c r="O14" s="14">
-        <v>100</v>
-      </c>
-      <c r="P14" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q14" s="29">
+    <row r="14" spans="1:29">
+      <c r="K14" s="58">
+        <v>7064.304394223167</v>
+      </c>
+      <c r="L14" s="58">
+        <v>14853.847699684524</v>
+      </c>
+      <c r="M14" s="58">
+        <v>21353.007742369839</v>
+      </c>
+      <c r="N14" s="17">
+        <v>300</v>
+      </c>
+      <c r="O14" s="13">
+        <v>100</v>
+      </c>
+      <c r="P14" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q14" s="28">
         <v>0.46099290780141799</v>
       </c>
-      <c r="R14" s="23">
+      <c r="R14" s="22">
         <v>3.5106382978723399E-2</v>
       </c>
       <c r="X14" s="4">
@@ -6508,20 +6851,29 @@
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="N15" s="18">
-        <v>300</v>
-      </c>
-      <c r="O15" s="14">
-        <v>100</v>
-      </c>
-      <c r="P15" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q15" s="29">
+    <row r="15" spans="1:29">
+      <c r="K15" s="58">
+        <v>6930.0826107329258</v>
+      </c>
+      <c r="L15" s="58">
+        <v>14386.404593390516</v>
+      </c>
+      <c r="M15" s="58">
+        <v>20762.080595264808</v>
+      </c>
+      <c r="N15" s="17">
+        <v>300</v>
+      </c>
+      <c r="O15" s="13">
+        <v>100</v>
+      </c>
+      <c r="P15" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q15" s="28">
         <v>0.28723404255319201</v>
       </c>
-      <c r="R15" s="23">
+      <c r="R15" s="22">
         <v>3.7411347517730502E-2</v>
       </c>
       <c r="X15" s="4">
@@ -6531,20 +6883,29 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="N16" s="18">
-        <v>300</v>
-      </c>
-      <c r="O16" s="14">
-        <v>100</v>
-      </c>
-      <c r="P16" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q16" s="29">
+    <row r="16" spans="1:29">
+      <c r="K16" s="58">
+        <v>6798.4110411290003</v>
+      </c>
+      <c r="L16" s="58">
+        <v>13891.572906116096</v>
+      </c>
+      <c r="M16" s="58">
+        <v>20146.111063954777</v>
+      </c>
+      <c r="N16" s="17">
+        <v>300</v>
+      </c>
+      <c r="O16" s="13">
+        <v>100</v>
+      </c>
+      <c r="P16" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q16" s="28">
         <v>0.184397163120567</v>
       </c>
-      <c r="R16" s="23">
+      <c r="R16" s="22">
         <v>3.9716312056737597E-2</v>
       </c>
       <c r="X16" s="4">
@@ -6554,20 +6915,29 @@
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="17" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N17" s="18">
-        <v>300</v>
-      </c>
-      <c r="O17" s="14">
-        <v>100</v>
-      </c>
-      <c r="P17" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q17" s="29">
+    <row r="17" spans="11:25">
+      <c r="K17" s="58">
+        <v>6669.2412313475497</v>
+      </c>
+      <c r="L17" s="58">
+        <v>13519.30302089989</v>
+      </c>
+      <c r="M17" s="58">
+        <v>19655.004953739637</v>
+      </c>
+      <c r="N17" s="17">
+        <v>300</v>
+      </c>
+      <c r="O17" s="13">
+        <v>100</v>
+      </c>
+      <c r="P17" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q17" s="28">
         <v>8.5106382978723402E-2</v>
       </c>
-      <c r="R17" s="23">
+      <c r="R17" s="22">
         <v>4.3262411347517703E-2</v>
       </c>
       <c r="X17" s="4">
@@ -6577,20 +6947,29 @@
         <v>0.379</v>
       </c>
     </row>
-    <row r="18" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N18" s="18">
-        <v>300</v>
-      </c>
-      <c r="O18" s="14">
-        <v>100</v>
-      </c>
-      <c r="P18" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q18" s="29">
+    <row r="18" spans="11:25">
+      <c r="K18" s="58">
+        <v>6542.5256479519448</v>
+      </c>
+      <c r="L18" s="58">
+        <v>13329.546263502791</v>
+      </c>
+      <c r="M18" s="58">
+        <v>19348.669859618582</v>
+      </c>
+      <c r="N18" s="17">
+        <v>300</v>
+      </c>
+      <c r="O18" s="13">
+        <v>100</v>
+      </c>
+      <c r="P18" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q18" s="28">
         <v>4.2553191489361701E-2</v>
       </c>
-      <c r="R18" s="23">
+      <c r="R18" s="22">
         <v>4.4858156028368797E-2</v>
       </c>
       <c r="X18" s="4">
@@ -6600,20 +6979,29 @@
         <v>0.379</v>
       </c>
     </row>
-    <row r="19" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N19" s="18">
-        <v>300</v>
-      </c>
-      <c r="O19" s="14">
-        <v>100</v>
-      </c>
-      <c r="P19" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q19" s="29">
+    <row r="19" spans="11:25">
+      <c r="K19" s="58">
+        <v>6418.2176606408584</v>
+      </c>
+      <c r="L19" s="58">
+        <v>13172.25488449624</v>
+      </c>
+      <c r="M19" s="58">
+        <v>19077.015132285829</v>
+      </c>
+      <c r="N19" s="17">
+        <v>300</v>
+      </c>
+      <c r="O19" s="13">
+        <v>100</v>
+      </c>
+      <c r="P19" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q19" s="28">
         <v>2.1276595744680899E-2</v>
       </c>
-      <c r="R19" s="23">
+      <c r="R19" s="22">
         <v>4.6808510638297898E-2</v>
       </c>
       <c r="X19" s="4">
@@ -6623,20 +7011,29 @@
         <v>0.372</v>
       </c>
     </row>
-    <row r="20" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N20" s="18">
-        <v>300</v>
-      </c>
-      <c r="O20" s="14">
-        <v>100</v>
-      </c>
-      <c r="P20" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q20" s="29">
+    <row r="20" spans="11:25">
+      <c r="K20" s="58">
+        <v>6296.2715250886813</v>
+      </c>
+      <c r="L20" s="58">
+        <v>12897.382041690809</v>
+      </c>
+      <c r="M20" s="58">
+        <v>18689.951844772393</v>
+      </c>
+      <c r="N20" s="17">
+        <v>300</v>
+      </c>
+      <c r="O20" s="13">
+        <v>100</v>
+      </c>
+      <c r="P20" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q20" s="28">
         <v>3.54609929078014E-3</v>
       </c>
-      <c r="R20" s="23">
+      <c r="R20" s="22">
         <v>4.8936170212766E-2</v>
       </c>
       <c r="X20" s="4">
@@ -6646,20 +7043,29 @@
         <v>0.371</v>
       </c>
     </row>
-    <row r="21" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N21" s="18">
-        <v>300</v>
-      </c>
-      <c r="O21" s="14">
-        <v>100</v>
-      </c>
-      <c r="P21" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q21" s="29">
+    <row r="21" spans="11:25">
+      <c r="K21" s="58">
+        <v>6176.6423661119961</v>
+      </c>
+      <c r="L21" s="58">
+        <v>12684.881782898685</v>
+      </c>
+      <c r="M21" s="58">
+        <v>18367.392759721723</v>
+      </c>
+      <c r="N21" s="17">
+        <v>300</v>
+      </c>
+      <c r="O21" s="13">
+        <v>100</v>
+      </c>
+      <c r="P21" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q21" s="28">
         <v>0</v>
       </c>
-      <c r="R21" s="23">
+      <c r="R21" s="22">
         <v>0.05</v>
       </c>
       <c r="X21" s="4">
@@ -6669,20 +7075,29 @@
         <v>0.36699999999999999</v>
       </c>
     </row>
-    <row r="22" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N22" s="18">
-        <v>300</v>
-      </c>
-      <c r="O22" s="14">
-        <v>100</v>
-      </c>
-      <c r="P22" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q22" s="29">
+    <row r="22" spans="11:25">
+      <c r="K22" s="58">
+        <v>6059.2861611558683</v>
+      </c>
+      <c r="L22" s="58">
+        <v>12534.709029023608</v>
+      </c>
+      <c r="M22" s="58">
+        <v>18109.252297287007</v>
+      </c>
+      <c r="N22" s="17">
+        <v>300</v>
+      </c>
+      <c r="O22" s="13">
+        <v>100</v>
+      </c>
+      <c r="P22" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q22" s="28">
         <v>0</v>
       </c>
-      <c r="R22" s="23">
+      <c r="R22" s="22">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="X22" s="4">
@@ -6692,14 +7107,23 @@
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="23" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N23" s="18">
-        <v>300</v>
-      </c>
-      <c r="O23" s="14">
-        <v>100</v>
-      </c>
-      <c r="P23" s="14">
+    <row r="23" spans="11:25">
+      <c r="K23" s="58">
+        <v>5944.1597240939063</v>
+      </c>
+      <c r="L23" s="58">
+        <v>12386.819557472161</v>
+      </c>
+      <c r="M23" s="58">
+        <v>17855.446503638555</v>
+      </c>
+      <c r="N23" s="17">
+        <v>300</v>
+      </c>
+      <c r="O23" s="13">
+        <v>100</v>
+      </c>
+      <c r="P23" s="13">
         <v>400</v>
       </c>
       <c r="X23" s="4">
@@ -6709,14 +7133,23 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="24" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N24" s="18">
-        <v>300</v>
-      </c>
-      <c r="O24" s="14">
-        <v>100</v>
-      </c>
-      <c r="P24" s="14">
+    <row r="24" spans="11:25">
+      <c r="K24" s="58">
+        <v>5831.2206893361217</v>
+      </c>
+      <c r="L24" s="58">
+        <v>12241.169985880188</v>
+      </c>
+      <c r="M24" s="58">
+        <v>17605.893020069419</v>
+      </c>
+      <c r="N24" s="17">
+        <v>300</v>
+      </c>
+      <c r="O24" s="13">
+        <v>100</v>
+      </c>
+      <c r="P24" s="13">
         <v>400</v>
       </c>
       <c r="X24" s="4">
@@ -6726,14 +7159,23 @@
         <v>0.36099999999999999</v>
       </c>
     </row>
-    <row r="25" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N25" s="18">
-        <v>300</v>
-      </c>
-      <c r="O25" s="14">
-        <v>100</v>
-      </c>
-      <c r="P25" s="14">
+    <row r="25" spans="11:25">
+      <c r="K25" s="58">
+        <v>5720.4274962387353</v>
+      </c>
+      <c r="L25" s="58">
+        <v>12097.717756148464</v>
+      </c>
+      <c r="M25" s="58">
+        <v>17360.5110526881</v>
+      </c>
+      <c r="N25" s="17">
+        <v>300</v>
+      </c>
+      <c r="O25" s="13">
+        <v>100</v>
+      </c>
+      <c r="P25" s="13">
         <v>400</v>
       </c>
       <c r="X25" s="4">
@@ -6743,14 +7185,23 @@
         <v>0.35899999999999999</v>
       </c>
     </row>
-    <row r="26" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N26" s="18">
-        <v>300</v>
-      </c>
-      <c r="O26" s="14">
-        <v>100</v>
-      </c>
-      <c r="P26" s="14">
+    <row r="26" spans="11:25">
+      <c r="K26" s="58">
+        <v>5611.7393738102</v>
+      </c>
+      <c r="L26" s="58">
+        <v>11926.421118781644</v>
+      </c>
+      <c r="M26" s="58">
+        <v>17089.221342687029</v>
+      </c>
+      <c r="N26" s="17">
+        <v>300</v>
+      </c>
+      <c r="O26" s="13">
+        <v>100</v>
+      </c>
+      <c r="P26" s="13">
         <v>400</v>
       </c>
       <c r="X26" s="4">
@@ -6760,14 +7211,23 @@
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="27" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N27" s="18">
-        <v>300</v>
-      </c>
-      <c r="O27" s="14">
-        <v>100</v>
-      </c>
-      <c r="P27" s="14">
+    <row r="27" spans="11:25">
+      <c r="K27" s="58">
+        <v>5505.1163257078051</v>
+      </c>
+      <c r="L27" s="58">
+        <v>11757.239117524792</v>
+      </c>
+      <c r="M27" s="58">
+        <v>16821.946137175975</v>
+      </c>
+      <c r="N27" s="17">
+        <v>300</v>
+      </c>
+      <c r="O27" s="13">
+        <v>100</v>
+      </c>
+      <c r="P27" s="13">
         <v>400</v>
       </c>
       <c r="X27" s="4">
@@ -6777,14 +7237,23 @@
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="28" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N28" s="18">
-        <v>300</v>
-      </c>
-      <c r="O28" s="14">
-        <v>100</v>
-      </c>
-      <c r="P28" s="14">
+    <row r="28" spans="11:25">
+      <c r="K28" s="58">
+        <v>5400.5191155193561</v>
+      </c>
+      <c r="L28" s="58">
+        <v>11560.131574291821</v>
+      </c>
+      <c r="M28" s="58">
+        <v>16528.609160569627</v>
+      </c>
+      <c r="N28" s="17">
+        <v>300</v>
+      </c>
+      <c r="O28" s="13">
+        <v>100</v>
+      </c>
+      <c r="P28" s="13">
         <v>400</v>
       </c>
       <c r="X28" s="4">
@@ -6794,14 +7263,23 @@
         <v>0.35299999999999998</v>
       </c>
     </row>
-    <row r="29" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N29" s="18">
-        <v>300</v>
-      </c>
-      <c r="O29" s="14">
-        <v>100</v>
-      </c>
-      <c r="P29" s="14">
+    <row r="29" spans="11:25">
+      <c r="K29" s="58">
+        <v>5297.909252324489</v>
+      </c>
+      <c r="L29" s="58">
+        <v>11425.059074380277</v>
+      </c>
+      <c r="M29" s="58">
+        <v>16299.135586518807</v>
+      </c>
+      <c r="N29" s="17">
+        <v>300</v>
+      </c>
+      <c r="O29" s="13">
+        <v>100</v>
+      </c>
+      <c r="P29" s="13">
         <v>400</v>
       </c>
       <c r="X29" s="4">
@@ -6811,14 +7289,23 @@
         <v>0.35099999999999998</v>
       </c>
     </row>
-    <row r="30" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N30" s="18">
-        <v>300</v>
-      </c>
-      <c r="O30" s="14">
-        <v>100</v>
-      </c>
-      <c r="P30" s="14">
+    <row r="30" spans="11:25">
+      <c r="K30" s="58">
+        <v>5197.2489765303226</v>
+      </c>
+      <c r="L30" s="58">
+        <v>11291.982951967049</v>
+      </c>
+      <c r="M30" s="58">
+        <v>16073.452010374946</v>
+      </c>
+      <c r="N30" s="17">
+        <v>300</v>
+      </c>
+      <c r="O30" s="13">
+        <v>100</v>
+      </c>
+      <c r="P30" s="13">
         <v>400</v>
       </c>
       <c r="X30" s="4">
@@ -6828,14 +7315,23 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="31" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N31" s="18">
-        <v>300</v>
-      </c>
-      <c r="O31" s="14">
-        <v>100</v>
-      </c>
-      <c r="P31" s="14">
+    <row r="31" spans="11:25">
+      <c r="K31" s="58">
+        <v>5098.5012459762474</v>
+      </c>
+      <c r="L31" s="58">
+        <v>11130.865275879678</v>
+      </c>
+      <c r="M31" s="58">
+        <v>15821.486422177826</v>
+      </c>
+      <c r="N31" s="17">
+        <v>300</v>
+      </c>
+      <c r="O31" s="13">
+        <v>100</v>
+      </c>
+      <c r="P31" s="13">
         <v>400</v>
       </c>
       <c r="X31" s="4">
@@ -6845,14 +7341,23 @@
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="32" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N32" s="18">
-        <v>300</v>
-      </c>
-      <c r="O32" s="14">
-        <v>100</v>
-      </c>
-      <c r="P32" s="14">
+    <row r="32" spans="11:25">
+      <c r="K32" s="58">
+        <v>5001.6297223026977</v>
+      </c>
+      <c r="L32" s="58">
+        <v>10941.668835637964</v>
+      </c>
+      <c r="M32" s="58">
+        <v>15543.168180156445</v>
+      </c>
+      <c r="N32" s="17">
+        <v>300</v>
+      </c>
+      <c r="O32" s="13">
+        <v>100</v>
+      </c>
+      <c r="P32" s="13">
         <v>400</v>
       </c>
       <c r="X32" s="4">
@@ -6862,14 +7367,23 @@
         <v>0.34599999999999997</v>
       </c>
     </row>
-    <row r="33" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N33" s="18">
-        <v>300</v>
-      </c>
-      <c r="O33" s="14">
-        <v>100</v>
-      </c>
-      <c r="P33" s="14">
+    <row r="33" spans="11:25">
+      <c r="K33" s="58">
+        <v>4906.5987575789477</v>
+      </c>
+      <c r="L33" s="58">
+        <v>10784.357127760843</v>
+      </c>
+      <c r="M33" s="58">
+        <v>15298.427984733475</v>
+      </c>
+      <c r="N33" s="17">
+        <v>300</v>
+      </c>
+      <c r="O33" s="13">
+        <v>100</v>
+      </c>
+      <c r="P33" s="13">
         <v>400</v>
       </c>
       <c r="X33" s="4">
@@ -6879,14 +7393,23 @@
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="34" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N34" s="18">
-        <v>300</v>
-      </c>
-      <c r="O34" s="14">
-        <v>100</v>
-      </c>
-      <c r="P34" s="14">
+    <row r="34" spans="11:25">
+      <c r="K34" s="58">
+        <v>4813.373381184947</v>
+      </c>
+      <c r="L34" s="58">
+        <v>10658.894342333386</v>
+      </c>
+      <c r="M34" s="58">
+        <v>15087.197853023537</v>
+      </c>
+      <c r="N34" s="17">
+        <v>300</v>
+      </c>
+      <c r="O34" s="13">
+        <v>100</v>
+      </c>
+      <c r="P34" s="13">
         <v>400</v>
       </c>
       <c r="X34" s="4">
@@ -6896,14 +7419,23 @@
         <v>0.34200000000000003</v>
       </c>
     </row>
-    <row r="35" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N35" s="18">
-        <v>300</v>
-      </c>
-      <c r="O35" s="14">
-        <v>100</v>
-      </c>
-      <c r="P35" s="14">
+    <row r="35" spans="11:25">
+      <c r="K35" s="58">
+        <v>4721.9192869424332</v>
+      </c>
+      <c r="L35" s="58">
+        <v>10535.245349829052</v>
+      </c>
+      <c r="M35" s="58">
+        <v>14879.41109381609</v>
+      </c>
+      <c r="N35" s="17">
+        <v>300</v>
+      </c>
+      <c r="O35" s="13">
+        <v>100</v>
+      </c>
+      <c r="P35" s="13">
         <v>400</v>
       </c>
       <c r="X35" s="4">
@@ -6913,14 +7445,23 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="36" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N36" s="18">
-        <v>300</v>
-      </c>
-      <c r="O36" s="14">
-        <v>100</v>
-      </c>
-      <c r="P36" s="14">
+    <row r="36" spans="11:25">
+      <c r="K36" s="58">
+        <v>4632.2028204905273</v>
+      </c>
+      <c r="L36" s="58">
+        <v>10413.375688182299</v>
+      </c>
+      <c r="M36" s="58">
+        <v>14675.002283033584</v>
+      </c>
+      <c r="N36" s="17">
+        <v>300</v>
+      </c>
+      <c r="O36" s="13">
+        <v>100</v>
+      </c>
+      <c r="P36" s="13">
         <v>400</v>
       </c>
       <c r="X36" s="4">
@@ -6930,14 +7471,23 @@
         <v>0.33900000000000002</v>
       </c>
     </row>
-    <row r="37" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N37" s="18">
-        <v>300</v>
-      </c>
-      <c r="O37" s="14">
-        <v>100</v>
-      </c>
-      <c r="P37" s="14">
+    <row r="37" spans="11:25">
+      <c r="K37" s="58">
+        <v>4544.1909669012066</v>
+      </c>
+      <c r="L37" s="58">
+        <v>10293.251550106836</v>
+      </c>
+      <c r="M37" s="58">
+        <v>14473.907239655946</v>
+      </c>
+      <c r="N37" s="17">
+        <v>300</v>
+      </c>
+      <c r="O37" s="13">
+        <v>100</v>
+      </c>
+      <c r="P37" s="13">
         <v>400</v>
       </c>
       <c r="X37" s="4">
@@ -6947,19 +7497,20 @@
         <v>0.33800000000000002</v>
       </c>
     </row>
-    <row r="38" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N38" s="18">
-        <v>300</v>
-      </c>
-      <c r="O38" s="14">
-        <v>100</v>
-      </c>
-      <c r="P38" s="14">
+    <row r="38" spans="11:25">
+      <c r="N38" s="17">
+        <v>300</v>
+      </c>
+      <c r="O38" s="13">
+        <v>100</v>
+      </c>
+      <c r="P38" s="13">
         <v>400</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -6971,259 +7522,396 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.625" customWidth="1"/>
-    <col min="12" max="12" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
     <col min="14" max="14" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="37" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="66" t="s">
+    <row r="1" spans="1:17" s="36" customFormat="1" ht="60">
+      <c r="B1" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="K1" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="M1" s="67" t="s">
-        <v>158</v>
-      </c>
-      <c r="N1" s="67" t="s">
-        <v>159</v>
-      </c>
-      <c r="O1" s="68" t="s">
+      <c r="M1" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="N1" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="O1" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="68" t="s">
+      <c r="P1" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="R1" s="68" t="s">
+      <c r="Q1" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="S1" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="T1" s="58" t="s">
-        <v>157</v>
-      </c>
-      <c r="U1" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="V1" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="W1" s="58" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3" s="33">
+    </row>
+    <row r="2" spans="1:17" s="65" customFormat="1">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36">
         <v>0</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C2" s="36">
         <v>0</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D2" s="69">
         <v>1</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E2" s="69">
         <v>1</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F2" s="69">
         <v>1</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G2" s="69">
         <v>1</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H2" s="69">
         <v>1</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I2" s="69">
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="J2" s="72">
+        <v>1</v>
+      </c>
+      <c r="K2" s="28">
+        <v>1</v>
+      </c>
+      <c r="L2" s="36">
         <v>0.5</v>
       </c>
-      <c r="K3" s="8">
+      <c r="M2" s="66">
         <v>0.01</v>
       </c>
-      <c r="L3" s="14">
-        <v>1000</v>
-      </c>
-      <c r="M3" s="9">
+      <c r="N2" s="66">
         <v>0.01</v>
       </c>
-      <c r="N3" s="9">
+      <c r="O2" s="68">
+        <v>1</v>
+      </c>
+      <c r="P2" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="Q2" s="68">
         <v>0.01</v>
       </c>
-      <c r="O3" s="9">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="B3">
+        <v>5000</v>
+      </c>
+      <c r="C3">
+        <v>20000</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3" s="66">
+        <v>1</v>
+      </c>
+      <c r="K3" s="29">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.05</v>
+      </c>
+      <c r="N3">
+        <v>0.05</v>
+      </c>
+      <c r="O3" s="69">
         <v>5</v>
       </c>
-      <c r="P3" s="51">
+      <c r="P3" s="67">
         <v>0.5</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="Q3" s="76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="B4" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C4" s="13">
+        <v>40000</v>
+      </c>
+      <c r="D4">
         <v>20</v>
       </c>
-      <c r="R3" s="9">
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4" s="73">
+        <v>1</v>
+      </c>
+      <c r="K4" s="30">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="O4">
         <v>10</v>
       </c>
-      <c r="S3" s="9">
-        <v>10</v>
-      </c>
-      <c r="T3" s="13">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="U3" s="9">
-        <v>2</v>
-      </c>
-      <c r="V3" s="9">
-        <v>1</v>
-      </c>
-      <c r="W3" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="T4" s="13"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P4" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="Q4" s="70">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="J5" s="73">
+        <v>0.98936170212765995</v>
+      </c>
+      <c r="K5" s="28">
+        <v>1</v>
+      </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="J6" s="72">
+        <v>0.97163120567375905</v>
+      </c>
+      <c r="K6" s="29">
+        <v>1</v>
+      </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L7" s="1"/>
+    <row r="7" spans="1:17">
+      <c r="J7" s="72">
+        <v>0.95390070921985803</v>
+      </c>
+      <c r="K7" s="30">
+        <v>1</v>
+      </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="L8" s="8"/>
+      <c r="J8" s="72">
+        <v>0.91843971631205701</v>
+      </c>
+      <c r="K8" s="28">
+        <v>1</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="61" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="J9" s="72">
+        <v>0.879432624113475</v>
+      </c>
+      <c r="K9" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="72">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="K10" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="64"/>
+      <c r="J11" s="72">
+        <v>0.78723404255319196</v>
+      </c>
+      <c r="K11" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="J12" s="72">
+        <v>0.70567375886524797</v>
+      </c>
+      <c r="K12" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="s">
-        <v>169</v>
+        <v>164</v>
+      </c>
+      <c r="J13" s="72">
+        <v>0.62411347517730498</v>
+      </c>
+      <c r="K13" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="J14" s="72">
+        <v>0.46099290780141799</v>
+      </c>
+      <c r="K14" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="72">
+        <v>0.28723404255319201</v>
+      </c>
+      <c r="K15" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="72">
+        <v>0.184397163120567</v>
+      </c>
+      <c r="K16" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11">
+      <c r="J17" s="72">
+        <v>8.5106382978723402E-2</v>
+      </c>
+      <c r="K17" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11">
+      <c r="J18" s="72">
+        <v>4.2553191489361701E-2</v>
+      </c>
+      <c r="K18" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11">
+      <c r="J19" s="72">
+        <v>2.1276595744680899E-2</v>
+      </c>
+      <c r="K19" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="10:11">
+      <c r="J20" s="72">
+        <v>3.54609929078014E-3</v>
+      </c>
+      <c r="K20" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="10:11">
+      <c r="J21" s="72">
+        <v>0</v>
+      </c>
+      <c r="K21" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="10:11">
+      <c r="J22" s="72">
+        <v>0</v>
+      </c>
+      <c r="K22" s="30">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7240,16 +7928,16 @@
       <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:150" s="5" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:150" s="5" customFormat="1" ht="64" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -7701,9 +8389,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:150" x14ac:dyDescent="0.25">
-      <c r="T7" s="37" t="s">
-        <v>164</v>
+    <row r="7" spans="1:150">
+      <c r="T7" s="36" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -7719,40 +8407,52 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="58">
+        <v>6211.2916123429659</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="58">
+        <v>7007.1402678343975</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B4">
+        <v>6000</v>
+      </c>
+      <c r="C4" t="s">
         <v>171</v>
-      </c>
-      <c r="B2" s="62">
-        <v>6211.2916123429659</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" s="62">
-        <v>7007.1402678343975</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Model/Data/import.xlsx
+++ b/Model/Data/import.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26260" windowHeight="15700" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26260" windowHeight="15700" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LA" sheetId="1" r:id="rId1"/>
@@ -2173,7 +2173,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -2338,7 +2338,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="105">
+  <cellStyleXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2429,6 +2429,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2495,15 +2497,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2612,7 +2614,7 @@
       <alignment horizontal="left" indent="4"/>
     </xf>
   </cellXfs>
-  <cellStyles count="105">
+  <cellStyles count="107">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2715,6 +2717,8 @@
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="89" builtinId="5"/>
@@ -3056,7 +3060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -7524,8 +7528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7642,25 +7646,25 @@
         <v>5000</v>
       </c>
       <c r="C3">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J3" s="66">
         <v>1</v>
@@ -7692,25 +7696,25 @@
         <v>10000</v>
       </c>
       <c r="C4" s="13">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J4" s="73">
         <v>1</v>

--- a/Model/Data/import.xlsx
+++ b/Model/Data/import.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26260" windowHeight="15700" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LA" sheetId="1" r:id="rId1"/>
@@ -1378,6 +1378,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="G2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Laws:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+4kW system production from Kamau reference.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="N2" authorId="0">
       <text>
         <r>
@@ -1649,7 +1673,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="173">
   <si>
     <t>population growth rate</t>
   </si>
@@ -2165,6 +2189,9 @@
   </si>
   <si>
     <t>(estimated)</t>
+  </si>
+  <si>
+    <t>use 1.25*5700?</t>
   </si>
 </sst>
 </file>
@@ -2447,7 +2474,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2613,6 +2640,7 @@
     <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="107">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3061,7 +3089,7 @@
   <dimension ref="A1:AA38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4575,7 +4603,7 @@
   <dimension ref="A1:AA38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4703,8 +4731,8 @@
       <c r="H2" s="34">
         <v>0.1246</v>
       </c>
-      <c r="I2" s="10">
-        <v>0.10100000000000001</v>
+      <c r="I2" s="77">
+        <v>6.2300000000000001E-2</v>
       </c>
       <c r="J2" s="23">
         <v>8.0000000000000002E-3</v>
@@ -6088,8 +6116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6190,7 +6218,7 @@
       <c r="F2">
         <v>7000</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="54">
         <v>5694</v>
       </c>
       <c r="H2" s="22">
@@ -6312,6 +6340,9 @@
       </c>
     </row>
     <row r="4" spans="1:29">
+      <c r="G4" t="s">
+        <v>172</v>
+      </c>
       <c r="J4" s="60">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -6365,6 +6396,10 @@
       </c>
     </row>
     <row r="5" spans="1:29">
+      <c r="G5">
+        <f>1.25*5700</f>
+        <v>7125</v>
+      </c>
       <c r="J5" s="60">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -7528,7 +7563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
